--- a/volatility/src/xls/07_USDCAD.xlsx
+++ b/volatility/src/xls/07_USDCAD.xlsx
@@ -501,7 +501,7 @@
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -525,10 +525,10 @@
         <v>1000</v>
       </c>
       <c r="C2" s="2">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="2">
-        <v>80.900000000000006</v>
+        <v>81.099999999999994</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="24" customHeight="1">
@@ -558,22 +558,22 @@
       </c>
       <c r="C6" s="5">
         <f>ROUND(B2*10000*(100/D2)*(1/B6)/100*C2,0)</f>
-        <v>14336</v>
+        <v>35751</v>
       </c>
       <c r="E6" s="5">
-        <v>112.9</v>
+        <v>134.1</v>
       </c>
       <c r="G6" s="5">
         <f>(E6+B9)/100</f>
-        <v>1.135</v>
+        <v>1.347</v>
       </c>
       <c r="H6" s="5">
         <f>G6+(B8/100)</f>
-        <v>1.1519999999999999</v>
+        <v>1.3639999999999999</v>
       </c>
       <c r="I6" s="5">
         <f>G6-(B8/100)</f>
-        <v>1.1180000000000001</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="24" customHeight="1">
@@ -603,15 +603,15 @@
       <c r="F10" s="7"/>
       <c r="G10" s="5">
         <f>(E6-B9)/100</f>
-        <v>1.1230000000000002</v>
+        <v>1.335</v>
       </c>
       <c r="H10" s="5">
         <f>G10-(B8/100)</f>
-        <v>1.1060000000000003</v>
+        <v>1.3180000000000001</v>
       </c>
       <c r="I10" s="5">
         <f>G10+(B8/100)</f>
-        <v>1.1400000000000001</v>
+        <v>1.3519999999999999</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="24" customHeight="1">
@@ -620,7 +620,6 @@
       <c r="G11" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="B1:C7">
     <sortCondition ref="B1:B7"/>
   </sortState>

--- a/volatility/src/xls/07_USDCAD.xlsx
+++ b/volatility/src/xls/07_USDCAD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="-80" windowWidth="23520" windowHeight="21140" tabRatio="742"/>
+    <workbookView xWindow="100" yWindow="-80" windowWidth="23520" windowHeight="21140" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="7" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -528,7 +528,7 @@
         <v>0.5</v>
       </c>
       <c r="D2" s="2">
-        <v>81.099999999999994</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="24" customHeight="1">
@@ -558,22 +558,22 @@
       </c>
       <c r="C6" s="5">
         <f>ROUND(B2*10000*(100/D2)*(1/B6)/100*C2,0)</f>
-        <v>35751</v>
+        <v>35619</v>
       </c>
       <c r="E6" s="5">
-        <v>134.1</v>
+        <v>132.1</v>
       </c>
       <c r="G6" s="5">
         <f>(E6+B9)/100</f>
-        <v>1.347</v>
+        <v>1.327</v>
       </c>
       <c r="H6" s="5">
         <f>G6+(B8/100)</f>
-        <v>1.3639999999999999</v>
+        <v>1.3439999999999999</v>
       </c>
       <c r="I6" s="5">
         <f>G6-(B8/100)</f>
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="24" customHeight="1">
@@ -603,15 +603,15 @@
       <c r="F10" s="7"/>
       <c r="G10" s="5">
         <f>(E6-B9)/100</f>
-        <v>1.335</v>
+        <v>1.3149999999999999</v>
       </c>
       <c r="H10" s="5">
         <f>G10-(B8/100)</f>
-        <v>1.3180000000000001</v>
+        <v>1.298</v>
       </c>
       <c r="I10" s="5">
         <f>G10+(B8/100)</f>
-        <v>1.3519999999999999</v>
+        <v>1.3319999999999999</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="24" customHeight="1">
@@ -620,11 +620,13 @@
       <c r="G11" s="7"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="B1:C7">
     <sortCondition ref="B1:B7"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -638,7 +640,7 @@
   <dimension ref="A1:J200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="9.83203125" defaultRowHeight="21" customHeight="1"/>
@@ -667,7 +669,7 @@
       </c>
       <c r="H1">
         <f>ABS(D2-E2)*100</f>
-        <v>1.7220000000000013</v>
+        <v>2.8129999999999988</v>
       </c>
       <c r="J1">
         <f>MEDIAN(H1:H52)</f>
@@ -679,23 +681,23 @@
         <v>7</v>
       </c>
       <c r="B2" s="8">
-        <v>42164</v>
+        <v>42171</v>
       </c>
       <c r="C2">
-        <v>1.3252299999999999</v>
+        <v>1.3407100000000001</v>
       </c>
       <c r="D2">
-        <v>1.34219</v>
+        <v>1.3431599999999999</v>
       </c>
       <c r="E2">
-        <v>1.32497</v>
+        <v>1.3150299999999999</v>
       </c>
       <c r="F2">
-        <v>1.3411200000000001</v>
+        <v>1.32159</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H65" si="0">ABS(D3-E3)*100</f>
-        <v>2.6399999999999979</v>
+        <v>1.7220000000000013</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
@@ -703,23 +705,23 @@
         <v>7</v>
       </c>
       <c r="B3" s="8">
-        <v>42157</v>
+        <v>42164</v>
       </c>
       <c r="C3">
-        <v>1.35145</v>
+        <v>1.3252299999999999</v>
       </c>
       <c r="D3">
-        <v>1.3525499999999999</v>
+        <v>1.34219</v>
       </c>
       <c r="E3">
-        <v>1.3261499999999999</v>
+        <v>1.32497</v>
       </c>
       <c r="F3">
-        <v>1.3280799999999999</v>
+        <v>1.3411200000000001</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>1.3539999999999885</v>
+        <v>2.6399999999999979</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
@@ -727,23 +729,23 @@
         <v>7</v>
       </c>
       <c r="B4" s="8">
-        <v>42150</v>
+        <v>42157</v>
       </c>
       <c r="C4">
-        <v>1.34378</v>
+        <v>1.35145</v>
       </c>
       <c r="D4">
-        <v>1.35642</v>
+        <v>1.3525499999999999</v>
       </c>
       <c r="E4">
-        <v>1.3428800000000001</v>
+        <v>1.3261499999999999</v>
       </c>
       <c r="F4">
-        <v>1.3516900000000001</v>
+        <v>1.3280799999999999</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>1.4580000000000037</v>
+        <v>1.3539999999999885</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1">
@@ -751,23 +753,23 @@
         <v>7</v>
       </c>
       <c r="B5" s="8">
-        <v>42143</v>
+        <v>42150</v>
       </c>
       <c r="C5">
-        <v>1.3444499999999999</v>
+        <v>1.34378</v>
       </c>
       <c r="D5">
-        <v>1.35016</v>
+        <v>1.35642</v>
       </c>
       <c r="E5">
-        <v>1.33558</v>
+        <v>1.3428800000000001</v>
       </c>
       <c r="F5">
-        <v>1.34382</v>
+        <v>1.3516900000000001</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>1.1260000000000048</v>
+        <v>1.4580000000000037</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
@@ -775,23 +777,23 @@
         <v>7</v>
       </c>
       <c r="B6" s="8">
-        <v>42136</v>
+        <v>42143</v>
       </c>
       <c r="C6">
-        <v>1.3413299999999999</v>
+        <v>1.3444499999999999</v>
       </c>
       <c r="D6">
-        <v>1.35127</v>
+        <v>1.35016</v>
       </c>
       <c r="E6">
-        <v>1.3400099999999999</v>
+        <v>1.33558</v>
       </c>
       <c r="F6">
-        <v>1.3465199999999999</v>
+        <v>1.34382</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>1.2499999999999956</v>
+        <v>1.1260000000000048</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
@@ -799,23 +801,23 @@
         <v>7</v>
       </c>
       <c r="B7" s="8">
-        <v>42129</v>
+        <v>42136</v>
       </c>
       <c r="C7">
-        <v>1.34518</v>
+        <v>1.3413299999999999</v>
       </c>
       <c r="D7">
-        <v>1.35046</v>
+        <v>1.35127</v>
       </c>
       <c r="E7">
-        <v>1.33796</v>
+        <v>1.3400099999999999</v>
       </c>
       <c r="F7">
-        <v>1.3420700000000001</v>
+        <v>1.3465199999999999</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>1.1330000000000062</v>
+        <v>1.2499999999999956</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
@@ -823,23 +825,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="8">
-        <v>42122</v>
+        <v>42129</v>
       </c>
       <c r="C8">
-        <v>1.3457300000000001</v>
+        <v>1.34518</v>
       </c>
       <c r="D8">
-        <v>1.34897</v>
+        <v>1.35046</v>
       </c>
       <c r="E8">
-        <v>1.3376399999999999</v>
+        <v>1.33796</v>
       </c>
       <c r="F8">
-        <v>1.3428100000000001</v>
+        <v>1.3420700000000001</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>1.863999999999999</v>
+        <v>1.1330000000000062</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
@@ -847,23 +849,23 @@
         <v>7</v>
       </c>
       <c r="B9" s="8">
-        <v>42115</v>
+        <v>42122</v>
       </c>
       <c r="C9">
-        <v>1.3384400000000001</v>
+        <v>1.3457300000000001</v>
       </c>
       <c r="D9">
-        <v>1.3521000000000001</v>
+        <v>1.34897</v>
       </c>
       <c r="E9">
-        <v>1.3334600000000001</v>
+        <v>1.3376399999999999</v>
       </c>
       <c r="F9">
-        <v>1.34623</v>
+        <v>1.3428100000000001</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>1.2850000000000028</v>
+        <v>1.863999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
@@ -871,23 +873,23 @@
         <v>7</v>
       </c>
       <c r="B10" s="8">
-        <v>42108</v>
+        <v>42115</v>
       </c>
       <c r="C10">
-        <v>1.33307</v>
+        <v>1.3384400000000001</v>
       </c>
       <c r="D10">
-        <v>1.34022</v>
+        <v>1.3521000000000001</v>
       </c>
       <c r="E10">
-        <v>1.3273699999999999</v>
+        <v>1.3334600000000001</v>
       </c>
       <c r="F10">
-        <v>1.33839</v>
+        <v>1.34623</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>1.1179999999999968</v>
+        <v>1.2850000000000028</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
@@ -895,23 +897,23 @@
         <v>7</v>
       </c>
       <c r="B11" s="8">
-        <v>42101</v>
+        <v>42108</v>
       </c>
       <c r="C11">
-        <v>1.33822</v>
+        <v>1.33307</v>
       </c>
       <c r="D11">
-        <v>1.33951</v>
+        <v>1.34022</v>
       </c>
       <c r="E11">
-        <v>1.32833</v>
+        <v>1.3273699999999999</v>
       </c>
       <c r="F11">
-        <v>1.33317</v>
+        <v>1.33839</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>1.0690000000000088</v>
+        <v>1.1179999999999968</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
@@ -919,23 +921,23 @@
         <v>7</v>
       </c>
       <c r="B12" s="8">
-        <v>42094</v>
+        <v>42101</v>
       </c>
       <c r="C12">
-        <v>1.33466</v>
+        <v>1.33822</v>
       </c>
       <c r="D12">
-        <v>1.34023</v>
+        <v>1.33951</v>
       </c>
       <c r="E12">
-        <v>1.3295399999999999</v>
+        <v>1.32833</v>
       </c>
       <c r="F12">
-        <v>1.3384100000000001</v>
+        <v>1.33317</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>1.0930000000000106</v>
+        <v>1.0690000000000088</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
@@ -943,23 +945,23 @@
         <v>7</v>
       </c>
       <c r="B13" s="8">
-        <v>42087</v>
+        <v>42094</v>
       </c>
       <c r="C13">
-        <v>1.34216</v>
+        <v>1.33466</v>
       </c>
       <c r="D13">
-        <v>1.34501</v>
+        <v>1.34023</v>
       </c>
       <c r="E13">
-        <v>1.3340799999999999</v>
+        <v>1.3295399999999999</v>
       </c>
       <c r="F13">
-        <v>1.3355999999999999</v>
+        <v>1.3384100000000001</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>1.7879999999999896</v>
+        <v>1.0930000000000106</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
@@ -967,23 +969,23 @@
         <v>7</v>
       </c>
       <c r="B14" s="8">
-        <v>42080</v>
+        <v>42087</v>
       </c>
       <c r="C14">
-        <v>1.33321</v>
+        <v>1.34216</v>
       </c>
       <c r="D14">
-        <v>1.3428599999999999</v>
+        <v>1.34501</v>
       </c>
       <c r="E14">
-        <v>1.32498</v>
+        <v>1.3340799999999999</v>
       </c>
       <c r="F14">
-        <v>1.34273</v>
+        <v>1.3355999999999999</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>1.5249999999999986</v>
+        <v>1.7879999999999896</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
@@ -991,23 +993,23 @@
         <v>7</v>
       </c>
       <c r="B15" s="8">
-        <v>42073</v>
+        <v>42080</v>
       </c>
       <c r="C15">
-        <v>1.3413200000000001</v>
+        <v>1.33321</v>
       </c>
       <c r="D15">
-        <v>1.34389</v>
+        <v>1.3428599999999999</v>
       </c>
       <c r="E15">
-        <v>1.32864</v>
+        <v>1.32498</v>
       </c>
       <c r="F15">
-        <v>1.3348899999999999</v>
+        <v>1.34273</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>1.9569999999999865</v>
+        <v>1.5249999999999986</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1">
@@ -1015,23 +1017,23 @@
         <v>7</v>
       </c>
       <c r="B16" s="8">
-        <v>42066</v>
+        <v>42073</v>
       </c>
       <c r="C16">
-        <v>1.32718</v>
+        <v>1.3413200000000001</v>
       </c>
       <c r="D16">
-        <v>1.3466899999999999</v>
+        <v>1.34389</v>
       </c>
       <c r="E16">
-        <v>1.3271200000000001</v>
+        <v>1.32864</v>
       </c>
       <c r="F16">
-        <v>1.3410299999999999</v>
+        <v>1.3348899999999999</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>1.9340000000000135</v>
+        <v>1.9569999999999865</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21" customHeight="1">
@@ -1039,23 +1041,23 @@
         <v>7</v>
       </c>
       <c r="B17" s="8">
-        <v>42059</v>
+        <v>42066</v>
       </c>
       <c r="C17">
-        <v>1.3130999999999999</v>
+        <v>1.32718</v>
       </c>
       <c r="D17">
-        <v>1.3305400000000001</v>
+        <v>1.3466899999999999</v>
       </c>
       <c r="E17">
-        <v>1.3111999999999999</v>
+        <v>1.3271200000000001</v>
       </c>
       <c r="F17">
-        <v>1.32951</v>
+        <v>1.3410299999999999</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>1.4739999999999975</v>
+        <v>1.9340000000000135</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21" customHeight="1">
@@ -1063,23 +1065,23 @@
         <v>7</v>
       </c>
       <c r="B18" s="8">
-        <v>42052</v>
+        <v>42059</v>
       </c>
       <c r="C18">
-        <v>1.3250500000000001</v>
+        <v>1.3130999999999999</v>
       </c>
       <c r="D18">
-        <v>1.32806</v>
+        <v>1.3305400000000001</v>
       </c>
       <c r="E18">
-        <v>1.31332</v>
+        <v>1.3111999999999999</v>
       </c>
       <c r="F18">
-        <v>1.31453</v>
+        <v>1.32951</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>1.4410000000000034</v>
+        <v>1.4739999999999975</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21" customHeight="1">
@@ -1087,23 +1089,23 @@
         <v>7</v>
       </c>
       <c r="B19" s="8">
-        <v>42045</v>
+        <v>42052</v>
       </c>
       <c r="C19">
-        <v>1.3266500000000001</v>
+        <v>1.3250500000000001</v>
       </c>
       <c r="D19">
-        <v>1.33396</v>
+        <v>1.32806</v>
       </c>
       <c r="E19">
-        <v>1.31955</v>
+        <v>1.31332</v>
       </c>
       <c r="F19">
-        <v>1.32494</v>
+        <v>1.31453</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>2.4809999999999999</v>
+        <v>1.4410000000000034</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21" customHeight="1">
@@ -1111,23 +1113,23 @@
         <v>7</v>
       </c>
       <c r="B20" s="8">
-        <v>42038</v>
+        <v>42045</v>
       </c>
       <c r="C20">
-        <v>1.30891</v>
+        <v>1.3266500000000001</v>
       </c>
       <c r="D20">
-        <v>1.33283</v>
+        <v>1.33396</v>
       </c>
       <c r="E20">
-        <v>1.30802</v>
+        <v>1.31955</v>
       </c>
       <c r="F20">
-        <v>1.32687</v>
+        <v>1.32494</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>2.1730000000000027</v>
+        <v>2.4809999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" customHeight="1">
@@ -1135,23 +1137,23 @@
         <v>7</v>
       </c>
       <c r="B21" s="8">
-        <v>42031</v>
+        <v>42038</v>
       </c>
       <c r="C21">
-        <v>1.3216000000000001</v>
+        <v>1.30891</v>
       </c>
       <c r="D21">
-        <v>1.3285199999999999</v>
+        <v>1.33283</v>
       </c>
       <c r="E21">
-        <v>1.3067899999999999</v>
+        <v>1.30802</v>
       </c>
       <c r="F21">
-        <v>1.3088599999999999</v>
+        <v>1.32687</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>1.5700000000000047</v>
+        <v>2.1730000000000027</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" customHeight="1">
@@ -1159,23 +1161,23 @@
         <v>7</v>
       </c>
       <c r="B22" s="8">
-        <v>42024</v>
+        <v>42031</v>
       </c>
       <c r="C22">
-        <v>1.32623</v>
+        <v>1.3216000000000001</v>
       </c>
       <c r="D22">
-        <v>1.33744</v>
+        <v>1.3285199999999999</v>
       </c>
       <c r="E22">
-        <v>1.3217399999999999</v>
+        <v>1.3067899999999999</v>
       </c>
       <c r="F22">
-        <v>1.3219700000000001</v>
+        <v>1.3088599999999999</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>0.9279999999999955</v>
+        <v>1.5700000000000047</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" customHeight="1">
@@ -1183,23 +1185,23 @@
         <v>7</v>
       </c>
       <c r="B23" s="8">
-        <v>42017</v>
+        <v>42024</v>
       </c>
       <c r="C23">
-        <v>1.32579</v>
+        <v>1.32623</v>
       </c>
       <c r="D23">
-        <v>1.33182</v>
+        <v>1.33744</v>
       </c>
       <c r="E23">
-        <v>1.32254</v>
+        <v>1.3217399999999999</v>
       </c>
       <c r="F23">
-        <v>1.3270900000000001</v>
+        <v>1.3219700000000001</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>2.0830000000000126</v>
+        <v>0.9279999999999955</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" customHeight="1">
@@ -1207,23 +1209,23 @@
         <v>7</v>
       </c>
       <c r="B24" s="8">
-        <v>42010</v>
+        <v>42017</v>
       </c>
       <c r="C24">
-        <v>1.3375699999999999</v>
+        <v>1.32579</v>
       </c>
       <c r="D24">
-        <v>1.3387800000000001</v>
+        <v>1.33182</v>
       </c>
       <c r="E24">
-        <v>1.31795</v>
+        <v>1.32254</v>
       </c>
       <c r="F24">
-        <v>1.3263199999999999</v>
+        <v>1.3270900000000001</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>2.8410000000000046</v>
+        <v>2.0830000000000126</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" customHeight="1">
@@ -1231,23 +1233,23 @@
         <v>7</v>
       </c>
       <c r="B25" s="8">
-        <v>42003</v>
+        <v>42010</v>
       </c>
       <c r="C25">
-        <v>1.3634500000000001</v>
+        <v>1.3375699999999999</v>
       </c>
       <c r="D25">
-        <v>1.36643</v>
+        <v>1.3387800000000001</v>
       </c>
       <c r="E25">
-        <v>1.33802</v>
+        <v>1.31795</v>
       </c>
       <c r="F25">
-        <v>1.33815</v>
+        <v>1.3263199999999999</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>0.96399999999998709</v>
+        <v>2.8410000000000046</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21" customHeight="1">
@@ -1255,23 +1257,23 @@
         <v>7</v>
       </c>
       <c r="B26" s="8">
-        <v>41996</v>
+        <v>42003</v>
       </c>
       <c r="C26">
-        <v>1.3592500000000001</v>
+        <v>1.3634500000000001</v>
       </c>
       <c r="D26">
-        <v>1.3660699999999999</v>
+        <v>1.36643</v>
       </c>
       <c r="E26">
-        <v>1.35643</v>
+        <v>1.33802</v>
       </c>
       <c r="F26">
-        <v>1.3644700000000001</v>
+        <v>1.33815</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>2.2789999999999866</v>
+        <v>0.96399999999998709</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" customHeight="1">
@@ -1279,23 +1281,23 @@
         <v>7</v>
       </c>
       <c r="B27" s="8">
-        <v>41989</v>
+        <v>41996</v>
       </c>
       <c r="C27">
-        <v>1.3378699999999999</v>
+        <v>1.3592500000000001</v>
       </c>
       <c r="D27">
-        <v>1.3599699999999999</v>
+        <v>1.3660699999999999</v>
       </c>
       <c r="E27">
-        <v>1.33718</v>
+        <v>1.35643</v>
       </c>
       <c r="F27">
-        <v>1.3598699999999999</v>
+        <v>1.3644700000000001</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>1.3129999999999864</v>
+        <v>2.2789999999999866</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1">
@@ -1303,23 +1305,23 @@
         <v>7</v>
       </c>
       <c r="B28" s="8">
-        <v>41982</v>
+        <v>41989</v>
       </c>
       <c r="C28">
-        <v>1.33307</v>
+        <v>1.3378699999999999</v>
       </c>
       <c r="D28">
-        <v>1.3423499999999999</v>
+        <v>1.3599699999999999</v>
       </c>
       <c r="E28">
-        <v>1.3292200000000001</v>
+        <v>1.33718</v>
       </c>
       <c r="F28">
-        <v>1.3388100000000001</v>
+        <v>1.3598699999999999</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>2.845999999999993</v>
+        <v>1.3129999999999864</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1">
@@ -1327,23 +1329,23 @@
         <v>7</v>
       </c>
       <c r="B29" s="8">
-        <v>41975</v>
+        <v>41982</v>
       </c>
       <c r="C29">
-        <v>1.32325</v>
+        <v>1.33307</v>
       </c>
       <c r="D29">
-        <v>1.34439</v>
+        <v>1.3423499999999999</v>
       </c>
       <c r="E29">
-        <v>1.31593</v>
+        <v>1.3292200000000001</v>
       </c>
       <c r="F29">
-        <v>1.33182</v>
+        <v>1.3388100000000001</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>1.7270000000000119</v>
+        <v>2.845999999999993</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21" customHeight="1">
@@ -1351,23 +1353,23 @@
         <v>7</v>
       </c>
       <c r="B30" s="8">
-        <v>41968</v>
+        <v>41975</v>
       </c>
       <c r="C30">
-        <v>1.32195</v>
+        <v>1.32325</v>
       </c>
       <c r="D30">
-        <v>1.3359000000000001</v>
+        <v>1.34439</v>
       </c>
       <c r="E30">
-        <v>1.31863</v>
+        <v>1.31593</v>
       </c>
       <c r="F30">
-        <v>1.3292600000000001</v>
+        <v>1.33182</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>1.7669999999999852</v>
+        <v>1.7270000000000119</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21" customHeight="1">
@@ -1375,23 +1377,23 @@
         <v>7</v>
       </c>
       <c r="B31" s="8">
-        <v>41961</v>
+        <v>41968</v>
       </c>
       <c r="C31">
-        <v>1.3151600000000001</v>
+        <v>1.32195</v>
       </c>
       <c r="D31">
-        <v>1.3317399999999999</v>
+        <v>1.3359000000000001</v>
       </c>
       <c r="E31">
-        <v>1.3140700000000001</v>
+        <v>1.31863</v>
       </c>
       <c r="F31">
-        <v>1.32287</v>
+        <v>1.3292600000000001</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>1.3680000000000136</v>
+        <v>1.7669999999999852</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21" customHeight="1">
@@ -1399,23 +1401,23 @@
         <v>7</v>
       </c>
       <c r="B32" s="8">
-        <v>41954</v>
+        <v>41961</v>
       </c>
       <c r="C32">
-        <v>1.31993</v>
+        <v>1.3151600000000001</v>
       </c>
       <c r="D32">
-        <v>1.3263</v>
+        <v>1.3317399999999999</v>
       </c>
       <c r="E32">
-        <v>1.3126199999999999</v>
+        <v>1.3140700000000001</v>
       </c>
       <c r="F32">
-        <v>1.31515</v>
+        <v>1.32287</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>1.7709999999999892</v>
+        <v>1.3680000000000136</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21" customHeight="1">
@@ -1423,23 +1425,23 @@
         <v>7</v>
       </c>
       <c r="B33" s="8">
-        <v>41947</v>
+        <v>41954</v>
       </c>
       <c r="C33">
-        <v>1.3088599999999999</v>
+        <v>1.31993</v>
       </c>
       <c r="D33">
-        <v>1.32324</v>
+        <v>1.3263</v>
       </c>
       <c r="E33">
-        <v>1.3055300000000001</v>
+        <v>1.3126199999999999</v>
       </c>
       <c r="F33">
-        <v>1.31952</v>
+        <v>1.31515</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>1.2149999999999883</v>
+        <v>1.7709999999999892</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21" customHeight="1">
@@ -1447,23 +1449,23 @@
         <v>7</v>
       </c>
       <c r="B34" s="8">
-        <v>41940</v>
+        <v>41947</v>
       </c>
       <c r="C34">
-        <v>1.3093900000000001</v>
+        <v>1.3088599999999999</v>
       </c>
       <c r="D34">
-        <v>1.3169299999999999</v>
+        <v>1.32324</v>
       </c>
       <c r="E34">
-        <v>1.3047800000000001</v>
+        <v>1.3055300000000001</v>
       </c>
       <c r="F34">
-        <v>1.31</v>
+        <v>1.31952</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>1.898999999999984</v>
+        <v>1.2149999999999883</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21" customHeight="1">
@@ -1471,23 +1473,23 @@
         <v>7</v>
       </c>
       <c r="B35" s="8">
-        <v>41933</v>
+        <v>41940</v>
       </c>
       <c r="C35">
-        <v>1.31019</v>
+        <v>1.3093900000000001</v>
       </c>
       <c r="D35">
-        <v>1.3158799999999999</v>
+        <v>1.3169299999999999</v>
       </c>
       <c r="E35">
-        <v>1.2968900000000001</v>
+        <v>1.3047800000000001</v>
       </c>
       <c r="F35">
-        <v>1.3091600000000001</v>
+        <v>1.31</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>2.1600000000000064</v>
+        <v>1.898999999999984</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21" customHeight="1">
@@ -1495,23 +1497,23 @@
         <v>7</v>
       </c>
       <c r="B36" s="8">
-        <v>41926</v>
+        <v>41933</v>
       </c>
       <c r="C36">
-        <v>1.30192</v>
+        <v>1.31019</v>
       </c>
       <c r="D36">
-        <v>1.3131600000000001</v>
+        <v>1.3158799999999999</v>
       </c>
       <c r="E36">
-        <v>1.29156</v>
+        <v>1.2968900000000001</v>
       </c>
       <c r="F36">
-        <v>1.3109200000000001</v>
+        <v>1.3091600000000001</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>1.4469999999999983</v>
+        <v>2.1600000000000064</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21" customHeight="1">
@@ -1519,23 +1521,23 @@
         <v>7</v>
       </c>
       <c r="B37" s="8">
-        <v>41919</v>
+        <v>41926</v>
       </c>
       <c r="C37">
-        <v>1.29409</v>
+        <v>1.30192</v>
       </c>
       <c r="D37">
-        <v>1.3070900000000001</v>
+        <v>1.3131600000000001</v>
       </c>
       <c r="E37">
-        <v>1.2926200000000001</v>
+        <v>1.29156</v>
       </c>
       <c r="F37">
-        <v>1.30298</v>
+        <v>1.3109200000000001</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
-        <v>1.7290000000000028</v>
+        <v>1.4469999999999983</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21" customHeight="1">
@@ -1543,23 +1545,23 @@
         <v>7</v>
       </c>
       <c r="B38" s="8">
-        <v>41912</v>
+        <v>41919</v>
       </c>
       <c r="C38">
-        <v>1.28511</v>
+        <v>1.29409</v>
       </c>
       <c r="D38">
-        <v>1.29545</v>
+        <v>1.3070900000000001</v>
       </c>
       <c r="E38">
-        <v>1.27816</v>
+        <v>1.2926200000000001</v>
       </c>
       <c r="F38">
-        <v>1.2949200000000001</v>
+        <v>1.30298</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>1.7309999999999937</v>
+        <v>1.7290000000000028</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21" customHeight="1">
@@ -1567,23 +1569,23 @@
         <v>7</v>
       </c>
       <c r="B39" s="8">
-        <v>41905</v>
+        <v>41912</v>
       </c>
       <c r="C39">
-        <v>1.2918400000000001</v>
+        <v>1.28511</v>
       </c>
       <c r="D39">
-        <v>1.30813</v>
+        <v>1.29545</v>
       </c>
       <c r="E39">
-        <v>1.2908200000000001</v>
+        <v>1.27816</v>
       </c>
       <c r="F39">
-        <v>1.29233</v>
+        <v>1.2949200000000001</v>
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
-        <v>1.802999999999999</v>
+        <v>1.7309999999999937</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21" customHeight="1">
@@ -1591,23 +1593,23 @@
         <v>7</v>
       </c>
       <c r="B40" s="8">
-        <v>41898</v>
+        <v>41905</v>
       </c>
       <c r="C40">
-        <v>1.3036099999999999</v>
+        <v>1.2918400000000001</v>
       </c>
       <c r="D40">
-        <v>1.3063899999999999</v>
+        <v>1.30813</v>
       </c>
       <c r="E40">
-        <v>1.2883599999999999</v>
+        <v>1.2908200000000001</v>
       </c>
       <c r="F40">
-        <v>1.2916300000000001</v>
+        <v>1.29233</v>
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
-        <v>2.2190000000000154</v>
+        <v>1.802999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21" customHeight="1">
@@ -1615,23 +1617,23 @@
         <v>7</v>
       </c>
       <c r="B41" s="8">
-        <v>41891</v>
+        <v>41898</v>
       </c>
       <c r="C41">
-        <v>1.31691</v>
+        <v>1.3036099999999999</v>
       </c>
       <c r="D41">
-        <v>1.3197300000000001</v>
+        <v>1.3063899999999999</v>
       </c>
       <c r="E41">
-        <v>1.2975399999999999</v>
+        <v>1.2883599999999999</v>
       </c>
       <c r="F41">
-        <v>1.30314</v>
+        <v>1.2916300000000001</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
-        <v>1.8140000000000045</v>
+        <v>2.2190000000000154</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21" customHeight="1">
@@ -1639,23 +1641,23 @@
         <v>7</v>
       </c>
       <c r="B42" s="8">
-        <v>41884</v>
+        <v>41891</v>
       </c>
       <c r="C42">
-        <v>1.3060499999999999</v>
+        <v>1.31691</v>
       </c>
       <c r="D42">
-        <v>1.32256</v>
+        <v>1.3197300000000001</v>
       </c>
       <c r="E42">
-        <v>1.3044199999999999</v>
+        <v>1.2975399999999999</v>
       </c>
       <c r="F42">
-        <v>1.31748</v>
+        <v>1.30314</v>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
-        <v>2.010999999999985</v>
+        <v>1.8140000000000045</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21" customHeight="1">
@@ -1663,23 +1665,23 @@
         <v>7</v>
       </c>
       <c r="B43" s="8">
-        <v>41877</v>
+        <v>41884</v>
       </c>
       <c r="C43">
-        <v>1.3010999999999999</v>
+        <v>1.3060499999999999</v>
       </c>
       <c r="D43">
-        <v>1.3087899999999999</v>
+        <v>1.32256</v>
       </c>
       <c r="E43">
-        <v>1.28868</v>
+        <v>1.3044199999999999</v>
       </c>
       <c r="F43">
-        <v>1.3043800000000001</v>
+        <v>1.31748</v>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
-        <v>1.1639999999999873</v>
+        <v>2.010999999999985</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21" customHeight="1">
@@ -1687,23 +1689,23 @@
         <v>7</v>
       </c>
       <c r="B44" s="8">
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="C44">
-        <v>1.3054399999999999</v>
+        <v>1.3010999999999999</v>
       </c>
       <c r="D44">
-        <v>1.31026</v>
+        <v>1.3087899999999999</v>
       </c>
       <c r="E44">
-        <v>1.2986200000000001</v>
+        <v>1.28868</v>
       </c>
       <c r="F44">
-        <v>1.30338</v>
+        <v>1.3043800000000001</v>
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
-        <v>1.2390000000000123</v>
+        <v>1.1639999999999873</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21" customHeight="1">
@@ -1711,23 +1713,23 @@
         <v>7</v>
       </c>
       <c r="B45" s="8">
-        <v>41863</v>
+        <v>41870</v>
       </c>
       <c r="C45">
-        <v>1.3150200000000001</v>
+        <v>1.3054399999999999</v>
       </c>
       <c r="D45">
-        <v>1.3173900000000001</v>
+        <v>1.31026</v>
       </c>
       <c r="E45">
-        <v>1.3049999999999999</v>
+        <v>1.2986200000000001</v>
       </c>
       <c r="F45">
-        <v>1.30596</v>
+        <v>1.30338</v>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
-        <v>1.910999999999996</v>
+        <v>1.2390000000000123</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21" customHeight="1">
@@ -1735,23 +1737,23 @@
         <v>7</v>
       </c>
       <c r="B46" s="8">
-        <v>41856</v>
+        <v>41863</v>
       </c>
       <c r="C46">
-        <v>1.2988999999999999</v>
+        <v>1.3150200000000001</v>
       </c>
       <c r="D46">
-        <v>1.3152699999999999</v>
+        <v>1.3173900000000001</v>
       </c>
       <c r="E46">
-        <v>1.29616</v>
+        <v>1.3049999999999999</v>
       </c>
       <c r="F46">
-        <v>1.3124499999999999</v>
+        <v>1.30596</v>
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
-        <v>1.2830000000000119</v>
+        <v>1.910999999999996</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21" customHeight="1">
@@ -1759,23 +1761,23 @@
         <v>7</v>
       </c>
       <c r="B47" s="8">
-        <v>41849</v>
+        <v>41856</v>
       </c>
       <c r="C47">
-        <v>1.3055600000000001</v>
+        <v>1.2988999999999999</v>
       </c>
       <c r="D47">
-        <v>1.3095600000000001</v>
+        <v>1.3152699999999999</v>
       </c>
       <c r="E47">
-        <v>1.2967299999999999</v>
+        <v>1.29616</v>
       </c>
       <c r="F47">
-        <v>1.2991699999999999</v>
+        <v>1.3124499999999999</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
-        <v>1.6680000000000028</v>
+        <v>1.2830000000000119</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21" customHeight="1">
@@ -1783,23 +1785,23 @@
         <v>7</v>
       </c>
       <c r="B48" s="8">
-        <v>41842</v>
+        <v>41849</v>
       </c>
       <c r="C48">
-        <v>1.3135399999999999</v>
+        <v>1.3055600000000001</v>
       </c>
       <c r="D48">
-        <v>1.31908</v>
+        <v>1.3095600000000001</v>
       </c>
       <c r="E48">
-        <v>1.3024</v>
+        <v>1.2967299999999999</v>
       </c>
       <c r="F48">
-        <v>1.3061100000000001</v>
+        <v>1.2991699999999999</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
-        <v>1.798999999999995</v>
+        <v>1.6680000000000028</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="21" customHeight="1">
@@ -1807,23 +1809,23 @@
         <v>7</v>
       </c>
       <c r="B49" s="8">
-        <v>41835</v>
+        <v>41842</v>
       </c>
       <c r="C49">
-        <v>1.31551</v>
+        <v>1.3135399999999999</v>
       </c>
       <c r="D49">
-        <v>1.3289</v>
+        <v>1.31908</v>
       </c>
       <c r="E49">
-        <v>1.31091</v>
+        <v>1.3024</v>
       </c>
       <c r="F49">
-        <v>1.3124400000000001</v>
+        <v>1.3061100000000001</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
-        <v>1.5390000000000015</v>
+        <v>1.798999999999995</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="21" customHeight="1">
@@ -1831,23 +1833,23 @@
         <v>7</v>
       </c>
       <c r="B50" s="8">
-        <v>41828</v>
+        <v>41835</v>
       </c>
       <c r="C50">
-        <v>1.30908</v>
+        <v>1.31551</v>
       </c>
       <c r="D50">
-        <v>1.32176</v>
+        <v>1.3289</v>
       </c>
       <c r="E50">
-        <v>1.30637</v>
+        <v>1.31091</v>
       </c>
       <c r="F50">
-        <v>1.3157000000000001</v>
+        <v>1.3124400000000001</v>
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>1.4929999999999888</v>
+        <v>1.5390000000000015</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="21" customHeight="1">
@@ -1855,23 +1857,23 @@
         <v>7</v>
       </c>
       <c r="B51" s="8">
-        <v>41821</v>
+        <v>41828</v>
       </c>
       <c r="C51">
-        <v>1.3152200000000001</v>
+        <v>1.30908</v>
       </c>
       <c r="D51">
-        <v>1.32253</v>
+        <v>1.32176</v>
       </c>
       <c r="E51">
-        <v>1.3076000000000001</v>
+        <v>1.30637</v>
       </c>
       <c r="F51">
-        <v>1.3102400000000001</v>
+        <v>1.3157000000000001</v>
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>2.5539999999999896</v>
+        <v>1.4929999999999888</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="21" customHeight="1">
@@ -1879,23 +1881,23 @@
         <v>7</v>
       </c>
       <c r="B52" s="8">
-        <v>41814</v>
+        <v>41821</v>
       </c>
       <c r="C52">
-        <v>1.3264100000000001</v>
+        <v>1.3152200000000001</v>
       </c>
       <c r="D52">
-        <v>1.3385499999999999</v>
+        <v>1.32253</v>
       </c>
       <c r="E52">
-        <v>1.31301</v>
+        <v>1.3076000000000001</v>
       </c>
       <c r="F52">
-        <v>1.31321</v>
+        <v>1.3102400000000001</v>
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
-        <v>2.2270000000000012</v>
+        <v>2.5539999999999896</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="21" customHeight="1">
@@ -1903,23 +1905,23 @@
         <v>7</v>
       </c>
       <c r="B53" s="8">
-        <v>41807</v>
+        <v>41814</v>
       </c>
       <c r="C53">
-        <v>1.3188200000000001</v>
+        <v>1.3264100000000001</v>
       </c>
       <c r="D53">
-        <v>1.3381400000000001</v>
+        <v>1.3385499999999999</v>
       </c>
       <c r="E53">
-        <v>1.3158700000000001</v>
+        <v>1.31301</v>
       </c>
       <c r="F53">
-        <v>1.3272600000000001</v>
+        <v>1.31321</v>
       </c>
       <c r="H53">
         <f t="shared" si="0"/>
-        <v>2.5170000000000137</v>
+        <v>2.2270000000000012</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="21" customHeight="1">
@@ -1927,23 +1929,23 @@
         <v>7</v>
       </c>
       <c r="B54" s="8">
-        <v>41800</v>
+        <v>41807</v>
       </c>
       <c r="C54">
-        <v>1.2974399999999999</v>
+        <v>1.3188200000000001</v>
       </c>
       <c r="D54">
-        <v>1.32003</v>
+        <v>1.3381400000000001</v>
       </c>
       <c r="E54">
-        <v>1.2948599999999999</v>
+        <v>1.3158700000000001</v>
       </c>
       <c r="F54">
-        <v>1.31958</v>
+        <v>1.3272600000000001</v>
       </c>
       <c r="H54">
         <f t="shared" si="0"/>
-        <v>2.0939999999999959</v>
+        <v>2.5170000000000137</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="21" customHeight="1">
@@ -1951,23 +1953,23 @@
         <v>7</v>
       </c>
       <c r="B55" s="8">
-        <v>41793</v>
+        <v>41800</v>
       </c>
       <c r="C55">
+        <v>1.2974399999999999</v>
+      </c>
+      <c r="D55">
+        <v>1.32003</v>
+      </c>
+      <c r="E55">
         <v>1.2948599999999999</v>
       </c>
-      <c r="D55">
-        <v>1.30661</v>
-      </c>
-      <c r="E55">
-        <v>1.2856700000000001</v>
-      </c>
       <c r="F55">
-        <v>1.2923800000000001</v>
+        <v>1.31958</v>
       </c>
       <c r="H55">
         <f t="shared" si="0"/>
-        <v>2.2850000000000037</v>
+        <v>2.0939999999999959</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="21" customHeight="1">
@@ -1975,23 +1977,23 @@
         <v>7</v>
       </c>
       <c r="B56" s="8">
-        <v>41786</v>
+        <v>41793</v>
       </c>
       <c r="C56">
-        <v>1.2965</v>
+        <v>1.2948599999999999</v>
       </c>
       <c r="D56">
-        <v>1.30463</v>
+        <v>1.30661</v>
       </c>
       <c r="E56">
-        <v>1.2817799999999999</v>
+        <v>1.2856700000000001</v>
       </c>
       <c r="F56">
-        <v>1.2967599999999999</v>
+        <v>1.2923800000000001</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>2.4579999999999824</v>
+        <v>2.2850000000000037</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="21" customHeight="1">
@@ -1999,23 +2001,23 @@
         <v>7</v>
       </c>
       <c r="B57" s="8">
-        <v>41779</v>
+        <v>41786</v>
       </c>
       <c r="C57">
-        <v>1.2871699999999999</v>
+        <v>1.2965</v>
       </c>
       <c r="D57">
-        <v>1.2987599999999999</v>
+        <v>1.30463</v>
       </c>
       <c r="E57">
-        <v>1.2741800000000001</v>
+        <v>1.2817799999999999</v>
       </c>
       <c r="F57">
-        <v>1.2972699999999999</v>
+        <v>1.2967599999999999</v>
       </c>
       <c r="H57">
         <f t="shared" si="0"/>
-        <v>1.7500000000000071</v>
+        <v>2.4579999999999824</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="21" customHeight="1">
@@ -2023,23 +2025,23 @@
         <v>7</v>
       </c>
       <c r="B58" s="8">
-        <v>41772</v>
+        <v>41779</v>
       </c>
       <c r="C58">
-        <v>1.2786500000000001</v>
+        <v>1.2871699999999999</v>
       </c>
       <c r="D58">
-        <v>1.29237</v>
+        <v>1.2987599999999999</v>
       </c>
       <c r="E58">
-        <v>1.2748699999999999</v>
+        <v>1.2741800000000001</v>
       </c>
       <c r="F58">
-        <v>1.2877000000000001</v>
+        <v>1.2972699999999999</v>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>2.6819999999999844</v>
+        <v>1.7500000000000071</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="21" customHeight="1">
@@ -2047,23 +2049,23 @@
         <v>7</v>
       </c>
       <c r="B59" s="8">
-        <v>41765</v>
+        <v>41772</v>
       </c>
       <c r="C59">
-        <v>1.2846900000000001</v>
+        <v>1.2786500000000001</v>
       </c>
       <c r="D59">
-        <v>1.2996799999999999</v>
+        <v>1.29237</v>
       </c>
       <c r="E59">
-        <v>1.2728600000000001</v>
+        <v>1.2748699999999999</v>
       </c>
       <c r="F59">
-        <v>1.2787599999999999</v>
+        <v>1.2877000000000001</v>
       </c>
       <c r="H59">
         <f t="shared" si="0"/>
-        <v>1.1419999999999986</v>
+        <v>2.6819999999999844</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="21" customHeight="1">
@@ -2071,23 +2073,23 @@
         <v>7</v>
       </c>
       <c r="B60" s="8">
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="C60">
-        <v>1.2833699999999999</v>
+        <v>1.2846900000000001</v>
       </c>
       <c r="D60">
-        <v>1.2916799999999999</v>
+        <v>1.2996799999999999</v>
       </c>
       <c r="E60">
-        <v>1.28026</v>
+        <v>1.2728600000000001</v>
       </c>
       <c r="F60">
-        <v>1.28555</v>
+        <v>1.2787599999999999</v>
       </c>
       <c r="H60">
         <f t="shared" si="0"/>
-        <v>1.4960000000000084</v>
+        <v>1.1419999999999986</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="21" customHeight="1">
@@ -2095,23 +2097,23 @@
         <v>7</v>
       </c>
       <c r="B61" s="8">
-        <v>41751</v>
+        <v>41758</v>
       </c>
       <c r="C61">
-        <v>1.27556</v>
+        <v>1.2833699999999999</v>
       </c>
       <c r="D61">
-        <v>1.28996</v>
+        <v>1.2916799999999999</v>
       </c>
       <c r="E61">
-        <v>1.2749999999999999</v>
+        <v>1.28026</v>
       </c>
       <c r="F61">
-        <v>1.2837799999999999</v>
+        <v>1.28555</v>
       </c>
       <c r="H61">
         <f t="shared" si="0"/>
-        <v>2.2909999999999986</v>
+        <v>1.4960000000000084</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="21" customHeight="1">
@@ -2119,23 +2121,23 @@
         <v>7</v>
       </c>
       <c r="B62" s="8">
-        <v>41744</v>
+        <v>41751</v>
       </c>
       <c r="C62">
-        <v>1.2589300000000001</v>
+        <v>1.27556</v>
       </c>
       <c r="D62">
-        <v>1.2755700000000001</v>
+        <v>1.28996</v>
       </c>
       <c r="E62">
-        <v>1.2526600000000001</v>
+        <v>1.2749999999999999</v>
       </c>
       <c r="F62">
-        <v>1.2752699999999999</v>
+        <v>1.2837799999999999</v>
       </c>
       <c r="H62">
         <f t="shared" si="0"/>
-        <v>2.750000000000008</v>
+        <v>2.2909999999999986</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="21" customHeight="1">
@@ -2143,23 +2145,23 @@
         <v>7</v>
       </c>
       <c r="B63" s="8">
-        <v>41737</v>
+        <v>41744</v>
       </c>
       <c r="C63">
-        <v>1.27705</v>
+        <v>1.2589300000000001</v>
       </c>
       <c r="D63">
-        <v>1.2818400000000001</v>
+        <v>1.2755700000000001</v>
       </c>
       <c r="E63">
-        <v>1.25434</v>
+        <v>1.2526600000000001</v>
       </c>
       <c r="F63">
-        <v>1.2608600000000001</v>
+        <v>1.2752699999999999</v>
       </c>
       <c r="H63">
         <f t="shared" si="0"/>
-        <v>2.1030000000000104</v>
+        <v>2.750000000000008</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="21" customHeight="1">
@@ -2167,23 +2169,23 @@
         <v>7</v>
       </c>
       <c r="B64" s="8">
-        <v>41730</v>
+        <v>41737</v>
       </c>
       <c r="C64">
-        <v>1.2884100000000001</v>
+        <v>1.27705</v>
       </c>
       <c r="D64">
-        <v>1.2942800000000001</v>
+        <v>1.2818400000000001</v>
       </c>
       <c r="E64">
-        <v>1.27325</v>
+        <v>1.25434</v>
       </c>
       <c r="F64">
-        <v>1.27627</v>
+        <v>1.2608600000000001</v>
       </c>
       <c r="H64">
         <f t="shared" si="0"/>
-        <v>1.2469999999999981</v>
+        <v>2.1030000000000104</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="21" customHeight="1">
@@ -2191,23 +2193,23 @@
         <v>7</v>
       </c>
       <c r="B65" s="8">
-        <v>41723</v>
+        <v>41730</v>
       </c>
       <c r="C65">
-        <v>1.28796</v>
+        <v>1.2884100000000001</v>
       </c>
       <c r="D65">
-        <v>1.29389</v>
+        <v>1.2942800000000001</v>
       </c>
       <c r="E65">
-        <v>1.28142</v>
+        <v>1.27325</v>
       </c>
       <c r="F65">
-        <v>1.2893699999999999</v>
+        <v>1.27627</v>
       </c>
       <c r="H65">
         <f t="shared" si="0"/>
-        <v>3.0030000000000001</v>
+        <v>1.2469999999999981</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="21" customHeight="1">
@@ -2215,23 +2217,23 @@
         <v>7</v>
       </c>
       <c r="B66" s="8">
-        <v>41716</v>
+        <v>41723</v>
       </c>
       <c r="C66">
-        <v>1.3087899999999999</v>
+        <v>1.28796</v>
       </c>
       <c r="D66">
-        <v>1.3123800000000001</v>
+        <v>1.29389</v>
       </c>
       <c r="E66">
-        <v>1.2823500000000001</v>
+        <v>1.28142</v>
       </c>
       <c r="F66">
-        <v>1.28807</v>
+        <v>1.2893699999999999</v>
       </c>
       <c r="H66">
         <f t="shared" ref="H66:H129" si="1">ABS(D67-E67)*100</f>
-        <v>2.949999999999986</v>
+        <v>3.0030000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="21" customHeight="1">
@@ -2239,23 +2241,23 @@
         <v>7</v>
       </c>
       <c r="B67" s="8">
-        <v>41709</v>
+        <v>41716</v>
       </c>
       <c r="C67">
-        <v>1.2811699999999999</v>
+        <v>1.3087899999999999</v>
       </c>
       <c r="D67">
-        <v>1.3097799999999999</v>
+        <v>1.3123800000000001</v>
       </c>
       <c r="E67">
-        <v>1.2802800000000001</v>
+        <v>1.2823500000000001</v>
       </c>
       <c r="F67">
-        <v>1.3094699999999999</v>
+        <v>1.28807</v>
       </c>
       <c r="H67">
         <f t="shared" si="1"/>
-        <v>1.8730000000000135</v>
+        <v>2.949999999999986</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="21" customHeight="1">
@@ -2263,23 +2265,23 @@
         <v>7</v>
       </c>
       <c r="B68" s="8">
-        <v>41702</v>
+        <v>41709</v>
       </c>
       <c r="C68">
-        <v>1.28731</v>
+        <v>1.2811699999999999</v>
       </c>
       <c r="D68">
-        <v>1.3000100000000001</v>
+        <v>1.3097799999999999</v>
       </c>
       <c r="E68">
-        <v>1.28128</v>
+        <v>1.2802800000000001</v>
       </c>
       <c r="F68">
-        <v>1.2815099999999999</v>
+        <v>1.3094699999999999</v>
       </c>
       <c r="H68">
         <f t="shared" si="1"/>
-        <v>3.0070000000000041</v>
+        <v>1.8730000000000135</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="21" customHeight="1">
@@ -2287,23 +2289,23 @@
         <v>7</v>
       </c>
       <c r="B69" s="8">
-        <v>41695</v>
+        <v>41702</v>
       </c>
       <c r="C69">
-        <v>1.26376</v>
+        <v>1.28731</v>
       </c>
       <c r="D69">
-        <v>1.2915099999999999</v>
+        <v>1.3000100000000001</v>
       </c>
       <c r="E69">
-        <v>1.2614399999999999</v>
+        <v>1.28128</v>
       </c>
       <c r="F69">
-        <v>1.2883199999999999</v>
+        <v>1.2815099999999999</v>
       </c>
       <c r="H69">
         <f t="shared" si="1"/>
-        <v>2.2769999999999957</v>
+        <v>3.0070000000000041</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="21" customHeight="1">
@@ -2311,23 +2313,23 @@
         <v>7</v>
       </c>
       <c r="B70" s="8">
-        <v>41688</v>
+        <v>41695</v>
       </c>
       <c r="C70">
-        <v>1.2556400000000001</v>
+        <v>1.26376</v>
       </c>
       <c r="D70">
-        <v>1.27545</v>
+        <v>1.2915099999999999</v>
       </c>
       <c r="E70">
-        <v>1.25268</v>
+        <v>1.2614399999999999</v>
       </c>
       <c r="F70">
-        <v>1.2639800000000001</v>
+        <v>1.2883199999999999</v>
       </c>
       <c r="H70">
         <f t="shared" si="1"/>
-        <v>1.9859999999999989</v>
+        <v>2.2769999999999957</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="21" customHeight="1">
@@ -2335,23 +2337,23 @@
         <v>7</v>
       </c>
       <c r="B71" s="8">
-        <v>41681</v>
+        <v>41688</v>
       </c>
       <c r="C71">
-        <v>1.25837</v>
+        <v>1.2556400000000001</v>
       </c>
       <c r="D71">
-        <v>1.2648299999999999</v>
+        <v>1.27545</v>
       </c>
       <c r="E71">
-        <v>1.2449699999999999</v>
+        <v>1.25268</v>
       </c>
       <c r="F71">
-        <v>1.2548299999999999</v>
+        <v>1.2639800000000001</v>
       </c>
       <c r="H71">
         <f t="shared" si="1"/>
-        <v>2.9190000000000049</v>
+        <v>1.9859999999999989</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="21" customHeight="1">
@@ -2359,23 +2361,23 @@
         <v>7</v>
       </c>
       <c r="B72" s="8">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="C72">
-        <v>1.2433000000000001</v>
+        <v>1.25837</v>
       </c>
       <c r="D72">
-        <v>1.26888</v>
+        <v>1.2648299999999999</v>
       </c>
       <c r="E72">
-        <v>1.23969</v>
+        <v>1.2449699999999999</v>
       </c>
       <c r="F72">
-        <v>1.2584500000000001</v>
+        <v>1.2548299999999999</v>
       </c>
       <c r="H72">
         <f t="shared" si="1"/>
-        <v>1.8759999999999888</v>
+        <v>2.9190000000000049</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21" customHeight="1">
@@ -2383,23 +2385,23 @@
         <v>7</v>
       </c>
       <c r="B73" s="8">
-        <v>41667</v>
+        <v>41674</v>
       </c>
       <c r="C73">
-        <v>1.23099</v>
+        <v>1.2433000000000001</v>
       </c>
       <c r="D73">
-        <v>1.2436799999999999</v>
+        <v>1.26888</v>
       </c>
       <c r="E73">
-        <v>1.22492</v>
+        <v>1.23969</v>
       </c>
       <c r="F73">
-        <v>1.24261</v>
+        <v>1.2584500000000001</v>
       </c>
       <c r="H73">
         <f t="shared" si="1"/>
-        <v>2.1450000000000191</v>
+        <v>1.8759999999999888</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="21" customHeight="1">
@@ -2407,23 +2409,23 @@
         <v>7</v>
       </c>
       <c r="B74" s="8">
-        <v>41660</v>
+        <v>41667</v>
       </c>
       <c r="C74">
-        <v>1.2472799999999999</v>
+        <v>1.23099</v>
       </c>
       <c r="D74">
-        <v>1.2496100000000001</v>
+        <v>1.2436799999999999</v>
       </c>
       <c r="E74">
-        <v>1.2281599999999999</v>
+        <v>1.22492</v>
       </c>
       <c r="F74">
-        <v>1.23245</v>
+        <v>1.24261</v>
       </c>
       <c r="H74">
         <f t="shared" si="1"/>
-        <v>1.7360000000000042</v>
+        <v>2.1450000000000191</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="21" customHeight="1">
@@ -2431,23 +2433,23 @@
         <v>7</v>
       </c>
       <c r="B75" s="8">
-        <v>41653</v>
+        <v>41660</v>
       </c>
       <c r="C75">
-        <v>1.24597</v>
+        <v>1.2472799999999999</v>
       </c>
       <c r="D75">
-        <v>1.2533300000000001</v>
+        <v>1.2496100000000001</v>
       </c>
       <c r="E75">
-        <v>1.23597</v>
+        <v>1.2281599999999999</v>
       </c>
       <c r="F75">
-        <v>1.24976</v>
+        <v>1.23245</v>
       </c>
       <c r="H75">
         <f t="shared" si="1"/>
-        <v>2.1190000000000042</v>
+        <v>1.7360000000000042</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="21" customHeight="1">
@@ -2455,23 +2457,23 @@
         <v>7</v>
       </c>
       <c r="B76" s="8">
-        <v>41646</v>
+        <v>41653</v>
       </c>
       <c r="C76">
-        <v>1.2409600000000001</v>
+        <v>1.24597</v>
       </c>
       <c r="D76">
-        <v>1.25895</v>
+        <v>1.2533300000000001</v>
       </c>
       <c r="E76">
-        <v>1.23776</v>
+        <v>1.23597</v>
       </c>
       <c r="F76">
-        <v>1.2467200000000001</v>
+        <v>1.24976</v>
       </c>
       <c r="H76">
         <f t="shared" si="1"/>
-        <v>2.0179999999999865</v>
+        <v>2.1190000000000042</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="21" customHeight="1">
@@ -2479,23 +2481,23 @@
         <v>7</v>
       </c>
       <c r="B77" s="8">
-        <v>41639</v>
+        <v>41646</v>
       </c>
       <c r="C77">
-        <v>1.25376</v>
+        <v>1.2409600000000001</v>
       </c>
       <c r="D77">
-        <v>1.2556499999999999</v>
+        <v>1.25895</v>
       </c>
       <c r="E77">
-        <v>1.2354700000000001</v>
+        <v>1.23776</v>
       </c>
       <c r="F77">
-        <v>1.24122</v>
+        <v>1.2467200000000001</v>
       </c>
       <c r="H77">
         <f t="shared" si="1"/>
-        <v>2.2500000000000187</v>
+        <v>2.0179999999999865</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="21" customHeight="1">
@@ -2503,23 +2505,23 @@
         <v>7</v>
       </c>
       <c r="B78" s="8">
-        <v>41632</v>
+        <v>41639</v>
       </c>
       <c r="C78">
-        <v>1.27135</v>
+        <v>1.25376</v>
       </c>
       <c r="D78">
-        <v>1.2739100000000001</v>
+        <v>1.2556499999999999</v>
       </c>
       <c r="E78">
-        <v>1.2514099999999999</v>
+        <v>1.2354700000000001</v>
       </c>
       <c r="F78">
-        <v>1.2571099999999999</v>
+        <v>1.24122</v>
       </c>
       <c r="H78">
         <f t="shared" si="1"/>
-        <v>2.2220000000000129</v>
+        <v>2.2500000000000187</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="21" customHeight="1">
@@ -2527,23 +2529,23 @@
         <v>7</v>
       </c>
       <c r="B79" s="8">
-        <v>41625</v>
+        <v>41632</v>
       </c>
       <c r="C79">
-        <v>1.2867500000000001</v>
+        <v>1.27135</v>
       </c>
       <c r="D79">
-        <v>1.2919400000000001</v>
+        <v>1.2739100000000001</v>
       </c>
       <c r="E79">
-        <v>1.26972</v>
+        <v>1.2514099999999999</v>
       </c>
       <c r="F79">
-        <v>1.2722899999999999</v>
+        <v>1.2571099999999999</v>
       </c>
       <c r="H79">
         <f t="shared" si="1"/>
-        <v>1.8059999999999965</v>
+        <v>2.2220000000000129</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="21" customHeight="1">
@@ -2551,23 +2553,23 @@
         <v>7</v>
       </c>
       <c r="B80" s="8">
-        <v>41618</v>
+        <v>41625</v>
       </c>
       <c r="C80">
-        <v>1.2851300000000001</v>
+        <v>1.2867500000000001</v>
       </c>
       <c r="D80">
-        <v>1.2893699999999999</v>
+        <v>1.2919400000000001</v>
       </c>
       <c r="E80">
-        <v>1.2713099999999999</v>
+        <v>1.26972</v>
       </c>
       <c r="F80">
-        <v>1.2887200000000001</v>
+        <v>1.2722899999999999</v>
       </c>
       <c r="H80">
         <f t="shared" si="1"/>
-        <v>2.5619999999999976</v>
+        <v>1.8059999999999965</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="21" customHeight="1">
@@ -2575,23 +2577,23 @@
         <v>7</v>
       </c>
       <c r="B81" s="8">
-        <v>41611</v>
+        <v>41618</v>
       </c>
       <c r="C81">
-        <v>1.26973</v>
+        <v>1.2851300000000001</v>
       </c>
       <c r="D81">
-        <v>1.2879</v>
+        <v>1.2893699999999999</v>
       </c>
       <c r="E81">
-        <v>1.2622800000000001</v>
+        <v>1.2713099999999999</v>
       </c>
       <c r="F81">
-        <v>1.28623</v>
+        <v>1.2887200000000001</v>
       </c>
       <c r="H81">
         <f t="shared" si="1"/>
-        <v>2.2909999999999986</v>
+        <v>2.5619999999999976</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="21" customHeight="1">
@@ -2599,23 +2601,23 @@
         <v>7</v>
       </c>
       <c r="B82" s="8">
-        <v>41604</v>
+        <v>41611</v>
       </c>
       <c r="C82">
-        <v>1.2703100000000001</v>
+        <v>1.26973</v>
       </c>
       <c r="D82">
-        <v>1.2908599999999999</v>
+        <v>1.2879</v>
       </c>
       <c r="E82">
-        <v>1.2679499999999999</v>
+        <v>1.2622800000000001</v>
       </c>
       <c r="F82">
-        <v>1.26915</v>
+        <v>1.28623</v>
       </c>
       <c r="H82">
         <f t="shared" si="1"/>
-        <v>1.639999999999997</v>
+        <v>2.2909999999999986</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="21" customHeight="1">
@@ -2623,23 +2625,23 @@
         <v>7</v>
       </c>
       <c r="B83" s="8">
-        <v>41597</v>
+        <v>41604</v>
       </c>
       <c r="C83">
-        <v>1.2765500000000001</v>
+        <v>1.2703100000000001</v>
       </c>
       <c r="D83">
-        <v>1.28359</v>
+        <v>1.2908599999999999</v>
       </c>
       <c r="E83">
-        <v>1.26719</v>
+        <v>1.2679499999999999</v>
       </c>
       <c r="F83">
-        <v>1.2711300000000001</v>
+        <v>1.26915</v>
       </c>
       <c r="H83">
         <f t="shared" si="1"/>
-        <v>1.4550000000000063</v>
+        <v>1.639999999999997</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="21" customHeight="1">
@@ -2647,23 +2649,23 @@
         <v>7</v>
       </c>
       <c r="B84" s="8">
-        <v>41590</v>
+        <v>41597</v>
       </c>
       <c r="C84">
-        <v>1.2683500000000001</v>
+        <v>1.2765500000000001</v>
       </c>
       <c r="D84">
-        <v>1.2822800000000001</v>
+        <v>1.28359</v>
       </c>
       <c r="E84">
-        <v>1.26773</v>
+        <v>1.26719</v>
       </c>
       <c r="F84">
-        <v>1.27773</v>
+        <v>1.2711300000000001</v>
       </c>
       <c r="H84">
         <f t="shared" si="1"/>
-        <v>1.5349999999999975</v>
+        <v>1.4550000000000063</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="21" customHeight="1">
@@ -2671,23 +2673,23 @@
         <v>7</v>
       </c>
       <c r="B85" s="8">
-        <v>41583</v>
+        <v>41590</v>
       </c>
       <c r="C85">
-        <v>1.2764200000000001</v>
+        <v>1.2683500000000001</v>
       </c>
       <c r="D85">
-        <v>1.2818799999999999</v>
+        <v>1.2822800000000001</v>
       </c>
       <c r="E85">
-        <v>1.2665299999999999</v>
+        <v>1.26773</v>
       </c>
       <c r="F85">
-        <v>1.2679400000000001</v>
+        <v>1.27773</v>
       </c>
       <c r="H85">
         <f t="shared" si="1"/>
-        <v>1.99600000000002</v>
+        <v>1.5349999999999975</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="21" customHeight="1">
@@ -2695,23 +2697,23 @@
         <v>7</v>
       </c>
       <c r="B86" s="8">
-        <v>41576</v>
+        <v>41583</v>
       </c>
       <c r="C86">
-        <v>1.28155</v>
+        <v>1.2764200000000001</v>
       </c>
       <c r="D86">
-        <v>1.2914000000000001</v>
+        <v>1.2818799999999999</v>
       </c>
       <c r="E86">
-        <v>1.2714399999999999</v>
+        <v>1.2665299999999999</v>
       </c>
       <c r="F86">
-        <v>1.2765299999999999</v>
+        <v>1.2679400000000001</v>
       </c>
       <c r="H86">
         <f t="shared" si="1"/>
-        <v>3.0320000000000125</v>
+        <v>1.99600000000002</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="21" customHeight="1">
@@ -2719,23 +2721,23 @@
         <v>7</v>
       </c>
       <c r="B87" s="8">
-        <v>41569</v>
+        <v>41576</v>
       </c>
       <c r="C87">
-        <v>1.2623200000000001</v>
+        <v>1.28155</v>
       </c>
       <c r="D87">
-        <v>1.2916000000000001</v>
+        <v>1.2914000000000001</v>
       </c>
       <c r="E87">
-        <v>1.26128</v>
+        <v>1.2714399999999999</v>
       </c>
       <c r="F87">
-        <v>1.2819799999999999</v>
+        <v>1.2765299999999999</v>
       </c>
       <c r="H87">
         <f t="shared" si="1"/>
-        <v>1.7919999999999936</v>
+        <v>3.0320000000000125</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="21" customHeight="1">
@@ -2743,23 +2745,23 @@
         <v>7</v>
       </c>
       <c r="B88" s="8">
-        <v>41562</v>
+        <v>41569</v>
       </c>
       <c r="C88">
-        <v>1.2474000000000001</v>
+        <v>1.2623200000000001</v>
       </c>
       <c r="D88">
-        <v>1.26292</v>
+        <v>1.2916000000000001</v>
       </c>
       <c r="E88">
-        <v>1.2450000000000001</v>
+        <v>1.26128</v>
       </c>
       <c r="F88">
-        <v>1.2628900000000001</v>
+        <v>1.2819799999999999</v>
       </c>
       <c r="H88">
         <f t="shared" si="1"/>
-        <v>1.2559999999999905</v>
+        <v>1.7919999999999936</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="21" customHeight="1">
@@ -2767,23 +2769,23 @@
         <v>7</v>
       </c>
       <c r="B89" s="8">
-        <v>41555</v>
+        <v>41562</v>
       </c>
       <c r="C89">
-        <v>1.2534799999999999</v>
+        <v>1.2474000000000001</v>
       </c>
       <c r="D89">
-        <v>1.25579</v>
+        <v>1.26292</v>
       </c>
       <c r="E89">
-        <v>1.2432300000000001</v>
+        <v>1.2450000000000001</v>
       </c>
       <c r="F89">
-        <v>1.2479800000000001</v>
+        <v>1.2628900000000001</v>
       </c>
       <c r="H89">
         <f t="shared" si="1"/>
-        <v>1.5060000000000073</v>
+        <v>1.2559999999999905</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="21" customHeight="1">
@@ -2791,23 +2793,23 @@
         <v>7</v>
       </c>
       <c r="B90" s="8">
-        <v>41548</v>
+        <v>41555</v>
       </c>
       <c r="C90">
-        <v>1.24715</v>
+        <v>1.2534799999999999</v>
       </c>
       <c r="D90">
-        <v>1.25987</v>
+        <v>1.25579</v>
       </c>
       <c r="E90">
-        <v>1.24481</v>
+        <v>1.2432300000000001</v>
       </c>
       <c r="F90">
-        <v>1.25387</v>
+        <v>1.2479800000000001</v>
       </c>
       <c r="H90">
         <f t="shared" si="1"/>
-        <v>2.1949999999999914</v>
+        <v>1.5060000000000073</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="21" customHeight="1">
@@ -2815,23 +2817,23 @@
         <v>7</v>
       </c>
       <c r="B91" s="8">
-        <v>41541</v>
+        <v>41548</v>
       </c>
       <c r="C91">
-        <v>1.23353</v>
+        <v>1.24715</v>
       </c>
       <c r="D91">
-        <v>1.2531699999999999</v>
+        <v>1.25987</v>
       </c>
       <c r="E91">
-        <v>1.23122</v>
+        <v>1.24481</v>
       </c>
       <c r="F91">
-        <v>1.24793</v>
+        <v>1.25387</v>
       </c>
       <c r="H91">
         <f t="shared" si="1"/>
-        <v>2.1889999999999965</v>
+        <v>2.1949999999999914</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="21" customHeight="1">
@@ -2839,23 +2841,23 @@
         <v>7</v>
       </c>
       <c r="B92" s="8">
-        <v>41534</v>
+        <v>41541</v>
       </c>
       <c r="C92">
-        <v>1.2192499999999999</v>
+        <v>1.23353</v>
       </c>
       <c r="D92">
-        <v>1.23898</v>
+        <v>1.2531699999999999</v>
       </c>
       <c r="E92">
-        <v>1.21709</v>
+        <v>1.23122</v>
       </c>
       <c r="F92">
-        <v>1.2339500000000001</v>
+        <v>1.24793</v>
       </c>
       <c r="H92">
         <f t="shared" si="1"/>
-        <v>1.5670000000000073</v>
+        <v>2.1889999999999965</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="21" customHeight="1">
@@ -2863,23 +2865,23 @@
         <v>7</v>
       </c>
       <c r="B93" s="8">
-        <v>41527</v>
+        <v>41534</v>
       </c>
       <c r="C93">
-        <v>1.214</v>
+        <v>1.2192499999999999</v>
       </c>
       <c r="D93">
-        <v>1.2238500000000001</v>
+        <v>1.23898</v>
       </c>
       <c r="E93">
-        <v>1.20818</v>
+        <v>1.21709</v>
       </c>
       <c r="F93">
-        <v>1.21889</v>
+        <v>1.2339500000000001</v>
       </c>
       <c r="H93">
         <f t="shared" si="1"/>
-        <v>3.6470000000000002</v>
+        <v>1.5670000000000073</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="21" customHeight="1">
@@ -2887,23 +2889,23 @@
         <v>7</v>
       </c>
       <c r="B94" s="8">
-        <v>41520</v>
+        <v>41527</v>
       </c>
       <c r="C94">
-        <v>1.24051</v>
+        <v>1.214</v>
       </c>
       <c r="D94">
-        <v>1.2425299999999999</v>
+        <v>1.2238500000000001</v>
       </c>
       <c r="E94">
-        <v>1.2060599999999999</v>
+        <v>1.20818</v>
       </c>
       <c r="F94">
-        <v>1.2146300000000001</v>
+        <v>1.21889</v>
       </c>
       <c r="H94">
         <f t="shared" si="1"/>
-        <v>3.2240000000000046</v>
+        <v>3.6470000000000002</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="21" customHeight="1">
@@ -2911,23 +2913,23 @@
         <v>7</v>
       </c>
       <c r="B95" s="8">
-        <v>41513</v>
+        <v>41520</v>
       </c>
       <c r="C95">
-        <v>1.24708</v>
+        <v>1.24051</v>
       </c>
       <c r="D95">
-        <v>1.2662</v>
+        <v>1.2425299999999999</v>
       </c>
       <c r="E95">
-        <v>1.2339599999999999</v>
+        <v>1.2060599999999999</v>
       </c>
       <c r="F95">
-        <v>1.2390699999999999</v>
+        <v>1.2146300000000001</v>
       </c>
       <c r="H95">
         <f t="shared" si="1"/>
-        <v>1.4109999999999845</v>
+        <v>3.2240000000000046</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="21" customHeight="1">
@@ -2935,23 +2937,23 @@
         <v>7</v>
       </c>
       <c r="B96" s="8">
-        <v>41506</v>
+        <v>41513</v>
       </c>
       <c r="C96">
-        <v>1.2566200000000001</v>
+        <v>1.24708</v>
       </c>
       <c r="D96">
-        <v>1.2605999999999999</v>
+        <v>1.2662</v>
       </c>
       <c r="E96">
-        <v>1.2464900000000001</v>
+        <v>1.2339599999999999</v>
       </c>
       <c r="F96">
-        <v>1.2485999999999999</v>
+        <v>1.2390699999999999</v>
       </c>
       <c r="H96">
         <f t="shared" si="1"/>
-        <v>2.2100000000000009</v>
+        <v>1.4109999999999845</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="21" customHeight="1">
@@ -2959,23 +2961,23 @@
         <v>7</v>
       </c>
       <c r="B97" s="8">
-        <v>41499</v>
+        <v>41506</v>
       </c>
       <c r="C97">
-        <v>1.26694</v>
+        <v>1.2566200000000001</v>
       </c>
       <c r="D97">
-        <v>1.2777499999999999</v>
+        <v>1.2605999999999999</v>
       </c>
       <c r="E97">
-        <v>1.2556499999999999</v>
+        <v>1.2464900000000001</v>
       </c>
       <c r="F97">
-        <v>1.25753</v>
+        <v>1.2485999999999999</v>
       </c>
       <c r="H97">
         <f t="shared" si="1"/>
-        <v>1.2309999999999821</v>
+        <v>2.2100000000000009</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="21" customHeight="1">
@@ -2983,23 +2985,23 @@
         <v>7</v>
       </c>
       <c r="B98" s="8">
-        <v>41492</v>
+        <v>41499</v>
       </c>
       <c r="C98">
-        <v>1.2649600000000001</v>
+        <v>1.26694</v>
       </c>
       <c r="D98">
-        <v>1.2751999999999999</v>
+        <v>1.2777499999999999</v>
       </c>
       <c r="E98">
-        <v>1.2628900000000001</v>
+        <v>1.2556499999999999</v>
       </c>
       <c r="F98">
-        <v>1.2680800000000001</v>
+        <v>1.25753</v>
       </c>
       <c r="H98">
         <f t="shared" si="1"/>
-        <v>2.3810000000000109</v>
+        <v>1.2309999999999821</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="21" customHeight="1">
@@ -3007,23 +3009,23 @@
         <v>7</v>
       </c>
       <c r="B99" s="8">
-        <v>41485</v>
+        <v>41492</v>
       </c>
       <c r="C99">
-        <v>1.2433099999999999</v>
+        <v>1.2649600000000001</v>
       </c>
       <c r="D99">
-        <v>1.2666900000000001</v>
+        <v>1.2751999999999999</v>
       </c>
       <c r="E99">
-        <v>1.24288</v>
+        <v>1.2628900000000001</v>
       </c>
       <c r="F99">
-        <v>1.2648299999999999</v>
+        <v>1.2680800000000001</v>
       </c>
       <c r="H99">
         <f t="shared" si="1"/>
-        <v>1.6219999999999901</v>
+        <v>2.3810000000000109</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="21" customHeight="1">
@@ -3031,23 +3033,23 @@
         <v>7</v>
       </c>
       <c r="B100" s="8">
-        <v>41478</v>
+        <v>41485</v>
       </c>
       <c r="C100">
-        <v>1.25352</v>
+        <v>1.2433099999999999</v>
       </c>
       <c r="D100">
-        <v>1.2575499999999999</v>
+        <v>1.2666900000000001</v>
       </c>
       <c r="E100">
-        <v>1.24133</v>
+        <v>1.24288</v>
       </c>
       <c r="F100">
-        <v>1.2427699999999999</v>
+        <v>1.2648299999999999</v>
       </c>
       <c r="H100">
         <f t="shared" si="1"/>
-        <v>1.790999999999987</v>
+        <v>1.6219999999999901</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="21" customHeight="1">
@@ -3055,23 +3057,23 @@
         <v>7</v>
       </c>
       <c r="B101" s="8">
-        <v>41471</v>
+        <v>41478</v>
       </c>
       <c r="C101">
-        <v>1.26423</v>
+        <v>1.25352</v>
       </c>
       <c r="D101">
-        <v>1.27006</v>
+        <v>1.2575499999999999</v>
       </c>
       <c r="E101">
-        <v>1.2521500000000001</v>
+        <v>1.24133</v>
       </c>
       <c r="F101">
-        <v>1.2537199999999999</v>
+        <v>1.2427699999999999</v>
       </c>
       <c r="H101">
         <f t="shared" si="1"/>
-        <v>2.9940000000000078</v>
+        <v>1.790999999999987</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="21" customHeight="1">
@@ -3079,23 +3081,23 @@
         <v>7</v>
       </c>
       <c r="B102" s="8">
-        <v>41464</v>
+        <v>41471</v>
       </c>
       <c r="C102">
-        <v>1.28827</v>
+        <v>1.26423</v>
       </c>
       <c r="D102">
-        <v>1.2942800000000001</v>
+        <v>1.27006</v>
       </c>
       <c r="E102">
-        <v>1.26434</v>
+        <v>1.2521500000000001</v>
       </c>
       <c r="F102">
-        <v>1.26488</v>
+        <v>1.2537199999999999</v>
       </c>
       <c r="H102">
         <f t="shared" si="1"/>
-        <v>1.5510000000000135</v>
+        <v>2.9940000000000078</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="21" customHeight="1">
@@ -3103,23 +3105,23 @@
         <v>7</v>
       </c>
       <c r="B103" s="8">
-        <v>41457</v>
+        <v>41464</v>
       </c>
       <c r="C103">
-        <v>1.2967500000000001</v>
+        <v>1.28827</v>
       </c>
       <c r="D103">
-        <v>1.30139</v>
+        <v>1.2942800000000001</v>
       </c>
       <c r="E103">
-        <v>1.2858799999999999</v>
+        <v>1.26434</v>
       </c>
       <c r="F103">
-        <v>1.2881800000000001</v>
+        <v>1.26488</v>
       </c>
       <c r="H103">
         <f t="shared" si="1"/>
-        <v>3.2250000000000112</v>
+        <v>1.5510000000000135</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="21" customHeight="1">
@@ -3127,23 +3129,23 @@
         <v>7</v>
       </c>
       <c r="B104" s="8">
-        <v>41450</v>
+        <v>41457</v>
       </c>
       <c r="C104">
-        <v>1.3265800000000001</v>
+        <v>1.2967500000000001</v>
       </c>
       <c r="D104">
-        <v>1.32681</v>
+        <v>1.30139</v>
       </c>
       <c r="E104">
-        <v>1.2945599999999999</v>
+        <v>1.2858799999999999</v>
       </c>
       <c r="F104">
-        <v>1.2966800000000001</v>
+        <v>1.2881800000000001</v>
       </c>
       <c r="H104">
         <f t="shared" si="1"/>
-        <v>1.5619999999999967</v>
+        <v>3.2250000000000112</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="21" customHeight="1">
@@ -3151,23 +3153,23 @@
         <v>7</v>
       </c>
       <c r="B105" s="8">
-        <v>41443</v>
+        <v>41450</v>
       </c>
       <c r="C105">
-        <v>1.3209299999999999</v>
+        <v>1.3265800000000001</v>
       </c>
       <c r="D105">
-        <v>1.33467</v>
+        <v>1.32681</v>
       </c>
       <c r="E105">
-        <v>1.3190500000000001</v>
+        <v>1.2945599999999999</v>
       </c>
       <c r="F105">
-        <v>1.32653</v>
+        <v>1.2966800000000001</v>
       </c>
       <c r="H105">
         <f t="shared" si="1"/>
-        <v>3.0540000000000012</v>
+        <v>1.5619999999999967</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="21" customHeight="1">
@@ -3175,23 +3177,23 @@
         <v>7</v>
       </c>
       <c r="B106" s="8">
-        <v>41436</v>
+        <v>41443</v>
       </c>
       <c r="C106">
-        <v>1.3456300000000001</v>
+        <v>1.3209299999999999</v>
       </c>
       <c r="D106">
-        <v>1.3469599999999999</v>
+        <v>1.33467</v>
       </c>
       <c r="E106">
-        <v>1.3164199999999999</v>
+        <v>1.3190500000000001</v>
       </c>
       <c r="F106">
-        <v>1.32107</v>
+        <v>1.32653</v>
       </c>
       <c r="H106">
         <f t="shared" si="1"/>
-        <v>1.0539999999999994</v>
+        <v>3.0540000000000012</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="21" customHeight="1">
@@ -3199,23 +3201,23 @@
         <v>7</v>
       </c>
       <c r="B107" s="8">
-        <v>41429</v>
+        <v>41436</v>
       </c>
       <c r="C107">
-        <v>1.34877</v>
+        <v>1.3456300000000001</v>
       </c>
       <c r="D107">
-        <v>1.3527400000000001</v>
+        <v>1.3469599999999999</v>
       </c>
       <c r="E107">
-        <v>1.3422000000000001</v>
+        <v>1.3164199999999999</v>
       </c>
       <c r="F107">
-        <v>1.3463799999999999</v>
+        <v>1.32107</v>
       </c>
       <c r="H107">
         <f t="shared" si="1"/>
-        <v>1.197999999999988</v>
+        <v>1.0539999999999994</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="21" customHeight="1">
@@ -3223,23 +3225,23 @@
         <v>7</v>
       </c>
       <c r="B108" s="8">
-        <v>41422</v>
+        <v>41429</v>
       </c>
       <c r="C108">
-        <v>1.3446800000000001</v>
+        <v>1.34877</v>
       </c>
       <c r="D108">
-        <v>1.3546499999999999</v>
+        <v>1.3527400000000001</v>
       </c>
       <c r="E108">
-        <v>1.34267</v>
+        <v>1.3422000000000001</v>
       </c>
       <c r="F108">
-        <v>1.34944</v>
+        <v>1.3463799999999999</v>
       </c>
       <c r="H108">
         <f t="shared" si="1"/>
-        <v>1.5260000000000051</v>
+        <v>1.197999999999988</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="21" customHeight="1">
@@ -3247,23 +3249,23 @@
         <v>7</v>
       </c>
       <c r="B109" s="8">
-        <v>41415</v>
+        <v>41422</v>
       </c>
       <c r="C109">
-        <v>1.3512900000000001</v>
+        <v>1.3446800000000001</v>
       </c>
       <c r="D109">
-        <v>1.35399</v>
+        <v>1.3546499999999999</v>
       </c>
       <c r="E109">
-        <v>1.33873</v>
+        <v>1.34267</v>
       </c>
       <c r="F109">
-        <v>1.34501</v>
+        <v>1.34944</v>
       </c>
       <c r="H109">
         <f t="shared" si="1"/>
-        <v>2.1209999999999951</v>
+        <v>1.5260000000000051</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="21" customHeight="1">
@@ -3271,23 +3273,23 @@
         <v>7</v>
       </c>
       <c r="B110" s="8">
-        <v>41408</v>
+        <v>41415</v>
       </c>
       <c r="C110">
-        <v>1.37039</v>
+        <v>1.3512900000000001</v>
       </c>
       <c r="D110">
-        <v>1.37218</v>
+        <v>1.35399</v>
       </c>
       <c r="E110">
-        <v>1.35097</v>
+        <v>1.33873</v>
       </c>
       <c r="F110">
-        <v>1.35117</v>
+        <v>1.34501</v>
       </c>
       <c r="H110">
         <f t="shared" si="1"/>
-        <v>1.2660000000000116</v>
+        <v>2.1209999999999951</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="21" customHeight="1">
@@ -3295,23 +3297,23 @@
         <v>7</v>
       </c>
       <c r="B111" s="8">
-        <v>41401</v>
+        <v>41408</v>
       </c>
       <c r="C111">
-        <v>1.36582</v>
+        <v>1.37039</v>
       </c>
       <c r="D111">
-        <v>1.3769400000000001</v>
+        <v>1.37218</v>
       </c>
       <c r="E111">
-        <v>1.3642799999999999</v>
+        <v>1.35097</v>
       </c>
       <c r="F111">
-        <v>1.37107</v>
+        <v>1.35117</v>
       </c>
       <c r="H111">
         <f t="shared" si="1"/>
-        <v>1.5640000000000098</v>
+        <v>1.2660000000000116</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="21" customHeight="1">
@@ -3319,23 +3321,23 @@
         <v>7</v>
       </c>
       <c r="B112" s="8">
-        <v>41394</v>
+        <v>41401</v>
       </c>
       <c r="C112">
-        <v>1.3648400000000001</v>
+        <v>1.36582</v>
       </c>
       <c r="D112">
-        <v>1.37927</v>
+        <v>1.3769400000000001</v>
       </c>
       <c r="E112">
-        <v>1.3636299999999999</v>
+        <v>1.3642799999999999</v>
       </c>
       <c r="F112">
-        <v>1.36497</v>
+        <v>1.37107</v>
       </c>
       <c r="H112">
         <f t="shared" si="1"/>
-        <v>2.8610000000000024</v>
+        <v>1.5640000000000098</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="21" customHeight="1">
@@ -3343,23 +3345,23 @@
         <v>7</v>
       </c>
       <c r="B113" s="8">
-        <v>41387</v>
+        <v>41394</v>
       </c>
       <c r="C113">
-        <v>1.3470500000000001</v>
+        <v>1.3648400000000001</v>
       </c>
       <c r="D113">
-        <v>1.3695999999999999</v>
+        <v>1.37927</v>
       </c>
       <c r="E113">
-        <v>1.3409899999999999</v>
+        <v>1.3636299999999999</v>
       </c>
       <c r="F113">
-        <v>1.3648199999999999</v>
+        <v>1.36497</v>
       </c>
       <c r="H113">
         <f t="shared" si="1"/>
-        <v>2.625999999999995</v>
+        <v>2.8610000000000024</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="21" customHeight="1">
@@ -3367,23 +3369,23 @@
         <v>7</v>
       </c>
       <c r="B114" s="8">
-        <v>41380</v>
+        <v>41387</v>
       </c>
       <c r="C114">
-        <v>1.3315699999999999</v>
+        <v>1.3470500000000001</v>
       </c>
       <c r="D114">
-        <v>1.35242</v>
+        <v>1.3695999999999999</v>
       </c>
       <c r="E114">
-        <v>1.32616</v>
+        <v>1.3409899999999999</v>
       </c>
       <c r="F114">
-        <v>1.3494999999999999</v>
+        <v>1.3648199999999999</v>
       </c>
       <c r="H114">
         <f t="shared" si="1"/>
-        <v>2.0289999999999919</v>
+        <v>2.625999999999995</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="21" customHeight="1">
@@ -3391,23 +3393,23 @@
         <v>7</v>
       </c>
       <c r="B115" s="8">
-        <v>41373</v>
+        <v>41380</v>
       </c>
       <c r="C115">
-        <v>1.34013</v>
+        <v>1.3315699999999999</v>
       </c>
       <c r="D115">
-        <v>1.34256</v>
+        <v>1.35242</v>
       </c>
       <c r="E115">
-        <v>1.3222700000000001</v>
+        <v>1.32616</v>
       </c>
       <c r="F115">
-        <v>1.3324</v>
+        <v>1.3494999999999999</v>
       </c>
       <c r="H115">
         <f t="shared" si="1"/>
-        <v>1.540000000000008</v>
+        <v>2.0289999999999919</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="21" customHeight="1">
@@ -3415,23 +3417,23 @@
         <v>7</v>
       </c>
       <c r="B116" s="8">
-        <v>41366</v>
+        <v>41373</v>
       </c>
       <c r="C116">
-        <v>1.33009</v>
+        <v>1.34013</v>
       </c>
       <c r="D116">
-        <v>1.3454900000000001</v>
+        <v>1.34256</v>
       </c>
       <c r="E116">
-        <v>1.33009</v>
+        <v>1.3222700000000001</v>
       </c>
       <c r="F116">
-        <v>1.34029</v>
+        <v>1.3324</v>
       </c>
       <c r="H116">
         <f t="shared" si="1"/>
-        <v>1.368999999999998</v>
+        <v>1.540000000000008</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="21" customHeight="1">
@@ -3439,23 +3441,23 @@
         <v>7</v>
       </c>
       <c r="B117" s="8">
-        <v>41359</v>
+        <v>41366</v>
       </c>
       <c r="C117">
-        <v>1.3349</v>
+        <v>1.33009</v>
       </c>
       <c r="D117">
-        <v>1.34138</v>
+        <v>1.3454900000000001</v>
       </c>
       <c r="E117">
-        <v>1.32769</v>
+        <v>1.33009</v>
       </c>
       <c r="F117">
-        <v>1.3309800000000001</v>
+        <v>1.34029</v>
       </c>
       <c r="H117">
         <f t="shared" si="1"/>
-        <v>1.4559999999999906</v>
+        <v>1.368999999999998</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="21" customHeight="1">
@@ -3463,23 +3465,23 @@
         <v>7</v>
       </c>
       <c r="B118" s="8">
-        <v>41352</v>
+        <v>41359</v>
       </c>
       <c r="C118">
-        <v>1.33365</v>
+        <v>1.3349</v>
       </c>
       <c r="D118">
-        <v>1.3408599999999999</v>
+        <v>1.34138</v>
       </c>
       <c r="E118">
-        <v>1.3263</v>
+        <v>1.32769</v>
       </c>
       <c r="F118">
-        <v>1.33666</v>
+        <v>1.3309800000000001</v>
       </c>
       <c r="H118">
         <f t="shared" si="1"/>
-        <v>2.18799999999999</v>
+        <v>1.4559999999999906</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="21" customHeight="1">
@@ -3487,23 +3489,23 @@
         <v>7</v>
       </c>
       <c r="B119" s="8">
-        <v>41345</v>
+        <v>41352</v>
       </c>
       <c r="C119">
-        <v>1.3451500000000001</v>
+        <v>1.33365</v>
       </c>
       <c r="D119">
-        <v>1.34944</v>
+        <v>1.3408599999999999</v>
       </c>
       <c r="E119">
-        <v>1.3275600000000001</v>
+        <v>1.3263</v>
       </c>
       <c r="F119">
-        <v>1.3344199999999999</v>
+        <v>1.33666</v>
       </c>
       <c r="H119">
         <f t="shared" si="1"/>
-        <v>1.6310000000000047</v>
+        <v>2.18799999999999</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="21" customHeight="1">
@@ -3511,23 +3513,23 @@
         <v>7</v>
       </c>
       <c r="B120" s="8">
-        <v>41338</v>
+        <v>41345</v>
       </c>
       <c r="C120">
-        <v>1.3374999999999999</v>
+        <v>1.3451500000000001</v>
       </c>
       <c r="D120">
-        <v>1.35345</v>
+        <v>1.34944</v>
       </c>
       <c r="E120">
-        <v>1.33714</v>
+        <v>1.3275600000000001</v>
       </c>
       <c r="F120">
-        <v>1.34632</v>
+        <v>1.3344199999999999</v>
       </c>
       <c r="H120">
         <f t="shared" si="1"/>
-        <v>3.5390000000000033</v>
+        <v>1.6310000000000047</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="21" customHeight="1">
@@ -3535,23 +3537,23 @@
         <v>7</v>
       </c>
       <c r="B121" s="8">
-        <v>41331</v>
+        <v>41338</v>
       </c>
       <c r="C121">
-        <v>1.30955</v>
+        <v>1.3374999999999999</v>
       </c>
       <c r="D121">
-        <v>1.34368</v>
+        <v>1.35345</v>
       </c>
       <c r="E121">
-        <v>1.30829</v>
+        <v>1.33714</v>
       </c>
       <c r="F121">
-        <v>1.3375999999999999</v>
+        <v>1.34632</v>
       </c>
       <c r="H121">
         <f t="shared" si="1"/>
-        <v>1.5969999999999818</v>
+        <v>3.5390000000000033</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="21" customHeight="1">
@@ -3559,23 +3561,23 @@
         <v>7</v>
       </c>
       <c r="B122" s="8">
-        <v>41324</v>
+        <v>41331</v>
       </c>
       <c r="C122">
-        <v>1.30985</v>
+        <v>1.30955</v>
       </c>
       <c r="D122">
-        <v>1.3208899999999999</v>
+        <v>1.34368</v>
       </c>
       <c r="E122">
-        <v>1.3049200000000001</v>
+        <v>1.30829</v>
       </c>
       <c r="F122">
-        <v>1.3103100000000001</v>
+        <v>1.3375999999999999</v>
       </c>
       <c r="H122">
         <f t="shared" si="1"/>
-        <v>1.1720000000000175</v>
+        <v>1.5969999999999818</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="21" customHeight="1">
@@ -3583,23 +3585,23 @@
         <v>7</v>
       </c>
       <c r="B123" s="8">
-        <v>41317</v>
+        <v>41324</v>
       </c>
       <c r="C123">
-        <v>1.3083499999999999</v>
+        <v>1.30985</v>
       </c>
       <c r="D123">
-        <v>1.3125800000000001</v>
+        <v>1.3208899999999999</v>
       </c>
       <c r="E123">
-        <v>1.3008599999999999</v>
+        <v>1.3049200000000001</v>
       </c>
       <c r="F123">
-        <v>1.3090999999999999</v>
+        <v>1.3103100000000001</v>
       </c>
       <c r="H123">
         <f t="shared" si="1"/>
-        <v>2.0499999999999963</v>
+        <v>1.1720000000000175</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="21" customHeight="1">
@@ -3607,23 +3609,23 @@
         <v>7</v>
       </c>
       <c r="B124" s="8">
-        <v>41310</v>
+        <v>41317</v>
       </c>
       <c r="C124">
-        <v>1.3022899999999999</v>
+        <v>1.3083499999999999</v>
       </c>
       <c r="D124">
-        <v>1.3211299999999999</v>
+        <v>1.3125800000000001</v>
       </c>
       <c r="E124">
-        <v>1.30063</v>
+        <v>1.3008599999999999</v>
       </c>
       <c r="F124">
-        <v>1.30915</v>
+        <v>1.3090999999999999</v>
       </c>
       <c r="H124">
         <f t="shared" si="1"/>
-        <v>2.0199999999999996</v>
+        <v>2.0499999999999963</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="21" customHeight="1">
@@ -3631,23 +3633,23 @@
         <v>7</v>
       </c>
       <c r="B125" s="8">
-        <v>41303</v>
+        <v>41310</v>
       </c>
       <c r="C125">
-        <v>1.31315</v>
+        <v>1.3022899999999999</v>
       </c>
       <c r="D125">
-        <v>1.3168299999999999</v>
+        <v>1.3211299999999999</v>
       </c>
       <c r="E125">
-        <v>1.2966299999999999</v>
+        <v>1.30063</v>
       </c>
       <c r="F125">
-        <v>1.30341</v>
+        <v>1.30915</v>
       </c>
       <c r="H125">
         <f t="shared" si="1"/>
-        <v>2.8129999999999988</v>
+        <v>2.0199999999999996</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="21" customHeight="1">
@@ -3655,23 +3657,23 @@
         <v>7</v>
       </c>
       <c r="B126" s="8">
-        <v>41296</v>
+        <v>41303</v>
       </c>
       <c r="C126">
-        <v>1.33175</v>
+        <v>1.31315</v>
       </c>
       <c r="D126">
-        <v>1.33342</v>
+        <v>1.3168299999999999</v>
       </c>
       <c r="E126">
-        <v>1.3052900000000001</v>
+        <v>1.2966299999999999</v>
       </c>
       <c r="F126">
-        <v>1.3147200000000001</v>
+        <v>1.30341</v>
       </c>
       <c r="H126">
         <f t="shared" si="1"/>
-        <v>3.6869999999999958</v>
+        <v>2.8129999999999988</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="21" customHeight="1">
@@ -3679,23 +3681,23 @@
         <v>7</v>
       </c>
       <c r="B127" s="8">
-        <v>41289</v>
+        <v>41296</v>
       </c>
       <c r="C127">
-        <v>1.31267</v>
+        <v>1.33175</v>
       </c>
       <c r="D127">
-        <v>1.3386899999999999</v>
+        <v>1.33342</v>
       </c>
       <c r="E127">
-        <v>1.30182</v>
+        <v>1.3052900000000001</v>
       </c>
       <c r="F127">
-        <v>1.3317399999999999</v>
+        <v>1.3147200000000001</v>
       </c>
       <c r="H127">
         <f t="shared" si="1"/>
-        <v>2.6440000000000019</v>
+        <v>3.6869999999999958</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="21" customHeight="1">
@@ -3703,23 +3705,23 @@
         <v>7</v>
       </c>
       <c r="B128" s="8">
-        <v>41282</v>
+        <v>41289</v>
       </c>
       <c r="C128">
-        <v>1.3246</v>
+        <v>1.31267</v>
       </c>
       <c r="D128">
-        <v>1.32935</v>
+        <v>1.3386899999999999</v>
       </c>
       <c r="E128">
-        <v>1.30291</v>
+        <v>1.30182</v>
       </c>
       <c r="F128">
-        <v>1.31246</v>
+        <v>1.3317399999999999</v>
       </c>
       <c r="H128">
         <f t="shared" si="1"/>
-        <v>2.8329999999999966</v>
+        <v>2.6440000000000019</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="21" customHeight="1">
@@ -3727,23 +3729,23 @@
         <v>7</v>
       </c>
       <c r="B129" s="8">
-        <v>41275</v>
+        <v>41282</v>
       </c>
       <c r="C129">
-        <v>1.3435999999999999</v>
+        <v>1.3246</v>
       </c>
       <c r="D129">
-        <v>1.34602</v>
+        <v>1.32935</v>
       </c>
       <c r="E129">
-        <v>1.31769</v>
+        <v>1.30291</v>
       </c>
       <c r="F129">
-        <v>1.3233200000000001</v>
+        <v>1.31246</v>
       </c>
       <c r="H129">
         <f t="shared" si="1"/>
-        <v>1.9720000000000182</v>
+        <v>2.8329999999999966</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="21" customHeight="1">
@@ -3751,23 +3753,23 @@
         <v>7</v>
       </c>
       <c r="B130" s="8">
-        <v>41268</v>
+        <v>41275</v>
       </c>
       <c r="C130">
-        <v>1.3516300000000001</v>
+        <v>1.3435999999999999</v>
       </c>
       <c r="D130">
-        <v>1.3597600000000001</v>
+        <v>1.34602</v>
       </c>
       <c r="E130">
-        <v>1.3400399999999999</v>
+        <v>1.31769</v>
       </c>
       <c r="F130">
-        <v>1.34311</v>
+        <v>1.3233200000000001</v>
       </c>
       <c r="H130">
         <f t="shared" ref="H130:H193" si="2">ABS(D131-E131)*100</f>
-        <v>2.3949999999999916</v>
+        <v>1.9720000000000182</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="21" customHeight="1">
@@ -3775,23 +3777,23 @@
         <v>7</v>
       </c>
       <c r="B131" s="8">
-        <v>41261</v>
+        <v>41268</v>
       </c>
       <c r="C131">
-        <v>1.33335</v>
+        <v>1.3516300000000001</v>
       </c>
       <c r="D131">
-        <v>1.35564</v>
+        <v>1.3597600000000001</v>
       </c>
       <c r="E131">
-        <v>1.33169</v>
+        <v>1.3400399999999999</v>
       </c>
       <c r="F131">
-        <v>1.35287</v>
+        <v>1.34311</v>
       </c>
       <c r="H131">
         <f t="shared" si="2"/>
-        <v>3.3930000000000016</v>
+        <v>2.3949999999999916</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="21" customHeight="1">
@@ -3799,23 +3801,23 @@
         <v>7</v>
       </c>
       <c r="B132" s="8">
-        <v>41254</v>
+        <v>41261</v>
       </c>
       <c r="C132">
-        <v>1.31375</v>
+        <v>1.33335</v>
       </c>
       <c r="D132">
-        <v>1.34165</v>
+        <v>1.35564</v>
       </c>
       <c r="E132">
-        <v>1.30772</v>
+        <v>1.33169</v>
       </c>
       <c r="F132">
-        <v>1.3332599999999999</v>
+        <v>1.35287</v>
       </c>
       <c r="H132">
         <f t="shared" si="2"/>
-        <v>2.0289999999999919</v>
+        <v>3.3930000000000016</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="21" customHeight="1">
@@ -3823,23 +3825,23 @@
         <v>7</v>
       </c>
       <c r="B133" s="8">
-        <v>41247</v>
+        <v>41254</v>
       </c>
       <c r="C133">
-        <v>1.3288500000000001</v>
+        <v>1.31375</v>
       </c>
       <c r="D133">
-        <v>1.3354699999999999</v>
+        <v>1.34165</v>
       </c>
       <c r="E133">
-        <v>1.31518</v>
+        <v>1.30772</v>
       </c>
       <c r="F133">
-        <v>1.3176600000000001</v>
+        <v>1.3332599999999999</v>
       </c>
       <c r="H133">
         <f t="shared" si="2"/>
-        <v>2.8239999999999821</v>
+        <v>2.0289999999999919</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="21" customHeight="1">
@@ -3847,23 +3849,23 @@
         <v>7</v>
       </c>
       <c r="B134" s="8">
-        <v>41240</v>
+        <v>41247</v>
       </c>
       <c r="C134">
-        <v>1.3494299999999999</v>
+        <v>1.3288500000000001</v>
       </c>
       <c r="D134">
-        <v>1.3536999999999999</v>
+        <v>1.3354699999999999</v>
       </c>
       <c r="E134">
-        <v>1.3254600000000001</v>
+        <v>1.31518</v>
       </c>
       <c r="F134">
-        <v>1.3289800000000001</v>
+        <v>1.3176600000000001</v>
       </c>
       <c r="H134">
         <f t="shared" si="2"/>
-        <v>1.5770000000000062</v>
+        <v>2.8239999999999821</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="21" customHeight="1">
@@ -3871,23 +3873,23 @@
         <v>7</v>
       </c>
       <c r="B135" s="8">
-        <v>41233</v>
+        <v>41240</v>
       </c>
       <c r="C135">
-        <v>1.3487499999999999</v>
+        <v>1.3494299999999999</v>
       </c>
       <c r="D135">
-        <v>1.35348</v>
+        <v>1.3536999999999999</v>
       </c>
       <c r="E135">
-        <v>1.33771</v>
+        <v>1.3254600000000001</v>
       </c>
       <c r="F135">
-        <v>1.35223</v>
+        <v>1.3289800000000001</v>
       </c>
       <c r="H135">
         <f t="shared" si="2"/>
-        <v>1.8860000000000099</v>
+        <v>1.5770000000000062</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="21" customHeight="1">
@@ -3895,23 +3897,23 @@
         <v>7</v>
       </c>
       <c r="B136" s="8">
-        <v>41226</v>
+        <v>41233</v>
       </c>
       <c r="C136">
-        <v>1.3496900000000001</v>
+        <v>1.3487499999999999</v>
       </c>
       <c r="D136">
-        <v>1.35877</v>
+        <v>1.35348</v>
       </c>
       <c r="E136">
-        <v>1.3399099999999999</v>
+        <v>1.33771</v>
       </c>
       <c r="F136">
-        <v>1.35094</v>
+        <v>1.35223</v>
       </c>
       <c r="H136">
         <f t="shared" si="2"/>
-        <v>2.8329999999999966</v>
+        <v>1.8860000000000099</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="21" customHeight="1">
@@ -3919,23 +3921,23 @@
         <v>7</v>
       </c>
       <c r="B137" s="8">
-        <v>41219</v>
+        <v>41226</v>
       </c>
       <c r="C137">
-        <v>1.33352</v>
+        <v>1.3496900000000001</v>
       </c>
       <c r="D137">
-        <v>1.3547400000000001</v>
+        <v>1.35877</v>
       </c>
       <c r="E137">
-        <v>1.3264100000000001</v>
+        <v>1.3399099999999999</v>
       </c>
       <c r="F137">
-        <v>1.35368</v>
+        <v>1.35094</v>
       </c>
       <c r="H137">
         <f t="shared" si="2"/>
-        <v>1.1239999999999917</v>
+        <v>2.8329999999999966</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="21" customHeight="1">
@@ -3943,23 +3945,23 @@
         <v>7</v>
       </c>
       <c r="B138" s="8">
-        <v>41212</v>
+        <v>41219</v>
       </c>
       <c r="C138">
-        <v>1.3406199999999999</v>
+        <v>1.33352</v>
       </c>
       <c r="D138">
-        <v>1.34649</v>
+        <v>1.3547400000000001</v>
       </c>
       <c r="E138">
-        <v>1.33525</v>
+        <v>1.3264100000000001</v>
       </c>
       <c r="F138">
-        <v>1.34023</v>
+        <v>1.35368</v>
       </c>
       <c r="H138">
         <f t="shared" si="2"/>
-        <v>1.5549999999999953</v>
+        <v>1.1239999999999917</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="21" customHeight="1">
@@ -3967,23 +3969,23 @@
         <v>7</v>
       </c>
       <c r="B139" s="8">
-        <v>41205</v>
+        <v>41212</v>
       </c>
       <c r="C139">
-        <v>1.3339700000000001</v>
+        <v>1.3406199999999999</v>
       </c>
       <c r="D139">
-        <v>1.3432500000000001</v>
+        <v>1.34649</v>
       </c>
       <c r="E139">
-        <v>1.3277000000000001</v>
+        <v>1.33525</v>
       </c>
       <c r="F139">
-        <v>1.3388199999999999</v>
+        <v>1.34023</v>
       </c>
       <c r="H139">
         <f t="shared" si="2"/>
-        <v>3.4850000000000048</v>
+        <v>1.5549999999999953</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="21" customHeight="1">
@@ -3991,23 +3993,23 @@
         <v>7</v>
       </c>
       <c r="B140" s="8">
-        <v>41198</v>
+        <v>41205</v>
       </c>
       <c r="C140">
-        <v>1.3134399999999999</v>
+        <v>1.3339700000000001</v>
       </c>
       <c r="D140">
-        <v>1.33538</v>
+        <v>1.3432500000000001</v>
       </c>
       <c r="E140">
-        <v>1.30053</v>
+        <v>1.3277000000000001</v>
       </c>
       <c r="F140">
-        <v>1.33297</v>
+        <v>1.3388199999999999</v>
       </c>
       <c r="H140">
         <f t="shared" si="2"/>
-        <v>2.0429999999999948</v>
+        <v>3.4850000000000048</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="21" customHeight="1">
@@ -4015,23 +4017,23 @@
         <v>7</v>
       </c>
       <c r="B141" s="8">
-        <v>41191</v>
+        <v>41198</v>
       </c>
       <c r="C141">
-        <v>1.325</v>
+        <v>1.3134399999999999</v>
       </c>
       <c r="D141">
-        <v>1.3306199999999999</v>
+        <v>1.33538</v>
       </c>
       <c r="E141">
-        <v>1.31019</v>
+        <v>1.30053</v>
       </c>
       <c r="F141">
-        <v>1.3140000000000001</v>
+        <v>1.33297</v>
       </c>
       <c r="H141">
         <f t="shared" si="2"/>
-        <v>2.4540000000000006</v>
+        <v>2.0429999999999948</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="21" customHeight="1">
@@ -4039,23 +4041,23 @@
         <v>7</v>
       </c>
       <c r="B142" s="8">
-        <v>41184</v>
+        <v>41191</v>
       </c>
       <c r="C142">
-        <v>1.31182</v>
+        <v>1.325</v>
       </c>
       <c r="D142">
-        <v>1.3312600000000001</v>
+        <v>1.3306199999999999</v>
       </c>
       <c r="E142">
-        <v>1.3067200000000001</v>
+        <v>1.31019</v>
       </c>
       <c r="F142">
-        <v>1.32785</v>
+        <v>1.3140000000000001</v>
       </c>
       <c r="H142">
         <f t="shared" si="2"/>
-        <v>2.3290000000000033</v>
+        <v>2.4540000000000006</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="21" customHeight="1">
@@ -4063,23 +4065,23 @@
         <v>7</v>
       </c>
       <c r="B143" s="8">
-        <v>41177</v>
+        <v>41184</v>
       </c>
       <c r="C143">
-        <v>1.3166899999999999</v>
+        <v>1.31182</v>
       </c>
       <c r="D143">
-        <v>1.3280400000000001</v>
+        <v>1.3312600000000001</v>
       </c>
       <c r="E143">
-        <v>1.3047500000000001</v>
+        <v>1.3067200000000001</v>
       </c>
       <c r="F143">
-        <v>1.3119499999999999</v>
+        <v>1.32785</v>
       </c>
       <c r="H143">
         <f t="shared" si="2"/>
-        <v>2.4359999999999937</v>
+        <v>2.3290000000000033</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="21" customHeight="1">
@@ -4087,23 +4089,23 @@
         <v>7</v>
       </c>
       <c r="B144" s="8">
-        <v>41170</v>
+        <v>41177</v>
       </c>
       <c r="C144">
-        <v>1.3212200000000001</v>
+        <v>1.3166899999999999</v>
       </c>
       <c r="D144">
-        <v>1.32423</v>
+        <v>1.3280400000000001</v>
       </c>
       <c r="E144">
-        <v>1.2998700000000001</v>
+        <v>1.3047500000000001</v>
       </c>
       <c r="F144">
-        <v>1.3163800000000001</v>
+        <v>1.3119499999999999</v>
       </c>
       <c r="H144">
         <f t="shared" si="2"/>
-        <v>2.1830000000000016</v>
+        <v>2.4359999999999937</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="21" customHeight="1">
@@ -4111,23 +4113,23 @@
         <v>7</v>
       </c>
       <c r="B145" s="8">
-        <v>41163</v>
+        <v>41170</v>
       </c>
       <c r="C145">
-        <v>1.3038400000000001</v>
+        <v>1.3212200000000001</v>
       </c>
       <c r="D145">
-        <v>1.32473</v>
+        <v>1.32423</v>
       </c>
       <c r="E145">
-        <v>1.3028999999999999</v>
+        <v>1.2998700000000001</v>
       </c>
       <c r="F145">
-        <v>1.3216300000000001</v>
+        <v>1.3163800000000001</v>
       </c>
       <c r="H145">
         <f t="shared" si="2"/>
-        <v>2.3839999999999861</v>
+        <v>2.1830000000000016</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="21" customHeight="1">
@@ -4135,23 +4137,23 @@
         <v>7</v>
       </c>
       <c r="B146" s="8">
-        <v>41156</v>
+        <v>41163</v>
       </c>
       <c r="C146">
-        <v>1.2983499999999999</v>
+        <v>1.3038400000000001</v>
       </c>
       <c r="D146">
-        <v>1.3052299999999999</v>
+        <v>1.32473</v>
       </c>
       <c r="E146">
-        <v>1.28139</v>
+        <v>1.3028999999999999</v>
       </c>
       <c r="F146">
-        <v>1.30322</v>
+        <v>1.3216300000000001</v>
       </c>
       <c r="H146">
         <f t="shared" si="2"/>
-        <v>1.656000000000013</v>
+        <v>2.3839999999999861</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="21" customHeight="1">
@@ -4159,23 +4161,23 @@
         <v>7</v>
       </c>
       <c r="B147" s="8">
-        <v>41149</v>
+        <v>41156</v>
       </c>
       <c r="C147">
-        <v>1.3002400000000001</v>
+        <v>1.2983499999999999</v>
       </c>
       <c r="D147">
-        <v>1.3147200000000001</v>
+        <v>1.3052299999999999</v>
       </c>
       <c r="E147">
-        <v>1.29816</v>
+        <v>1.28139</v>
       </c>
       <c r="F147">
-        <v>1.2986899999999999</v>
+        <v>1.30322</v>
       </c>
       <c r="H147">
         <f t="shared" si="2"/>
-        <v>1.8000000000000016</v>
+        <v>1.656000000000013</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="21" customHeight="1">
@@ -4183,23 +4185,23 @@
         <v>7</v>
       </c>
       <c r="B148" s="8">
-        <v>41142</v>
+        <v>41149</v>
       </c>
       <c r="C148">
-        <v>1.28735</v>
+        <v>1.3002400000000001</v>
       </c>
       <c r="D148">
-        <v>1.3010699999999999</v>
+        <v>1.3147200000000001</v>
       </c>
       <c r="E148">
-        <v>1.2830699999999999</v>
+        <v>1.29816</v>
       </c>
       <c r="F148">
-        <v>1.29986</v>
+        <v>1.2986899999999999</v>
       </c>
       <c r="H148">
         <f t="shared" si="2"/>
-        <v>2.1150000000000002</v>
+        <v>1.8000000000000016</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="21" customHeight="1">
@@ -4207,23 +4209,23 @@
         <v>7</v>
       </c>
       <c r="B149" s="8">
-        <v>41135</v>
+        <v>41142</v>
       </c>
       <c r="C149">
-        <v>1.29521</v>
+        <v>1.28735</v>
       </c>
       <c r="D149">
-        <v>1.29748</v>
+        <v>1.3010699999999999</v>
       </c>
       <c r="E149">
-        <v>1.27633</v>
+        <v>1.2830699999999999</v>
       </c>
       <c r="F149">
-        <v>1.2862199999999999</v>
+        <v>1.29986</v>
       </c>
       <c r="H149">
         <f t="shared" si="2"/>
-        <v>2.6540000000000008</v>
+        <v>2.1150000000000002</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="21" customHeight="1">
@@ -4231,23 +4233,23 @@
         <v>7</v>
       </c>
       <c r="B150" s="8">
-        <v>41128</v>
+        <v>41135</v>
       </c>
       <c r="C150">
-        <v>1.3178000000000001</v>
+        <v>1.29521</v>
       </c>
       <c r="D150">
-        <v>1.31891</v>
+        <v>1.29748</v>
       </c>
       <c r="E150">
-        <v>1.29237</v>
+        <v>1.27633</v>
       </c>
       <c r="F150">
-        <v>1.29616</v>
+        <v>1.2862199999999999</v>
       </c>
       <c r="H150">
         <f t="shared" si="2"/>
-        <v>2.0369999999999999</v>
+        <v>2.6540000000000008</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="21" customHeight="1">
@@ -4255,23 +4257,23 @@
         <v>7</v>
       </c>
       <c r="B151" s="8">
-        <v>41121</v>
+        <v>41128</v>
       </c>
       <c r="C151">
-        <v>1.30314</v>
+        <v>1.3178000000000001</v>
       </c>
       <c r="D151">
-        <v>1.31996</v>
+        <v>1.31891</v>
       </c>
       <c r="E151">
-        <v>1.29959</v>
+        <v>1.29237</v>
       </c>
       <c r="F151">
-        <v>1.31772</v>
+        <v>1.29616</v>
       </c>
       <c r="H151">
         <f t="shared" si="2"/>
-        <v>2.4779999999999802</v>
+        <v>2.0369999999999999</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="21" customHeight="1">
@@ -4279,23 +4281,23 @@
         <v>7</v>
       </c>
       <c r="B152" s="8">
-        <v>41114</v>
+        <v>41121</v>
       </c>
       <c r="C152">
-        <v>1.31389</v>
+        <v>1.30314</v>
       </c>
       <c r="D152">
-        <v>1.3248899999999999</v>
+        <v>1.31996</v>
       </c>
       <c r="E152">
-        <v>1.3001100000000001</v>
+        <v>1.29959</v>
       </c>
       <c r="F152">
-        <v>1.30315</v>
+        <v>1.31772</v>
       </c>
       <c r="H152">
         <f t="shared" si="2"/>
-        <v>2.583000000000002</v>
+        <v>2.4779999999999802</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="21" customHeight="1">
@@ -4303,23 +4305,23 @@
         <v>7</v>
       </c>
       <c r="B153" s="8">
-        <v>41107</v>
+        <v>41114</v>
       </c>
       <c r="C153">
-        <v>1.2942400000000001</v>
+        <v>1.31389</v>
       </c>
       <c r="D153">
-        <v>1.31847</v>
+        <v>1.3248899999999999</v>
       </c>
       <c r="E153">
-        <v>1.29264</v>
+        <v>1.3001100000000001</v>
       </c>
       <c r="F153">
-        <v>1.31369</v>
+        <v>1.30315</v>
       </c>
       <c r="H153">
         <f t="shared" si="2"/>
-        <v>2.8639999999999999</v>
+        <v>2.583000000000002</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="21" customHeight="1">
@@ -4327,23 +4329,23 @@
         <v>7</v>
       </c>
       <c r="B154" s="8">
-        <v>41100</v>
+        <v>41107</v>
       </c>
       <c r="C154">
-        <v>1.3046</v>
+        <v>1.2942400000000001</v>
       </c>
       <c r="D154">
-        <v>1.3139099999999999</v>
+        <v>1.31847</v>
       </c>
       <c r="E154">
-        <v>1.2852699999999999</v>
+        <v>1.29264</v>
       </c>
       <c r="F154">
-        <v>1.29633</v>
+        <v>1.31369</v>
       </c>
       <c r="H154">
         <f t="shared" si="2"/>
-        <v>2.583000000000002</v>
+        <v>2.8639999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="21" customHeight="1">
@@ -4351,23 +4353,23 @@
         <v>7</v>
       </c>
       <c r="B155" s="8">
-        <v>41093</v>
+        <v>41100</v>
       </c>
       <c r="C155">
-        <v>1.29128</v>
+        <v>1.3046</v>
       </c>
       <c r="D155">
-        <v>1.3089200000000001</v>
+        <v>1.3139099999999999</v>
       </c>
       <c r="E155">
-        <v>1.2830900000000001</v>
+        <v>1.2852699999999999</v>
       </c>
       <c r="F155">
-        <v>1.3038700000000001</v>
+        <v>1.29633</v>
       </c>
       <c r="H155">
         <f t="shared" si="2"/>
-        <v>2.5509999999999922</v>
+        <v>2.583000000000002</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="21" customHeight="1">
@@ -4375,23 +4377,23 @@
         <v>7</v>
       </c>
       <c r="B156" s="8">
-        <v>41086</v>
+        <v>41093</v>
       </c>
       <c r="C156">
-        <v>1.30267</v>
+        <v>1.29128</v>
       </c>
       <c r="D156">
-        <v>1.31196</v>
+        <v>1.3089200000000001</v>
       </c>
       <c r="E156">
-        <v>1.2864500000000001</v>
+        <v>1.2830900000000001</v>
       </c>
       <c r="F156">
-        <v>1.29068</v>
+        <v>1.3038700000000001</v>
       </c>
       <c r="H156">
         <f t="shared" si="2"/>
-        <v>4.098999999999986</v>
+        <v>2.5509999999999922</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="21" customHeight="1">
@@ -4399,23 +4401,23 @@
         <v>7</v>
       </c>
       <c r="B157" s="8">
-        <v>41079</v>
+        <v>41086</v>
       </c>
       <c r="C157">
-        <v>1.28437</v>
+        <v>1.30267</v>
       </c>
       <c r="D157">
-        <v>1.30836</v>
+        <v>1.31196</v>
       </c>
       <c r="E157">
-        <v>1.2673700000000001</v>
+        <v>1.2864500000000001</v>
       </c>
       <c r="F157">
-        <v>1.30053</v>
+        <v>1.29068</v>
       </c>
       <c r="H157">
         <f t="shared" si="2"/>
-        <v>3.3559999999999812</v>
+        <v>4.098999999999986</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="21" customHeight="1">
@@ -4423,23 +4425,23 @@
         <v>7</v>
       </c>
       <c r="B158" s="8">
-        <v>41072</v>
+        <v>41079</v>
       </c>
       <c r="C158">
-        <v>1.2777799999999999</v>
+        <v>1.28437</v>
       </c>
       <c r="D158">
-        <v>1.3085199999999999</v>
+        <v>1.30836</v>
       </c>
       <c r="E158">
-        <v>1.2749600000000001</v>
+        <v>1.2673700000000001</v>
       </c>
       <c r="F158">
-        <v>1.28878</v>
+        <v>1.30053</v>
       </c>
       <c r="H158">
         <f t="shared" si="2"/>
-        <v>3.2789999999999875</v>
+        <v>3.3559999999999812</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="21" customHeight="1">
@@ -4447,23 +4449,23 @@
         <v>7</v>
       </c>
       <c r="B159" s="8">
-        <v>41065</v>
+        <v>41072</v>
       </c>
       <c r="C159">
-        <v>1.2937700000000001</v>
+        <v>1.2777799999999999</v>
       </c>
       <c r="D159">
-        <v>1.29819</v>
+        <v>1.3085199999999999</v>
       </c>
       <c r="E159">
-        <v>1.2654000000000001</v>
+        <v>1.2749600000000001</v>
       </c>
       <c r="F159">
-        <v>1.2758100000000001</v>
+        <v>1.28878</v>
       </c>
       <c r="H159">
         <f t="shared" si="2"/>
-        <v>2.2820000000000062</v>
+        <v>3.2789999999999875</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="21" customHeight="1">
@@ -4471,23 +4473,23 @@
         <v>7</v>
       </c>
       <c r="B160" s="8">
-        <v>41058</v>
+        <v>41065</v>
       </c>
       <c r="C160">
-        <v>1.30219</v>
+        <v>1.2937700000000001</v>
       </c>
       <c r="D160">
-        <v>1.3143100000000001</v>
+        <v>1.29819</v>
       </c>
       <c r="E160">
-        <v>1.29149</v>
+        <v>1.2654000000000001</v>
       </c>
       <c r="F160">
-        <v>1.2944599999999999</v>
+        <v>1.2758100000000001</v>
       </c>
       <c r="H160">
         <f t="shared" si="2"/>
-        <v>2.7719999999999967</v>
+        <v>2.2820000000000062</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="21" customHeight="1">
@@ -4495,23 +4497,23 @@
         <v>7</v>
       </c>
       <c r="B161" s="8">
-        <v>41051</v>
+        <v>41058</v>
       </c>
       <c r="C161">
-        <v>1.3111299999999999</v>
+        <v>1.30219</v>
       </c>
       <c r="D161">
-        <v>1.31873</v>
+        <v>1.3143100000000001</v>
       </c>
       <c r="E161">
-        <v>1.29101</v>
+        <v>1.29149</v>
       </c>
       <c r="F161">
-        <v>1.3025199999999999</v>
+        <v>1.2944599999999999</v>
       </c>
       <c r="H161">
         <f t="shared" si="2"/>
-        <v>3.2510000000000039</v>
+        <v>2.7719999999999967</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="21" customHeight="1">
@@ -4519,23 +4521,23 @@
         <v>7</v>
       </c>
       <c r="B162" s="8">
-        <v>41044</v>
+        <v>41051</v>
       </c>
       <c r="C162">
-        <v>1.2942400000000001</v>
+        <v>1.3111299999999999</v>
       </c>
       <c r="D162">
-        <v>1.31616</v>
+        <v>1.31873</v>
       </c>
       <c r="E162">
-        <v>1.28365</v>
+        <v>1.29101</v>
       </c>
       <c r="F162">
-        <v>1.31186</v>
+        <v>1.3025199999999999</v>
       </c>
       <c r="H162">
         <f t="shared" si="2"/>
-        <v>2.4399999999999977</v>
+        <v>3.2510000000000039</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="21" customHeight="1">
@@ -4543,23 +4545,23 @@
         <v>7</v>
       </c>
       <c r="B163" s="8">
-        <v>41037</v>
+        <v>41044</v>
       </c>
       <c r="C163">
-        <v>1.2926</v>
+        <v>1.2942400000000001</v>
       </c>
       <c r="D163">
-        <v>1.3014600000000001</v>
+        <v>1.31616</v>
       </c>
       <c r="E163">
-        <v>1.2770600000000001</v>
+        <v>1.28365</v>
       </c>
       <c r="F163">
-        <v>1.29315</v>
+        <v>1.31186</v>
       </c>
       <c r="H163">
         <f t="shared" si="2"/>
-        <v>4.9089999999999856</v>
+        <v>2.4399999999999977</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="21" customHeight="1">
@@ -4567,23 +4569,23 @@
         <v>7</v>
       </c>
       <c r="B164" s="8">
-        <v>41030</v>
+        <v>41037</v>
       </c>
       <c r="C164">
-        <v>1.254</v>
+        <v>1.2926</v>
       </c>
       <c r="D164">
-        <v>1.2951299999999999</v>
+        <v>1.3014600000000001</v>
       </c>
       <c r="E164">
-        <v>1.24604</v>
+        <v>1.2770600000000001</v>
       </c>
       <c r="F164">
-        <v>1.29036</v>
+        <v>1.29315</v>
       </c>
       <c r="H164">
         <f t="shared" si="2"/>
-        <v>2.1939999999999849</v>
+        <v>4.9089999999999856</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="21" customHeight="1">
@@ -4591,23 +4593,23 @@
         <v>7</v>
       </c>
       <c r="B165" s="8">
-        <v>41023</v>
+        <v>41030</v>
       </c>
       <c r="C165">
-        <v>1.26512</v>
+        <v>1.254</v>
       </c>
       <c r="D165">
-        <v>1.2716799999999999</v>
+        <v>1.2951299999999999</v>
       </c>
       <c r="E165">
-        <v>1.2497400000000001</v>
+        <v>1.24604</v>
       </c>
       <c r="F165">
-        <v>1.2543800000000001</v>
+        <v>1.29036</v>
       </c>
       <c r="H165">
         <f t="shared" si="2"/>
-        <v>3.9670000000000094</v>
+        <v>2.1939999999999849</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="21" customHeight="1">
@@ -4615,23 +4617,23 @@
         <v>7</v>
       </c>
       <c r="B166" s="8">
-        <v>41016</v>
+        <v>41023</v>
       </c>
       <c r="C166">
-        <v>1.2941199999999999</v>
+        <v>1.26512</v>
       </c>
       <c r="D166">
-        <v>1.29891</v>
+        <v>1.2716799999999999</v>
       </c>
       <c r="E166">
-        <v>1.2592399999999999</v>
+        <v>1.2497400000000001</v>
       </c>
       <c r="F166">
-        <v>1.26675</v>
+        <v>1.2543800000000001</v>
       </c>
       <c r="H166">
         <f t="shared" si="2"/>
-        <v>2.7179999999999982</v>
+        <v>3.9670000000000094</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="21" customHeight="1">
@@ -4639,23 +4641,23 @@
         <v>7</v>
       </c>
       <c r="B167" s="8">
-        <v>41009</v>
+        <v>41016</v>
       </c>
       <c r="C167">
-        <v>1.29887</v>
+        <v>1.2941199999999999</v>
       </c>
       <c r="D167">
-        <v>1.30152</v>
+        <v>1.29891</v>
       </c>
       <c r="E167">
-        <v>1.27434</v>
+        <v>1.2592399999999999</v>
       </c>
       <c r="F167">
-        <v>1.2819400000000001</v>
+        <v>1.26675</v>
       </c>
       <c r="H167">
         <f t="shared" si="2"/>
-        <v>2.6669999999999972</v>
+        <v>2.7179999999999982</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="21" customHeight="1">
@@ -4663,23 +4665,23 @@
         <v>7</v>
       </c>
       <c r="B168" s="8">
-        <v>41002</v>
+        <v>41009</v>
       </c>
       <c r="C168">
-        <v>1.30236</v>
+        <v>1.29887</v>
       </c>
       <c r="D168">
-        <v>1.32182</v>
+        <v>1.30152</v>
       </c>
       <c r="E168">
-        <v>1.29515</v>
+        <v>1.27434</v>
       </c>
       <c r="F168">
-        <v>1.2991699999999999</v>
+        <v>1.2819400000000001</v>
       </c>
       <c r="H168">
         <f t="shared" si="2"/>
-        <v>4.2849999999999833</v>
+        <v>2.6669999999999972</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="21" customHeight="1">
@@ -4687,23 +4689,23 @@
         <v>7</v>
       </c>
       <c r="B169" s="8">
-        <v>40995</v>
+        <v>41002</v>
       </c>
       <c r="C169">
-        <v>1.3275999999999999</v>
+        <v>1.30236</v>
       </c>
       <c r="D169">
-        <v>1.3284499999999999</v>
+        <v>1.32182</v>
       </c>
       <c r="E169">
-        <v>1.2856000000000001</v>
+        <v>1.29515</v>
       </c>
       <c r="F169">
-        <v>1.3021499999999999</v>
+        <v>1.2991699999999999</v>
       </c>
       <c r="H169">
         <f t="shared" si="2"/>
-        <v>2.7919999999999945</v>
+        <v>4.2849999999999833</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="21" customHeight="1">
@@ -4711,23 +4713,23 @@
         <v>7</v>
       </c>
       <c r="B170" s="8">
-        <v>40988</v>
+        <v>40995</v>
       </c>
       <c r="C170">
+        <v>1.3275999999999999</v>
+      </c>
+      <c r="D170">
+        <v>1.3284499999999999</v>
+      </c>
+      <c r="E170">
+        <v>1.2856000000000001</v>
+      </c>
+      <c r="F170">
         <v>1.3021499999999999</v>
       </c>
-      <c r="D170">
-        <v>1.3295699999999999</v>
-      </c>
-      <c r="E170">
-        <v>1.30165</v>
-      </c>
-      <c r="F170">
-        <v>1.32656</v>
-      </c>
       <c r="H170">
         <f t="shared" si="2"/>
-        <v>4.8159999999999981</v>
+        <v>2.7919999999999945</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="21" customHeight="1">
@@ -4735,23 +4737,23 @@
         <v>7</v>
       </c>
       <c r="B171" s="8">
-        <v>40981</v>
+        <v>40988</v>
       </c>
       <c r="C171">
-        <v>1.3225100000000001</v>
+        <v>1.3021499999999999</v>
       </c>
       <c r="D171">
-        <v>1.3404199999999999</v>
+        <v>1.3295699999999999</v>
       </c>
       <c r="E171">
-        <v>1.29226</v>
+        <v>1.30165</v>
       </c>
       <c r="F171">
-        <v>1.3008</v>
+        <v>1.32656</v>
       </c>
       <c r="H171">
         <f t="shared" si="2"/>
-        <v>2.784999999999993</v>
+        <v>4.8159999999999981</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="21" customHeight="1">
@@ -4759,23 +4761,23 @@
         <v>7</v>
       </c>
       <c r="B172" s="8">
-        <v>40974</v>
+        <v>40981</v>
       </c>
       <c r="C172">
-        <v>1.3329</v>
+        <v>1.3225100000000001</v>
       </c>
       <c r="D172">
-        <v>1.34453</v>
+        <v>1.3404199999999999</v>
       </c>
       <c r="E172">
-        <v>1.3166800000000001</v>
+        <v>1.29226</v>
       </c>
       <c r="F172">
-        <v>1.3226800000000001</v>
+        <v>1.3008</v>
       </c>
       <c r="H172">
         <f t="shared" si="2"/>
-        <v>2.7000000000000135</v>
+        <v>2.784999999999993</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="21" customHeight="1">
@@ -4783,23 +4785,23 @@
         <v>7</v>
       </c>
       <c r="B173" s="8">
-        <v>40967</v>
+        <v>40974</v>
       </c>
       <c r="C173">
-        <v>1.3512500000000001</v>
+        <v>1.3329</v>
       </c>
       <c r="D173">
-        <v>1.3586100000000001</v>
+        <v>1.34453</v>
       </c>
       <c r="E173">
-        <v>1.33161</v>
+        <v>1.3166800000000001</v>
       </c>
       <c r="F173">
-        <v>1.3319700000000001</v>
+        <v>1.3226800000000001</v>
       </c>
       <c r="H173">
         <f t="shared" si="2"/>
-        <v>3.5409999999999942</v>
+        <v>2.7000000000000135</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="21" customHeight="1">
@@ -4807,23 +4809,23 @@
         <v>7</v>
       </c>
       <c r="B174" s="8">
-        <v>40960</v>
+        <v>40967</v>
       </c>
       <c r="C174">
-        <v>1.3772</v>
+        <v>1.3512500000000001</v>
       </c>
       <c r="D174">
-        <v>1.38584</v>
+        <v>1.3586100000000001</v>
       </c>
       <c r="E174">
-        <v>1.35043</v>
+        <v>1.33161</v>
       </c>
       <c r="F174">
-        <v>1.35162</v>
+        <v>1.3319700000000001</v>
       </c>
       <c r="H174">
         <f t="shared" si="2"/>
-        <v>2.5760000000000005</v>
+        <v>3.5409999999999942</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="21" customHeight="1">
@@ -4831,23 +4833,23 @@
         <v>7</v>
       </c>
       <c r="B175" s="8">
-        <v>40953</v>
+        <v>40960</v>
       </c>
       <c r="C175">
-        <v>1.38449</v>
+        <v>1.3772</v>
       </c>
       <c r="D175">
-        <v>1.3910899999999999</v>
+        <v>1.38584</v>
       </c>
       <c r="E175">
-        <v>1.3653299999999999</v>
+        <v>1.35043</v>
       </c>
       <c r="F175">
-        <v>1.37649</v>
+        <v>1.35162</v>
       </c>
       <c r="H175">
         <f t="shared" si="2"/>
-        <v>2.2940000000000182</v>
+        <v>2.5760000000000005</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="21" customHeight="1">
@@ -4855,23 +4857,23 @@
         <v>7</v>
       </c>
       <c r="B176" s="8">
-        <v>40946</v>
+        <v>40953</v>
       </c>
       <c r="C176">
-        <v>1.38914</v>
+        <v>1.38449</v>
       </c>
       <c r="D176">
-        <v>1.4015200000000001</v>
+        <v>1.3910899999999999</v>
       </c>
       <c r="E176">
-        <v>1.3785799999999999</v>
+        <v>1.3653299999999999</v>
       </c>
       <c r="F176">
-        <v>1.38567</v>
+        <v>1.37649</v>
       </c>
       <c r="H176">
         <f t="shared" si="2"/>
-        <v>4.6360000000000179</v>
+        <v>2.2940000000000182</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="21" customHeight="1">
@@ -4879,23 +4881,23 @@
         <v>7</v>
       </c>
       <c r="B177" s="8">
-        <v>40939</v>
+        <v>40946</v>
       </c>
       <c r="C177">
-        <v>1.39612</v>
+        <v>1.38914</v>
       </c>
       <c r="D177">
-        <v>1.4102300000000001</v>
+        <v>1.4015200000000001</v>
       </c>
       <c r="E177">
-        <v>1.3638699999999999</v>
+        <v>1.3785799999999999</v>
       </c>
       <c r="F177">
-        <v>1.3896599999999999</v>
+        <v>1.38567</v>
       </c>
       <c r="H177">
         <f t="shared" si="2"/>
-        <v>3.774999999999995</v>
+        <v>4.6360000000000179</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="21" customHeight="1">
@@ -4903,23 +4905,23 @@
         <v>7</v>
       </c>
       <c r="B178" s="8">
-        <v>40932</v>
+        <v>40939</v>
       </c>
       <c r="C178">
-        <v>1.4134500000000001</v>
+        <v>1.39612</v>
       </c>
       <c r="D178">
-        <v>1.4324699999999999</v>
+        <v>1.4102300000000001</v>
       </c>
       <c r="E178">
-        <v>1.39472</v>
+        <v>1.3638699999999999</v>
       </c>
       <c r="F178">
-        <v>1.3976900000000001</v>
+        <v>1.3896599999999999</v>
       </c>
       <c r="H178">
         <f t="shared" si="2"/>
-        <v>5.7530000000000081</v>
+        <v>3.774999999999995</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="21" customHeight="1">
@@ -4927,23 +4929,23 @@
         <v>7</v>
       </c>
       <c r="B179" s="8">
-        <v>40925</v>
+        <v>40932</v>
       </c>
       <c r="C179">
-        <v>1.4594499999999999</v>
+        <v>1.4134500000000001</v>
       </c>
       <c r="D179">
-        <v>1.4689300000000001</v>
+        <v>1.4324699999999999</v>
       </c>
       <c r="E179">
-        <v>1.4114</v>
+        <v>1.39472</v>
       </c>
       <c r="F179">
-        <v>1.4140200000000001</v>
+        <v>1.3976900000000001</v>
       </c>
       <c r="H179">
         <f t="shared" si="2"/>
-        <v>4.885000000000006</v>
+        <v>5.7530000000000081</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="21" customHeight="1">
@@ -4951,23 +4953,23 @@
         <v>7</v>
       </c>
       <c r="B180" s="8">
-        <v>40918</v>
+        <v>40925</v>
       </c>
       <c r="C180">
-        <v>1.41625</v>
+        <v>1.4594499999999999</v>
       </c>
       <c r="D180">
-        <v>1.4553</v>
+        <v>1.4689300000000001</v>
       </c>
       <c r="E180">
-        <v>1.40645</v>
+        <v>1.4114</v>
       </c>
       <c r="F180">
-        <v>1.45259</v>
+        <v>1.4140200000000001</v>
       </c>
       <c r="H180">
         <f t="shared" si="2"/>
-        <v>3.6329999999999973</v>
+        <v>4.885000000000006</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="21" customHeight="1">
@@ -4975,23 +4977,23 @@
         <v>7</v>
       </c>
       <c r="B181" s="8">
-        <v>40911</v>
+        <v>40918</v>
       </c>
       <c r="C181">
-        <v>1.3805700000000001</v>
+        <v>1.41625</v>
       </c>
       <c r="D181">
-        <v>1.4169</v>
+        <v>1.4553</v>
       </c>
       <c r="E181">
-        <v>1.3805700000000001</v>
+        <v>1.40645</v>
       </c>
       <c r="F181">
-        <v>1.41639</v>
+        <v>1.45259</v>
       </c>
       <c r="H181">
         <f t="shared" si="2"/>
-        <v>1.4289999999999914</v>
+        <v>3.6329999999999973</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="21" customHeight="1">
@@ -4999,23 +5001,23 @@
         <v>7</v>
       </c>
       <c r="B182" s="8">
-        <v>40904</v>
+        <v>40911</v>
       </c>
       <c r="C182">
-        <v>1.3816999999999999</v>
+        <v>1.3805700000000001</v>
       </c>
       <c r="D182">
-        <v>1.39395</v>
+        <v>1.4169</v>
       </c>
       <c r="E182">
-        <v>1.3796600000000001</v>
+        <v>1.3805700000000001</v>
       </c>
       <c r="F182">
-        <v>1.3824099999999999</v>
+        <v>1.41639</v>
       </c>
       <c r="H182">
         <f t="shared" si="2"/>
-        <v>1.8429999999999946</v>
+        <v>1.4289999999999914</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="21" customHeight="1">
@@ -5023,23 +5025,23 @@
         <v>7</v>
       </c>
       <c r="B183" s="8">
-        <v>40897</v>
+        <v>40904</v>
       </c>
       <c r="C183">
-        <v>1.39306</v>
+        <v>1.3816999999999999</v>
       </c>
       <c r="D183">
-        <v>1.3992899999999999</v>
+        <v>1.39395</v>
       </c>
       <c r="E183">
-        <v>1.38086</v>
+        <v>1.3796600000000001</v>
       </c>
       <c r="F183">
-        <v>1.38106</v>
+        <v>1.3824099999999999</v>
       </c>
       <c r="H183">
         <f t="shared" si="2"/>
-        <v>3.2769999999999966</v>
+        <v>1.8429999999999946</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="21" customHeight="1">
@@ -5047,23 +5049,23 @@
         <v>7</v>
       </c>
       <c r="B184" s="8">
-        <v>40890</v>
+        <v>40897</v>
       </c>
       <c r="C184">
-        <v>1.37161</v>
+        <v>1.39306</v>
       </c>
       <c r="D184">
-        <v>1.40002</v>
+        <v>1.3992899999999999</v>
       </c>
       <c r="E184">
-        <v>1.3672500000000001</v>
+        <v>1.38086</v>
       </c>
       <c r="F184">
-        <v>1.3939600000000001</v>
+        <v>1.38106</v>
       </c>
       <c r="H184">
         <f t="shared" si="2"/>
-        <v>3.9490000000000025</v>
+        <v>3.2769999999999966</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="21" customHeight="1">
@@ -5071,23 +5073,23 @@
         <v>7</v>
       </c>
       <c r="B185" s="8">
-        <v>40883</v>
+        <v>40890</v>
       </c>
       <c r="C185">
-        <v>1.3366800000000001</v>
+        <v>1.37161</v>
       </c>
       <c r="D185">
-        <v>1.37571</v>
+        <v>1.40002</v>
       </c>
       <c r="E185">
-        <v>1.33622</v>
+        <v>1.3672500000000001</v>
       </c>
       <c r="F185">
-        <v>1.3738600000000001</v>
+        <v>1.3939600000000001</v>
       </c>
       <c r="H185">
         <f t="shared" si="2"/>
-        <v>1.222000000000012</v>
+        <v>3.9490000000000025</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="21" customHeight="1">
@@ -5095,23 +5097,23 @@
         <v>7</v>
       </c>
       <c r="B186" s="8">
-        <v>40876</v>
+        <v>40883</v>
       </c>
       <c r="C186">
-        <v>1.33569</v>
+        <v>1.3366800000000001</v>
       </c>
       <c r="D186">
-        <v>1.34152</v>
+        <v>1.37571</v>
       </c>
       <c r="E186">
-        <v>1.3292999999999999</v>
+        <v>1.33622</v>
       </c>
       <c r="F186">
-        <v>1.3366800000000001</v>
+        <v>1.3738600000000001</v>
       </c>
       <c r="H186">
         <f t="shared" si="2"/>
-        <v>1.5550000000000175</v>
+        <v>1.222000000000012</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="21" customHeight="1">
@@ -5119,23 +5121,23 @@
         <v>7</v>
       </c>
       <c r="B187" s="8">
-        <v>40869</v>
+        <v>40876</v>
       </c>
       <c r="C187">
-        <v>1.3328599999999999</v>
+        <v>1.33569</v>
       </c>
       <c r="D187">
-        <v>1.3434900000000001</v>
+        <v>1.34152</v>
       </c>
       <c r="E187">
-        <v>1.3279399999999999</v>
+        <v>1.3292999999999999</v>
       </c>
       <c r="F187">
-        <v>1.33687</v>
+        <v>1.3366800000000001</v>
       </c>
       <c r="H187">
         <f t="shared" si="2"/>
-        <v>1.2429999999999941</v>
+        <v>1.5550000000000175</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="21" customHeight="1">
@@ -5143,23 +5145,23 @@
         <v>7</v>
       </c>
       <c r="B188" s="8">
-        <v>40862</v>
+        <v>40869</v>
       </c>
       <c r="C188">
-        <v>1.3294600000000001</v>
+        <v>1.3328599999999999</v>
       </c>
       <c r="D188">
-        <v>1.3370299999999999</v>
+        <v>1.3434900000000001</v>
       </c>
       <c r="E188">
-        <v>1.3246</v>
+        <v>1.3279399999999999</v>
       </c>
       <c r="F188">
-        <v>1.3350500000000001</v>
+        <v>1.33687</v>
       </c>
       <c r="H188">
         <f t="shared" si="2"/>
-        <v>1.2460000000000138</v>
+        <v>1.2429999999999941</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="21" customHeight="1">
@@ -5167,23 +5169,23 @@
         <v>7</v>
       </c>
       <c r="B189" s="8">
-        <v>40855</v>
+        <v>40862</v>
       </c>
       <c r="C189">
-        <v>1.32982</v>
+        <v>1.3294600000000001</v>
       </c>
       <c r="D189">
-        <v>1.3348800000000001</v>
+        <v>1.3370299999999999</v>
       </c>
       <c r="E189">
-        <v>1.3224199999999999</v>
+        <v>1.3246</v>
       </c>
       <c r="F189">
-        <v>1.33205</v>
+        <v>1.3350500000000001</v>
       </c>
       <c r="H189">
         <f t="shared" si="2"/>
-        <v>2.797000000000005</v>
+        <v>1.2460000000000138</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="21" customHeight="1">
@@ -5191,23 +5193,23 @@
         <v>7</v>
       </c>
       <c r="B190" s="8">
-        <v>40848</v>
+        <v>40855</v>
       </c>
       <c r="C190">
-        <v>1.30732</v>
+        <v>1.32982</v>
       </c>
       <c r="D190">
-        <v>1.33169</v>
+        <v>1.3348800000000001</v>
       </c>
       <c r="E190">
-        <v>1.30372</v>
+        <v>1.3224199999999999</v>
       </c>
       <c r="F190">
-        <v>1.3297300000000001</v>
+        <v>1.33205</v>
       </c>
       <c r="H190">
         <f t="shared" si="2"/>
-        <v>2.2409999999999819</v>
+        <v>2.797000000000005</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="21" customHeight="1">
@@ -5215,23 +5217,23 @@
         <v>7</v>
       </c>
       <c r="B191" s="8">
-        <v>40841</v>
+        <v>40848</v>
       </c>
       <c r="C191">
-        <v>1.31596</v>
+        <v>1.30732</v>
       </c>
       <c r="D191">
-        <v>1.3279099999999999</v>
+        <v>1.33169</v>
       </c>
       <c r="E191">
-        <v>1.3055000000000001</v>
+        <v>1.30372</v>
       </c>
       <c r="F191">
-        <v>1.3069500000000001</v>
+        <v>1.3297300000000001</v>
       </c>
       <c r="H191">
         <f t="shared" si="2"/>
-        <v>2.9649999999999954</v>
+        <v>2.2409999999999819</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="21" customHeight="1">
@@ -5239,23 +5241,23 @@
         <v>7</v>
       </c>
       <c r="B192" s="8">
-        <v>40834</v>
+        <v>40841</v>
       </c>
       <c r="C192">
-        <v>1.2905199999999999</v>
+        <v>1.31596</v>
       </c>
       <c r="D192">
-        <v>1.31975</v>
+        <v>1.3279099999999999</v>
       </c>
       <c r="E192">
-        <v>1.2901</v>
+        <v>1.3055000000000001</v>
       </c>
       <c r="F192">
-        <v>1.31752</v>
+        <v>1.3069500000000001</v>
       </c>
       <c r="H192">
         <f t="shared" si="2"/>
-        <v>2.4769999999999959</v>
+        <v>2.9649999999999954</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="21" customHeight="1">
@@ -5263,23 +5265,23 @@
         <v>7</v>
       </c>
       <c r="B193" s="8">
-        <v>40827</v>
+        <v>40834</v>
       </c>
       <c r="C193">
-        <v>1.29494</v>
+        <v>1.2905199999999999</v>
       </c>
       <c r="D193">
-        <v>1.3079099999999999</v>
+        <v>1.31975</v>
       </c>
       <c r="E193">
-        <v>1.2831399999999999</v>
+        <v>1.2901</v>
       </c>
       <c r="F193">
-        <v>1.2909900000000001</v>
+        <v>1.31752</v>
       </c>
       <c r="H193">
         <f t="shared" si="2"/>
-        <v>2.7399999999999869</v>
+        <v>2.4769999999999959</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="21" customHeight="1">
@@ -5287,23 +5289,23 @@
         <v>7</v>
       </c>
       <c r="B194" s="8">
-        <v>40820</v>
+        <v>40827</v>
       </c>
       <c r="C194">
-        <v>1.3146800000000001</v>
+        <v>1.29494</v>
       </c>
       <c r="D194">
-        <v>1.3174399999999999</v>
+        <v>1.3079099999999999</v>
       </c>
       <c r="E194">
-        <v>1.2900400000000001</v>
+        <v>1.2831399999999999</v>
       </c>
       <c r="F194">
-        <v>1.29447</v>
+        <v>1.2909900000000001</v>
       </c>
       <c r="H194">
         <f t="shared" ref="H194:H199" si="3">ABS(D195-E195)*100</f>
-        <v>3.021000000000007</v>
+        <v>2.7399999999999869</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="21" customHeight="1">
@@ -5311,23 +5313,23 @@
         <v>7</v>
       </c>
       <c r="B195" s="8">
-        <v>40813</v>
+        <v>40820</v>
       </c>
       <c r="C195">
-        <v>1.33205</v>
+        <v>1.3146800000000001</v>
       </c>
       <c r="D195">
-        <v>1.34562</v>
+        <v>1.3174399999999999</v>
       </c>
       <c r="E195">
-        <v>1.31541</v>
+        <v>1.2900400000000001</v>
       </c>
       <c r="F195">
-        <v>1.31704</v>
+        <v>1.29447</v>
       </c>
       <c r="H195">
         <f t="shared" si="3"/>
-        <v>2.401999999999993</v>
+        <v>3.021000000000007</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="21" customHeight="1">
@@ -5335,23 +5337,23 @@
         <v>7</v>
       </c>
       <c r="B196" s="8">
-        <v>40806</v>
+        <v>40813</v>
       </c>
       <c r="C196">
-        <v>1.3215399999999999</v>
+        <v>1.33205</v>
       </c>
       <c r="D196">
-        <v>1.34158</v>
+        <v>1.34562</v>
       </c>
       <c r="E196">
-        <v>1.3175600000000001</v>
+        <v>1.31541</v>
       </c>
       <c r="F196">
-        <v>1.3324400000000001</v>
+        <v>1.31704</v>
       </c>
       <c r="H196">
         <f t="shared" si="3"/>
-        <v>2.676999999999996</v>
+        <v>2.401999999999993</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="21" customHeight="1">
@@ -5359,23 +5361,23 @@
         <v>7</v>
       </c>
       <c r="B197" s="8">
-        <v>40799</v>
+        <v>40806</v>
       </c>
       <c r="C197">
-        <v>1.32538</v>
+        <v>1.3215399999999999</v>
       </c>
       <c r="D197">
-        <v>1.32792</v>
+        <v>1.34158</v>
       </c>
       <c r="E197">
-        <v>1.30115</v>
+        <v>1.3175600000000001</v>
       </c>
       <c r="F197">
-        <v>1.3217699999999999</v>
+        <v>1.3324400000000001</v>
       </c>
       <c r="H197">
         <f t="shared" si="3"/>
-        <v>1.5490000000000004</v>
+        <v>2.676999999999996</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="21" customHeight="1">
@@ -5383,23 +5385,23 @@
         <v>7</v>
       </c>
       <c r="B198" s="8">
-        <v>40792</v>
+        <v>40799</v>
       </c>
       <c r="C198">
-        <v>1.32474</v>
+        <v>1.32538</v>
       </c>
       <c r="D198">
-        <v>1.3309</v>
+        <v>1.32792</v>
       </c>
       <c r="E198">
-        <v>1.31541</v>
+        <v>1.30115</v>
       </c>
       <c r="F198">
-        <v>1.32575</v>
+        <v>1.3217699999999999</v>
       </c>
       <c r="H198">
         <f t="shared" si="3"/>
-        <v>2.1119999999999806</v>
+        <v>1.5490000000000004</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="21" customHeight="1">
@@ -5407,23 +5409,23 @@
         <v>7</v>
       </c>
       <c r="B199" s="8">
-        <v>40785</v>
+        <v>40792</v>
       </c>
       <c r="C199">
-        <v>1.3208</v>
+        <v>1.32474</v>
       </c>
       <c r="D199">
-        <v>1.3326199999999999</v>
+        <v>1.3309</v>
       </c>
       <c r="E199">
-        <v>1.3115000000000001</v>
+        <v>1.31541</v>
       </c>
       <c r="F199">
-        <v>1.32667</v>
+        <v>1.32575</v>
       </c>
       <c r="H199">
         <f t="shared" si="3"/>
-        <v>2.0970000000000155</v>
+        <v>2.1119999999999806</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="21" customHeight="1">
@@ -5431,22 +5433,23 @@
         <v>7</v>
       </c>
       <c r="B200" s="8">
-        <v>40778</v>
+        <v>40785</v>
       </c>
       <c r="C200">
-        <v>1.31776</v>
+        <v>1.3208</v>
       </c>
       <c r="D200">
-        <v>1.3349200000000001</v>
+        <v>1.3326199999999999</v>
       </c>
       <c r="E200">
-        <v>1.31395</v>
+        <v>1.3115000000000001</v>
       </c>
       <c r="F200">
-        <v>1.32097</v>
+        <v>1.32667</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A4:F8">
     <sortCondition ref="A5:A8"/>
     <sortCondition ref="B5:B8"/>

--- a/volatility/src/xls/07_USDCAD.xlsx
+++ b/volatility/src/xls/07_USDCAD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="-80" windowWidth="23520" windowHeight="21140" tabRatio="742"/>
+    <workbookView xWindow="13820" yWindow="-80" windowWidth="23520" windowHeight="21140" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="7" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -525,10 +525,10 @@
         <v>1000</v>
       </c>
       <c r="C2" s="2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D2" s="2">
-        <v>81.400000000000006</v>
+        <v>82.7</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="24" customHeight="1">
@@ -554,26 +554,26 @@
     <row r="6" spans="2:11" ht="24" customHeight="1">
       <c r="B6" s="5">
         <f>sub!J1</f>
-        <v>1.7245000000000066</v>
+        <v>1.6950000000000021</v>
       </c>
       <c r="C6" s="5">
         <f>ROUND(B2*10000*(100/D2)*(1/B6)/100*C2,0)</f>
-        <v>35619</v>
+        <v>42803</v>
       </c>
       <c r="E6" s="5">
-        <v>132.1</v>
+        <v>130.80000000000001</v>
       </c>
       <c r="G6" s="5">
         <f>(E6+B9)/100</f>
-        <v>1.327</v>
+        <v>1.3140000000000001</v>
       </c>
       <c r="H6" s="5">
         <f>G6+(B8/100)</f>
-        <v>1.3439999999999999</v>
+        <v>1.331</v>
       </c>
       <c r="I6" s="5">
         <f>G6-(B8/100)</f>
-        <v>1.31</v>
+        <v>1.2970000000000002</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="24" customHeight="1">
@@ -603,15 +603,15 @@
       <c r="F10" s="7"/>
       <c r="G10" s="5">
         <f>(E6-B9)/100</f>
-        <v>1.3149999999999999</v>
+        <v>1.3020000000000003</v>
       </c>
       <c r="H10" s="5">
         <f>G10-(B8/100)</f>
-        <v>1.298</v>
+        <v>1.2850000000000004</v>
       </c>
       <c r="I10" s="5">
         <f>G10+(B8/100)</f>
-        <v>1.3319999999999999</v>
+        <v>1.3190000000000002</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="24" customHeight="1">
@@ -620,13 +620,11 @@
       <c r="G11" s="7"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="B1:C7">
     <sortCondition ref="B1:B7"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -669,11 +667,11 @@
       </c>
       <c r="H1">
         <f>ABS(D2-E2)*100</f>
-        <v>2.8129999999999988</v>
+        <v>1.5509999999999913</v>
       </c>
       <c r="J1">
         <f>MEDIAN(H1:H52)</f>
-        <v>1.7245000000000066</v>
+        <v>1.6950000000000021</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1">
@@ -681,23 +679,23 @@
         <v>7</v>
       </c>
       <c r="B2" s="8">
-        <v>42171</v>
+        <v>42178</v>
       </c>
       <c r="C2">
-        <v>1.3407100000000001</v>
+        <v>1.3211200000000001</v>
       </c>
       <c r="D2">
-        <v>1.3431599999999999</v>
+        <v>1.32141</v>
       </c>
       <c r="E2">
-        <v>1.3150299999999999</v>
+        <v>1.3059000000000001</v>
       </c>
       <c r="F2">
-        <v>1.32159</v>
+        <v>1.3090599999999999</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H65" si="0">ABS(D3-E3)*100</f>
-        <v>1.7220000000000013</v>
+        <v>2.8129999999999988</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
@@ -705,23 +703,23 @@
         <v>7</v>
       </c>
       <c r="B3" s="8">
-        <v>42164</v>
+        <v>42171</v>
       </c>
       <c r="C3">
-        <v>1.3252299999999999</v>
+        <v>1.3407100000000001</v>
       </c>
       <c r="D3">
-        <v>1.34219</v>
+        <v>1.3431599999999999</v>
       </c>
       <c r="E3">
-        <v>1.32497</v>
+        <v>1.3150299999999999</v>
       </c>
       <c r="F3">
-        <v>1.3411200000000001</v>
+        <v>1.32159</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>2.6399999999999979</v>
+        <v>1.7220000000000013</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
@@ -729,23 +727,23 @@
         <v>7</v>
       </c>
       <c r="B4" s="8">
-        <v>42157</v>
+        <v>42164</v>
       </c>
       <c r="C4">
-        <v>1.35145</v>
+        <v>1.3252299999999999</v>
       </c>
       <c r="D4">
-        <v>1.3525499999999999</v>
+        <v>1.34219</v>
       </c>
       <c r="E4">
-        <v>1.3261499999999999</v>
+        <v>1.32497</v>
       </c>
       <c r="F4">
-        <v>1.3280799999999999</v>
+        <v>1.3411200000000001</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>1.3539999999999885</v>
+        <v>2.6399999999999979</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1">
@@ -753,23 +751,23 @@
         <v>7</v>
       </c>
       <c r="B5" s="8">
-        <v>42150</v>
+        <v>42157</v>
       </c>
       <c r="C5">
-        <v>1.34378</v>
+        <v>1.35145</v>
       </c>
       <c r="D5">
-        <v>1.35642</v>
+        <v>1.3525499999999999</v>
       </c>
       <c r="E5">
-        <v>1.3428800000000001</v>
+        <v>1.3261499999999999</v>
       </c>
       <c r="F5">
-        <v>1.3516900000000001</v>
+        <v>1.3280799999999999</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>1.4580000000000037</v>
+        <v>1.3539999999999885</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
@@ -777,23 +775,23 @@
         <v>7</v>
       </c>
       <c r="B6" s="8">
-        <v>42143</v>
+        <v>42150</v>
       </c>
       <c r="C6">
-        <v>1.3444499999999999</v>
+        <v>1.34378</v>
       </c>
       <c r="D6">
-        <v>1.35016</v>
+        <v>1.35642</v>
       </c>
       <c r="E6">
-        <v>1.33558</v>
+        <v>1.3428800000000001</v>
       </c>
       <c r="F6">
-        <v>1.34382</v>
+        <v>1.3516900000000001</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>1.1260000000000048</v>
+        <v>1.4580000000000037</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
@@ -801,23 +799,23 @@
         <v>7</v>
       </c>
       <c r="B7" s="8">
-        <v>42136</v>
+        <v>42143</v>
       </c>
       <c r="C7">
-        <v>1.3413299999999999</v>
+        <v>1.3444499999999999</v>
       </c>
       <c r="D7">
-        <v>1.35127</v>
+        <v>1.35016</v>
       </c>
       <c r="E7">
-        <v>1.3400099999999999</v>
+        <v>1.33558</v>
       </c>
       <c r="F7">
-        <v>1.3465199999999999</v>
+        <v>1.34382</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>1.2499999999999956</v>
+        <v>1.1260000000000048</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
@@ -825,23 +823,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="8">
-        <v>42129</v>
+        <v>42136</v>
       </c>
       <c r="C8">
-        <v>1.34518</v>
+        <v>1.3413299999999999</v>
       </c>
       <c r="D8">
-        <v>1.35046</v>
+        <v>1.35127</v>
       </c>
       <c r="E8">
-        <v>1.33796</v>
+        <v>1.3400099999999999</v>
       </c>
       <c r="F8">
-        <v>1.3420700000000001</v>
+        <v>1.3465199999999999</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>1.1330000000000062</v>
+        <v>1.2499999999999956</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
@@ -849,23 +847,23 @@
         <v>7</v>
       </c>
       <c r="B9" s="8">
-        <v>42122</v>
+        <v>42129</v>
       </c>
       <c r="C9">
-        <v>1.3457300000000001</v>
+        <v>1.34518</v>
       </c>
       <c r="D9">
-        <v>1.34897</v>
+        <v>1.35046</v>
       </c>
       <c r="E9">
-        <v>1.3376399999999999</v>
+        <v>1.33796</v>
       </c>
       <c r="F9">
-        <v>1.3428100000000001</v>
+        <v>1.3420700000000001</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>1.863999999999999</v>
+        <v>1.1330000000000062</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
@@ -873,23 +871,23 @@
         <v>7</v>
       </c>
       <c r="B10" s="8">
-        <v>42115</v>
+        <v>42122</v>
       </c>
       <c r="C10">
-        <v>1.3384400000000001</v>
+        <v>1.3457300000000001</v>
       </c>
       <c r="D10">
-        <v>1.3521000000000001</v>
+        <v>1.34897</v>
       </c>
       <c r="E10">
-        <v>1.3334600000000001</v>
+        <v>1.3376399999999999</v>
       </c>
       <c r="F10">
-        <v>1.34623</v>
+        <v>1.3428100000000001</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>1.2850000000000028</v>
+        <v>1.863999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
@@ -897,23 +895,23 @@
         <v>7</v>
       </c>
       <c r="B11" s="8">
-        <v>42108</v>
+        <v>42115</v>
       </c>
       <c r="C11">
-        <v>1.33307</v>
+        <v>1.3384400000000001</v>
       </c>
       <c r="D11">
-        <v>1.34022</v>
+        <v>1.3521000000000001</v>
       </c>
       <c r="E11">
-        <v>1.3273699999999999</v>
+        <v>1.3334600000000001</v>
       </c>
       <c r="F11">
-        <v>1.33839</v>
+        <v>1.34623</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>1.1179999999999968</v>
+        <v>1.2850000000000028</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
@@ -921,23 +919,23 @@
         <v>7</v>
       </c>
       <c r="B12" s="8">
-        <v>42101</v>
+        <v>42108</v>
       </c>
       <c r="C12">
-        <v>1.33822</v>
+        <v>1.33307</v>
       </c>
       <c r="D12">
-        <v>1.33951</v>
+        <v>1.34022</v>
       </c>
       <c r="E12">
-        <v>1.32833</v>
+        <v>1.3273699999999999</v>
       </c>
       <c r="F12">
-        <v>1.33317</v>
+        <v>1.33839</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>1.0690000000000088</v>
+        <v>1.1179999999999968</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
@@ -945,23 +943,23 @@
         <v>7</v>
       </c>
       <c r="B13" s="8">
-        <v>42094</v>
+        <v>42101</v>
       </c>
       <c r="C13">
-        <v>1.33466</v>
+        <v>1.33822</v>
       </c>
       <c r="D13">
-        <v>1.34023</v>
+        <v>1.33951</v>
       </c>
       <c r="E13">
-        <v>1.3295399999999999</v>
+        <v>1.32833</v>
       </c>
       <c r="F13">
-        <v>1.3384100000000001</v>
+        <v>1.33317</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>1.0930000000000106</v>
+        <v>1.0690000000000088</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
@@ -969,23 +967,23 @@
         <v>7</v>
       </c>
       <c r="B14" s="8">
-        <v>42087</v>
+        <v>42094</v>
       </c>
       <c r="C14">
-        <v>1.34216</v>
+        <v>1.33466</v>
       </c>
       <c r="D14">
-        <v>1.34501</v>
+        <v>1.34023</v>
       </c>
       <c r="E14">
-        <v>1.3340799999999999</v>
+        <v>1.3295399999999999</v>
       </c>
       <c r="F14">
-        <v>1.3355999999999999</v>
+        <v>1.3384100000000001</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>1.7879999999999896</v>
+        <v>1.0930000000000106</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
@@ -993,23 +991,23 @@
         <v>7</v>
       </c>
       <c r="B15" s="8">
-        <v>42080</v>
+        <v>42087</v>
       </c>
       <c r="C15">
-        <v>1.33321</v>
+        <v>1.34216</v>
       </c>
       <c r="D15">
-        <v>1.3428599999999999</v>
+        <v>1.34501</v>
       </c>
       <c r="E15">
-        <v>1.32498</v>
+        <v>1.3340799999999999</v>
       </c>
       <c r="F15">
-        <v>1.34273</v>
+        <v>1.3355999999999999</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>1.5249999999999986</v>
+        <v>1.7879999999999896</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1">
@@ -1017,23 +1015,23 @@
         <v>7</v>
       </c>
       <c r="B16" s="8">
-        <v>42073</v>
+        <v>42080</v>
       </c>
       <c r="C16">
-        <v>1.3413200000000001</v>
+        <v>1.33321</v>
       </c>
       <c r="D16">
-        <v>1.34389</v>
+        <v>1.3428599999999999</v>
       </c>
       <c r="E16">
-        <v>1.32864</v>
+        <v>1.32498</v>
       </c>
       <c r="F16">
-        <v>1.3348899999999999</v>
+        <v>1.34273</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>1.9569999999999865</v>
+        <v>1.5249999999999986</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21" customHeight="1">
@@ -1041,23 +1039,23 @@
         <v>7</v>
       </c>
       <c r="B17" s="8">
-        <v>42066</v>
+        <v>42073</v>
       </c>
       <c r="C17">
-        <v>1.32718</v>
+        <v>1.3413200000000001</v>
       </c>
       <c r="D17">
-        <v>1.3466899999999999</v>
+        <v>1.34389</v>
       </c>
       <c r="E17">
-        <v>1.3271200000000001</v>
+        <v>1.32864</v>
       </c>
       <c r="F17">
-        <v>1.3410299999999999</v>
+        <v>1.3348899999999999</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>1.9340000000000135</v>
+        <v>1.9569999999999865</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21" customHeight="1">
@@ -1065,23 +1063,23 @@
         <v>7</v>
       </c>
       <c r="B18" s="8">
-        <v>42059</v>
+        <v>42066</v>
       </c>
       <c r="C18">
-        <v>1.3130999999999999</v>
+        <v>1.32718</v>
       </c>
       <c r="D18">
-        <v>1.3305400000000001</v>
+        <v>1.3466899999999999</v>
       </c>
       <c r="E18">
-        <v>1.3111999999999999</v>
+        <v>1.3271200000000001</v>
       </c>
       <c r="F18">
-        <v>1.32951</v>
+        <v>1.3410299999999999</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>1.4739999999999975</v>
+        <v>1.9340000000000135</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21" customHeight="1">
@@ -1089,23 +1087,23 @@
         <v>7</v>
       </c>
       <c r="B19" s="8">
-        <v>42052</v>
+        <v>42059</v>
       </c>
       <c r="C19">
-        <v>1.3250500000000001</v>
+        <v>1.3130999999999999</v>
       </c>
       <c r="D19">
-        <v>1.32806</v>
+        <v>1.3305400000000001</v>
       </c>
       <c r="E19">
-        <v>1.31332</v>
+        <v>1.3111999999999999</v>
       </c>
       <c r="F19">
-        <v>1.31453</v>
+        <v>1.32951</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>1.4410000000000034</v>
+        <v>1.4739999999999975</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21" customHeight="1">
@@ -1113,23 +1111,23 @@
         <v>7</v>
       </c>
       <c r="B20" s="8">
-        <v>42045</v>
+        <v>42052</v>
       </c>
       <c r="C20">
-        <v>1.3266500000000001</v>
+        <v>1.3250500000000001</v>
       </c>
       <c r="D20">
-        <v>1.33396</v>
+        <v>1.32806</v>
       </c>
       <c r="E20">
-        <v>1.31955</v>
+        <v>1.31332</v>
       </c>
       <c r="F20">
-        <v>1.32494</v>
+        <v>1.31453</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>2.4809999999999999</v>
+        <v>1.4410000000000034</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" customHeight="1">
@@ -1137,23 +1135,23 @@
         <v>7</v>
       </c>
       <c r="B21" s="8">
-        <v>42038</v>
+        <v>42045</v>
       </c>
       <c r="C21">
-        <v>1.30891</v>
+        <v>1.3266500000000001</v>
       </c>
       <c r="D21">
-        <v>1.33283</v>
+        <v>1.33396</v>
       </c>
       <c r="E21">
-        <v>1.30802</v>
+        <v>1.31955</v>
       </c>
       <c r="F21">
-        <v>1.32687</v>
+        <v>1.32494</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>2.1730000000000027</v>
+        <v>2.4809999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" customHeight="1">
@@ -1161,23 +1159,23 @@
         <v>7</v>
       </c>
       <c r="B22" s="8">
-        <v>42031</v>
+        <v>42038</v>
       </c>
       <c r="C22">
-        <v>1.3216000000000001</v>
+        <v>1.30891</v>
       </c>
       <c r="D22">
-        <v>1.3285199999999999</v>
+        <v>1.33283</v>
       </c>
       <c r="E22">
-        <v>1.3067899999999999</v>
+        <v>1.30802</v>
       </c>
       <c r="F22">
-        <v>1.3088599999999999</v>
+        <v>1.32687</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>1.5700000000000047</v>
+        <v>2.1730000000000027</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" customHeight="1">
@@ -1185,23 +1183,23 @@
         <v>7</v>
       </c>
       <c r="B23" s="8">
-        <v>42024</v>
+        <v>42031</v>
       </c>
       <c r="C23">
-        <v>1.32623</v>
+        <v>1.3216000000000001</v>
       </c>
       <c r="D23">
-        <v>1.33744</v>
+        <v>1.3285199999999999</v>
       </c>
       <c r="E23">
-        <v>1.3217399999999999</v>
+        <v>1.3067899999999999</v>
       </c>
       <c r="F23">
-        <v>1.3219700000000001</v>
+        <v>1.3088599999999999</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>0.9279999999999955</v>
+        <v>1.5700000000000047</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" customHeight="1">
@@ -1209,23 +1207,23 @@
         <v>7</v>
       </c>
       <c r="B24" s="8">
-        <v>42017</v>
+        <v>42024</v>
       </c>
       <c r="C24">
-        <v>1.32579</v>
+        <v>1.32623</v>
       </c>
       <c r="D24">
-        <v>1.33182</v>
+        <v>1.33744</v>
       </c>
       <c r="E24">
-        <v>1.32254</v>
+        <v>1.3217399999999999</v>
       </c>
       <c r="F24">
-        <v>1.3270900000000001</v>
+        <v>1.3219700000000001</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>2.0830000000000126</v>
+        <v>0.9279999999999955</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" customHeight="1">
@@ -1233,23 +1231,23 @@
         <v>7</v>
       </c>
       <c r="B25" s="8">
-        <v>42010</v>
+        <v>42017</v>
       </c>
       <c r="C25">
-        <v>1.3375699999999999</v>
+        <v>1.32579</v>
       </c>
       <c r="D25">
-        <v>1.3387800000000001</v>
+        <v>1.33182</v>
       </c>
       <c r="E25">
-        <v>1.31795</v>
+        <v>1.32254</v>
       </c>
       <c r="F25">
-        <v>1.3263199999999999</v>
+        <v>1.3270900000000001</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>2.8410000000000046</v>
+        <v>2.0830000000000126</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21" customHeight="1">
@@ -1257,23 +1255,23 @@
         <v>7</v>
       </c>
       <c r="B26" s="8">
-        <v>42003</v>
+        <v>42010</v>
       </c>
       <c r="C26">
-        <v>1.3634500000000001</v>
+        <v>1.3375699999999999</v>
       </c>
       <c r="D26">
-        <v>1.36643</v>
+        <v>1.3387800000000001</v>
       </c>
       <c r="E26">
-        <v>1.33802</v>
+        <v>1.31795</v>
       </c>
       <c r="F26">
-        <v>1.33815</v>
+        <v>1.3263199999999999</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>0.96399999999998709</v>
+        <v>2.8410000000000046</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" customHeight="1">
@@ -1281,23 +1279,23 @@
         <v>7</v>
       </c>
       <c r="B27" s="8">
-        <v>41996</v>
+        <v>42003</v>
       </c>
       <c r="C27">
-        <v>1.3592500000000001</v>
+        <v>1.3634500000000001</v>
       </c>
       <c r="D27">
-        <v>1.3660699999999999</v>
+        <v>1.36643</v>
       </c>
       <c r="E27">
-        <v>1.35643</v>
+        <v>1.33802</v>
       </c>
       <c r="F27">
-        <v>1.3644700000000001</v>
+        <v>1.33815</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>2.2789999999999866</v>
+        <v>0.96399999999998709</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1">
@@ -1305,23 +1303,23 @@
         <v>7</v>
       </c>
       <c r="B28" s="8">
-        <v>41989</v>
+        <v>41996</v>
       </c>
       <c r="C28">
-        <v>1.3378699999999999</v>
+        <v>1.3592500000000001</v>
       </c>
       <c r="D28">
-        <v>1.3599699999999999</v>
+        <v>1.3660699999999999</v>
       </c>
       <c r="E28">
-        <v>1.33718</v>
+        <v>1.35643</v>
       </c>
       <c r="F28">
-        <v>1.3598699999999999</v>
+        <v>1.3644700000000001</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>1.3129999999999864</v>
+        <v>2.2789999999999866</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1">
@@ -1329,23 +1327,23 @@
         <v>7</v>
       </c>
       <c r="B29" s="8">
-        <v>41982</v>
+        <v>41989</v>
       </c>
       <c r="C29">
-        <v>1.33307</v>
+        <v>1.3378699999999999</v>
       </c>
       <c r="D29">
-        <v>1.3423499999999999</v>
+        <v>1.3599699999999999</v>
       </c>
       <c r="E29">
-        <v>1.3292200000000001</v>
+        <v>1.33718</v>
       </c>
       <c r="F29">
-        <v>1.3388100000000001</v>
+        <v>1.3598699999999999</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>2.845999999999993</v>
+        <v>1.3129999999999864</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21" customHeight="1">
@@ -1353,23 +1351,23 @@
         <v>7</v>
       </c>
       <c r="B30" s="8">
-        <v>41975</v>
+        <v>41982</v>
       </c>
       <c r="C30">
-        <v>1.32325</v>
+        <v>1.33307</v>
       </c>
       <c r="D30">
-        <v>1.34439</v>
+        <v>1.3423499999999999</v>
       </c>
       <c r="E30">
-        <v>1.31593</v>
+        <v>1.3292200000000001</v>
       </c>
       <c r="F30">
-        <v>1.33182</v>
+        <v>1.3388100000000001</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>1.7270000000000119</v>
+        <v>2.845999999999993</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21" customHeight="1">
@@ -1377,23 +1375,23 @@
         <v>7</v>
       </c>
       <c r="B31" s="8">
-        <v>41968</v>
+        <v>41975</v>
       </c>
       <c r="C31">
-        <v>1.32195</v>
+        <v>1.32325</v>
       </c>
       <c r="D31">
-        <v>1.3359000000000001</v>
+        <v>1.34439</v>
       </c>
       <c r="E31">
-        <v>1.31863</v>
+        <v>1.31593</v>
       </c>
       <c r="F31">
-        <v>1.3292600000000001</v>
+        <v>1.33182</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>1.7669999999999852</v>
+        <v>1.7270000000000119</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21" customHeight="1">
@@ -1401,23 +1399,23 @@
         <v>7</v>
       </c>
       <c r="B32" s="8">
-        <v>41961</v>
+        <v>41968</v>
       </c>
       <c r="C32">
-        <v>1.3151600000000001</v>
+        <v>1.32195</v>
       </c>
       <c r="D32">
-        <v>1.3317399999999999</v>
+        <v>1.3359000000000001</v>
       </c>
       <c r="E32">
-        <v>1.3140700000000001</v>
+        <v>1.31863</v>
       </c>
       <c r="F32">
-        <v>1.32287</v>
+        <v>1.3292600000000001</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>1.3680000000000136</v>
+        <v>1.7669999999999852</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21" customHeight="1">
@@ -1425,23 +1423,23 @@
         <v>7</v>
       </c>
       <c r="B33" s="8">
-        <v>41954</v>
+        <v>41961</v>
       </c>
       <c r="C33">
-        <v>1.31993</v>
+        <v>1.3151600000000001</v>
       </c>
       <c r="D33">
-        <v>1.3263</v>
+        <v>1.3317399999999999</v>
       </c>
       <c r="E33">
-        <v>1.3126199999999999</v>
+        <v>1.3140700000000001</v>
       </c>
       <c r="F33">
-        <v>1.31515</v>
+        <v>1.32287</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>1.7709999999999892</v>
+        <v>1.3680000000000136</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21" customHeight="1">
@@ -1449,23 +1447,23 @@
         <v>7</v>
       </c>
       <c r="B34" s="8">
-        <v>41947</v>
+        <v>41954</v>
       </c>
       <c r="C34">
-        <v>1.3088599999999999</v>
+        <v>1.31993</v>
       </c>
       <c r="D34">
-        <v>1.32324</v>
+        <v>1.3263</v>
       </c>
       <c r="E34">
-        <v>1.3055300000000001</v>
+        <v>1.3126199999999999</v>
       </c>
       <c r="F34">
-        <v>1.31952</v>
+        <v>1.31515</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>1.2149999999999883</v>
+        <v>1.7709999999999892</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21" customHeight="1">
@@ -1473,23 +1471,23 @@
         <v>7</v>
       </c>
       <c r="B35" s="8">
-        <v>41940</v>
+        <v>41947</v>
       </c>
       <c r="C35">
-        <v>1.3093900000000001</v>
+        <v>1.3088599999999999</v>
       </c>
       <c r="D35">
-        <v>1.3169299999999999</v>
+        <v>1.32324</v>
       </c>
       <c r="E35">
-        <v>1.3047800000000001</v>
+        <v>1.3055300000000001</v>
       </c>
       <c r="F35">
-        <v>1.31</v>
+        <v>1.31952</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>1.898999999999984</v>
+        <v>1.2149999999999883</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21" customHeight="1">
@@ -1497,23 +1495,23 @@
         <v>7</v>
       </c>
       <c r="B36" s="8">
-        <v>41933</v>
+        <v>41940</v>
       </c>
       <c r="C36">
-        <v>1.31019</v>
+        <v>1.3093900000000001</v>
       </c>
       <c r="D36">
-        <v>1.3158799999999999</v>
+        <v>1.3169299999999999</v>
       </c>
       <c r="E36">
-        <v>1.2968900000000001</v>
+        <v>1.3047800000000001</v>
       </c>
       <c r="F36">
-        <v>1.3091600000000001</v>
+        <v>1.31</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>2.1600000000000064</v>
+        <v>1.898999999999984</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21" customHeight="1">
@@ -1521,23 +1519,23 @@
         <v>7</v>
       </c>
       <c r="B37" s="8">
-        <v>41926</v>
+        <v>41933</v>
       </c>
       <c r="C37">
-        <v>1.30192</v>
+        <v>1.31019</v>
       </c>
       <c r="D37">
-        <v>1.3131600000000001</v>
+        <v>1.3158799999999999</v>
       </c>
       <c r="E37">
-        <v>1.29156</v>
+        <v>1.2968900000000001</v>
       </c>
       <c r="F37">
-        <v>1.3109200000000001</v>
+        <v>1.3091600000000001</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
-        <v>1.4469999999999983</v>
+        <v>2.1600000000000064</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21" customHeight="1">
@@ -1545,23 +1543,23 @@
         <v>7</v>
       </c>
       <c r="B38" s="8">
-        <v>41919</v>
+        <v>41926</v>
       </c>
       <c r="C38">
-        <v>1.29409</v>
+        <v>1.30192</v>
       </c>
       <c r="D38">
-        <v>1.3070900000000001</v>
+        <v>1.3131600000000001</v>
       </c>
       <c r="E38">
-        <v>1.2926200000000001</v>
+        <v>1.29156</v>
       </c>
       <c r="F38">
-        <v>1.30298</v>
+        <v>1.3109200000000001</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>1.7290000000000028</v>
+        <v>1.4469999999999983</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21" customHeight="1">
@@ -1569,23 +1567,23 @@
         <v>7</v>
       </c>
       <c r="B39" s="8">
-        <v>41912</v>
+        <v>41919</v>
       </c>
       <c r="C39">
-        <v>1.28511</v>
+        <v>1.29409</v>
       </c>
       <c r="D39">
-        <v>1.29545</v>
+        <v>1.3070900000000001</v>
       </c>
       <c r="E39">
-        <v>1.27816</v>
+        <v>1.2926200000000001</v>
       </c>
       <c r="F39">
-        <v>1.2949200000000001</v>
+        <v>1.30298</v>
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
-        <v>1.7309999999999937</v>
+        <v>1.7290000000000028</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21" customHeight="1">
@@ -1593,23 +1591,23 @@
         <v>7</v>
       </c>
       <c r="B40" s="8">
-        <v>41905</v>
+        <v>41912</v>
       </c>
       <c r="C40">
-        <v>1.2918400000000001</v>
+        <v>1.28511</v>
       </c>
       <c r="D40">
-        <v>1.30813</v>
+        <v>1.29545</v>
       </c>
       <c r="E40">
-        <v>1.2908200000000001</v>
+        <v>1.27816</v>
       </c>
       <c r="F40">
-        <v>1.29233</v>
+        <v>1.2949200000000001</v>
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
-        <v>1.802999999999999</v>
+        <v>1.7309999999999937</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21" customHeight="1">
@@ -1617,23 +1615,23 @@
         <v>7</v>
       </c>
       <c r="B41" s="8">
-        <v>41898</v>
+        <v>41905</v>
       </c>
       <c r="C41">
-        <v>1.3036099999999999</v>
+        <v>1.2918400000000001</v>
       </c>
       <c r="D41">
-        <v>1.3063899999999999</v>
+        <v>1.30813</v>
       </c>
       <c r="E41">
-        <v>1.2883599999999999</v>
+        <v>1.2908200000000001</v>
       </c>
       <c r="F41">
-        <v>1.2916300000000001</v>
+        <v>1.29233</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
-        <v>2.2190000000000154</v>
+        <v>1.802999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21" customHeight="1">
@@ -1641,23 +1639,23 @@
         <v>7</v>
       </c>
       <c r="B42" s="8">
-        <v>41891</v>
+        <v>41898</v>
       </c>
       <c r="C42">
-        <v>1.31691</v>
+        <v>1.3036099999999999</v>
       </c>
       <c r="D42">
-        <v>1.3197300000000001</v>
+        <v>1.3063899999999999</v>
       </c>
       <c r="E42">
-        <v>1.2975399999999999</v>
+        <v>1.2883599999999999</v>
       </c>
       <c r="F42">
-        <v>1.30314</v>
+        <v>1.2916300000000001</v>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
-        <v>1.8140000000000045</v>
+        <v>2.2190000000000154</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21" customHeight="1">
@@ -1665,23 +1663,23 @@
         <v>7</v>
       </c>
       <c r="B43" s="8">
-        <v>41884</v>
+        <v>41891</v>
       </c>
       <c r="C43">
-        <v>1.3060499999999999</v>
+        <v>1.31691</v>
       </c>
       <c r="D43">
-        <v>1.32256</v>
+        <v>1.3197300000000001</v>
       </c>
       <c r="E43">
-        <v>1.3044199999999999</v>
+        <v>1.2975399999999999</v>
       </c>
       <c r="F43">
-        <v>1.31748</v>
+        <v>1.30314</v>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
-        <v>2.010999999999985</v>
+        <v>1.8140000000000045</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21" customHeight="1">
@@ -1689,23 +1687,23 @@
         <v>7</v>
       </c>
       <c r="B44" s="8">
-        <v>41877</v>
+        <v>41884</v>
       </c>
       <c r="C44">
-        <v>1.3010999999999999</v>
+        <v>1.3060499999999999</v>
       </c>
       <c r="D44">
-        <v>1.3087899999999999</v>
+        <v>1.32256</v>
       </c>
       <c r="E44">
-        <v>1.28868</v>
+        <v>1.3044199999999999</v>
       </c>
       <c r="F44">
-        <v>1.3043800000000001</v>
+        <v>1.31748</v>
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
-        <v>1.1639999999999873</v>
+        <v>2.010999999999985</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21" customHeight="1">
@@ -1713,23 +1711,23 @@
         <v>7</v>
       </c>
       <c r="B45" s="8">
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="C45">
-        <v>1.3054399999999999</v>
+        <v>1.3010999999999999</v>
       </c>
       <c r="D45">
-        <v>1.31026</v>
+        <v>1.3087899999999999</v>
       </c>
       <c r="E45">
-        <v>1.2986200000000001</v>
+        <v>1.28868</v>
       </c>
       <c r="F45">
-        <v>1.30338</v>
+        <v>1.3043800000000001</v>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
-        <v>1.2390000000000123</v>
+        <v>1.1639999999999873</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21" customHeight="1">
@@ -1737,23 +1735,23 @@
         <v>7</v>
       </c>
       <c r="B46" s="8">
-        <v>41863</v>
+        <v>41870</v>
       </c>
       <c r="C46">
-        <v>1.3150200000000001</v>
+        <v>1.3054399999999999</v>
       </c>
       <c r="D46">
-        <v>1.3173900000000001</v>
+        <v>1.31026</v>
       </c>
       <c r="E46">
-        <v>1.3049999999999999</v>
+        <v>1.2986200000000001</v>
       </c>
       <c r="F46">
-        <v>1.30596</v>
+        <v>1.30338</v>
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
-        <v>1.910999999999996</v>
+        <v>1.2390000000000123</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21" customHeight="1">
@@ -1761,23 +1759,23 @@
         <v>7</v>
       </c>
       <c r="B47" s="8">
-        <v>41856</v>
+        <v>41863</v>
       </c>
       <c r="C47">
-        <v>1.2988999999999999</v>
+        <v>1.3150200000000001</v>
       </c>
       <c r="D47">
-        <v>1.3152699999999999</v>
+        <v>1.3173900000000001</v>
       </c>
       <c r="E47">
-        <v>1.29616</v>
+        <v>1.3049999999999999</v>
       </c>
       <c r="F47">
-        <v>1.3124499999999999</v>
+        <v>1.30596</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
-        <v>1.2830000000000119</v>
+        <v>1.910999999999996</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21" customHeight="1">
@@ -1785,23 +1783,23 @@
         <v>7</v>
       </c>
       <c r="B48" s="8">
-        <v>41849</v>
+        <v>41856</v>
       </c>
       <c r="C48">
-        <v>1.3055600000000001</v>
+        <v>1.2988999999999999</v>
       </c>
       <c r="D48">
-        <v>1.3095600000000001</v>
+        <v>1.3152699999999999</v>
       </c>
       <c r="E48">
-        <v>1.2967299999999999</v>
+        <v>1.29616</v>
       </c>
       <c r="F48">
-        <v>1.2991699999999999</v>
+        <v>1.3124499999999999</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
-        <v>1.6680000000000028</v>
+        <v>1.2830000000000119</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="21" customHeight="1">
@@ -1809,23 +1807,23 @@
         <v>7</v>
       </c>
       <c r="B49" s="8">
-        <v>41842</v>
+        <v>41849</v>
       </c>
       <c r="C49">
-        <v>1.3135399999999999</v>
+        <v>1.3055600000000001</v>
       </c>
       <c r="D49">
-        <v>1.31908</v>
+        <v>1.3095600000000001</v>
       </c>
       <c r="E49">
-        <v>1.3024</v>
+        <v>1.2967299999999999</v>
       </c>
       <c r="F49">
-        <v>1.3061100000000001</v>
+        <v>1.2991699999999999</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
-        <v>1.798999999999995</v>
+        <v>1.6680000000000028</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="21" customHeight="1">
@@ -1833,23 +1831,23 @@
         <v>7</v>
       </c>
       <c r="B50" s="8">
-        <v>41835</v>
+        <v>41842</v>
       </c>
       <c r="C50">
-        <v>1.31551</v>
+        <v>1.3135399999999999</v>
       </c>
       <c r="D50">
-        <v>1.3289</v>
+        <v>1.31908</v>
       </c>
       <c r="E50">
-        <v>1.31091</v>
+        <v>1.3024</v>
       </c>
       <c r="F50">
-        <v>1.3124400000000001</v>
+        <v>1.3061100000000001</v>
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>1.5390000000000015</v>
+        <v>1.798999999999995</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="21" customHeight="1">
@@ -1857,23 +1855,23 @@
         <v>7</v>
       </c>
       <c r="B51" s="8">
-        <v>41828</v>
+        <v>41835</v>
       </c>
       <c r="C51">
-        <v>1.30908</v>
+        <v>1.31551</v>
       </c>
       <c r="D51">
-        <v>1.32176</v>
+        <v>1.3289</v>
       </c>
       <c r="E51">
-        <v>1.30637</v>
+        <v>1.31091</v>
       </c>
       <c r="F51">
-        <v>1.3157000000000001</v>
+        <v>1.3124400000000001</v>
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>1.4929999999999888</v>
+        <v>1.5390000000000015</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="21" customHeight="1">
@@ -1881,23 +1879,23 @@
         <v>7</v>
       </c>
       <c r="B52" s="8">
-        <v>41821</v>
+        <v>41828</v>
       </c>
       <c r="C52">
-        <v>1.3152200000000001</v>
+        <v>1.30908</v>
       </c>
       <c r="D52">
-        <v>1.32253</v>
+        <v>1.32176</v>
       </c>
       <c r="E52">
-        <v>1.3076000000000001</v>
+        <v>1.30637</v>
       </c>
       <c r="F52">
-        <v>1.3102400000000001</v>
+        <v>1.3157000000000001</v>
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
-        <v>2.5539999999999896</v>
+        <v>1.4929999999999888</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="21" customHeight="1">
@@ -1905,23 +1903,23 @@
         <v>7</v>
       </c>
       <c r="B53" s="8">
-        <v>41814</v>
+        <v>41821</v>
       </c>
       <c r="C53">
-        <v>1.3264100000000001</v>
+        <v>1.3152200000000001</v>
       </c>
       <c r="D53">
-        <v>1.3385499999999999</v>
+        <v>1.32253</v>
       </c>
       <c r="E53">
-        <v>1.31301</v>
+        <v>1.3076000000000001</v>
       </c>
       <c r="F53">
-        <v>1.31321</v>
+        <v>1.3102400000000001</v>
       </c>
       <c r="H53">
         <f t="shared" si="0"/>
-        <v>2.2270000000000012</v>
+        <v>2.5539999999999896</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="21" customHeight="1">
@@ -1929,23 +1927,23 @@
         <v>7</v>
       </c>
       <c r="B54" s="8">
-        <v>41807</v>
+        <v>41814</v>
       </c>
       <c r="C54">
-        <v>1.3188200000000001</v>
+        <v>1.3264100000000001</v>
       </c>
       <c r="D54">
-        <v>1.3381400000000001</v>
+        <v>1.3385499999999999</v>
       </c>
       <c r="E54">
-        <v>1.3158700000000001</v>
+        <v>1.31301</v>
       </c>
       <c r="F54">
-        <v>1.3272600000000001</v>
+        <v>1.31321</v>
       </c>
       <c r="H54">
         <f t="shared" si="0"/>
-        <v>2.5170000000000137</v>
+        <v>2.2270000000000012</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="21" customHeight="1">
@@ -1953,23 +1951,23 @@
         <v>7</v>
       </c>
       <c r="B55" s="8">
-        <v>41800</v>
+        <v>41807</v>
       </c>
       <c r="C55">
-        <v>1.2974399999999999</v>
+        <v>1.3188200000000001</v>
       </c>
       <c r="D55">
-        <v>1.32003</v>
+        <v>1.3381400000000001</v>
       </c>
       <c r="E55">
-        <v>1.2948599999999999</v>
+        <v>1.3158700000000001</v>
       </c>
       <c r="F55">
-        <v>1.31958</v>
+        <v>1.3272600000000001</v>
       </c>
       <c r="H55">
         <f t="shared" si="0"/>
-        <v>2.0939999999999959</v>
+        <v>2.5170000000000137</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="21" customHeight="1">
@@ -1977,23 +1975,23 @@
         <v>7</v>
       </c>
       <c r="B56" s="8">
-        <v>41793</v>
+        <v>41800</v>
       </c>
       <c r="C56">
+        <v>1.2974399999999999</v>
+      </c>
+      <c r="D56">
+        <v>1.32003</v>
+      </c>
+      <c r="E56">
         <v>1.2948599999999999</v>
       </c>
-      <c r="D56">
-        <v>1.30661</v>
-      </c>
-      <c r="E56">
-        <v>1.2856700000000001</v>
-      </c>
       <c r="F56">
-        <v>1.2923800000000001</v>
+        <v>1.31958</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>2.2850000000000037</v>
+        <v>2.0939999999999959</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="21" customHeight="1">
@@ -2001,23 +1999,23 @@
         <v>7</v>
       </c>
       <c r="B57" s="8">
-        <v>41786</v>
+        <v>41793</v>
       </c>
       <c r="C57">
-        <v>1.2965</v>
+        <v>1.2948599999999999</v>
       </c>
       <c r="D57">
-        <v>1.30463</v>
+        <v>1.30661</v>
       </c>
       <c r="E57">
-        <v>1.2817799999999999</v>
+        <v>1.2856700000000001</v>
       </c>
       <c r="F57">
-        <v>1.2967599999999999</v>
+        <v>1.2923800000000001</v>
       </c>
       <c r="H57">
         <f t="shared" si="0"/>
-        <v>2.4579999999999824</v>
+        <v>2.2850000000000037</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="21" customHeight="1">
@@ -2025,23 +2023,23 @@
         <v>7</v>
       </c>
       <c r="B58" s="8">
-        <v>41779</v>
+        <v>41786</v>
       </c>
       <c r="C58">
-        <v>1.2871699999999999</v>
+        <v>1.2965</v>
       </c>
       <c r="D58">
-        <v>1.2987599999999999</v>
+        <v>1.30463</v>
       </c>
       <c r="E58">
-        <v>1.2741800000000001</v>
+        <v>1.2817799999999999</v>
       </c>
       <c r="F58">
-        <v>1.2972699999999999</v>
+        <v>1.2967599999999999</v>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>1.7500000000000071</v>
+        <v>2.4579999999999824</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="21" customHeight="1">
@@ -2049,23 +2047,23 @@
         <v>7</v>
       </c>
       <c r="B59" s="8">
-        <v>41772</v>
+        <v>41779</v>
       </c>
       <c r="C59">
-        <v>1.2786500000000001</v>
+        <v>1.2871699999999999</v>
       </c>
       <c r="D59">
-        <v>1.29237</v>
+        <v>1.2987599999999999</v>
       </c>
       <c r="E59">
-        <v>1.2748699999999999</v>
+        <v>1.2741800000000001</v>
       </c>
       <c r="F59">
-        <v>1.2877000000000001</v>
+        <v>1.2972699999999999</v>
       </c>
       <c r="H59">
         <f t="shared" si="0"/>
-        <v>2.6819999999999844</v>
+        <v>1.7500000000000071</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="21" customHeight="1">
@@ -2073,23 +2071,23 @@
         <v>7</v>
       </c>
       <c r="B60" s="8">
-        <v>41765</v>
+        <v>41772</v>
       </c>
       <c r="C60">
-        <v>1.2846900000000001</v>
+        <v>1.2786500000000001</v>
       </c>
       <c r="D60">
-        <v>1.2996799999999999</v>
+        <v>1.29237</v>
       </c>
       <c r="E60">
-        <v>1.2728600000000001</v>
+        <v>1.2748699999999999</v>
       </c>
       <c r="F60">
-        <v>1.2787599999999999</v>
+        <v>1.2877000000000001</v>
       </c>
       <c r="H60">
         <f t="shared" si="0"/>
-        <v>1.1419999999999986</v>
+        <v>2.6819999999999844</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="21" customHeight="1">
@@ -2097,23 +2095,23 @@
         <v>7</v>
       </c>
       <c r="B61" s="8">
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="C61">
-        <v>1.2833699999999999</v>
+        <v>1.2846900000000001</v>
       </c>
       <c r="D61">
-        <v>1.2916799999999999</v>
+        <v>1.2996799999999999</v>
       </c>
       <c r="E61">
-        <v>1.28026</v>
+        <v>1.2728600000000001</v>
       </c>
       <c r="F61">
-        <v>1.28555</v>
+        <v>1.2787599999999999</v>
       </c>
       <c r="H61">
         <f t="shared" si="0"/>
-        <v>1.4960000000000084</v>
+        <v>1.1419999999999986</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="21" customHeight="1">
@@ -2121,23 +2119,23 @@
         <v>7</v>
       </c>
       <c r="B62" s="8">
-        <v>41751</v>
+        <v>41758</v>
       </c>
       <c r="C62">
-        <v>1.27556</v>
+        <v>1.2833699999999999</v>
       </c>
       <c r="D62">
-        <v>1.28996</v>
+        <v>1.2916799999999999</v>
       </c>
       <c r="E62">
-        <v>1.2749999999999999</v>
+        <v>1.28026</v>
       </c>
       <c r="F62">
-        <v>1.2837799999999999</v>
+        <v>1.28555</v>
       </c>
       <c r="H62">
         <f t="shared" si="0"/>
-        <v>2.2909999999999986</v>
+        <v>1.4960000000000084</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="21" customHeight="1">
@@ -2145,23 +2143,23 @@
         <v>7</v>
       </c>
       <c r="B63" s="8">
-        <v>41744</v>
+        <v>41751</v>
       </c>
       <c r="C63">
-        <v>1.2589300000000001</v>
+        <v>1.27556</v>
       </c>
       <c r="D63">
-        <v>1.2755700000000001</v>
+        <v>1.28996</v>
       </c>
       <c r="E63">
-        <v>1.2526600000000001</v>
+        <v>1.2749999999999999</v>
       </c>
       <c r="F63">
-        <v>1.2752699999999999</v>
+        <v>1.2837799999999999</v>
       </c>
       <c r="H63">
         <f t="shared" si="0"/>
-        <v>2.750000000000008</v>
+        <v>2.2909999999999986</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="21" customHeight="1">
@@ -2169,23 +2167,23 @@
         <v>7</v>
       </c>
       <c r="B64" s="8">
-        <v>41737</v>
+        <v>41744</v>
       </c>
       <c r="C64">
-        <v>1.27705</v>
+        <v>1.2589300000000001</v>
       </c>
       <c r="D64">
-        <v>1.2818400000000001</v>
+        <v>1.2755700000000001</v>
       </c>
       <c r="E64">
-        <v>1.25434</v>
+        <v>1.2526600000000001</v>
       </c>
       <c r="F64">
-        <v>1.2608600000000001</v>
+        <v>1.2752699999999999</v>
       </c>
       <c r="H64">
         <f t="shared" si="0"/>
-        <v>2.1030000000000104</v>
+        <v>2.750000000000008</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="21" customHeight="1">
@@ -2193,23 +2191,23 @@
         <v>7</v>
       </c>
       <c r="B65" s="8">
-        <v>41730</v>
+        <v>41737</v>
       </c>
       <c r="C65">
-        <v>1.2884100000000001</v>
+        <v>1.27705</v>
       </c>
       <c r="D65">
-        <v>1.2942800000000001</v>
+        <v>1.2818400000000001</v>
       </c>
       <c r="E65">
-        <v>1.27325</v>
+        <v>1.25434</v>
       </c>
       <c r="F65">
-        <v>1.27627</v>
+        <v>1.2608600000000001</v>
       </c>
       <c r="H65">
         <f t="shared" si="0"/>
-        <v>1.2469999999999981</v>
+        <v>2.1030000000000104</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="21" customHeight="1">
@@ -2217,23 +2215,23 @@
         <v>7</v>
       </c>
       <c r="B66" s="8">
-        <v>41723</v>
+        <v>41730</v>
       </c>
       <c r="C66">
-        <v>1.28796</v>
+        <v>1.2884100000000001</v>
       </c>
       <c r="D66">
-        <v>1.29389</v>
+        <v>1.2942800000000001</v>
       </c>
       <c r="E66">
-        <v>1.28142</v>
+        <v>1.27325</v>
       </c>
       <c r="F66">
-        <v>1.2893699999999999</v>
+        <v>1.27627</v>
       </c>
       <c r="H66">
         <f t="shared" ref="H66:H129" si="1">ABS(D67-E67)*100</f>
-        <v>3.0030000000000001</v>
+        <v>1.2469999999999981</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="21" customHeight="1">
@@ -2241,23 +2239,23 @@
         <v>7</v>
       </c>
       <c r="B67" s="8">
-        <v>41716</v>
+        <v>41723</v>
       </c>
       <c r="C67">
-        <v>1.3087899999999999</v>
+        <v>1.28796</v>
       </c>
       <c r="D67">
-        <v>1.3123800000000001</v>
+        <v>1.29389</v>
       </c>
       <c r="E67">
-        <v>1.2823500000000001</v>
+        <v>1.28142</v>
       </c>
       <c r="F67">
-        <v>1.28807</v>
+        <v>1.2893699999999999</v>
       </c>
       <c r="H67">
         <f t="shared" si="1"/>
-        <v>2.949999999999986</v>
+        <v>3.0030000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="21" customHeight="1">
@@ -2265,23 +2263,23 @@
         <v>7</v>
       </c>
       <c r="B68" s="8">
-        <v>41709</v>
+        <v>41716</v>
       </c>
       <c r="C68">
-        <v>1.2811699999999999</v>
+        <v>1.3087899999999999</v>
       </c>
       <c r="D68">
-        <v>1.3097799999999999</v>
+        <v>1.3123800000000001</v>
       </c>
       <c r="E68">
-        <v>1.2802800000000001</v>
+        <v>1.2823500000000001</v>
       </c>
       <c r="F68">
-        <v>1.3094699999999999</v>
+        <v>1.28807</v>
       </c>
       <c r="H68">
         <f t="shared" si="1"/>
-        <v>1.8730000000000135</v>
+        <v>2.949999999999986</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="21" customHeight="1">
@@ -2289,23 +2287,23 @@
         <v>7</v>
       </c>
       <c r="B69" s="8">
-        <v>41702</v>
+        <v>41709</v>
       </c>
       <c r="C69">
-        <v>1.28731</v>
+        <v>1.2811699999999999</v>
       </c>
       <c r="D69">
-        <v>1.3000100000000001</v>
+        <v>1.3097799999999999</v>
       </c>
       <c r="E69">
-        <v>1.28128</v>
+        <v>1.2802800000000001</v>
       </c>
       <c r="F69">
-        <v>1.2815099999999999</v>
+        <v>1.3094699999999999</v>
       </c>
       <c r="H69">
         <f t="shared" si="1"/>
-        <v>3.0070000000000041</v>
+        <v>1.8730000000000135</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="21" customHeight="1">
@@ -2313,23 +2311,23 @@
         <v>7</v>
       </c>
       <c r="B70" s="8">
-        <v>41695</v>
+        <v>41702</v>
       </c>
       <c r="C70">
-        <v>1.26376</v>
+        <v>1.28731</v>
       </c>
       <c r="D70">
-        <v>1.2915099999999999</v>
+        <v>1.3000100000000001</v>
       </c>
       <c r="E70">
-        <v>1.2614399999999999</v>
+        <v>1.28128</v>
       </c>
       <c r="F70">
-        <v>1.2883199999999999</v>
+        <v>1.2815099999999999</v>
       </c>
       <c r="H70">
         <f t="shared" si="1"/>
-        <v>2.2769999999999957</v>
+        <v>3.0070000000000041</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="21" customHeight="1">
@@ -2337,23 +2335,23 @@
         <v>7</v>
       </c>
       <c r="B71" s="8">
-        <v>41688</v>
+        <v>41695</v>
       </c>
       <c r="C71">
-        <v>1.2556400000000001</v>
+        <v>1.26376</v>
       </c>
       <c r="D71">
-        <v>1.27545</v>
+        <v>1.2915099999999999</v>
       </c>
       <c r="E71">
-        <v>1.25268</v>
+        <v>1.2614399999999999</v>
       </c>
       <c r="F71">
-        <v>1.2639800000000001</v>
+        <v>1.2883199999999999</v>
       </c>
       <c r="H71">
         <f t="shared" si="1"/>
-        <v>1.9859999999999989</v>
+        <v>2.2769999999999957</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="21" customHeight="1">
@@ -2361,23 +2359,23 @@
         <v>7</v>
       </c>
       <c r="B72" s="8">
-        <v>41681</v>
+        <v>41688</v>
       </c>
       <c r="C72">
-        <v>1.25837</v>
+        <v>1.2556400000000001</v>
       </c>
       <c r="D72">
-        <v>1.2648299999999999</v>
+        <v>1.27545</v>
       </c>
       <c r="E72">
-        <v>1.2449699999999999</v>
+        <v>1.25268</v>
       </c>
       <c r="F72">
-        <v>1.2548299999999999</v>
+        <v>1.2639800000000001</v>
       </c>
       <c r="H72">
         <f t="shared" si="1"/>
-        <v>2.9190000000000049</v>
+        <v>1.9859999999999989</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21" customHeight="1">
@@ -2385,23 +2383,23 @@
         <v>7</v>
       </c>
       <c r="B73" s="8">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="C73">
-        <v>1.2433000000000001</v>
+        <v>1.25837</v>
       </c>
       <c r="D73">
-        <v>1.26888</v>
+        <v>1.2648299999999999</v>
       </c>
       <c r="E73">
-        <v>1.23969</v>
+        <v>1.2449699999999999</v>
       </c>
       <c r="F73">
-        <v>1.2584500000000001</v>
+        <v>1.2548299999999999</v>
       </c>
       <c r="H73">
         <f t="shared" si="1"/>
-        <v>1.8759999999999888</v>
+        <v>2.9190000000000049</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="21" customHeight="1">
@@ -2409,23 +2407,23 @@
         <v>7</v>
       </c>
       <c r="B74" s="8">
-        <v>41667</v>
+        <v>41674</v>
       </c>
       <c r="C74">
-        <v>1.23099</v>
+        <v>1.2433000000000001</v>
       </c>
       <c r="D74">
-        <v>1.2436799999999999</v>
+        <v>1.26888</v>
       </c>
       <c r="E74">
-        <v>1.22492</v>
+        <v>1.23969</v>
       </c>
       <c r="F74">
-        <v>1.24261</v>
+        <v>1.2584500000000001</v>
       </c>
       <c r="H74">
         <f t="shared" si="1"/>
-        <v>2.1450000000000191</v>
+        <v>1.8759999999999888</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="21" customHeight="1">
@@ -2433,23 +2431,23 @@
         <v>7</v>
       </c>
       <c r="B75" s="8">
-        <v>41660</v>
+        <v>41667</v>
       </c>
       <c r="C75">
-        <v>1.2472799999999999</v>
+        <v>1.23099</v>
       </c>
       <c r="D75">
-        <v>1.2496100000000001</v>
+        <v>1.2436799999999999</v>
       </c>
       <c r="E75">
-        <v>1.2281599999999999</v>
+        <v>1.22492</v>
       </c>
       <c r="F75">
-        <v>1.23245</v>
+        <v>1.24261</v>
       </c>
       <c r="H75">
         <f t="shared" si="1"/>
-        <v>1.7360000000000042</v>
+        <v>2.1450000000000191</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="21" customHeight="1">
@@ -2457,23 +2455,23 @@
         <v>7</v>
       </c>
       <c r="B76" s="8">
-        <v>41653</v>
+        <v>41660</v>
       </c>
       <c r="C76">
-        <v>1.24597</v>
+        <v>1.2472799999999999</v>
       </c>
       <c r="D76">
-        <v>1.2533300000000001</v>
+        <v>1.2496100000000001</v>
       </c>
       <c r="E76">
-        <v>1.23597</v>
+        <v>1.2281599999999999</v>
       </c>
       <c r="F76">
-        <v>1.24976</v>
+        <v>1.23245</v>
       </c>
       <c r="H76">
         <f t="shared" si="1"/>
-        <v>2.1190000000000042</v>
+        <v>1.7360000000000042</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="21" customHeight="1">
@@ -2481,23 +2479,23 @@
         <v>7</v>
       </c>
       <c r="B77" s="8">
-        <v>41646</v>
+        <v>41653</v>
       </c>
       <c r="C77">
-        <v>1.2409600000000001</v>
+        <v>1.24597</v>
       </c>
       <c r="D77">
-        <v>1.25895</v>
+        <v>1.2533300000000001</v>
       </c>
       <c r="E77">
-        <v>1.23776</v>
+        <v>1.23597</v>
       </c>
       <c r="F77">
-        <v>1.2467200000000001</v>
+        <v>1.24976</v>
       </c>
       <c r="H77">
         <f t="shared" si="1"/>
-        <v>2.0179999999999865</v>
+        <v>2.1190000000000042</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="21" customHeight="1">
@@ -2505,23 +2503,23 @@
         <v>7</v>
       </c>
       <c r="B78" s="8">
-        <v>41639</v>
+        <v>41646</v>
       </c>
       <c r="C78">
-        <v>1.25376</v>
+        <v>1.2409600000000001</v>
       </c>
       <c r="D78">
-        <v>1.2556499999999999</v>
+        <v>1.25895</v>
       </c>
       <c r="E78">
-        <v>1.2354700000000001</v>
+        <v>1.23776</v>
       </c>
       <c r="F78">
-        <v>1.24122</v>
+        <v>1.2467200000000001</v>
       </c>
       <c r="H78">
         <f t="shared" si="1"/>
-        <v>2.2500000000000187</v>
+        <v>2.0179999999999865</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="21" customHeight="1">
@@ -2529,23 +2527,23 @@
         <v>7</v>
       </c>
       <c r="B79" s="8">
-        <v>41632</v>
+        <v>41639</v>
       </c>
       <c r="C79">
-        <v>1.27135</v>
+        <v>1.25376</v>
       </c>
       <c r="D79">
-        <v>1.2739100000000001</v>
+        <v>1.2556499999999999</v>
       </c>
       <c r="E79">
-        <v>1.2514099999999999</v>
+        <v>1.2354700000000001</v>
       </c>
       <c r="F79">
-        <v>1.2571099999999999</v>
+        <v>1.24122</v>
       </c>
       <c r="H79">
         <f t="shared" si="1"/>
-        <v>2.2220000000000129</v>
+        <v>2.2500000000000187</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="21" customHeight="1">
@@ -2553,23 +2551,23 @@
         <v>7</v>
       </c>
       <c r="B80" s="8">
-        <v>41625</v>
+        <v>41632</v>
       </c>
       <c r="C80">
-        <v>1.2867500000000001</v>
+        <v>1.27135</v>
       </c>
       <c r="D80">
-        <v>1.2919400000000001</v>
+        <v>1.2739100000000001</v>
       </c>
       <c r="E80">
-        <v>1.26972</v>
+        <v>1.2514099999999999</v>
       </c>
       <c r="F80">
-        <v>1.2722899999999999</v>
+        <v>1.2571099999999999</v>
       </c>
       <c r="H80">
         <f t="shared" si="1"/>
-        <v>1.8059999999999965</v>
+        <v>2.2220000000000129</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="21" customHeight="1">
@@ -2577,23 +2575,23 @@
         <v>7</v>
       </c>
       <c r="B81" s="8">
-        <v>41618</v>
+        <v>41625</v>
       </c>
       <c r="C81">
-        <v>1.2851300000000001</v>
+        <v>1.2867500000000001</v>
       </c>
       <c r="D81">
-        <v>1.2893699999999999</v>
+        <v>1.2919400000000001</v>
       </c>
       <c r="E81">
-        <v>1.2713099999999999</v>
+        <v>1.26972</v>
       </c>
       <c r="F81">
-        <v>1.2887200000000001</v>
+        <v>1.2722899999999999</v>
       </c>
       <c r="H81">
         <f t="shared" si="1"/>
-        <v>2.5619999999999976</v>
+        <v>1.8059999999999965</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="21" customHeight="1">
@@ -2601,23 +2599,23 @@
         <v>7</v>
       </c>
       <c r="B82" s="8">
-        <v>41611</v>
+        <v>41618</v>
       </c>
       <c r="C82">
-        <v>1.26973</v>
+        <v>1.2851300000000001</v>
       </c>
       <c r="D82">
-        <v>1.2879</v>
+        <v>1.2893699999999999</v>
       </c>
       <c r="E82">
-        <v>1.2622800000000001</v>
+        <v>1.2713099999999999</v>
       </c>
       <c r="F82">
-        <v>1.28623</v>
+        <v>1.2887200000000001</v>
       </c>
       <c r="H82">
         <f t="shared" si="1"/>
-        <v>2.2909999999999986</v>
+        <v>2.5619999999999976</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="21" customHeight="1">
@@ -2625,23 +2623,23 @@
         <v>7</v>
       </c>
       <c r="B83" s="8">
-        <v>41604</v>
+        <v>41611</v>
       </c>
       <c r="C83">
-        <v>1.2703100000000001</v>
+        <v>1.26973</v>
       </c>
       <c r="D83">
-        <v>1.2908599999999999</v>
+        <v>1.2879</v>
       </c>
       <c r="E83">
-        <v>1.2679499999999999</v>
+        <v>1.2622800000000001</v>
       </c>
       <c r="F83">
-        <v>1.26915</v>
+        <v>1.28623</v>
       </c>
       <c r="H83">
         <f t="shared" si="1"/>
-        <v>1.639999999999997</v>
+        <v>2.2909999999999986</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="21" customHeight="1">
@@ -2649,23 +2647,23 @@
         <v>7</v>
       </c>
       <c r="B84" s="8">
-        <v>41597</v>
+        <v>41604</v>
       </c>
       <c r="C84">
-        <v>1.2765500000000001</v>
+        <v>1.2703100000000001</v>
       </c>
       <c r="D84">
-        <v>1.28359</v>
+        <v>1.2908599999999999</v>
       </c>
       <c r="E84">
-        <v>1.26719</v>
+        <v>1.2679499999999999</v>
       </c>
       <c r="F84">
-        <v>1.2711300000000001</v>
+        <v>1.26915</v>
       </c>
       <c r="H84">
         <f t="shared" si="1"/>
-        <v>1.4550000000000063</v>
+        <v>1.639999999999997</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="21" customHeight="1">
@@ -2673,23 +2671,23 @@
         <v>7</v>
       </c>
       <c r="B85" s="8">
-        <v>41590</v>
+        <v>41597</v>
       </c>
       <c r="C85">
-        <v>1.2683500000000001</v>
+        <v>1.2765500000000001</v>
       </c>
       <c r="D85">
-        <v>1.2822800000000001</v>
+        <v>1.28359</v>
       </c>
       <c r="E85">
-        <v>1.26773</v>
+        <v>1.26719</v>
       </c>
       <c r="F85">
-        <v>1.27773</v>
+        <v>1.2711300000000001</v>
       </c>
       <c r="H85">
         <f t="shared" si="1"/>
-        <v>1.5349999999999975</v>
+        <v>1.4550000000000063</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="21" customHeight="1">
@@ -2697,23 +2695,23 @@
         <v>7</v>
       </c>
       <c r="B86" s="8">
-        <v>41583</v>
+        <v>41590</v>
       </c>
       <c r="C86">
-        <v>1.2764200000000001</v>
+        <v>1.2683500000000001</v>
       </c>
       <c r="D86">
-        <v>1.2818799999999999</v>
+        <v>1.2822800000000001</v>
       </c>
       <c r="E86">
-        <v>1.2665299999999999</v>
+        <v>1.26773</v>
       </c>
       <c r="F86">
-        <v>1.2679400000000001</v>
+        <v>1.27773</v>
       </c>
       <c r="H86">
         <f t="shared" si="1"/>
-        <v>1.99600000000002</v>
+        <v>1.5349999999999975</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="21" customHeight="1">
@@ -2721,23 +2719,23 @@
         <v>7</v>
       </c>
       <c r="B87" s="8">
-        <v>41576</v>
+        <v>41583</v>
       </c>
       <c r="C87">
-        <v>1.28155</v>
+        <v>1.2764200000000001</v>
       </c>
       <c r="D87">
-        <v>1.2914000000000001</v>
+        <v>1.2818799999999999</v>
       </c>
       <c r="E87">
-        <v>1.2714399999999999</v>
+        <v>1.2665299999999999</v>
       </c>
       <c r="F87">
-        <v>1.2765299999999999</v>
+        <v>1.2679400000000001</v>
       </c>
       <c r="H87">
         <f t="shared" si="1"/>
-        <v>3.0320000000000125</v>
+        <v>1.99600000000002</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="21" customHeight="1">
@@ -2745,23 +2743,23 @@
         <v>7</v>
       </c>
       <c r="B88" s="8">
-        <v>41569</v>
+        <v>41576</v>
       </c>
       <c r="C88">
-        <v>1.2623200000000001</v>
+        <v>1.28155</v>
       </c>
       <c r="D88">
-        <v>1.2916000000000001</v>
+        <v>1.2914000000000001</v>
       </c>
       <c r="E88">
-        <v>1.26128</v>
+        <v>1.2714399999999999</v>
       </c>
       <c r="F88">
-        <v>1.2819799999999999</v>
+        <v>1.2765299999999999</v>
       </c>
       <c r="H88">
         <f t="shared" si="1"/>
-        <v>1.7919999999999936</v>
+        <v>3.0320000000000125</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="21" customHeight="1">
@@ -2769,23 +2767,23 @@
         <v>7</v>
       </c>
       <c r="B89" s="8">
-        <v>41562</v>
+        <v>41569</v>
       </c>
       <c r="C89">
-        <v>1.2474000000000001</v>
+        <v>1.2623200000000001</v>
       </c>
       <c r="D89">
-        <v>1.26292</v>
+        <v>1.2916000000000001</v>
       </c>
       <c r="E89">
-        <v>1.2450000000000001</v>
+        <v>1.26128</v>
       </c>
       <c r="F89">
-        <v>1.2628900000000001</v>
+        <v>1.2819799999999999</v>
       </c>
       <c r="H89">
         <f t="shared" si="1"/>
-        <v>1.2559999999999905</v>
+        <v>1.7919999999999936</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="21" customHeight="1">
@@ -2793,23 +2791,23 @@
         <v>7</v>
       </c>
       <c r="B90" s="8">
-        <v>41555</v>
+        <v>41562</v>
       </c>
       <c r="C90">
-        <v>1.2534799999999999</v>
+        <v>1.2474000000000001</v>
       </c>
       <c r="D90">
-        <v>1.25579</v>
+        <v>1.26292</v>
       </c>
       <c r="E90">
-        <v>1.2432300000000001</v>
+        <v>1.2450000000000001</v>
       </c>
       <c r="F90">
-        <v>1.2479800000000001</v>
+        <v>1.2628900000000001</v>
       </c>
       <c r="H90">
         <f t="shared" si="1"/>
-        <v>1.5060000000000073</v>
+        <v>1.2559999999999905</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="21" customHeight="1">
@@ -2817,23 +2815,23 @@
         <v>7</v>
       </c>
       <c r="B91" s="8">
-        <v>41548</v>
+        <v>41555</v>
       </c>
       <c r="C91">
-        <v>1.24715</v>
+        <v>1.2534799999999999</v>
       </c>
       <c r="D91">
-        <v>1.25987</v>
+        <v>1.25579</v>
       </c>
       <c r="E91">
-        <v>1.24481</v>
+        <v>1.2432300000000001</v>
       </c>
       <c r="F91">
-        <v>1.25387</v>
+        <v>1.2479800000000001</v>
       </c>
       <c r="H91">
         <f t="shared" si="1"/>
-        <v>2.1949999999999914</v>
+        <v>1.5060000000000073</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="21" customHeight="1">
@@ -2841,23 +2839,23 @@
         <v>7</v>
       </c>
       <c r="B92" s="8">
-        <v>41541</v>
+        <v>41548</v>
       </c>
       <c r="C92">
-        <v>1.23353</v>
+        <v>1.24715</v>
       </c>
       <c r="D92">
-        <v>1.2531699999999999</v>
+        <v>1.25987</v>
       </c>
       <c r="E92">
-        <v>1.23122</v>
+        <v>1.24481</v>
       </c>
       <c r="F92">
-        <v>1.24793</v>
+        <v>1.25387</v>
       </c>
       <c r="H92">
         <f t="shared" si="1"/>
-        <v>2.1889999999999965</v>
+        <v>2.1949999999999914</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="21" customHeight="1">
@@ -2865,23 +2863,23 @@
         <v>7</v>
       </c>
       <c r="B93" s="8">
-        <v>41534</v>
+        <v>41541</v>
       </c>
       <c r="C93">
-        <v>1.2192499999999999</v>
+        <v>1.23353</v>
       </c>
       <c r="D93">
-        <v>1.23898</v>
+        <v>1.2531699999999999</v>
       </c>
       <c r="E93">
-        <v>1.21709</v>
+        <v>1.23122</v>
       </c>
       <c r="F93">
-        <v>1.2339500000000001</v>
+        <v>1.24793</v>
       </c>
       <c r="H93">
         <f t="shared" si="1"/>
-        <v>1.5670000000000073</v>
+        <v>2.1889999999999965</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="21" customHeight="1">
@@ -2889,23 +2887,23 @@
         <v>7</v>
       </c>
       <c r="B94" s="8">
-        <v>41527</v>
+        <v>41534</v>
       </c>
       <c r="C94">
-        <v>1.214</v>
+        <v>1.2192499999999999</v>
       </c>
       <c r="D94">
-        <v>1.2238500000000001</v>
+        <v>1.23898</v>
       </c>
       <c r="E94">
-        <v>1.20818</v>
+        <v>1.21709</v>
       </c>
       <c r="F94">
-        <v>1.21889</v>
+        <v>1.2339500000000001</v>
       </c>
       <c r="H94">
         <f t="shared" si="1"/>
-        <v>3.6470000000000002</v>
+        <v>1.5670000000000073</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="21" customHeight="1">
@@ -2913,23 +2911,23 @@
         <v>7</v>
       </c>
       <c r="B95" s="8">
-        <v>41520</v>
+        <v>41527</v>
       </c>
       <c r="C95">
-        <v>1.24051</v>
+        <v>1.214</v>
       </c>
       <c r="D95">
-        <v>1.2425299999999999</v>
+        <v>1.2238500000000001</v>
       </c>
       <c r="E95">
-        <v>1.2060599999999999</v>
+        <v>1.20818</v>
       </c>
       <c r="F95">
-        <v>1.2146300000000001</v>
+        <v>1.21889</v>
       </c>
       <c r="H95">
         <f t="shared" si="1"/>
-        <v>3.2240000000000046</v>
+        <v>3.6470000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="21" customHeight="1">
@@ -2937,23 +2935,23 @@
         <v>7</v>
       </c>
       <c r="B96" s="8">
-        <v>41513</v>
+        <v>41520</v>
       </c>
       <c r="C96">
-        <v>1.24708</v>
+        <v>1.24051</v>
       </c>
       <c r="D96">
-        <v>1.2662</v>
+        <v>1.2425299999999999</v>
       </c>
       <c r="E96">
-        <v>1.2339599999999999</v>
+        <v>1.2060599999999999</v>
       </c>
       <c r="F96">
-        <v>1.2390699999999999</v>
+        <v>1.2146300000000001</v>
       </c>
       <c r="H96">
         <f t="shared" si="1"/>
-        <v>1.4109999999999845</v>
+        <v>3.2240000000000046</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="21" customHeight="1">
@@ -2961,23 +2959,23 @@
         <v>7</v>
       </c>
       <c r="B97" s="8">
-        <v>41506</v>
+        <v>41513</v>
       </c>
       <c r="C97">
-        <v>1.2566200000000001</v>
+        <v>1.24708</v>
       </c>
       <c r="D97">
-        <v>1.2605999999999999</v>
+        <v>1.2662</v>
       </c>
       <c r="E97">
-        <v>1.2464900000000001</v>
+        <v>1.2339599999999999</v>
       </c>
       <c r="F97">
-        <v>1.2485999999999999</v>
+        <v>1.2390699999999999</v>
       </c>
       <c r="H97">
         <f t="shared" si="1"/>
-        <v>2.2100000000000009</v>
+        <v>1.4109999999999845</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="21" customHeight="1">
@@ -2985,23 +2983,23 @@
         <v>7</v>
       </c>
       <c r="B98" s="8">
-        <v>41499</v>
+        <v>41506</v>
       </c>
       <c r="C98">
-        <v>1.26694</v>
+        <v>1.2566200000000001</v>
       </c>
       <c r="D98">
-        <v>1.2777499999999999</v>
+        <v>1.2605999999999999</v>
       </c>
       <c r="E98">
-        <v>1.2556499999999999</v>
+        <v>1.2464900000000001</v>
       </c>
       <c r="F98">
-        <v>1.25753</v>
+        <v>1.2485999999999999</v>
       </c>
       <c r="H98">
         <f t="shared" si="1"/>
-        <v>1.2309999999999821</v>
+        <v>2.2100000000000009</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="21" customHeight="1">
@@ -3009,23 +3007,23 @@
         <v>7</v>
       </c>
       <c r="B99" s="8">
-        <v>41492</v>
+        <v>41499</v>
       </c>
       <c r="C99">
-        <v>1.2649600000000001</v>
+        <v>1.26694</v>
       </c>
       <c r="D99">
-        <v>1.2751999999999999</v>
+        <v>1.2777499999999999</v>
       </c>
       <c r="E99">
-        <v>1.2628900000000001</v>
+        <v>1.2556499999999999</v>
       </c>
       <c r="F99">
-        <v>1.2680800000000001</v>
+        <v>1.25753</v>
       </c>
       <c r="H99">
         <f t="shared" si="1"/>
-        <v>2.3810000000000109</v>
+        <v>1.2309999999999821</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="21" customHeight="1">
@@ -3033,23 +3031,23 @@
         <v>7</v>
       </c>
       <c r="B100" s="8">
-        <v>41485</v>
+        <v>41492</v>
       </c>
       <c r="C100">
-        <v>1.2433099999999999</v>
+        <v>1.2649600000000001</v>
       </c>
       <c r="D100">
-        <v>1.2666900000000001</v>
+        <v>1.2751999999999999</v>
       </c>
       <c r="E100">
-        <v>1.24288</v>
+        <v>1.2628900000000001</v>
       </c>
       <c r="F100">
-        <v>1.2648299999999999</v>
+        <v>1.2680800000000001</v>
       </c>
       <c r="H100">
         <f t="shared" si="1"/>
-        <v>1.6219999999999901</v>
+        <v>2.3810000000000109</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="21" customHeight="1">
@@ -3057,23 +3055,23 @@
         <v>7</v>
       </c>
       <c r="B101" s="8">
-        <v>41478</v>
+        <v>41485</v>
       </c>
       <c r="C101">
-        <v>1.25352</v>
+        <v>1.2433099999999999</v>
       </c>
       <c r="D101">
-        <v>1.2575499999999999</v>
+        <v>1.2666900000000001</v>
       </c>
       <c r="E101">
-        <v>1.24133</v>
+        <v>1.24288</v>
       </c>
       <c r="F101">
-        <v>1.2427699999999999</v>
+        <v>1.2648299999999999</v>
       </c>
       <c r="H101">
         <f t="shared" si="1"/>
-        <v>1.790999999999987</v>
+        <v>1.6219999999999901</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="21" customHeight="1">
@@ -3081,23 +3079,23 @@
         <v>7</v>
       </c>
       <c r="B102" s="8">
-        <v>41471</v>
+        <v>41478</v>
       </c>
       <c r="C102">
-        <v>1.26423</v>
+        <v>1.25352</v>
       </c>
       <c r="D102">
-        <v>1.27006</v>
+        <v>1.2575499999999999</v>
       </c>
       <c r="E102">
-        <v>1.2521500000000001</v>
+        <v>1.24133</v>
       </c>
       <c r="F102">
-        <v>1.2537199999999999</v>
+        <v>1.2427699999999999</v>
       </c>
       <c r="H102">
         <f t="shared" si="1"/>
-        <v>2.9940000000000078</v>
+        <v>1.790999999999987</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="21" customHeight="1">
@@ -3105,23 +3103,23 @@
         <v>7</v>
       </c>
       <c r="B103" s="8">
-        <v>41464</v>
+        <v>41471</v>
       </c>
       <c r="C103">
-        <v>1.28827</v>
+        <v>1.26423</v>
       </c>
       <c r="D103">
-        <v>1.2942800000000001</v>
+        <v>1.27006</v>
       </c>
       <c r="E103">
-        <v>1.26434</v>
+        <v>1.2521500000000001</v>
       </c>
       <c r="F103">
-        <v>1.26488</v>
+        <v>1.2537199999999999</v>
       </c>
       <c r="H103">
         <f t="shared" si="1"/>
-        <v>1.5510000000000135</v>
+        <v>2.9940000000000078</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="21" customHeight="1">
@@ -3129,23 +3127,23 @@
         <v>7</v>
       </c>
       <c r="B104" s="8">
-        <v>41457</v>
+        <v>41464</v>
       </c>
       <c r="C104">
-        <v>1.2967500000000001</v>
+        <v>1.28827</v>
       </c>
       <c r="D104">
-        <v>1.30139</v>
+        <v>1.2942800000000001</v>
       </c>
       <c r="E104">
-        <v>1.2858799999999999</v>
+        <v>1.26434</v>
       </c>
       <c r="F104">
-        <v>1.2881800000000001</v>
+        <v>1.26488</v>
       </c>
       <c r="H104">
         <f t="shared" si="1"/>
-        <v>3.2250000000000112</v>
+        <v>1.5510000000000135</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="21" customHeight="1">
@@ -3153,23 +3151,23 @@
         <v>7</v>
       </c>
       <c r="B105" s="8">
-        <v>41450</v>
+        <v>41457</v>
       </c>
       <c r="C105">
-        <v>1.3265800000000001</v>
+        <v>1.2967500000000001</v>
       </c>
       <c r="D105">
-        <v>1.32681</v>
+        <v>1.30139</v>
       </c>
       <c r="E105">
-        <v>1.2945599999999999</v>
+        <v>1.2858799999999999</v>
       </c>
       <c r="F105">
-        <v>1.2966800000000001</v>
+        <v>1.2881800000000001</v>
       </c>
       <c r="H105">
         <f t="shared" si="1"/>
-        <v>1.5619999999999967</v>
+        <v>3.2250000000000112</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="21" customHeight="1">
@@ -3177,23 +3175,23 @@
         <v>7</v>
       </c>
       <c r="B106" s="8">
-        <v>41443</v>
+        <v>41450</v>
       </c>
       <c r="C106">
-        <v>1.3209299999999999</v>
+        <v>1.3265800000000001</v>
       </c>
       <c r="D106">
-        <v>1.33467</v>
+        <v>1.32681</v>
       </c>
       <c r="E106">
-        <v>1.3190500000000001</v>
+        <v>1.2945599999999999</v>
       </c>
       <c r="F106">
-        <v>1.32653</v>
+        <v>1.2966800000000001</v>
       </c>
       <c r="H106">
         <f t="shared" si="1"/>
-        <v>3.0540000000000012</v>
+        <v>1.5619999999999967</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="21" customHeight="1">
@@ -3201,23 +3199,23 @@
         <v>7</v>
       </c>
       <c r="B107" s="8">
-        <v>41436</v>
+        <v>41443</v>
       </c>
       <c r="C107">
-        <v>1.3456300000000001</v>
+        <v>1.3209299999999999</v>
       </c>
       <c r="D107">
-        <v>1.3469599999999999</v>
+        <v>1.33467</v>
       </c>
       <c r="E107">
-        <v>1.3164199999999999</v>
+        <v>1.3190500000000001</v>
       </c>
       <c r="F107">
-        <v>1.32107</v>
+        <v>1.32653</v>
       </c>
       <c r="H107">
         <f t="shared" si="1"/>
-        <v>1.0539999999999994</v>
+        <v>3.0540000000000012</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="21" customHeight="1">
@@ -3225,23 +3223,23 @@
         <v>7</v>
       </c>
       <c r="B108" s="8">
-        <v>41429</v>
+        <v>41436</v>
       </c>
       <c r="C108">
-        <v>1.34877</v>
+        <v>1.3456300000000001</v>
       </c>
       <c r="D108">
-        <v>1.3527400000000001</v>
+        <v>1.3469599999999999</v>
       </c>
       <c r="E108">
-        <v>1.3422000000000001</v>
+        <v>1.3164199999999999</v>
       </c>
       <c r="F108">
-        <v>1.3463799999999999</v>
+        <v>1.32107</v>
       </c>
       <c r="H108">
         <f t="shared" si="1"/>
-        <v>1.197999999999988</v>
+        <v>1.0539999999999994</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="21" customHeight="1">
@@ -3249,23 +3247,23 @@
         <v>7</v>
       </c>
       <c r="B109" s="8">
-        <v>41422</v>
+        <v>41429</v>
       </c>
       <c r="C109">
-        <v>1.3446800000000001</v>
+        <v>1.34877</v>
       </c>
       <c r="D109">
-        <v>1.3546499999999999</v>
+        <v>1.3527400000000001</v>
       </c>
       <c r="E109">
-        <v>1.34267</v>
+        <v>1.3422000000000001</v>
       </c>
       <c r="F109">
-        <v>1.34944</v>
+        <v>1.3463799999999999</v>
       </c>
       <c r="H109">
         <f t="shared" si="1"/>
-        <v>1.5260000000000051</v>
+        <v>1.197999999999988</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="21" customHeight="1">
@@ -3273,23 +3271,23 @@
         <v>7</v>
       </c>
       <c r="B110" s="8">
-        <v>41415</v>
+        <v>41422</v>
       </c>
       <c r="C110">
-        <v>1.3512900000000001</v>
+        <v>1.3446800000000001</v>
       </c>
       <c r="D110">
-        <v>1.35399</v>
+        <v>1.3546499999999999</v>
       </c>
       <c r="E110">
-        <v>1.33873</v>
+        <v>1.34267</v>
       </c>
       <c r="F110">
-        <v>1.34501</v>
+        <v>1.34944</v>
       </c>
       <c r="H110">
         <f t="shared" si="1"/>
-        <v>2.1209999999999951</v>
+        <v>1.5260000000000051</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="21" customHeight="1">
@@ -3297,23 +3295,23 @@
         <v>7</v>
       </c>
       <c r="B111" s="8">
-        <v>41408</v>
+        <v>41415</v>
       </c>
       <c r="C111">
-        <v>1.37039</v>
+        <v>1.3512900000000001</v>
       </c>
       <c r="D111">
-        <v>1.37218</v>
+        <v>1.35399</v>
       </c>
       <c r="E111">
-        <v>1.35097</v>
+        <v>1.33873</v>
       </c>
       <c r="F111">
-        <v>1.35117</v>
+        <v>1.34501</v>
       </c>
       <c r="H111">
         <f t="shared" si="1"/>
-        <v>1.2660000000000116</v>
+        <v>2.1209999999999951</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="21" customHeight="1">
@@ -3321,23 +3319,23 @@
         <v>7</v>
       </c>
       <c r="B112" s="8">
-        <v>41401</v>
+        <v>41408</v>
       </c>
       <c r="C112">
-        <v>1.36582</v>
+        <v>1.37039</v>
       </c>
       <c r="D112">
-        <v>1.3769400000000001</v>
+        <v>1.37218</v>
       </c>
       <c r="E112">
-        <v>1.3642799999999999</v>
+        <v>1.35097</v>
       </c>
       <c r="F112">
-        <v>1.37107</v>
+        <v>1.35117</v>
       </c>
       <c r="H112">
         <f t="shared" si="1"/>
-        <v>1.5640000000000098</v>
+        <v>1.2660000000000116</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="21" customHeight="1">
@@ -3345,23 +3343,23 @@
         <v>7</v>
       </c>
       <c r="B113" s="8">
-        <v>41394</v>
+        <v>41401</v>
       </c>
       <c r="C113">
-        <v>1.3648400000000001</v>
+        <v>1.36582</v>
       </c>
       <c r="D113">
-        <v>1.37927</v>
+        <v>1.3769400000000001</v>
       </c>
       <c r="E113">
-        <v>1.3636299999999999</v>
+        <v>1.3642799999999999</v>
       </c>
       <c r="F113">
-        <v>1.36497</v>
+        <v>1.37107</v>
       </c>
       <c r="H113">
         <f t="shared" si="1"/>
-        <v>2.8610000000000024</v>
+        <v>1.5640000000000098</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="21" customHeight="1">
@@ -3369,23 +3367,23 @@
         <v>7</v>
       </c>
       <c r="B114" s="8">
-        <v>41387</v>
+        <v>41394</v>
       </c>
       <c r="C114">
-        <v>1.3470500000000001</v>
+        <v>1.3648400000000001</v>
       </c>
       <c r="D114">
-        <v>1.3695999999999999</v>
+        <v>1.37927</v>
       </c>
       <c r="E114">
-        <v>1.3409899999999999</v>
+        <v>1.3636299999999999</v>
       </c>
       <c r="F114">
-        <v>1.3648199999999999</v>
+        <v>1.36497</v>
       </c>
       <c r="H114">
         <f t="shared" si="1"/>
-        <v>2.625999999999995</v>
+        <v>2.8610000000000024</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="21" customHeight="1">
@@ -3393,23 +3391,23 @@
         <v>7</v>
       </c>
       <c r="B115" s="8">
-        <v>41380</v>
+        <v>41387</v>
       </c>
       <c r="C115">
-        <v>1.3315699999999999</v>
+        <v>1.3470500000000001</v>
       </c>
       <c r="D115">
-        <v>1.35242</v>
+        <v>1.3695999999999999</v>
       </c>
       <c r="E115">
-        <v>1.32616</v>
+        <v>1.3409899999999999</v>
       </c>
       <c r="F115">
-        <v>1.3494999999999999</v>
+        <v>1.3648199999999999</v>
       </c>
       <c r="H115">
         <f t="shared" si="1"/>
-        <v>2.0289999999999919</v>
+        <v>2.625999999999995</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="21" customHeight="1">
@@ -3417,23 +3415,23 @@
         <v>7</v>
       </c>
       <c r="B116" s="8">
-        <v>41373</v>
+        <v>41380</v>
       </c>
       <c r="C116">
-        <v>1.34013</v>
+        <v>1.3315699999999999</v>
       </c>
       <c r="D116">
-        <v>1.34256</v>
+        <v>1.35242</v>
       </c>
       <c r="E116">
-        <v>1.3222700000000001</v>
+        <v>1.32616</v>
       </c>
       <c r="F116">
-        <v>1.3324</v>
+        <v>1.3494999999999999</v>
       </c>
       <c r="H116">
         <f t="shared" si="1"/>
-        <v>1.540000000000008</v>
+        <v>2.0289999999999919</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="21" customHeight="1">
@@ -3441,23 +3439,23 @@
         <v>7</v>
       </c>
       <c r="B117" s="8">
-        <v>41366</v>
+        <v>41373</v>
       </c>
       <c r="C117">
-        <v>1.33009</v>
+        <v>1.34013</v>
       </c>
       <c r="D117">
-        <v>1.3454900000000001</v>
+        <v>1.34256</v>
       </c>
       <c r="E117">
-        <v>1.33009</v>
+        <v>1.3222700000000001</v>
       </c>
       <c r="F117">
-        <v>1.34029</v>
+        <v>1.3324</v>
       </c>
       <c r="H117">
         <f t="shared" si="1"/>
-        <v>1.368999999999998</v>
+        <v>1.540000000000008</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="21" customHeight="1">
@@ -3465,23 +3463,23 @@
         <v>7</v>
       </c>
       <c r="B118" s="8">
-        <v>41359</v>
+        <v>41366</v>
       </c>
       <c r="C118">
-        <v>1.3349</v>
+        <v>1.33009</v>
       </c>
       <c r="D118">
-        <v>1.34138</v>
+        <v>1.3454900000000001</v>
       </c>
       <c r="E118">
-        <v>1.32769</v>
+        <v>1.33009</v>
       </c>
       <c r="F118">
-        <v>1.3309800000000001</v>
+        <v>1.34029</v>
       </c>
       <c r="H118">
         <f t="shared" si="1"/>
-        <v>1.4559999999999906</v>
+        <v>1.368999999999998</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="21" customHeight="1">
@@ -3489,23 +3487,23 @@
         <v>7</v>
       </c>
       <c r="B119" s="8">
-        <v>41352</v>
+        <v>41359</v>
       </c>
       <c r="C119">
-        <v>1.33365</v>
+        <v>1.3349</v>
       </c>
       <c r="D119">
-        <v>1.3408599999999999</v>
+        <v>1.34138</v>
       </c>
       <c r="E119">
-        <v>1.3263</v>
+        <v>1.32769</v>
       </c>
       <c r="F119">
-        <v>1.33666</v>
+        <v>1.3309800000000001</v>
       </c>
       <c r="H119">
         <f t="shared" si="1"/>
-        <v>2.18799999999999</v>
+        <v>1.4559999999999906</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="21" customHeight="1">
@@ -3513,23 +3511,23 @@
         <v>7</v>
       </c>
       <c r="B120" s="8">
-        <v>41345</v>
+        <v>41352</v>
       </c>
       <c r="C120">
-        <v>1.3451500000000001</v>
+        <v>1.33365</v>
       </c>
       <c r="D120">
-        <v>1.34944</v>
+        <v>1.3408599999999999</v>
       </c>
       <c r="E120">
-        <v>1.3275600000000001</v>
+        <v>1.3263</v>
       </c>
       <c r="F120">
-        <v>1.3344199999999999</v>
+        <v>1.33666</v>
       </c>
       <c r="H120">
         <f t="shared" si="1"/>
-        <v>1.6310000000000047</v>
+        <v>2.18799999999999</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="21" customHeight="1">
@@ -3537,23 +3535,23 @@
         <v>7</v>
       </c>
       <c r="B121" s="8">
-        <v>41338</v>
+        <v>41345</v>
       </c>
       <c r="C121">
-        <v>1.3374999999999999</v>
+        <v>1.3451500000000001</v>
       </c>
       <c r="D121">
-        <v>1.35345</v>
+        <v>1.34944</v>
       </c>
       <c r="E121">
-        <v>1.33714</v>
+        <v>1.3275600000000001</v>
       </c>
       <c r="F121">
-        <v>1.34632</v>
+        <v>1.3344199999999999</v>
       </c>
       <c r="H121">
         <f t="shared" si="1"/>
-        <v>3.5390000000000033</v>
+        <v>1.6310000000000047</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="21" customHeight="1">
@@ -3561,23 +3559,23 @@
         <v>7</v>
       </c>
       <c r="B122" s="8">
-        <v>41331</v>
+        <v>41338</v>
       </c>
       <c r="C122">
-        <v>1.30955</v>
+        <v>1.3374999999999999</v>
       </c>
       <c r="D122">
-        <v>1.34368</v>
+        <v>1.35345</v>
       </c>
       <c r="E122">
-        <v>1.30829</v>
+        <v>1.33714</v>
       </c>
       <c r="F122">
-        <v>1.3375999999999999</v>
+        <v>1.34632</v>
       </c>
       <c r="H122">
         <f t="shared" si="1"/>
-        <v>1.5969999999999818</v>
+        <v>3.5390000000000033</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="21" customHeight="1">
@@ -3585,23 +3583,23 @@
         <v>7</v>
       </c>
       <c r="B123" s="8">
-        <v>41324</v>
+        <v>41331</v>
       </c>
       <c r="C123">
-        <v>1.30985</v>
+        <v>1.30955</v>
       </c>
       <c r="D123">
-        <v>1.3208899999999999</v>
+        <v>1.34368</v>
       </c>
       <c r="E123">
-        <v>1.3049200000000001</v>
+        <v>1.30829</v>
       </c>
       <c r="F123">
-        <v>1.3103100000000001</v>
+        <v>1.3375999999999999</v>
       </c>
       <c r="H123">
         <f t="shared" si="1"/>
-        <v>1.1720000000000175</v>
+        <v>1.5969999999999818</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="21" customHeight="1">
@@ -3609,23 +3607,23 @@
         <v>7</v>
       </c>
       <c r="B124" s="8">
-        <v>41317</v>
+        <v>41324</v>
       </c>
       <c r="C124">
-        <v>1.3083499999999999</v>
+        <v>1.30985</v>
       </c>
       <c r="D124">
-        <v>1.3125800000000001</v>
+        <v>1.3208899999999999</v>
       </c>
       <c r="E124">
-        <v>1.3008599999999999</v>
+        <v>1.3049200000000001</v>
       </c>
       <c r="F124">
-        <v>1.3090999999999999</v>
+        <v>1.3103100000000001</v>
       </c>
       <c r="H124">
         <f t="shared" si="1"/>
-        <v>2.0499999999999963</v>
+        <v>1.1720000000000175</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="21" customHeight="1">
@@ -3633,23 +3631,23 @@
         <v>7</v>
       </c>
       <c r="B125" s="8">
-        <v>41310</v>
+        <v>41317</v>
       </c>
       <c r="C125">
-        <v>1.3022899999999999</v>
+        <v>1.3083499999999999</v>
       </c>
       <c r="D125">
-        <v>1.3211299999999999</v>
+        <v>1.3125800000000001</v>
       </c>
       <c r="E125">
-        <v>1.30063</v>
+        <v>1.3008599999999999</v>
       </c>
       <c r="F125">
-        <v>1.30915</v>
+        <v>1.3090999999999999</v>
       </c>
       <c r="H125">
         <f t="shared" si="1"/>
-        <v>2.0199999999999996</v>
+        <v>2.0499999999999963</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="21" customHeight="1">
@@ -3657,23 +3655,23 @@
         <v>7</v>
       </c>
       <c r="B126" s="8">
-        <v>41303</v>
+        <v>41310</v>
       </c>
       <c r="C126">
-        <v>1.31315</v>
+        <v>1.3022899999999999</v>
       </c>
       <c r="D126">
-        <v>1.3168299999999999</v>
+        <v>1.3211299999999999</v>
       </c>
       <c r="E126">
-        <v>1.2966299999999999</v>
+        <v>1.30063</v>
       </c>
       <c r="F126">
-        <v>1.30341</v>
+        <v>1.30915</v>
       </c>
       <c r="H126">
         <f t="shared" si="1"/>
-        <v>2.8129999999999988</v>
+        <v>2.0199999999999996</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="21" customHeight="1">
@@ -3681,23 +3679,23 @@
         <v>7</v>
       </c>
       <c r="B127" s="8">
-        <v>41296</v>
+        <v>41303</v>
       </c>
       <c r="C127">
-        <v>1.33175</v>
+        <v>1.31315</v>
       </c>
       <c r="D127">
-        <v>1.33342</v>
+        <v>1.3168299999999999</v>
       </c>
       <c r="E127">
-        <v>1.3052900000000001</v>
+        <v>1.2966299999999999</v>
       </c>
       <c r="F127">
-        <v>1.3147200000000001</v>
+        <v>1.30341</v>
       </c>
       <c r="H127">
         <f t="shared" si="1"/>
-        <v>3.6869999999999958</v>
+        <v>2.8129999999999988</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="21" customHeight="1">
@@ -3705,23 +3703,23 @@
         <v>7</v>
       </c>
       <c r="B128" s="8">
-        <v>41289</v>
+        <v>41296</v>
       </c>
       <c r="C128">
-        <v>1.31267</v>
+        <v>1.33175</v>
       </c>
       <c r="D128">
-        <v>1.3386899999999999</v>
+        <v>1.33342</v>
       </c>
       <c r="E128">
-        <v>1.30182</v>
+        <v>1.3052900000000001</v>
       </c>
       <c r="F128">
-        <v>1.3317399999999999</v>
+        <v>1.3147200000000001</v>
       </c>
       <c r="H128">
         <f t="shared" si="1"/>
-        <v>2.6440000000000019</v>
+        <v>3.6869999999999958</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="21" customHeight="1">
@@ -3729,23 +3727,23 @@
         <v>7</v>
       </c>
       <c r="B129" s="8">
-        <v>41282</v>
+        <v>41289</v>
       </c>
       <c r="C129">
-        <v>1.3246</v>
+        <v>1.31267</v>
       </c>
       <c r="D129">
-        <v>1.32935</v>
+        <v>1.3386899999999999</v>
       </c>
       <c r="E129">
-        <v>1.30291</v>
+        <v>1.30182</v>
       </c>
       <c r="F129">
-        <v>1.31246</v>
+        <v>1.3317399999999999</v>
       </c>
       <c r="H129">
         <f t="shared" si="1"/>
-        <v>2.8329999999999966</v>
+        <v>2.6440000000000019</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="21" customHeight="1">
@@ -3753,23 +3751,23 @@
         <v>7</v>
       </c>
       <c r="B130" s="8">
-        <v>41275</v>
+        <v>41282</v>
       </c>
       <c r="C130">
-        <v>1.3435999999999999</v>
+        <v>1.3246</v>
       </c>
       <c r="D130">
-        <v>1.34602</v>
+        <v>1.32935</v>
       </c>
       <c r="E130">
-        <v>1.31769</v>
+        <v>1.30291</v>
       </c>
       <c r="F130">
-        <v>1.3233200000000001</v>
+        <v>1.31246</v>
       </c>
       <c r="H130">
         <f t="shared" ref="H130:H193" si="2">ABS(D131-E131)*100</f>
-        <v>1.9720000000000182</v>
+        <v>2.8329999999999966</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="21" customHeight="1">
@@ -3777,23 +3775,23 @@
         <v>7</v>
       </c>
       <c r="B131" s="8">
-        <v>41268</v>
+        <v>41275</v>
       </c>
       <c r="C131">
-        <v>1.3516300000000001</v>
+        <v>1.3435999999999999</v>
       </c>
       <c r="D131">
-        <v>1.3597600000000001</v>
+        <v>1.34602</v>
       </c>
       <c r="E131">
-        <v>1.3400399999999999</v>
+        <v>1.31769</v>
       </c>
       <c r="F131">
-        <v>1.34311</v>
+        <v>1.3233200000000001</v>
       </c>
       <c r="H131">
         <f t="shared" si="2"/>
-        <v>2.3949999999999916</v>
+        <v>1.9720000000000182</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="21" customHeight="1">
@@ -3801,23 +3799,23 @@
         <v>7</v>
       </c>
       <c r="B132" s="8">
-        <v>41261</v>
+        <v>41268</v>
       </c>
       <c r="C132">
-        <v>1.33335</v>
+        <v>1.3516300000000001</v>
       </c>
       <c r="D132">
-        <v>1.35564</v>
+        <v>1.3597600000000001</v>
       </c>
       <c r="E132">
-        <v>1.33169</v>
+        <v>1.3400399999999999</v>
       </c>
       <c r="F132">
-        <v>1.35287</v>
+        <v>1.34311</v>
       </c>
       <c r="H132">
         <f t="shared" si="2"/>
-        <v>3.3930000000000016</v>
+        <v>2.3949999999999916</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="21" customHeight="1">
@@ -3825,23 +3823,23 @@
         <v>7</v>
       </c>
       <c r="B133" s="8">
-        <v>41254</v>
+        <v>41261</v>
       </c>
       <c r="C133">
-        <v>1.31375</v>
+        <v>1.33335</v>
       </c>
       <c r="D133">
-        <v>1.34165</v>
+        <v>1.35564</v>
       </c>
       <c r="E133">
-        <v>1.30772</v>
+        <v>1.33169</v>
       </c>
       <c r="F133">
-        <v>1.3332599999999999</v>
+        <v>1.35287</v>
       </c>
       <c r="H133">
         <f t="shared" si="2"/>
-        <v>2.0289999999999919</v>
+        <v>3.3930000000000016</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="21" customHeight="1">
@@ -3849,23 +3847,23 @@
         <v>7</v>
       </c>
       <c r="B134" s="8">
-        <v>41247</v>
+        <v>41254</v>
       </c>
       <c r="C134">
-        <v>1.3288500000000001</v>
+        <v>1.31375</v>
       </c>
       <c r="D134">
-        <v>1.3354699999999999</v>
+        <v>1.34165</v>
       </c>
       <c r="E134">
-        <v>1.31518</v>
+        <v>1.30772</v>
       </c>
       <c r="F134">
-        <v>1.3176600000000001</v>
+        <v>1.3332599999999999</v>
       </c>
       <c r="H134">
         <f t="shared" si="2"/>
-        <v>2.8239999999999821</v>
+        <v>2.0289999999999919</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="21" customHeight="1">
@@ -3873,23 +3871,23 @@
         <v>7</v>
       </c>
       <c r="B135" s="8">
-        <v>41240</v>
+        <v>41247</v>
       </c>
       <c r="C135">
-        <v>1.3494299999999999</v>
+        <v>1.3288500000000001</v>
       </c>
       <c r="D135">
-        <v>1.3536999999999999</v>
+        <v>1.3354699999999999</v>
       </c>
       <c r="E135">
-        <v>1.3254600000000001</v>
+        <v>1.31518</v>
       </c>
       <c r="F135">
-        <v>1.3289800000000001</v>
+        <v>1.3176600000000001</v>
       </c>
       <c r="H135">
         <f t="shared" si="2"/>
-        <v>1.5770000000000062</v>
+        <v>2.8239999999999821</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="21" customHeight="1">
@@ -3897,23 +3895,23 @@
         <v>7</v>
       </c>
       <c r="B136" s="8">
-        <v>41233</v>
+        <v>41240</v>
       </c>
       <c r="C136">
-        <v>1.3487499999999999</v>
+        <v>1.3494299999999999</v>
       </c>
       <c r="D136">
-        <v>1.35348</v>
+        <v>1.3536999999999999</v>
       </c>
       <c r="E136">
-        <v>1.33771</v>
+        <v>1.3254600000000001</v>
       </c>
       <c r="F136">
-        <v>1.35223</v>
+        <v>1.3289800000000001</v>
       </c>
       <c r="H136">
         <f t="shared" si="2"/>
-        <v>1.8860000000000099</v>
+        <v>1.5770000000000062</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="21" customHeight="1">
@@ -3921,23 +3919,23 @@
         <v>7</v>
       </c>
       <c r="B137" s="8">
-        <v>41226</v>
+        <v>41233</v>
       </c>
       <c r="C137">
-        <v>1.3496900000000001</v>
+        <v>1.3487499999999999</v>
       </c>
       <c r="D137">
-        <v>1.35877</v>
+        <v>1.35348</v>
       </c>
       <c r="E137">
-        <v>1.3399099999999999</v>
+        <v>1.33771</v>
       </c>
       <c r="F137">
-        <v>1.35094</v>
+        <v>1.35223</v>
       </c>
       <c r="H137">
         <f t="shared" si="2"/>
-        <v>2.8329999999999966</v>
+        <v>1.8860000000000099</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="21" customHeight="1">
@@ -3945,23 +3943,23 @@
         <v>7</v>
       </c>
       <c r="B138" s="8">
-        <v>41219</v>
+        <v>41226</v>
       </c>
       <c r="C138">
-        <v>1.33352</v>
+        <v>1.3496900000000001</v>
       </c>
       <c r="D138">
-        <v>1.3547400000000001</v>
+        <v>1.35877</v>
       </c>
       <c r="E138">
-        <v>1.3264100000000001</v>
+        <v>1.3399099999999999</v>
       </c>
       <c r="F138">
-        <v>1.35368</v>
+        <v>1.35094</v>
       </c>
       <c r="H138">
         <f t="shared" si="2"/>
-        <v>1.1239999999999917</v>
+        <v>2.8329999999999966</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="21" customHeight="1">
@@ -3969,23 +3967,23 @@
         <v>7</v>
       </c>
       <c r="B139" s="8">
-        <v>41212</v>
+        <v>41219</v>
       </c>
       <c r="C139">
-        <v>1.3406199999999999</v>
+        <v>1.33352</v>
       </c>
       <c r="D139">
-        <v>1.34649</v>
+        <v>1.3547400000000001</v>
       </c>
       <c r="E139">
-        <v>1.33525</v>
+        <v>1.3264100000000001</v>
       </c>
       <c r="F139">
-        <v>1.34023</v>
+        <v>1.35368</v>
       </c>
       <c r="H139">
         <f t="shared" si="2"/>
-        <v>1.5549999999999953</v>
+        <v>1.1239999999999917</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="21" customHeight="1">
@@ -3993,23 +3991,23 @@
         <v>7</v>
       </c>
       <c r="B140" s="8">
-        <v>41205</v>
+        <v>41212</v>
       </c>
       <c r="C140">
-        <v>1.3339700000000001</v>
+        <v>1.3406199999999999</v>
       </c>
       <c r="D140">
-        <v>1.3432500000000001</v>
+        <v>1.34649</v>
       </c>
       <c r="E140">
-        <v>1.3277000000000001</v>
+        <v>1.33525</v>
       </c>
       <c r="F140">
-        <v>1.3388199999999999</v>
+        <v>1.34023</v>
       </c>
       <c r="H140">
         <f t="shared" si="2"/>
-        <v>3.4850000000000048</v>
+        <v>1.5549999999999953</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="21" customHeight="1">
@@ -4017,23 +4015,23 @@
         <v>7</v>
       </c>
       <c r="B141" s="8">
-        <v>41198</v>
+        <v>41205</v>
       </c>
       <c r="C141">
-        <v>1.3134399999999999</v>
+        <v>1.3339700000000001</v>
       </c>
       <c r="D141">
-        <v>1.33538</v>
+        <v>1.3432500000000001</v>
       </c>
       <c r="E141">
-        <v>1.30053</v>
+        <v>1.3277000000000001</v>
       </c>
       <c r="F141">
-        <v>1.33297</v>
+        <v>1.3388199999999999</v>
       </c>
       <c r="H141">
         <f t="shared" si="2"/>
-        <v>2.0429999999999948</v>
+        <v>3.4850000000000048</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="21" customHeight="1">
@@ -4041,23 +4039,23 @@
         <v>7</v>
       </c>
       <c r="B142" s="8">
-        <v>41191</v>
+        <v>41198</v>
       </c>
       <c r="C142">
-        <v>1.325</v>
+        <v>1.3134399999999999</v>
       </c>
       <c r="D142">
-        <v>1.3306199999999999</v>
+        <v>1.33538</v>
       </c>
       <c r="E142">
-        <v>1.31019</v>
+        <v>1.30053</v>
       </c>
       <c r="F142">
-        <v>1.3140000000000001</v>
+        <v>1.33297</v>
       </c>
       <c r="H142">
         <f t="shared" si="2"/>
-        <v>2.4540000000000006</v>
+        <v>2.0429999999999948</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="21" customHeight="1">
@@ -4065,23 +4063,23 @@
         <v>7</v>
       </c>
       <c r="B143" s="8">
-        <v>41184</v>
+        <v>41191</v>
       </c>
       <c r="C143">
-        <v>1.31182</v>
+        <v>1.325</v>
       </c>
       <c r="D143">
-        <v>1.3312600000000001</v>
+        <v>1.3306199999999999</v>
       </c>
       <c r="E143">
-        <v>1.3067200000000001</v>
+        <v>1.31019</v>
       </c>
       <c r="F143">
-        <v>1.32785</v>
+        <v>1.3140000000000001</v>
       </c>
       <c r="H143">
         <f t="shared" si="2"/>
-        <v>2.3290000000000033</v>
+        <v>2.4540000000000006</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="21" customHeight="1">
@@ -4089,23 +4087,23 @@
         <v>7</v>
       </c>
       <c r="B144" s="8">
-        <v>41177</v>
+        <v>41184</v>
       </c>
       <c r="C144">
-        <v>1.3166899999999999</v>
+        <v>1.31182</v>
       </c>
       <c r="D144">
-        <v>1.3280400000000001</v>
+        <v>1.3312600000000001</v>
       </c>
       <c r="E144">
-        <v>1.3047500000000001</v>
+        <v>1.3067200000000001</v>
       </c>
       <c r="F144">
-        <v>1.3119499999999999</v>
+        <v>1.32785</v>
       </c>
       <c r="H144">
         <f t="shared" si="2"/>
-        <v>2.4359999999999937</v>
+        <v>2.3290000000000033</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="21" customHeight="1">
@@ -4113,23 +4111,23 @@
         <v>7</v>
       </c>
       <c r="B145" s="8">
-        <v>41170</v>
+        <v>41177</v>
       </c>
       <c r="C145">
-        <v>1.3212200000000001</v>
+        <v>1.3166899999999999</v>
       </c>
       <c r="D145">
-        <v>1.32423</v>
+        <v>1.3280400000000001</v>
       </c>
       <c r="E145">
-        <v>1.2998700000000001</v>
+        <v>1.3047500000000001</v>
       </c>
       <c r="F145">
-        <v>1.3163800000000001</v>
+        <v>1.3119499999999999</v>
       </c>
       <c r="H145">
         <f t="shared" si="2"/>
-        <v>2.1830000000000016</v>
+        <v>2.4359999999999937</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="21" customHeight="1">
@@ -4137,23 +4135,23 @@
         <v>7</v>
       </c>
       <c r="B146" s="8">
-        <v>41163</v>
+        <v>41170</v>
       </c>
       <c r="C146">
-        <v>1.3038400000000001</v>
+        <v>1.3212200000000001</v>
       </c>
       <c r="D146">
-        <v>1.32473</v>
+        <v>1.32423</v>
       </c>
       <c r="E146">
-        <v>1.3028999999999999</v>
+        <v>1.2998700000000001</v>
       </c>
       <c r="F146">
-        <v>1.3216300000000001</v>
+        <v>1.3163800000000001</v>
       </c>
       <c r="H146">
         <f t="shared" si="2"/>
-        <v>2.3839999999999861</v>
+        <v>2.1830000000000016</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="21" customHeight="1">
@@ -4161,23 +4159,23 @@
         <v>7</v>
       </c>
       <c r="B147" s="8">
-        <v>41156</v>
+        <v>41163</v>
       </c>
       <c r="C147">
-        <v>1.2983499999999999</v>
+        <v>1.3038400000000001</v>
       </c>
       <c r="D147">
-        <v>1.3052299999999999</v>
+        <v>1.32473</v>
       </c>
       <c r="E147">
-        <v>1.28139</v>
+        <v>1.3028999999999999</v>
       </c>
       <c r="F147">
-        <v>1.30322</v>
+        <v>1.3216300000000001</v>
       </c>
       <c r="H147">
         <f t="shared" si="2"/>
-        <v>1.656000000000013</v>
+        <v>2.3839999999999861</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="21" customHeight="1">
@@ -4185,23 +4183,23 @@
         <v>7</v>
       </c>
       <c r="B148" s="8">
-        <v>41149</v>
+        <v>41156</v>
       </c>
       <c r="C148">
-        <v>1.3002400000000001</v>
+        <v>1.2983499999999999</v>
       </c>
       <c r="D148">
-        <v>1.3147200000000001</v>
+        <v>1.3052299999999999</v>
       </c>
       <c r="E148">
-        <v>1.29816</v>
+        <v>1.28139</v>
       </c>
       <c r="F148">
-        <v>1.2986899999999999</v>
+        <v>1.30322</v>
       </c>
       <c r="H148">
         <f t="shared" si="2"/>
-        <v>1.8000000000000016</v>
+        <v>1.656000000000013</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="21" customHeight="1">
@@ -4209,23 +4207,23 @@
         <v>7</v>
       </c>
       <c r="B149" s="8">
-        <v>41142</v>
+        <v>41149</v>
       </c>
       <c r="C149">
-        <v>1.28735</v>
+        <v>1.3002400000000001</v>
       </c>
       <c r="D149">
-        <v>1.3010699999999999</v>
+        <v>1.3147200000000001</v>
       </c>
       <c r="E149">
-        <v>1.2830699999999999</v>
+        <v>1.29816</v>
       </c>
       <c r="F149">
-        <v>1.29986</v>
+        <v>1.2986899999999999</v>
       </c>
       <c r="H149">
         <f t="shared" si="2"/>
-        <v>2.1150000000000002</v>
+        <v>1.8000000000000016</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="21" customHeight="1">
@@ -4233,23 +4231,23 @@
         <v>7</v>
       </c>
       <c r="B150" s="8">
-        <v>41135</v>
+        <v>41142</v>
       </c>
       <c r="C150">
-        <v>1.29521</v>
+        <v>1.28735</v>
       </c>
       <c r="D150">
-        <v>1.29748</v>
+        <v>1.3010699999999999</v>
       </c>
       <c r="E150">
-        <v>1.27633</v>
+        <v>1.2830699999999999</v>
       </c>
       <c r="F150">
-        <v>1.2862199999999999</v>
+        <v>1.29986</v>
       </c>
       <c r="H150">
         <f t="shared" si="2"/>
-        <v>2.6540000000000008</v>
+        <v>2.1150000000000002</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="21" customHeight="1">
@@ -4257,23 +4255,23 @@
         <v>7</v>
       </c>
       <c r="B151" s="8">
-        <v>41128</v>
+        <v>41135</v>
       </c>
       <c r="C151">
-        <v>1.3178000000000001</v>
+        <v>1.29521</v>
       </c>
       <c r="D151">
-        <v>1.31891</v>
+        <v>1.29748</v>
       </c>
       <c r="E151">
-        <v>1.29237</v>
+        <v>1.27633</v>
       </c>
       <c r="F151">
-        <v>1.29616</v>
+        <v>1.2862199999999999</v>
       </c>
       <c r="H151">
         <f t="shared" si="2"/>
-        <v>2.0369999999999999</v>
+        <v>2.6540000000000008</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="21" customHeight="1">
@@ -4281,23 +4279,23 @@
         <v>7</v>
       </c>
       <c r="B152" s="8">
-        <v>41121</v>
+        <v>41128</v>
       </c>
       <c r="C152">
-        <v>1.30314</v>
+        <v>1.3178000000000001</v>
       </c>
       <c r="D152">
-        <v>1.31996</v>
+        <v>1.31891</v>
       </c>
       <c r="E152">
-        <v>1.29959</v>
+        <v>1.29237</v>
       </c>
       <c r="F152">
-        <v>1.31772</v>
+        <v>1.29616</v>
       </c>
       <c r="H152">
         <f t="shared" si="2"/>
-        <v>2.4779999999999802</v>
+        <v>2.0369999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="21" customHeight="1">
@@ -4305,23 +4303,23 @@
         <v>7</v>
       </c>
       <c r="B153" s="8">
-        <v>41114</v>
+        <v>41121</v>
       </c>
       <c r="C153">
-        <v>1.31389</v>
+        <v>1.30314</v>
       </c>
       <c r="D153">
-        <v>1.3248899999999999</v>
+        <v>1.31996</v>
       </c>
       <c r="E153">
-        <v>1.3001100000000001</v>
+        <v>1.29959</v>
       </c>
       <c r="F153">
-        <v>1.30315</v>
+        <v>1.31772</v>
       </c>
       <c r="H153">
         <f t="shared" si="2"/>
-        <v>2.583000000000002</v>
+        <v>2.4779999999999802</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="21" customHeight="1">
@@ -4329,23 +4327,23 @@
         <v>7</v>
       </c>
       <c r="B154" s="8">
-        <v>41107</v>
+        <v>41114</v>
       </c>
       <c r="C154">
-        <v>1.2942400000000001</v>
+        <v>1.31389</v>
       </c>
       <c r="D154">
-        <v>1.31847</v>
+        <v>1.3248899999999999</v>
       </c>
       <c r="E154">
-        <v>1.29264</v>
+        <v>1.3001100000000001</v>
       </c>
       <c r="F154">
-        <v>1.31369</v>
+        <v>1.30315</v>
       </c>
       <c r="H154">
         <f t="shared" si="2"/>
-        <v>2.8639999999999999</v>
+        <v>2.583000000000002</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="21" customHeight="1">
@@ -4353,23 +4351,23 @@
         <v>7</v>
       </c>
       <c r="B155" s="8">
-        <v>41100</v>
+        <v>41107</v>
       </c>
       <c r="C155">
-        <v>1.3046</v>
+        <v>1.2942400000000001</v>
       </c>
       <c r="D155">
-        <v>1.3139099999999999</v>
+        <v>1.31847</v>
       </c>
       <c r="E155">
-        <v>1.2852699999999999</v>
+        <v>1.29264</v>
       </c>
       <c r="F155">
-        <v>1.29633</v>
+        <v>1.31369</v>
       </c>
       <c r="H155">
         <f t="shared" si="2"/>
-        <v>2.583000000000002</v>
+        <v>2.8639999999999999</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="21" customHeight="1">
@@ -4377,23 +4375,23 @@
         <v>7</v>
       </c>
       <c r="B156" s="8">
-        <v>41093</v>
+        <v>41100</v>
       </c>
       <c r="C156">
-        <v>1.29128</v>
+        <v>1.3046</v>
       </c>
       <c r="D156">
-        <v>1.3089200000000001</v>
+        <v>1.3139099999999999</v>
       </c>
       <c r="E156">
-        <v>1.2830900000000001</v>
+        <v>1.2852699999999999</v>
       </c>
       <c r="F156">
-        <v>1.3038700000000001</v>
+        <v>1.29633</v>
       </c>
       <c r="H156">
         <f t="shared" si="2"/>
-        <v>2.5509999999999922</v>
+        <v>2.583000000000002</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="21" customHeight="1">
@@ -4401,23 +4399,23 @@
         <v>7</v>
       </c>
       <c r="B157" s="8">
-        <v>41086</v>
+        <v>41093</v>
       </c>
       <c r="C157">
-        <v>1.30267</v>
+        <v>1.29128</v>
       </c>
       <c r="D157">
-        <v>1.31196</v>
+        <v>1.3089200000000001</v>
       </c>
       <c r="E157">
-        <v>1.2864500000000001</v>
+        <v>1.2830900000000001</v>
       </c>
       <c r="F157">
-        <v>1.29068</v>
+        <v>1.3038700000000001</v>
       </c>
       <c r="H157">
         <f t="shared" si="2"/>
-        <v>4.098999999999986</v>
+        <v>2.5509999999999922</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="21" customHeight="1">
@@ -4425,23 +4423,23 @@
         <v>7</v>
       </c>
       <c r="B158" s="8">
-        <v>41079</v>
+        <v>41086</v>
       </c>
       <c r="C158">
-        <v>1.28437</v>
+        <v>1.30267</v>
       </c>
       <c r="D158">
-        <v>1.30836</v>
+        <v>1.31196</v>
       </c>
       <c r="E158">
-        <v>1.2673700000000001</v>
+        <v>1.2864500000000001</v>
       </c>
       <c r="F158">
-        <v>1.30053</v>
+        <v>1.29068</v>
       </c>
       <c r="H158">
         <f t="shared" si="2"/>
-        <v>3.3559999999999812</v>
+        <v>4.098999999999986</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="21" customHeight="1">
@@ -4449,23 +4447,23 @@
         <v>7</v>
       </c>
       <c r="B159" s="8">
-        <v>41072</v>
+        <v>41079</v>
       </c>
       <c r="C159">
-        <v>1.2777799999999999</v>
+        <v>1.28437</v>
       </c>
       <c r="D159">
-        <v>1.3085199999999999</v>
+        <v>1.30836</v>
       </c>
       <c r="E159">
-        <v>1.2749600000000001</v>
+        <v>1.2673700000000001</v>
       </c>
       <c r="F159">
-        <v>1.28878</v>
+        <v>1.30053</v>
       </c>
       <c r="H159">
         <f t="shared" si="2"/>
-        <v>3.2789999999999875</v>
+        <v>3.3559999999999812</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="21" customHeight="1">
@@ -4473,23 +4471,23 @@
         <v>7</v>
       </c>
       <c r="B160" s="8">
-        <v>41065</v>
+        <v>41072</v>
       </c>
       <c r="C160">
-        <v>1.2937700000000001</v>
+        <v>1.2777799999999999</v>
       </c>
       <c r="D160">
-        <v>1.29819</v>
+        <v>1.3085199999999999</v>
       </c>
       <c r="E160">
-        <v>1.2654000000000001</v>
+        <v>1.2749600000000001</v>
       </c>
       <c r="F160">
-        <v>1.2758100000000001</v>
+        <v>1.28878</v>
       </c>
       <c r="H160">
         <f t="shared" si="2"/>
-        <v>2.2820000000000062</v>
+        <v>3.2789999999999875</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="21" customHeight="1">
@@ -4497,23 +4495,23 @@
         <v>7</v>
       </c>
       <c r="B161" s="8">
-        <v>41058</v>
+        <v>41065</v>
       </c>
       <c r="C161">
-        <v>1.30219</v>
+        <v>1.2937700000000001</v>
       </c>
       <c r="D161">
-        <v>1.3143100000000001</v>
+        <v>1.29819</v>
       </c>
       <c r="E161">
-        <v>1.29149</v>
+        <v>1.2654000000000001</v>
       </c>
       <c r="F161">
-        <v>1.2944599999999999</v>
+        <v>1.2758100000000001</v>
       </c>
       <c r="H161">
         <f t="shared" si="2"/>
-        <v>2.7719999999999967</v>
+        <v>2.2820000000000062</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="21" customHeight="1">
@@ -4521,23 +4519,23 @@
         <v>7</v>
       </c>
       <c r="B162" s="8">
-        <v>41051</v>
+        <v>41058</v>
       </c>
       <c r="C162">
-        <v>1.3111299999999999</v>
+        <v>1.30219</v>
       </c>
       <c r="D162">
-        <v>1.31873</v>
+        <v>1.3143100000000001</v>
       </c>
       <c r="E162">
-        <v>1.29101</v>
+        <v>1.29149</v>
       </c>
       <c r="F162">
-        <v>1.3025199999999999</v>
+        <v>1.2944599999999999</v>
       </c>
       <c r="H162">
         <f t="shared" si="2"/>
-        <v>3.2510000000000039</v>
+        <v>2.7719999999999967</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="21" customHeight="1">
@@ -4545,23 +4543,23 @@
         <v>7</v>
       </c>
       <c r="B163" s="8">
-        <v>41044</v>
+        <v>41051</v>
       </c>
       <c r="C163">
-        <v>1.2942400000000001</v>
+        <v>1.3111299999999999</v>
       </c>
       <c r="D163">
-        <v>1.31616</v>
+        <v>1.31873</v>
       </c>
       <c r="E163">
-        <v>1.28365</v>
+        <v>1.29101</v>
       </c>
       <c r="F163">
-        <v>1.31186</v>
+        <v>1.3025199999999999</v>
       </c>
       <c r="H163">
         <f t="shared" si="2"/>
-        <v>2.4399999999999977</v>
+        <v>3.2510000000000039</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="21" customHeight="1">
@@ -4569,23 +4567,23 @@
         <v>7</v>
       </c>
       <c r="B164" s="8">
-        <v>41037</v>
+        <v>41044</v>
       </c>
       <c r="C164">
-        <v>1.2926</v>
+        <v>1.2942400000000001</v>
       </c>
       <c r="D164">
-        <v>1.3014600000000001</v>
+        <v>1.31616</v>
       </c>
       <c r="E164">
-        <v>1.2770600000000001</v>
+        <v>1.28365</v>
       </c>
       <c r="F164">
-        <v>1.29315</v>
+        <v>1.31186</v>
       </c>
       <c r="H164">
         <f t="shared" si="2"/>
-        <v>4.9089999999999856</v>
+        <v>2.4399999999999977</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="21" customHeight="1">
@@ -4593,23 +4591,23 @@
         <v>7</v>
       </c>
       <c r="B165" s="8">
-        <v>41030</v>
+        <v>41037</v>
       </c>
       <c r="C165">
-        <v>1.254</v>
+        <v>1.2926</v>
       </c>
       <c r="D165">
-        <v>1.2951299999999999</v>
+        <v>1.3014600000000001</v>
       </c>
       <c r="E165">
-        <v>1.24604</v>
+        <v>1.2770600000000001</v>
       </c>
       <c r="F165">
-        <v>1.29036</v>
+        <v>1.29315</v>
       </c>
       <c r="H165">
         <f t="shared" si="2"/>
-        <v>2.1939999999999849</v>
+        <v>4.9089999999999856</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="21" customHeight="1">
@@ -4617,23 +4615,23 @@
         <v>7</v>
       </c>
       <c r="B166" s="8">
-        <v>41023</v>
+        <v>41030</v>
       </c>
       <c r="C166">
-        <v>1.26512</v>
+        <v>1.254</v>
       </c>
       <c r="D166">
-        <v>1.2716799999999999</v>
+        <v>1.2951299999999999</v>
       </c>
       <c r="E166">
-        <v>1.2497400000000001</v>
+        <v>1.24604</v>
       </c>
       <c r="F166">
-        <v>1.2543800000000001</v>
+        <v>1.29036</v>
       </c>
       <c r="H166">
         <f t="shared" si="2"/>
-        <v>3.9670000000000094</v>
+        <v>2.1939999999999849</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="21" customHeight="1">
@@ -4641,23 +4639,23 @@
         <v>7</v>
       </c>
       <c r="B167" s="8">
-        <v>41016</v>
+        <v>41023</v>
       </c>
       <c r="C167">
-        <v>1.2941199999999999</v>
+        <v>1.26512</v>
       </c>
       <c r="D167">
-        <v>1.29891</v>
+        <v>1.2716799999999999</v>
       </c>
       <c r="E167">
-        <v>1.2592399999999999</v>
+        <v>1.2497400000000001</v>
       </c>
       <c r="F167">
-        <v>1.26675</v>
+        <v>1.2543800000000001</v>
       </c>
       <c r="H167">
         <f t="shared" si="2"/>
-        <v>2.7179999999999982</v>
+        <v>3.9670000000000094</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="21" customHeight="1">
@@ -4665,23 +4663,23 @@
         <v>7</v>
       </c>
       <c r="B168" s="8">
-        <v>41009</v>
+        <v>41016</v>
       </c>
       <c r="C168">
-        <v>1.29887</v>
+        <v>1.2941199999999999</v>
       </c>
       <c r="D168">
-        <v>1.30152</v>
+        <v>1.29891</v>
       </c>
       <c r="E168">
-        <v>1.27434</v>
+        <v>1.2592399999999999</v>
       </c>
       <c r="F168">
-        <v>1.2819400000000001</v>
+        <v>1.26675</v>
       </c>
       <c r="H168">
         <f t="shared" si="2"/>
-        <v>2.6669999999999972</v>
+        <v>2.7179999999999982</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="21" customHeight="1">
@@ -4689,23 +4687,23 @@
         <v>7</v>
       </c>
       <c r="B169" s="8">
-        <v>41002</v>
+        <v>41009</v>
       </c>
       <c r="C169">
-        <v>1.30236</v>
+        <v>1.29887</v>
       </c>
       <c r="D169">
-        <v>1.32182</v>
+        <v>1.30152</v>
       </c>
       <c r="E169">
-        <v>1.29515</v>
+        <v>1.27434</v>
       </c>
       <c r="F169">
-        <v>1.2991699999999999</v>
+        <v>1.2819400000000001</v>
       </c>
       <c r="H169">
         <f t="shared" si="2"/>
-        <v>4.2849999999999833</v>
+        <v>2.6669999999999972</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="21" customHeight="1">
@@ -4713,23 +4711,23 @@
         <v>7</v>
       </c>
       <c r="B170" s="8">
-        <v>40995</v>
+        <v>41002</v>
       </c>
       <c r="C170">
-        <v>1.3275999999999999</v>
+        <v>1.30236</v>
       </c>
       <c r="D170">
-        <v>1.3284499999999999</v>
+        <v>1.32182</v>
       </c>
       <c r="E170">
-        <v>1.2856000000000001</v>
+        <v>1.29515</v>
       </c>
       <c r="F170">
-        <v>1.3021499999999999</v>
+        <v>1.2991699999999999</v>
       </c>
       <c r="H170">
         <f t="shared" si="2"/>
-        <v>2.7919999999999945</v>
+        <v>4.2849999999999833</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="21" customHeight="1">
@@ -4737,23 +4735,23 @@
         <v>7</v>
       </c>
       <c r="B171" s="8">
-        <v>40988</v>
+        <v>40995</v>
       </c>
       <c r="C171">
+        <v>1.3275999999999999</v>
+      </c>
+      <c r="D171">
+        <v>1.3284499999999999</v>
+      </c>
+      <c r="E171">
+        <v>1.2856000000000001</v>
+      </c>
+      <c r="F171">
         <v>1.3021499999999999</v>
       </c>
-      <c r="D171">
-        <v>1.3295699999999999</v>
-      </c>
-      <c r="E171">
-        <v>1.30165</v>
-      </c>
-      <c r="F171">
-        <v>1.32656</v>
-      </c>
       <c r="H171">
         <f t="shared" si="2"/>
-        <v>4.8159999999999981</v>
+        <v>2.7919999999999945</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="21" customHeight="1">
@@ -4761,23 +4759,23 @@
         <v>7</v>
       </c>
       <c r="B172" s="8">
-        <v>40981</v>
+        <v>40988</v>
       </c>
       <c r="C172">
-        <v>1.3225100000000001</v>
+        <v>1.3021499999999999</v>
       </c>
       <c r="D172">
-        <v>1.3404199999999999</v>
+        <v>1.3295699999999999</v>
       </c>
       <c r="E172">
-        <v>1.29226</v>
+        <v>1.30165</v>
       </c>
       <c r="F172">
-        <v>1.3008</v>
+        <v>1.32656</v>
       </c>
       <c r="H172">
         <f t="shared" si="2"/>
-        <v>2.784999999999993</v>
+        <v>4.8159999999999981</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="21" customHeight="1">
@@ -4785,23 +4783,23 @@
         <v>7</v>
       </c>
       <c r="B173" s="8">
-        <v>40974</v>
+        <v>40981</v>
       </c>
       <c r="C173">
-        <v>1.3329</v>
+        <v>1.3225100000000001</v>
       </c>
       <c r="D173">
-        <v>1.34453</v>
+        <v>1.3404199999999999</v>
       </c>
       <c r="E173">
-        <v>1.3166800000000001</v>
+        <v>1.29226</v>
       </c>
       <c r="F173">
-        <v>1.3226800000000001</v>
+        <v>1.3008</v>
       </c>
       <c r="H173">
         <f t="shared" si="2"/>
-        <v>2.7000000000000135</v>
+        <v>2.784999999999993</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="21" customHeight="1">
@@ -4809,23 +4807,23 @@
         <v>7</v>
       </c>
       <c r="B174" s="8">
-        <v>40967</v>
+        <v>40974</v>
       </c>
       <c r="C174">
-        <v>1.3512500000000001</v>
+        <v>1.3329</v>
       </c>
       <c r="D174">
-        <v>1.3586100000000001</v>
+        <v>1.34453</v>
       </c>
       <c r="E174">
-        <v>1.33161</v>
+        <v>1.3166800000000001</v>
       </c>
       <c r="F174">
-        <v>1.3319700000000001</v>
+        <v>1.3226800000000001</v>
       </c>
       <c r="H174">
         <f t="shared" si="2"/>
-        <v>3.5409999999999942</v>
+        <v>2.7000000000000135</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="21" customHeight="1">
@@ -4833,23 +4831,23 @@
         <v>7</v>
       </c>
       <c r="B175" s="8">
-        <v>40960</v>
+        <v>40967</v>
       </c>
       <c r="C175">
-        <v>1.3772</v>
+        <v>1.3512500000000001</v>
       </c>
       <c r="D175">
-        <v>1.38584</v>
+        <v>1.3586100000000001</v>
       </c>
       <c r="E175">
-        <v>1.35043</v>
+        <v>1.33161</v>
       </c>
       <c r="F175">
-        <v>1.35162</v>
+        <v>1.3319700000000001</v>
       </c>
       <c r="H175">
         <f t="shared" si="2"/>
-        <v>2.5760000000000005</v>
+        <v>3.5409999999999942</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="21" customHeight="1">
@@ -4857,23 +4855,23 @@
         <v>7</v>
       </c>
       <c r="B176" s="8">
-        <v>40953</v>
+        <v>40960</v>
       </c>
       <c r="C176">
-        <v>1.38449</v>
+        <v>1.3772</v>
       </c>
       <c r="D176">
-        <v>1.3910899999999999</v>
+        <v>1.38584</v>
       </c>
       <c r="E176">
-        <v>1.3653299999999999</v>
+        <v>1.35043</v>
       </c>
       <c r="F176">
-        <v>1.37649</v>
+        <v>1.35162</v>
       </c>
       <c r="H176">
         <f t="shared" si="2"/>
-        <v>2.2940000000000182</v>
+        <v>2.5760000000000005</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="21" customHeight="1">
@@ -4881,23 +4879,23 @@
         <v>7</v>
       </c>
       <c r="B177" s="8">
-        <v>40946</v>
+        <v>40953</v>
       </c>
       <c r="C177">
-        <v>1.38914</v>
+        <v>1.38449</v>
       </c>
       <c r="D177">
-        <v>1.4015200000000001</v>
+        <v>1.3910899999999999</v>
       </c>
       <c r="E177">
-        <v>1.3785799999999999</v>
+        <v>1.3653299999999999</v>
       </c>
       <c r="F177">
-        <v>1.38567</v>
+        <v>1.37649</v>
       </c>
       <c r="H177">
         <f t="shared" si="2"/>
-        <v>4.6360000000000179</v>
+        <v>2.2940000000000182</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="21" customHeight="1">
@@ -4905,23 +4903,23 @@
         <v>7</v>
       </c>
       <c r="B178" s="8">
-        <v>40939</v>
+        <v>40946</v>
       </c>
       <c r="C178">
-        <v>1.39612</v>
+        <v>1.38914</v>
       </c>
       <c r="D178">
-        <v>1.4102300000000001</v>
+        <v>1.4015200000000001</v>
       </c>
       <c r="E178">
-        <v>1.3638699999999999</v>
+        <v>1.3785799999999999</v>
       </c>
       <c r="F178">
-        <v>1.3896599999999999</v>
+        <v>1.38567</v>
       </c>
       <c r="H178">
         <f t="shared" si="2"/>
-        <v>3.774999999999995</v>
+        <v>4.6360000000000179</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="21" customHeight="1">
@@ -4929,23 +4927,23 @@
         <v>7</v>
       </c>
       <c r="B179" s="8">
-        <v>40932</v>
+        <v>40939</v>
       </c>
       <c r="C179">
-        <v>1.4134500000000001</v>
+        <v>1.39612</v>
       </c>
       <c r="D179">
-        <v>1.4324699999999999</v>
+        <v>1.4102300000000001</v>
       </c>
       <c r="E179">
-        <v>1.39472</v>
+        <v>1.3638699999999999</v>
       </c>
       <c r="F179">
-        <v>1.3976900000000001</v>
+        <v>1.3896599999999999</v>
       </c>
       <c r="H179">
         <f t="shared" si="2"/>
-        <v>5.7530000000000081</v>
+        <v>3.774999999999995</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="21" customHeight="1">
@@ -4953,23 +4951,23 @@
         <v>7</v>
       </c>
       <c r="B180" s="8">
-        <v>40925</v>
+        <v>40932</v>
       </c>
       <c r="C180">
-        <v>1.4594499999999999</v>
+        <v>1.4134500000000001</v>
       </c>
       <c r="D180">
-        <v>1.4689300000000001</v>
+        <v>1.4324699999999999</v>
       </c>
       <c r="E180">
-        <v>1.4114</v>
+        <v>1.39472</v>
       </c>
       <c r="F180">
-        <v>1.4140200000000001</v>
+        <v>1.3976900000000001</v>
       </c>
       <c r="H180">
         <f t="shared" si="2"/>
-        <v>4.885000000000006</v>
+        <v>5.7530000000000081</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="21" customHeight="1">
@@ -4977,23 +4975,23 @@
         <v>7</v>
       </c>
       <c r="B181" s="8">
-        <v>40918</v>
+        <v>40925</v>
       </c>
       <c r="C181">
-        <v>1.41625</v>
+        <v>1.4594499999999999</v>
       </c>
       <c r="D181">
-        <v>1.4553</v>
+        <v>1.4689300000000001</v>
       </c>
       <c r="E181">
-        <v>1.40645</v>
+        <v>1.4114</v>
       </c>
       <c r="F181">
-        <v>1.45259</v>
+        <v>1.4140200000000001</v>
       </c>
       <c r="H181">
         <f t="shared" si="2"/>
-        <v>3.6329999999999973</v>
+        <v>4.885000000000006</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="21" customHeight="1">
@@ -5001,23 +4999,23 @@
         <v>7</v>
       </c>
       <c r="B182" s="8">
-        <v>40911</v>
+        <v>40918</v>
       </c>
       <c r="C182">
-        <v>1.3805700000000001</v>
+        <v>1.41625</v>
       </c>
       <c r="D182">
-        <v>1.4169</v>
+        <v>1.4553</v>
       </c>
       <c r="E182">
-        <v>1.3805700000000001</v>
+        <v>1.40645</v>
       </c>
       <c r="F182">
-        <v>1.41639</v>
+        <v>1.45259</v>
       </c>
       <c r="H182">
         <f t="shared" si="2"/>
-        <v>1.4289999999999914</v>
+        <v>3.6329999999999973</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="21" customHeight="1">
@@ -5025,23 +5023,23 @@
         <v>7</v>
       </c>
       <c r="B183" s="8">
-        <v>40904</v>
+        <v>40911</v>
       </c>
       <c r="C183">
-        <v>1.3816999999999999</v>
+        <v>1.3805700000000001</v>
       </c>
       <c r="D183">
-        <v>1.39395</v>
+        <v>1.4169</v>
       </c>
       <c r="E183">
-        <v>1.3796600000000001</v>
+        <v>1.3805700000000001</v>
       </c>
       <c r="F183">
-        <v>1.3824099999999999</v>
+        <v>1.41639</v>
       </c>
       <c r="H183">
         <f t="shared" si="2"/>
-        <v>1.8429999999999946</v>
+        <v>1.4289999999999914</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="21" customHeight="1">
@@ -5049,23 +5047,23 @@
         <v>7</v>
       </c>
       <c r="B184" s="8">
-        <v>40897</v>
+        <v>40904</v>
       </c>
       <c r="C184">
-        <v>1.39306</v>
+        <v>1.3816999999999999</v>
       </c>
       <c r="D184">
-        <v>1.3992899999999999</v>
+        <v>1.39395</v>
       </c>
       <c r="E184">
-        <v>1.38086</v>
+        <v>1.3796600000000001</v>
       </c>
       <c r="F184">
-        <v>1.38106</v>
+        <v>1.3824099999999999</v>
       </c>
       <c r="H184">
         <f t="shared" si="2"/>
-        <v>3.2769999999999966</v>
+        <v>1.8429999999999946</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="21" customHeight="1">
@@ -5073,23 +5071,23 @@
         <v>7</v>
       </c>
       <c r="B185" s="8">
-        <v>40890</v>
+        <v>40897</v>
       </c>
       <c r="C185">
-        <v>1.37161</v>
+        <v>1.39306</v>
       </c>
       <c r="D185">
-        <v>1.40002</v>
+        <v>1.3992899999999999</v>
       </c>
       <c r="E185">
-        <v>1.3672500000000001</v>
+        <v>1.38086</v>
       </c>
       <c r="F185">
-        <v>1.3939600000000001</v>
+        <v>1.38106</v>
       </c>
       <c r="H185">
         <f t="shared" si="2"/>
-        <v>3.9490000000000025</v>
+        <v>3.2769999999999966</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="21" customHeight="1">
@@ -5097,23 +5095,23 @@
         <v>7</v>
       </c>
       <c r="B186" s="8">
-        <v>40883</v>
+        <v>40890</v>
       </c>
       <c r="C186">
-        <v>1.3366800000000001</v>
+        <v>1.37161</v>
       </c>
       <c r="D186">
-        <v>1.37571</v>
+        <v>1.40002</v>
       </c>
       <c r="E186">
-        <v>1.33622</v>
+        <v>1.3672500000000001</v>
       </c>
       <c r="F186">
-        <v>1.3738600000000001</v>
+        <v>1.3939600000000001</v>
       </c>
       <c r="H186">
         <f t="shared" si="2"/>
-        <v>1.222000000000012</v>
+        <v>3.9490000000000025</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="21" customHeight="1">
@@ -5121,23 +5119,23 @@
         <v>7</v>
       </c>
       <c r="B187" s="8">
-        <v>40876</v>
+        <v>40883</v>
       </c>
       <c r="C187">
-        <v>1.33569</v>
+        <v>1.3366800000000001</v>
       </c>
       <c r="D187">
-        <v>1.34152</v>
+        <v>1.37571</v>
       </c>
       <c r="E187">
-        <v>1.3292999999999999</v>
+        <v>1.33622</v>
       </c>
       <c r="F187">
-        <v>1.3366800000000001</v>
+        <v>1.3738600000000001</v>
       </c>
       <c r="H187">
         <f t="shared" si="2"/>
-        <v>1.5550000000000175</v>
+        <v>1.222000000000012</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="21" customHeight="1">
@@ -5145,23 +5143,23 @@
         <v>7</v>
       </c>
       <c r="B188" s="8">
-        <v>40869</v>
+        <v>40876</v>
       </c>
       <c r="C188">
-        <v>1.3328599999999999</v>
+        <v>1.33569</v>
       </c>
       <c r="D188">
-        <v>1.3434900000000001</v>
+        <v>1.34152</v>
       </c>
       <c r="E188">
-        <v>1.3279399999999999</v>
+        <v>1.3292999999999999</v>
       </c>
       <c r="F188">
-        <v>1.33687</v>
+        <v>1.3366800000000001</v>
       </c>
       <c r="H188">
         <f t="shared" si="2"/>
-        <v>1.2429999999999941</v>
+        <v>1.5550000000000175</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="21" customHeight="1">
@@ -5169,23 +5167,23 @@
         <v>7</v>
       </c>
       <c r="B189" s="8">
-        <v>40862</v>
+        <v>40869</v>
       </c>
       <c r="C189">
-        <v>1.3294600000000001</v>
+        <v>1.3328599999999999</v>
       </c>
       <c r="D189">
-        <v>1.3370299999999999</v>
+        <v>1.3434900000000001</v>
       </c>
       <c r="E189">
-        <v>1.3246</v>
+        <v>1.3279399999999999</v>
       </c>
       <c r="F189">
-        <v>1.3350500000000001</v>
+        <v>1.33687</v>
       </c>
       <c r="H189">
         <f t="shared" si="2"/>
-        <v>1.2460000000000138</v>
+        <v>1.2429999999999941</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="21" customHeight="1">
@@ -5193,23 +5191,23 @@
         <v>7</v>
       </c>
       <c r="B190" s="8">
-        <v>40855</v>
+        <v>40862</v>
       </c>
       <c r="C190">
-        <v>1.32982</v>
+        <v>1.3294600000000001</v>
       </c>
       <c r="D190">
-        <v>1.3348800000000001</v>
+        <v>1.3370299999999999</v>
       </c>
       <c r="E190">
-        <v>1.3224199999999999</v>
+        <v>1.3246</v>
       </c>
       <c r="F190">
-        <v>1.33205</v>
+        <v>1.3350500000000001</v>
       </c>
       <c r="H190">
         <f t="shared" si="2"/>
-        <v>2.797000000000005</v>
+        <v>1.2460000000000138</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="21" customHeight="1">
@@ -5217,23 +5215,23 @@
         <v>7</v>
       </c>
       <c r="B191" s="8">
-        <v>40848</v>
+        <v>40855</v>
       </c>
       <c r="C191">
-        <v>1.30732</v>
+        <v>1.32982</v>
       </c>
       <c r="D191">
-        <v>1.33169</v>
+        <v>1.3348800000000001</v>
       </c>
       <c r="E191">
-        <v>1.30372</v>
+        <v>1.3224199999999999</v>
       </c>
       <c r="F191">
-        <v>1.3297300000000001</v>
+        <v>1.33205</v>
       </c>
       <c r="H191">
         <f t="shared" si="2"/>
-        <v>2.2409999999999819</v>
+        <v>2.797000000000005</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="21" customHeight="1">
@@ -5241,23 +5239,23 @@
         <v>7</v>
       </c>
       <c r="B192" s="8">
-        <v>40841</v>
+        <v>40848</v>
       </c>
       <c r="C192">
-        <v>1.31596</v>
+        <v>1.30732</v>
       </c>
       <c r="D192">
-        <v>1.3279099999999999</v>
+        <v>1.33169</v>
       </c>
       <c r="E192">
-        <v>1.3055000000000001</v>
+        <v>1.30372</v>
       </c>
       <c r="F192">
-        <v>1.3069500000000001</v>
+        <v>1.3297300000000001</v>
       </c>
       <c r="H192">
         <f t="shared" si="2"/>
-        <v>2.9649999999999954</v>
+        <v>2.2409999999999819</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="21" customHeight="1">
@@ -5265,23 +5263,23 @@
         <v>7</v>
       </c>
       <c r="B193" s="8">
-        <v>40834</v>
+        <v>40841</v>
       </c>
       <c r="C193">
-        <v>1.2905199999999999</v>
+        <v>1.31596</v>
       </c>
       <c r="D193">
-        <v>1.31975</v>
+        <v>1.3279099999999999</v>
       </c>
       <c r="E193">
-        <v>1.2901</v>
+        <v>1.3055000000000001</v>
       </c>
       <c r="F193">
-        <v>1.31752</v>
+        <v>1.3069500000000001</v>
       </c>
       <c r="H193">
         <f t="shared" si="2"/>
-        <v>2.4769999999999959</v>
+        <v>2.9649999999999954</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="21" customHeight="1">
@@ -5289,23 +5287,23 @@
         <v>7</v>
       </c>
       <c r="B194" s="8">
-        <v>40827</v>
+        <v>40834</v>
       </c>
       <c r="C194">
-        <v>1.29494</v>
+        <v>1.2905199999999999</v>
       </c>
       <c r="D194">
-        <v>1.3079099999999999</v>
+        <v>1.31975</v>
       </c>
       <c r="E194">
-        <v>1.2831399999999999</v>
+        <v>1.2901</v>
       </c>
       <c r="F194">
-        <v>1.2909900000000001</v>
+        <v>1.31752</v>
       </c>
       <c r="H194">
         <f t="shared" ref="H194:H199" si="3">ABS(D195-E195)*100</f>
-        <v>2.7399999999999869</v>
+        <v>2.4769999999999959</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="21" customHeight="1">
@@ -5313,23 +5311,23 @@
         <v>7</v>
       </c>
       <c r="B195" s="8">
-        <v>40820</v>
+        <v>40827</v>
       </c>
       <c r="C195">
-        <v>1.3146800000000001</v>
+        <v>1.29494</v>
       </c>
       <c r="D195">
-        <v>1.3174399999999999</v>
+        <v>1.3079099999999999</v>
       </c>
       <c r="E195">
-        <v>1.2900400000000001</v>
+        <v>1.2831399999999999</v>
       </c>
       <c r="F195">
-        <v>1.29447</v>
+        <v>1.2909900000000001</v>
       </c>
       <c r="H195">
         <f t="shared" si="3"/>
-        <v>3.021000000000007</v>
+        <v>2.7399999999999869</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="21" customHeight="1">
@@ -5337,23 +5335,23 @@
         <v>7</v>
       </c>
       <c r="B196" s="8">
-        <v>40813</v>
+        <v>40820</v>
       </c>
       <c r="C196">
-        <v>1.33205</v>
+        <v>1.3146800000000001</v>
       </c>
       <c r="D196">
-        <v>1.34562</v>
+        <v>1.3174399999999999</v>
       </c>
       <c r="E196">
-        <v>1.31541</v>
+        <v>1.2900400000000001</v>
       </c>
       <c r="F196">
-        <v>1.31704</v>
+        <v>1.29447</v>
       </c>
       <c r="H196">
         <f t="shared" si="3"/>
-        <v>2.401999999999993</v>
+        <v>3.021000000000007</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="21" customHeight="1">
@@ -5361,23 +5359,23 @@
         <v>7</v>
       </c>
       <c r="B197" s="8">
-        <v>40806</v>
+        <v>40813</v>
       </c>
       <c r="C197">
-        <v>1.3215399999999999</v>
+        <v>1.33205</v>
       </c>
       <c r="D197">
-        <v>1.34158</v>
+        <v>1.34562</v>
       </c>
       <c r="E197">
-        <v>1.3175600000000001</v>
+        <v>1.31541</v>
       </c>
       <c r="F197">
-        <v>1.3324400000000001</v>
+        <v>1.31704</v>
       </c>
       <c r="H197">
         <f t="shared" si="3"/>
-        <v>2.676999999999996</v>
+        <v>2.401999999999993</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="21" customHeight="1">
@@ -5385,23 +5383,23 @@
         <v>7</v>
       </c>
       <c r="B198" s="8">
-        <v>40799</v>
+        <v>40806</v>
       </c>
       <c r="C198">
-        <v>1.32538</v>
+        <v>1.3215399999999999</v>
       </c>
       <c r="D198">
-        <v>1.32792</v>
+        <v>1.34158</v>
       </c>
       <c r="E198">
-        <v>1.30115</v>
+        <v>1.3175600000000001</v>
       </c>
       <c r="F198">
-        <v>1.3217699999999999</v>
+        <v>1.3324400000000001</v>
       </c>
       <c r="H198">
         <f t="shared" si="3"/>
-        <v>1.5490000000000004</v>
+        <v>2.676999999999996</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="21" customHeight="1">
@@ -5409,23 +5407,23 @@
         <v>7</v>
       </c>
       <c r="B199" s="8">
-        <v>40792</v>
+        <v>40799</v>
       </c>
       <c r="C199">
-        <v>1.32474</v>
+        <v>1.32538</v>
       </c>
       <c r="D199">
-        <v>1.3309</v>
+        <v>1.32792</v>
       </c>
       <c r="E199">
-        <v>1.31541</v>
+        <v>1.30115</v>
       </c>
       <c r="F199">
-        <v>1.32575</v>
+        <v>1.3217699999999999</v>
       </c>
       <c r="H199">
         <f t="shared" si="3"/>
-        <v>2.1119999999999806</v>
+        <v>1.5490000000000004</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="21" customHeight="1">
@@ -5433,23 +5431,22 @@
         <v>7</v>
       </c>
       <c r="B200" s="8">
-        <v>40785</v>
+        <v>40792</v>
       </c>
       <c r="C200">
-        <v>1.3208</v>
+        <v>1.32474</v>
       </c>
       <c r="D200">
-        <v>1.3326199999999999</v>
+        <v>1.3309</v>
       </c>
       <c r="E200">
-        <v>1.3115000000000001</v>
+        <v>1.31541</v>
       </c>
       <c r="F200">
-        <v>1.32667</v>
+        <v>1.32575</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A4:F8">
     <sortCondition ref="A5:A8"/>
     <sortCondition ref="B5:B8"/>

--- a/volatility/src/xls/07_USDCAD.xlsx
+++ b/volatility/src/xls/07_USDCAD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13820" yWindow="-80" windowWidth="23520" windowHeight="21140" tabRatio="742"/>
+    <workbookView xWindow="10800" yWindow="-80" windowWidth="23520" windowHeight="21140" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="7" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -525,7 +525,7 @@
         <v>1000</v>
       </c>
       <c r="C2" s="2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
         <v>82.7</v>
@@ -558,7 +558,7 @@
       </c>
       <c r="C6" s="5">
         <f>ROUND(B2*10000*(100/D2)*(1/B6)/100*C2,0)</f>
-        <v>42803</v>
+        <v>71339</v>
       </c>
       <c r="E6" s="5">
         <v>130.80000000000001</v>
@@ -620,6 +620,7 @@
       <c r="G11" s="7"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="B1:C7">
     <sortCondition ref="B1:B7"/>
   </sortState>
@@ -638,7 +639,7 @@
   <dimension ref="A1:J200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="9.83203125" defaultRowHeight="21" customHeight="1"/>
@@ -667,7 +668,7 @@
       </c>
       <c r="H1">
         <f>ABS(D2-E2)*100</f>
-        <v>1.5509999999999913</v>
+        <v>1.0780000000000012</v>
       </c>
       <c r="J1">
         <f>MEDIAN(H1:H52)</f>
@@ -679,23 +680,23 @@
         <v>7</v>
       </c>
       <c r="B2" s="8">
-        <v>42178</v>
+        <v>42185</v>
       </c>
       <c r="C2">
-        <v>1.3211200000000001</v>
+        <v>1.3081799999999999</v>
       </c>
       <c r="D2">
-        <v>1.32141</v>
+        <v>1.31446</v>
       </c>
       <c r="E2">
-        <v>1.3059000000000001</v>
+        <v>1.3036799999999999</v>
       </c>
       <c r="F2">
-        <v>1.3090599999999999</v>
+        <v>1.3066500000000001</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H65" si="0">ABS(D3-E3)*100</f>
-        <v>2.8129999999999988</v>
+        <v>1.5509999999999913</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1">
@@ -703,23 +704,23 @@
         <v>7</v>
       </c>
       <c r="B3" s="8">
-        <v>42171</v>
+        <v>42178</v>
       </c>
       <c r="C3">
-        <v>1.3407100000000001</v>
+        <v>1.3211200000000001</v>
       </c>
       <c r="D3">
-        <v>1.3431599999999999</v>
+        <v>1.32141</v>
       </c>
       <c r="E3">
-        <v>1.3150299999999999</v>
+        <v>1.3059000000000001</v>
       </c>
       <c r="F3">
-        <v>1.32159</v>
+        <v>1.3090599999999999</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
-        <v>1.7220000000000013</v>
+        <v>2.8129999999999988</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1">
@@ -727,23 +728,23 @@
         <v>7</v>
       </c>
       <c r="B4" s="8">
-        <v>42164</v>
+        <v>42171</v>
       </c>
       <c r="C4">
-        <v>1.3252299999999999</v>
+        <v>1.3407100000000001</v>
       </c>
       <c r="D4">
-        <v>1.34219</v>
+        <v>1.3431599999999999</v>
       </c>
       <c r="E4">
-        <v>1.32497</v>
+        <v>1.3150299999999999</v>
       </c>
       <c r="F4">
-        <v>1.3411200000000001</v>
+        <v>1.32159</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>2.6399999999999979</v>
+        <v>1.7220000000000013</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1">
@@ -751,23 +752,23 @@
         <v>7</v>
       </c>
       <c r="B5" s="8">
-        <v>42157</v>
+        <v>42164</v>
       </c>
       <c r="C5">
-        <v>1.35145</v>
+        <v>1.3252299999999999</v>
       </c>
       <c r="D5">
-        <v>1.3525499999999999</v>
+        <v>1.34219</v>
       </c>
       <c r="E5">
-        <v>1.3261499999999999</v>
+        <v>1.32497</v>
       </c>
       <c r="F5">
-        <v>1.3280799999999999</v>
+        <v>1.3411200000000001</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>1.3539999999999885</v>
+        <v>2.6399999999999979</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
@@ -775,23 +776,23 @@
         <v>7</v>
       </c>
       <c r="B6" s="8">
-        <v>42150</v>
+        <v>42157</v>
       </c>
       <c r="C6">
-        <v>1.34378</v>
+        <v>1.35145</v>
       </c>
       <c r="D6">
-        <v>1.35642</v>
+        <v>1.3525499999999999</v>
       </c>
       <c r="E6">
-        <v>1.3428800000000001</v>
+        <v>1.3261499999999999</v>
       </c>
       <c r="F6">
-        <v>1.3516900000000001</v>
+        <v>1.3280799999999999</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>1.4580000000000037</v>
+        <v>1.3539999999999885</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
@@ -799,23 +800,23 @@
         <v>7</v>
       </c>
       <c r="B7" s="8">
-        <v>42143</v>
+        <v>42150</v>
       </c>
       <c r="C7">
-        <v>1.3444499999999999</v>
+        <v>1.34378</v>
       </c>
       <c r="D7">
-        <v>1.35016</v>
+        <v>1.35642</v>
       </c>
       <c r="E7">
-        <v>1.33558</v>
+        <v>1.3428800000000001</v>
       </c>
       <c r="F7">
-        <v>1.34382</v>
+        <v>1.3516900000000001</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>1.1260000000000048</v>
+        <v>1.4580000000000037</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
@@ -823,23 +824,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="8">
-        <v>42136</v>
+        <v>42143</v>
       </c>
       <c r="C8">
-        <v>1.3413299999999999</v>
+        <v>1.3444499999999999</v>
       </c>
       <c r="D8">
-        <v>1.35127</v>
+        <v>1.35016</v>
       </c>
       <c r="E8">
-        <v>1.3400099999999999</v>
+        <v>1.33558</v>
       </c>
       <c r="F8">
-        <v>1.3465199999999999</v>
+        <v>1.34382</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>1.2499999999999956</v>
+        <v>1.1260000000000048</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
@@ -847,23 +848,23 @@
         <v>7</v>
       </c>
       <c r="B9" s="8">
-        <v>42129</v>
+        <v>42136</v>
       </c>
       <c r="C9">
-        <v>1.34518</v>
+        <v>1.3413299999999999</v>
       </c>
       <c r="D9">
-        <v>1.35046</v>
+        <v>1.35127</v>
       </c>
       <c r="E9">
-        <v>1.33796</v>
+        <v>1.3400099999999999</v>
       </c>
       <c r="F9">
-        <v>1.3420700000000001</v>
+        <v>1.3465199999999999</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>1.1330000000000062</v>
+        <v>1.2499999999999956</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
@@ -871,23 +872,23 @@
         <v>7</v>
       </c>
       <c r="B10" s="8">
-        <v>42122</v>
+        <v>42129</v>
       </c>
       <c r="C10">
-        <v>1.3457300000000001</v>
+        <v>1.34518</v>
       </c>
       <c r="D10">
-        <v>1.34897</v>
+        <v>1.35046</v>
       </c>
       <c r="E10">
-        <v>1.3376399999999999</v>
+        <v>1.33796</v>
       </c>
       <c r="F10">
-        <v>1.3428100000000001</v>
+        <v>1.3420700000000001</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>1.863999999999999</v>
+        <v>1.1330000000000062</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
@@ -895,23 +896,23 @@
         <v>7</v>
       </c>
       <c r="B11" s="8">
-        <v>42115</v>
+        <v>42122</v>
       </c>
       <c r="C11">
-        <v>1.3384400000000001</v>
+        <v>1.3457300000000001</v>
       </c>
       <c r="D11">
-        <v>1.3521000000000001</v>
+        <v>1.34897</v>
       </c>
       <c r="E11">
-        <v>1.3334600000000001</v>
+        <v>1.3376399999999999</v>
       </c>
       <c r="F11">
-        <v>1.34623</v>
+        <v>1.3428100000000001</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>1.2850000000000028</v>
+        <v>1.863999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
@@ -919,23 +920,23 @@
         <v>7</v>
       </c>
       <c r="B12" s="8">
-        <v>42108</v>
+        <v>42115</v>
       </c>
       <c r="C12">
-        <v>1.33307</v>
+        <v>1.3384400000000001</v>
       </c>
       <c r="D12">
-        <v>1.34022</v>
+        <v>1.3521000000000001</v>
       </c>
       <c r="E12">
-        <v>1.3273699999999999</v>
+        <v>1.3334600000000001</v>
       </c>
       <c r="F12">
-        <v>1.33839</v>
+        <v>1.34623</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>1.1179999999999968</v>
+        <v>1.2850000000000028</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21" customHeight="1">
@@ -943,23 +944,23 @@
         <v>7</v>
       </c>
       <c r="B13" s="8">
-        <v>42101</v>
+        <v>42108</v>
       </c>
       <c r="C13">
-        <v>1.33822</v>
+        <v>1.33307</v>
       </c>
       <c r="D13">
-        <v>1.33951</v>
+        <v>1.34022</v>
       </c>
       <c r="E13">
-        <v>1.32833</v>
+        <v>1.3273699999999999</v>
       </c>
       <c r="F13">
-        <v>1.33317</v>
+        <v>1.33839</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>1.0690000000000088</v>
+        <v>1.1179999999999968</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1">
@@ -967,23 +968,23 @@
         <v>7</v>
       </c>
       <c r="B14" s="8">
-        <v>42094</v>
+        <v>42101</v>
       </c>
       <c r="C14">
-        <v>1.33466</v>
+        <v>1.33822</v>
       </c>
       <c r="D14">
-        <v>1.34023</v>
+        <v>1.33951</v>
       </c>
       <c r="E14">
-        <v>1.3295399999999999</v>
+        <v>1.32833</v>
       </c>
       <c r="F14">
-        <v>1.3384100000000001</v>
+        <v>1.33317</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>1.0930000000000106</v>
+        <v>1.0690000000000088</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="21" customHeight="1">
@@ -991,23 +992,23 @@
         <v>7</v>
       </c>
       <c r="B15" s="8">
-        <v>42087</v>
+        <v>42094</v>
       </c>
       <c r="C15">
-        <v>1.34216</v>
+        <v>1.33466</v>
       </c>
       <c r="D15">
-        <v>1.34501</v>
+        <v>1.34023</v>
       </c>
       <c r="E15">
-        <v>1.3340799999999999</v>
+        <v>1.3295399999999999</v>
       </c>
       <c r="F15">
-        <v>1.3355999999999999</v>
+        <v>1.3384100000000001</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>1.7879999999999896</v>
+        <v>1.0930000000000106</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1">
@@ -1015,23 +1016,23 @@
         <v>7</v>
       </c>
       <c r="B16" s="8">
-        <v>42080</v>
+        <v>42087</v>
       </c>
       <c r="C16">
-        <v>1.33321</v>
+        <v>1.34216</v>
       </c>
       <c r="D16">
-        <v>1.3428599999999999</v>
+        <v>1.34501</v>
       </c>
       <c r="E16">
-        <v>1.32498</v>
+        <v>1.3340799999999999</v>
       </c>
       <c r="F16">
-        <v>1.34273</v>
+        <v>1.3355999999999999</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>1.5249999999999986</v>
+        <v>1.7879999999999896</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21" customHeight="1">
@@ -1039,23 +1040,23 @@
         <v>7</v>
       </c>
       <c r="B17" s="8">
-        <v>42073</v>
+        <v>42080</v>
       </c>
       <c r="C17">
-        <v>1.3413200000000001</v>
+        <v>1.33321</v>
       </c>
       <c r="D17">
-        <v>1.34389</v>
+        <v>1.3428599999999999</v>
       </c>
       <c r="E17">
-        <v>1.32864</v>
+        <v>1.32498</v>
       </c>
       <c r="F17">
-        <v>1.3348899999999999</v>
+        <v>1.34273</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>1.9569999999999865</v>
+        <v>1.5249999999999986</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="21" customHeight="1">
@@ -1063,23 +1064,23 @@
         <v>7</v>
       </c>
       <c r="B18" s="8">
-        <v>42066</v>
+        <v>42073</v>
       </c>
       <c r="C18">
-        <v>1.32718</v>
+        <v>1.3413200000000001</v>
       </c>
       <c r="D18">
-        <v>1.3466899999999999</v>
+        <v>1.34389</v>
       </c>
       <c r="E18">
-        <v>1.3271200000000001</v>
+        <v>1.32864</v>
       </c>
       <c r="F18">
-        <v>1.3410299999999999</v>
+        <v>1.3348899999999999</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>1.9340000000000135</v>
+        <v>1.9569999999999865</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="21" customHeight="1">
@@ -1087,23 +1088,23 @@
         <v>7</v>
       </c>
       <c r="B19" s="8">
-        <v>42059</v>
+        <v>42066</v>
       </c>
       <c r="C19">
-        <v>1.3130999999999999</v>
+        <v>1.32718</v>
       </c>
       <c r="D19">
-        <v>1.3305400000000001</v>
+        <v>1.3466899999999999</v>
       </c>
       <c r="E19">
-        <v>1.3111999999999999</v>
+        <v>1.3271200000000001</v>
       </c>
       <c r="F19">
-        <v>1.32951</v>
+        <v>1.3410299999999999</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>1.4739999999999975</v>
+        <v>1.9340000000000135</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="21" customHeight="1">
@@ -1111,23 +1112,23 @@
         <v>7</v>
       </c>
       <c r="B20" s="8">
-        <v>42052</v>
+        <v>42059</v>
       </c>
       <c r="C20">
-        <v>1.3250500000000001</v>
+        <v>1.3130999999999999</v>
       </c>
       <c r="D20">
-        <v>1.32806</v>
+        <v>1.3305400000000001</v>
       </c>
       <c r="E20">
-        <v>1.31332</v>
+        <v>1.3111999999999999</v>
       </c>
       <c r="F20">
-        <v>1.31453</v>
+        <v>1.32951</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>1.4410000000000034</v>
+        <v>1.4739999999999975</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" customHeight="1">
@@ -1135,23 +1136,23 @@
         <v>7</v>
       </c>
       <c r="B21" s="8">
-        <v>42045</v>
+        <v>42052</v>
       </c>
       <c r="C21">
-        <v>1.3266500000000001</v>
+        <v>1.3250500000000001</v>
       </c>
       <c r="D21">
-        <v>1.33396</v>
+        <v>1.32806</v>
       </c>
       <c r="E21">
-        <v>1.31955</v>
+        <v>1.31332</v>
       </c>
       <c r="F21">
-        <v>1.32494</v>
+        <v>1.31453</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>2.4809999999999999</v>
+        <v>1.4410000000000034</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="21" customHeight="1">
@@ -1159,23 +1160,23 @@
         <v>7</v>
       </c>
       <c r="B22" s="8">
-        <v>42038</v>
+        <v>42045</v>
       </c>
       <c r="C22">
-        <v>1.30891</v>
+        <v>1.3266500000000001</v>
       </c>
       <c r="D22">
-        <v>1.33283</v>
+        <v>1.33396</v>
       </c>
       <c r="E22">
-        <v>1.30802</v>
+        <v>1.31955</v>
       </c>
       <c r="F22">
-        <v>1.32687</v>
+        <v>1.32494</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>2.1730000000000027</v>
+        <v>2.4809999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" customHeight="1">
@@ -1183,23 +1184,23 @@
         <v>7</v>
       </c>
       <c r="B23" s="8">
-        <v>42031</v>
+        <v>42038</v>
       </c>
       <c r="C23">
-        <v>1.3216000000000001</v>
+        <v>1.30891</v>
       </c>
       <c r="D23">
-        <v>1.3285199999999999</v>
+        <v>1.33283</v>
       </c>
       <c r="E23">
-        <v>1.3067899999999999</v>
+        <v>1.30802</v>
       </c>
       <c r="F23">
-        <v>1.3088599999999999</v>
+        <v>1.32687</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>1.5700000000000047</v>
+        <v>2.1730000000000027</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="21" customHeight="1">
@@ -1207,23 +1208,23 @@
         <v>7</v>
       </c>
       <c r="B24" s="8">
-        <v>42024</v>
+        <v>42031</v>
       </c>
       <c r="C24">
-        <v>1.32623</v>
+        <v>1.3216000000000001</v>
       </c>
       <c r="D24">
-        <v>1.33744</v>
+        <v>1.3285199999999999</v>
       </c>
       <c r="E24">
-        <v>1.3217399999999999</v>
+        <v>1.3067899999999999</v>
       </c>
       <c r="F24">
-        <v>1.3219700000000001</v>
+        <v>1.3088599999999999</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>0.9279999999999955</v>
+        <v>1.5700000000000047</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="21" customHeight="1">
@@ -1231,23 +1232,23 @@
         <v>7</v>
       </c>
       <c r="B25" s="8">
-        <v>42017</v>
+        <v>42024</v>
       </c>
       <c r="C25">
-        <v>1.32579</v>
+        <v>1.32623</v>
       </c>
       <c r="D25">
-        <v>1.33182</v>
+        <v>1.33744</v>
       </c>
       <c r="E25">
-        <v>1.32254</v>
+        <v>1.3217399999999999</v>
       </c>
       <c r="F25">
-        <v>1.3270900000000001</v>
+        <v>1.3219700000000001</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>2.0830000000000126</v>
+        <v>0.9279999999999955</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="21" customHeight="1">
@@ -1255,23 +1256,23 @@
         <v>7</v>
       </c>
       <c r="B26" s="8">
-        <v>42010</v>
+        <v>42017</v>
       </c>
       <c r="C26">
-        <v>1.3375699999999999</v>
+        <v>1.32579</v>
       </c>
       <c r="D26">
-        <v>1.3387800000000001</v>
+        <v>1.33182</v>
       </c>
       <c r="E26">
-        <v>1.31795</v>
+        <v>1.32254</v>
       </c>
       <c r="F26">
-        <v>1.3263199999999999</v>
+        <v>1.3270900000000001</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>2.8410000000000046</v>
+        <v>2.0830000000000126</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="21" customHeight="1">
@@ -1279,23 +1280,23 @@
         <v>7</v>
       </c>
       <c r="B27" s="8">
-        <v>42003</v>
+        <v>42010</v>
       </c>
       <c r="C27">
-        <v>1.3634500000000001</v>
+        <v>1.3375699999999999</v>
       </c>
       <c r="D27">
-        <v>1.36643</v>
+        <v>1.3387800000000001</v>
       </c>
       <c r="E27">
-        <v>1.33802</v>
+        <v>1.31795</v>
       </c>
       <c r="F27">
-        <v>1.33815</v>
+        <v>1.3263199999999999</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>0.96399999999998709</v>
+        <v>2.8410000000000046</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="21" customHeight="1">
@@ -1303,23 +1304,23 @@
         <v>7</v>
       </c>
       <c r="B28" s="8">
-        <v>41996</v>
+        <v>42003</v>
       </c>
       <c r="C28">
-        <v>1.3592500000000001</v>
+        <v>1.3634500000000001</v>
       </c>
       <c r="D28">
-        <v>1.3660699999999999</v>
+        <v>1.36643</v>
       </c>
       <c r="E28">
-        <v>1.35643</v>
+        <v>1.33802</v>
       </c>
       <c r="F28">
-        <v>1.3644700000000001</v>
+        <v>1.33815</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>2.2789999999999866</v>
+        <v>0.96399999999998709</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1">
@@ -1327,23 +1328,23 @@
         <v>7</v>
       </c>
       <c r="B29" s="8">
-        <v>41989</v>
+        <v>41996</v>
       </c>
       <c r="C29">
-        <v>1.3378699999999999</v>
+        <v>1.3592500000000001</v>
       </c>
       <c r="D29">
-        <v>1.3599699999999999</v>
+        <v>1.3660699999999999</v>
       </c>
       <c r="E29">
-        <v>1.33718</v>
+        <v>1.35643</v>
       </c>
       <c r="F29">
-        <v>1.3598699999999999</v>
+        <v>1.3644700000000001</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>1.3129999999999864</v>
+        <v>2.2789999999999866</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="21" customHeight="1">
@@ -1351,23 +1352,23 @@
         <v>7</v>
       </c>
       <c r="B30" s="8">
-        <v>41982</v>
+        <v>41989</v>
       </c>
       <c r="C30">
-        <v>1.33307</v>
+        <v>1.3378699999999999</v>
       </c>
       <c r="D30">
-        <v>1.3423499999999999</v>
+        <v>1.3599699999999999</v>
       </c>
       <c r="E30">
-        <v>1.3292200000000001</v>
+        <v>1.33718</v>
       </c>
       <c r="F30">
-        <v>1.3388100000000001</v>
+        <v>1.3598699999999999</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>2.845999999999993</v>
+        <v>1.3129999999999864</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="21" customHeight="1">
@@ -1375,23 +1376,23 @@
         <v>7</v>
       </c>
       <c r="B31" s="8">
-        <v>41975</v>
+        <v>41982</v>
       </c>
       <c r="C31">
-        <v>1.32325</v>
+        <v>1.33307</v>
       </c>
       <c r="D31">
-        <v>1.34439</v>
+        <v>1.3423499999999999</v>
       </c>
       <c r="E31">
-        <v>1.31593</v>
+        <v>1.3292200000000001</v>
       </c>
       <c r="F31">
-        <v>1.33182</v>
+        <v>1.3388100000000001</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>1.7270000000000119</v>
+        <v>2.845999999999993</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="21" customHeight="1">
@@ -1399,23 +1400,23 @@
         <v>7</v>
       </c>
       <c r="B32" s="8">
-        <v>41968</v>
+        <v>41975</v>
       </c>
       <c r="C32">
-        <v>1.32195</v>
+        <v>1.32325</v>
       </c>
       <c r="D32">
-        <v>1.3359000000000001</v>
+        <v>1.34439</v>
       </c>
       <c r="E32">
-        <v>1.31863</v>
+        <v>1.31593</v>
       </c>
       <c r="F32">
-        <v>1.3292600000000001</v>
+        <v>1.33182</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>1.7669999999999852</v>
+        <v>1.7270000000000119</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21" customHeight="1">
@@ -1423,23 +1424,23 @@
         <v>7</v>
       </c>
       <c r="B33" s="8">
-        <v>41961</v>
+        <v>41968</v>
       </c>
       <c r="C33">
-        <v>1.3151600000000001</v>
+        <v>1.32195</v>
       </c>
       <c r="D33">
-        <v>1.3317399999999999</v>
+        <v>1.3359000000000001</v>
       </c>
       <c r="E33">
-        <v>1.3140700000000001</v>
+        <v>1.31863</v>
       </c>
       <c r="F33">
-        <v>1.32287</v>
+        <v>1.3292600000000001</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>1.3680000000000136</v>
+        <v>1.7669999999999852</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="21" customHeight="1">
@@ -1447,23 +1448,23 @@
         <v>7</v>
       </c>
       <c r="B34" s="8">
-        <v>41954</v>
+        <v>41961</v>
       </c>
       <c r="C34">
-        <v>1.31993</v>
+        <v>1.3151600000000001</v>
       </c>
       <c r="D34">
-        <v>1.3263</v>
+        <v>1.3317399999999999</v>
       </c>
       <c r="E34">
-        <v>1.3126199999999999</v>
+        <v>1.3140700000000001</v>
       </c>
       <c r="F34">
-        <v>1.31515</v>
+        <v>1.32287</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>1.7709999999999892</v>
+        <v>1.3680000000000136</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21" customHeight="1">
@@ -1471,23 +1472,23 @@
         <v>7</v>
       </c>
       <c r="B35" s="8">
-        <v>41947</v>
+        <v>41954</v>
       </c>
       <c r="C35">
-        <v>1.3088599999999999</v>
+        <v>1.31993</v>
       </c>
       <c r="D35">
-        <v>1.32324</v>
+        <v>1.3263</v>
       </c>
       <c r="E35">
-        <v>1.3055300000000001</v>
+        <v>1.3126199999999999</v>
       </c>
       <c r="F35">
-        <v>1.31952</v>
+        <v>1.31515</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>1.2149999999999883</v>
+        <v>1.7709999999999892</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="21" customHeight="1">
@@ -1495,23 +1496,23 @@
         <v>7</v>
       </c>
       <c r="B36" s="8">
-        <v>41940</v>
+        <v>41947</v>
       </c>
       <c r="C36">
-        <v>1.3093900000000001</v>
+        <v>1.3088599999999999</v>
       </c>
       <c r="D36">
-        <v>1.3169299999999999</v>
+        <v>1.32324</v>
       </c>
       <c r="E36">
-        <v>1.3047800000000001</v>
+        <v>1.3055300000000001</v>
       </c>
       <c r="F36">
-        <v>1.31</v>
+        <v>1.31952</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>1.898999999999984</v>
+        <v>1.2149999999999883</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="21" customHeight="1">
@@ -1519,23 +1520,23 @@
         <v>7</v>
       </c>
       <c r="B37" s="8">
-        <v>41933</v>
+        <v>41940</v>
       </c>
       <c r="C37">
-        <v>1.31019</v>
+        <v>1.3093900000000001</v>
       </c>
       <c r="D37">
-        <v>1.3158799999999999</v>
+        <v>1.3169299999999999</v>
       </c>
       <c r="E37">
-        <v>1.2968900000000001</v>
+        <v>1.3047800000000001</v>
       </c>
       <c r="F37">
-        <v>1.3091600000000001</v>
+        <v>1.31</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
-        <v>2.1600000000000064</v>
+        <v>1.898999999999984</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="21" customHeight="1">
@@ -1543,23 +1544,23 @@
         <v>7</v>
       </c>
       <c r="B38" s="8">
-        <v>41926</v>
+        <v>41933</v>
       </c>
       <c r="C38">
-        <v>1.30192</v>
+        <v>1.31019</v>
       </c>
       <c r="D38">
-        <v>1.3131600000000001</v>
+        <v>1.3158799999999999</v>
       </c>
       <c r="E38">
-        <v>1.29156</v>
+        <v>1.2968900000000001</v>
       </c>
       <c r="F38">
-        <v>1.3109200000000001</v>
+        <v>1.3091600000000001</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>1.4469999999999983</v>
+        <v>2.1600000000000064</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="21" customHeight="1">
@@ -1567,23 +1568,23 @@
         <v>7</v>
       </c>
       <c r="B39" s="8">
-        <v>41919</v>
+        <v>41926</v>
       </c>
       <c r="C39">
-        <v>1.29409</v>
+        <v>1.30192</v>
       </c>
       <c r="D39">
-        <v>1.3070900000000001</v>
+        <v>1.3131600000000001</v>
       </c>
       <c r="E39">
-        <v>1.2926200000000001</v>
+        <v>1.29156</v>
       </c>
       <c r="F39">
-        <v>1.30298</v>
+        <v>1.3109200000000001</v>
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
-        <v>1.7290000000000028</v>
+        <v>1.4469999999999983</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="21" customHeight="1">
@@ -1591,23 +1592,23 @@
         <v>7</v>
       </c>
       <c r="B40" s="8">
-        <v>41912</v>
+        <v>41919</v>
       </c>
       <c r="C40">
-        <v>1.28511</v>
+        <v>1.29409</v>
       </c>
       <c r="D40">
-        <v>1.29545</v>
+        <v>1.3070900000000001</v>
       </c>
       <c r="E40">
-        <v>1.27816</v>
+        <v>1.2926200000000001</v>
       </c>
       <c r="F40">
-        <v>1.2949200000000001</v>
+        <v>1.30298</v>
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
-        <v>1.7309999999999937</v>
+        <v>1.7290000000000028</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="21" customHeight="1">
@@ -1615,23 +1616,23 @@
         <v>7</v>
       </c>
       <c r="B41" s="8">
-        <v>41905</v>
+        <v>41912</v>
       </c>
       <c r="C41">
-        <v>1.2918400000000001</v>
+        <v>1.28511</v>
       </c>
       <c r="D41">
-        <v>1.30813</v>
+        <v>1.29545</v>
       </c>
       <c r="E41">
-        <v>1.2908200000000001</v>
+        <v>1.27816</v>
       </c>
       <c r="F41">
-        <v>1.29233</v>
+        <v>1.2949200000000001</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
-        <v>1.802999999999999</v>
+        <v>1.7309999999999937</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21" customHeight="1">
@@ -1639,23 +1640,23 @@
         <v>7</v>
       </c>
       <c r="B42" s="8">
-        <v>41898</v>
+        <v>41905</v>
       </c>
       <c r="C42">
-        <v>1.3036099999999999</v>
+        <v>1.2918400000000001</v>
       </c>
       <c r="D42">
-        <v>1.3063899999999999</v>
+        <v>1.30813</v>
       </c>
       <c r="E42">
-        <v>1.2883599999999999</v>
+        <v>1.2908200000000001</v>
       </c>
       <c r="F42">
-        <v>1.2916300000000001</v>
+        <v>1.29233</v>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
-        <v>2.2190000000000154</v>
+        <v>1.802999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21" customHeight="1">
@@ -1663,23 +1664,23 @@
         <v>7</v>
       </c>
       <c r="B43" s="8">
-        <v>41891</v>
+        <v>41898</v>
       </c>
       <c r="C43">
-        <v>1.31691</v>
+        <v>1.3036099999999999</v>
       </c>
       <c r="D43">
-        <v>1.3197300000000001</v>
+        <v>1.3063899999999999</v>
       </c>
       <c r="E43">
-        <v>1.2975399999999999</v>
+        <v>1.2883599999999999</v>
       </c>
       <c r="F43">
-        <v>1.30314</v>
+        <v>1.2916300000000001</v>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
-        <v>1.8140000000000045</v>
+        <v>2.2190000000000154</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21" customHeight="1">
@@ -1687,23 +1688,23 @@
         <v>7</v>
       </c>
       <c r="B44" s="8">
-        <v>41884</v>
+        <v>41891</v>
       </c>
       <c r="C44">
-        <v>1.3060499999999999</v>
+        <v>1.31691</v>
       </c>
       <c r="D44">
-        <v>1.32256</v>
+        <v>1.3197300000000001</v>
       </c>
       <c r="E44">
-        <v>1.3044199999999999</v>
+        <v>1.2975399999999999</v>
       </c>
       <c r="F44">
-        <v>1.31748</v>
+        <v>1.30314</v>
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
-        <v>2.010999999999985</v>
+        <v>1.8140000000000045</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21" customHeight="1">
@@ -1711,23 +1712,23 @@
         <v>7</v>
       </c>
       <c r="B45" s="8">
-        <v>41877</v>
+        <v>41884</v>
       </c>
       <c r="C45">
-        <v>1.3010999999999999</v>
+        <v>1.3060499999999999</v>
       </c>
       <c r="D45">
-        <v>1.3087899999999999</v>
+        <v>1.32256</v>
       </c>
       <c r="E45">
-        <v>1.28868</v>
+        <v>1.3044199999999999</v>
       </c>
       <c r="F45">
-        <v>1.3043800000000001</v>
+        <v>1.31748</v>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
-        <v>1.1639999999999873</v>
+        <v>2.010999999999985</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21" customHeight="1">
@@ -1735,23 +1736,23 @@
         <v>7</v>
       </c>
       <c r="B46" s="8">
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="C46">
-        <v>1.3054399999999999</v>
+        <v>1.3010999999999999</v>
       </c>
       <c r="D46">
-        <v>1.31026</v>
+        <v>1.3087899999999999</v>
       </c>
       <c r="E46">
-        <v>1.2986200000000001</v>
+        <v>1.28868</v>
       </c>
       <c r="F46">
-        <v>1.30338</v>
+        <v>1.3043800000000001</v>
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
-        <v>1.2390000000000123</v>
+        <v>1.1639999999999873</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21" customHeight="1">
@@ -1759,23 +1760,23 @@
         <v>7</v>
       </c>
       <c r="B47" s="8">
-        <v>41863</v>
+        <v>41870</v>
       </c>
       <c r="C47">
-        <v>1.3150200000000001</v>
+        <v>1.3054399999999999</v>
       </c>
       <c r="D47">
-        <v>1.3173900000000001</v>
+        <v>1.31026</v>
       </c>
       <c r="E47">
-        <v>1.3049999999999999</v>
+        <v>1.2986200000000001</v>
       </c>
       <c r="F47">
-        <v>1.30596</v>
+        <v>1.30338</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
-        <v>1.910999999999996</v>
+        <v>1.2390000000000123</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21" customHeight="1">
@@ -1783,23 +1784,23 @@
         <v>7</v>
       </c>
       <c r="B48" s="8">
-        <v>41856</v>
+        <v>41863</v>
       </c>
       <c r="C48">
-        <v>1.2988999999999999</v>
+        <v>1.3150200000000001</v>
       </c>
       <c r="D48">
-        <v>1.3152699999999999</v>
+        <v>1.3173900000000001</v>
       </c>
       <c r="E48">
-        <v>1.29616</v>
+        <v>1.3049999999999999</v>
       </c>
       <c r="F48">
-        <v>1.3124499999999999</v>
+        <v>1.30596</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
-        <v>1.2830000000000119</v>
+        <v>1.910999999999996</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="21" customHeight="1">
@@ -1807,23 +1808,23 @@
         <v>7</v>
       </c>
       <c r="B49" s="8">
-        <v>41849</v>
+        <v>41856</v>
       </c>
       <c r="C49">
-        <v>1.3055600000000001</v>
+        <v>1.2988999999999999</v>
       </c>
       <c r="D49">
-        <v>1.3095600000000001</v>
+        <v>1.3152699999999999</v>
       </c>
       <c r="E49">
-        <v>1.2967299999999999</v>
+        <v>1.29616</v>
       </c>
       <c r="F49">
-        <v>1.2991699999999999</v>
+        <v>1.3124499999999999</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
-        <v>1.6680000000000028</v>
+        <v>1.2830000000000119</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="21" customHeight="1">
@@ -1831,23 +1832,23 @@
         <v>7</v>
       </c>
       <c r="B50" s="8">
-        <v>41842</v>
+        <v>41849</v>
       </c>
       <c r="C50">
-        <v>1.3135399999999999</v>
+        <v>1.3055600000000001</v>
       </c>
       <c r="D50">
-        <v>1.31908</v>
+        <v>1.3095600000000001</v>
       </c>
       <c r="E50">
-        <v>1.3024</v>
+        <v>1.2967299999999999</v>
       </c>
       <c r="F50">
-        <v>1.3061100000000001</v>
+        <v>1.2991699999999999</v>
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>1.798999999999995</v>
+        <v>1.6680000000000028</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="21" customHeight="1">
@@ -1855,23 +1856,23 @@
         <v>7</v>
       </c>
       <c r="B51" s="8">
-        <v>41835</v>
+        <v>41842</v>
       </c>
       <c r="C51">
-        <v>1.31551</v>
+        <v>1.3135399999999999</v>
       </c>
       <c r="D51">
-        <v>1.3289</v>
+        <v>1.31908</v>
       </c>
       <c r="E51">
-        <v>1.31091</v>
+        <v>1.3024</v>
       </c>
       <c r="F51">
-        <v>1.3124400000000001</v>
+        <v>1.3061100000000001</v>
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>1.5390000000000015</v>
+        <v>1.798999999999995</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="21" customHeight="1">
@@ -1879,23 +1880,23 @@
         <v>7</v>
       </c>
       <c r="B52" s="8">
-        <v>41828</v>
+        <v>41835</v>
       </c>
       <c r="C52">
-        <v>1.30908</v>
+        <v>1.31551</v>
       </c>
       <c r="D52">
-        <v>1.32176</v>
+        <v>1.3289</v>
       </c>
       <c r="E52">
-        <v>1.30637</v>
+        <v>1.31091</v>
       </c>
       <c r="F52">
-        <v>1.3157000000000001</v>
+        <v>1.3124400000000001</v>
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
-        <v>1.4929999999999888</v>
+        <v>1.5390000000000015</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="21" customHeight="1">
@@ -1903,23 +1904,23 @@
         <v>7</v>
       </c>
       <c r="B53" s="8">
-        <v>41821</v>
+        <v>41828</v>
       </c>
       <c r="C53">
-        <v>1.3152200000000001</v>
+        <v>1.30908</v>
       </c>
       <c r="D53">
-        <v>1.32253</v>
+        <v>1.32176</v>
       </c>
       <c r="E53">
-        <v>1.3076000000000001</v>
+        <v>1.30637</v>
       </c>
       <c r="F53">
-        <v>1.3102400000000001</v>
+        <v>1.3157000000000001</v>
       </c>
       <c r="H53">
         <f t="shared" si="0"/>
-        <v>2.5539999999999896</v>
+        <v>1.4929999999999888</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="21" customHeight="1">
@@ -1927,23 +1928,23 @@
         <v>7</v>
       </c>
       <c r="B54" s="8">
-        <v>41814</v>
+        <v>41821</v>
       </c>
       <c r="C54">
-        <v>1.3264100000000001</v>
+        <v>1.3152200000000001</v>
       </c>
       <c r="D54">
-        <v>1.3385499999999999</v>
+        <v>1.32253</v>
       </c>
       <c r="E54">
-        <v>1.31301</v>
+        <v>1.3076000000000001</v>
       </c>
       <c r="F54">
-        <v>1.31321</v>
+        <v>1.3102400000000001</v>
       </c>
       <c r="H54">
         <f t="shared" si="0"/>
-        <v>2.2270000000000012</v>
+        <v>2.5539999999999896</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="21" customHeight="1">
@@ -1951,23 +1952,23 @@
         <v>7</v>
       </c>
       <c r="B55" s="8">
-        <v>41807</v>
+        <v>41814</v>
       </c>
       <c r="C55">
-        <v>1.3188200000000001</v>
+        <v>1.3264100000000001</v>
       </c>
       <c r="D55">
-        <v>1.3381400000000001</v>
+        <v>1.3385499999999999</v>
       </c>
       <c r="E55">
-        <v>1.3158700000000001</v>
+        <v>1.31301</v>
       </c>
       <c r="F55">
-        <v>1.3272600000000001</v>
+        <v>1.31321</v>
       </c>
       <c r="H55">
         <f t="shared" si="0"/>
-        <v>2.5170000000000137</v>
+        <v>2.2270000000000012</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="21" customHeight="1">
@@ -1975,23 +1976,23 @@
         <v>7</v>
       </c>
       <c r="B56" s="8">
-        <v>41800</v>
+        <v>41807</v>
       </c>
       <c r="C56">
-        <v>1.2974399999999999</v>
+        <v>1.3188200000000001</v>
       </c>
       <c r="D56">
-        <v>1.32003</v>
+        <v>1.3381400000000001</v>
       </c>
       <c r="E56">
-        <v>1.2948599999999999</v>
+        <v>1.3158700000000001</v>
       </c>
       <c r="F56">
-        <v>1.31958</v>
+        <v>1.3272600000000001</v>
       </c>
       <c r="H56">
         <f t="shared" si="0"/>
-        <v>2.0939999999999959</v>
+        <v>2.5170000000000137</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="21" customHeight="1">
@@ -1999,23 +2000,23 @@
         <v>7</v>
       </c>
       <c r="B57" s="8">
-        <v>41793</v>
+        <v>41800</v>
       </c>
       <c r="C57">
+        <v>1.2974399999999999</v>
+      </c>
+      <c r="D57">
+        <v>1.32003</v>
+      </c>
+      <c r="E57">
         <v>1.2948599999999999</v>
       </c>
-      <c r="D57">
-        <v>1.30661</v>
-      </c>
-      <c r="E57">
-        <v>1.2856700000000001</v>
-      </c>
       <c r="F57">
-        <v>1.2923800000000001</v>
+        <v>1.31958</v>
       </c>
       <c r="H57">
         <f t="shared" si="0"/>
-        <v>2.2850000000000037</v>
+        <v>2.0939999999999959</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="21" customHeight="1">
@@ -2023,23 +2024,23 @@
         <v>7</v>
       </c>
       <c r="B58" s="8">
-        <v>41786</v>
+        <v>41793</v>
       </c>
       <c r="C58">
-        <v>1.2965</v>
+        <v>1.2948599999999999</v>
       </c>
       <c r="D58">
-        <v>1.30463</v>
+        <v>1.30661</v>
       </c>
       <c r="E58">
-        <v>1.2817799999999999</v>
+        <v>1.2856700000000001</v>
       </c>
       <c r="F58">
-        <v>1.2967599999999999</v>
+        <v>1.2923800000000001</v>
       </c>
       <c r="H58">
         <f t="shared" si="0"/>
-        <v>2.4579999999999824</v>
+        <v>2.2850000000000037</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="21" customHeight="1">
@@ -2047,23 +2048,23 @@
         <v>7</v>
       </c>
       <c r="B59" s="8">
-        <v>41779</v>
+        <v>41786</v>
       </c>
       <c r="C59">
-        <v>1.2871699999999999</v>
+        <v>1.2965</v>
       </c>
       <c r="D59">
-        <v>1.2987599999999999</v>
+        <v>1.30463</v>
       </c>
       <c r="E59">
-        <v>1.2741800000000001</v>
+        <v>1.2817799999999999</v>
       </c>
       <c r="F59">
-        <v>1.2972699999999999</v>
+        <v>1.2967599999999999</v>
       </c>
       <c r="H59">
         <f t="shared" si="0"/>
-        <v>1.7500000000000071</v>
+        <v>2.4579999999999824</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="21" customHeight="1">
@@ -2071,23 +2072,23 @@
         <v>7</v>
       </c>
       <c r="B60" s="8">
-        <v>41772</v>
+        <v>41779</v>
       </c>
       <c r="C60">
-        <v>1.2786500000000001</v>
+        <v>1.2871699999999999</v>
       </c>
       <c r="D60">
-        <v>1.29237</v>
+        <v>1.2987599999999999</v>
       </c>
       <c r="E60">
-        <v>1.2748699999999999</v>
+        <v>1.2741800000000001</v>
       </c>
       <c r="F60">
-        <v>1.2877000000000001</v>
+        <v>1.2972699999999999</v>
       </c>
       <c r="H60">
         <f t="shared" si="0"/>
-        <v>2.6819999999999844</v>
+        <v>1.7500000000000071</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="21" customHeight="1">
@@ -2095,23 +2096,23 @@
         <v>7</v>
       </c>
       <c r="B61" s="8">
-        <v>41765</v>
+        <v>41772</v>
       </c>
       <c r="C61">
-        <v>1.2846900000000001</v>
+        <v>1.2786500000000001</v>
       </c>
       <c r="D61">
-        <v>1.2996799999999999</v>
+        <v>1.29237</v>
       </c>
       <c r="E61">
-        <v>1.2728600000000001</v>
+        <v>1.2748699999999999</v>
       </c>
       <c r="F61">
-        <v>1.2787599999999999</v>
+        <v>1.2877000000000001</v>
       </c>
       <c r="H61">
         <f t="shared" si="0"/>
-        <v>1.1419999999999986</v>
+        <v>2.6819999999999844</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="21" customHeight="1">
@@ -2119,23 +2120,23 @@
         <v>7</v>
       </c>
       <c r="B62" s="8">
-        <v>41758</v>
+        <v>41765</v>
       </c>
       <c r="C62">
-        <v>1.2833699999999999</v>
+        <v>1.2846900000000001</v>
       </c>
       <c r="D62">
-        <v>1.2916799999999999</v>
+        <v>1.2996799999999999</v>
       </c>
       <c r="E62">
-        <v>1.28026</v>
+        <v>1.2728600000000001</v>
       </c>
       <c r="F62">
-        <v>1.28555</v>
+        <v>1.2787599999999999</v>
       </c>
       <c r="H62">
         <f t="shared" si="0"/>
-        <v>1.4960000000000084</v>
+        <v>1.1419999999999986</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="21" customHeight="1">
@@ -2143,23 +2144,23 @@
         <v>7</v>
       </c>
       <c r="B63" s="8">
-        <v>41751</v>
+        <v>41758</v>
       </c>
       <c r="C63">
-        <v>1.27556</v>
+        <v>1.2833699999999999</v>
       </c>
       <c r="D63">
-        <v>1.28996</v>
+        <v>1.2916799999999999</v>
       </c>
       <c r="E63">
-        <v>1.2749999999999999</v>
+        <v>1.28026</v>
       </c>
       <c r="F63">
-        <v>1.2837799999999999</v>
+        <v>1.28555</v>
       </c>
       <c r="H63">
         <f t="shared" si="0"/>
-        <v>2.2909999999999986</v>
+        <v>1.4960000000000084</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="21" customHeight="1">
@@ -2167,23 +2168,23 @@
         <v>7</v>
       </c>
       <c r="B64" s="8">
-        <v>41744</v>
+        <v>41751</v>
       </c>
       <c r="C64">
-        <v>1.2589300000000001</v>
+        <v>1.27556</v>
       </c>
       <c r="D64">
-        <v>1.2755700000000001</v>
+        <v>1.28996</v>
       </c>
       <c r="E64">
-        <v>1.2526600000000001</v>
+        <v>1.2749999999999999</v>
       </c>
       <c r="F64">
-        <v>1.2752699999999999</v>
+        <v>1.2837799999999999</v>
       </c>
       <c r="H64">
         <f t="shared" si="0"/>
-        <v>2.750000000000008</v>
+        <v>2.2909999999999986</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="21" customHeight="1">
@@ -2191,23 +2192,23 @@
         <v>7</v>
       </c>
       <c r="B65" s="8">
-        <v>41737</v>
+        <v>41744</v>
       </c>
       <c r="C65">
-        <v>1.27705</v>
+        <v>1.2589300000000001</v>
       </c>
       <c r="D65">
-        <v>1.2818400000000001</v>
+        <v>1.2755700000000001</v>
       </c>
       <c r="E65">
-        <v>1.25434</v>
+        <v>1.2526600000000001</v>
       </c>
       <c r="F65">
-        <v>1.2608600000000001</v>
+        <v>1.2752699999999999</v>
       </c>
       <c r="H65">
         <f t="shared" si="0"/>
-        <v>2.1030000000000104</v>
+        <v>2.750000000000008</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="21" customHeight="1">
@@ -2215,23 +2216,23 @@
         <v>7</v>
       </c>
       <c r="B66" s="8">
-        <v>41730</v>
+        <v>41737</v>
       </c>
       <c r="C66">
-        <v>1.2884100000000001</v>
+        <v>1.27705</v>
       </c>
       <c r="D66">
-        <v>1.2942800000000001</v>
+        <v>1.2818400000000001</v>
       </c>
       <c r="E66">
-        <v>1.27325</v>
+        <v>1.25434</v>
       </c>
       <c r="F66">
-        <v>1.27627</v>
+        <v>1.2608600000000001</v>
       </c>
       <c r="H66">
         <f t="shared" ref="H66:H129" si="1">ABS(D67-E67)*100</f>
-        <v>1.2469999999999981</v>
+        <v>2.1030000000000104</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="21" customHeight="1">
@@ -2239,23 +2240,23 @@
         <v>7</v>
       </c>
       <c r="B67" s="8">
-        <v>41723</v>
+        <v>41730</v>
       </c>
       <c r="C67">
-        <v>1.28796</v>
+        <v>1.2884100000000001</v>
       </c>
       <c r="D67">
-        <v>1.29389</v>
+        <v>1.2942800000000001</v>
       </c>
       <c r="E67">
-        <v>1.28142</v>
+        <v>1.27325</v>
       </c>
       <c r="F67">
-        <v>1.2893699999999999</v>
+        <v>1.27627</v>
       </c>
       <c r="H67">
         <f t="shared" si="1"/>
-        <v>3.0030000000000001</v>
+        <v>1.2469999999999981</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="21" customHeight="1">
@@ -2263,23 +2264,23 @@
         <v>7</v>
       </c>
       <c r="B68" s="8">
-        <v>41716</v>
+        <v>41723</v>
       </c>
       <c r="C68">
-        <v>1.3087899999999999</v>
+        <v>1.28796</v>
       </c>
       <c r="D68">
-        <v>1.3123800000000001</v>
+        <v>1.29389</v>
       </c>
       <c r="E68">
-        <v>1.2823500000000001</v>
+        <v>1.28142</v>
       </c>
       <c r="F68">
-        <v>1.28807</v>
+        <v>1.2893699999999999</v>
       </c>
       <c r="H68">
         <f t="shared" si="1"/>
-        <v>2.949999999999986</v>
+        <v>3.0030000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="21" customHeight="1">
@@ -2287,23 +2288,23 @@
         <v>7</v>
       </c>
       <c r="B69" s="8">
-        <v>41709</v>
+        <v>41716</v>
       </c>
       <c r="C69">
-        <v>1.2811699999999999</v>
+        <v>1.3087899999999999</v>
       </c>
       <c r="D69">
-        <v>1.3097799999999999</v>
+        <v>1.3123800000000001</v>
       </c>
       <c r="E69">
-        <v>1.2802800000000001</v>
+        <v>1.2823500000000001</v>
       </c>
       <c r="F69">
-        <v>1.3094699999999999</v>
+        <v>1.28807</v>
       </c>
       <c r="H69">
         <f t="shared" si="1"/>
-        <v>1.8730000000000135</v>
+        <v>2.949999999999986</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="21" customHeight="1">
@@ -2311,23 +2312,23 @@
         <v>7</v>
       </c>
       <c r="B70" s="8">
-        <v>41702</v>
+        <v>41709</v>
       </c>
       <c r="C70">
-        <v>1.28731</v>
+        <v>1.2811699999999999</v>
       </c>
       <c r="D70">
-        <v>1.3000100000000001</v>
+        <v>1.3097799999999999</v>
       </c>
       <c r="E70">
-        <v>1.28128</v>
+        <v>1.2802800000000001</v>
       </c>
       <c r="F70">
-        <v>1.2815099999999999</v>
+        <v>1.3094699999999999</v>
       </c>
       <c r="H70">
         <f t="shared" si="1"/>
-        <v>3.0070000000000041</v>
+        <v>1.8730000000000135</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="21" customHeight="1">
@@ -2335,23 +2336,23 @@
         <v>7</v>
       </c>
       <c r="B71" s="8">
-        <v>41695</v>
+        <v>41702</v>
       </c>
       <c r="C71">
-        <v>1.26376</v>
+        <v>1.28731</v>
       </c>
       <c r="D71">
-        <v>1.2915099999999999</v>
+        <v>1.3000100000000001</v>
       </c>
       <c r="E71">
-        <v>1.2614399999999999</v>
+        <v>1.28128</v>
       </c>
       <c r="F71">
-        <v>1.2883199999999999</v>
+        <v>1.2815099999999999</v>
       </c>
       <c r="H71">
         <f t="shared" si="1"/>
-        <v>2.2769999999999957</v>
+        <v>3.0070000000000041</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="21" customHeight="1">
@@ -2359,23 +2360,23 @@
         <v>7</v>
       </c>
       <c r="B72" s="8">
-        <v>41688</v>
+        <v>41695</v>
       </c>
       <c r="C72">
-        <v>1.2556400000000001</v>
+        <v>1.26376</v>
       </c>
       <c r="D72">
-        <v>1.27545</v>
+        <v>1.2915099999999999</v>
       </c>
       <c r="E72">
-        <v>1.25268</v>
+        <v>1.2614399999999999</v>
       </c>
       <c r="F72">
-        <v>1.2639800000000001</v>
+        <v>1.2883199999999999</v>
       </c>
       <c r="H72">
         <f t="shared" si="1"/>
-        <v>1.9859999999999989</v>
+        <v>2.2769999999999957</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21" customHeight="1">
@@ -2383,23 +2384,23 @@
         <v>7</v>
       </c>
       <c r="B73" s="8">
-        <v>41681</v>
+        <v>41688</v>
       </c>
       <c r="C73">
-        <v>1.25837</v>
+        <v>1.2556400000000001</v>
       </c>
       <c r="D73">
-        <v>1.2648299999999999</v>
+        <v>1.27545</v>
       </c>
       <c r="E73">
-        <v>1.2449699999999999</v>
+        <v>1.25268</v>
       </c>
       <c r="F73">
-        <v>1.2548299999999999</v>
+        <v>1.2639800000000001</v>
       </c>
       <c r="H73">
         <f t="shared" si="1"/>
-        <v>2.9190000000000049</v>
+        <v>1.9859999999999989</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="21" customHeight="1">
@@ -2407,23 +2408,23 @@
         <v>7</v>
       </c>
       <c r="B74" s="8">
-        <v>41674</v>
+        <v>41681</v>
       </c>
       <c r="C74">
-        <v>1.2433000000000001</v>
+        <v>1.25837</v>
       </c>
       <c r="D74">
-        <v>1.26888</v>
+        <v>1.2648299999999999</v>
       </c>
       <c r="E74">
-        <v>1.23969</v>
+        <v>1.2449699999999999</v>
       </c>
       <c r="F74">
-        <v>1.2584500000000001</v>
+        <v>1.2548299999999999</v>
       </c>
       <c r="H74">
         <f t="shared" si="1"/>
-        <v>1.8759999999999888</v>
+        <v>2.9190000000000049</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="21" customHeight="1">
@@ -2431,23 +2432,23 @@
         <v>7</v>
       </c>
       <c r="B75" s="8">
-        <v>41667</v>
+        <v>41674</v>
       </c>
       <c r="C75">
-        <v>1.23099</v>
+        <v>1.2433000000000001</v>
       </c>
       <c r="D75">
-        <v>1.2436799999999999</v>
+        <v>1.26888</v>
       </c>
       <c r="E75">
-        <v>1.22492</v>
+        <v>1.23969</v>
       </c>
       <c r="F75">
-        <v>1.24261</v>
+        <v>1.2584500000000001</v>
       </c>
       <c r="H75">
         <f t="shared" si="1"/>
-        <v>2.1450000000000191</v>
+        <v>1.8759999999999888</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="21" customHeight="1">
@@ -2455,23 +2456,23 @@
         <v>7</v>
       </c>
       <c r="B76" s="8">
-        <v>41660</v>
+        <v>41667</v>
       </c>
       <c r="C76">
-        <v>1.2472799999999999</v>
+        <v>1.23099</v>
       </c>
       <c r="D76">
-        <v>1.2496100000000001</v>
+        <v>1.2436799999999999</v>
       </c>
       <c r="E76">
-        <v>1.2281599999999999</v>
+        <v>1.22492</v>
       </c>
       <c r="F76">
-        <v>1.23245</v>
+        <v>1.24261</v>
       </c>
       <c r="H76">
         <f t="shared" si="1"/>
-        <v>1.7360000000000042</v>
+        <v>2.1450000000000191</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="21" customHeight="1">
@@ -2479,23 +2480,23 @@
         <v>7</v>
       </c>
       <c r="B77" s="8">
-        <v>41653</v>
+        <v>41660</v>
       </c>
       <c r="C77">
-        <v>1.24597</v>
+        <v>1.2472799999999999</v>
       </c>
       <c r="D77">
-        <v>1.2533300000000001</v>
+        <v>1.2496100000000001</v>
       </c>
       <c r="E77">
-        <v>1.23597</v>
+        <v>1.2281599999999999</v>
       </c>
       <c r="F77">
-        <v>1.24976</v>
+        <v>1.23245</v>
       </c>
       <c r="H77">
         <f t="shared" si="1"/>
-        <v>2.1190000000000042</v>
+        <v>1.7360000000000042</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="21" customHeight="1">
@@ -2503,23 +2504,23 @@
         <v>7</v>
       </c>
       <c r="B78" s="8">
-        <v>41646</v>
+        <v>41653</v>
       </c>
       <c r="C78">
-        <v>1.2409600000000001</v>
+        <v>1.24597</v>
       </c>
       <c r="D78">
-        <v>1.25895</v>
+        <v>1.2533300000000001</v>
       </c>
       <c r="E78">
-        <v>1.23776</v>
+        <v>1.23597</v>
       </c>
       <c r="F78">
-        <v>1.2467200000000001</v>
+        <v>1.24976</v>
       </c>
       <c r="H78">
         <f t="shared" si="1"/>
-        <v>2.0179999999999865</v>
+        <v>2.1190000000000042</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="21" customHeight="1">
@@ -2527,23 +2528,23 @@
         <v>7</v>
       </c>
       <c r="B79" s="8">
-        <v>41639</v>
+        <v>41646</v>
       </c>
       <c r="C79">
-        <v>1.25376</v>
+        <v>1.2409600000000001</v>
       </c>
       <c r="D79">
-        <v>1.2556499999999999</v>
+        <v>1.25895</v>
       </c>
       <c r="E79">
-        <v>1.2354700000000001</v>
+        <v>1.23776</v>
       </c>
       <c r="F79">
-        <v>1.24122</v>
+        <v>1.2467200000000001</v>
       </c>
       <c r="H79">
         <f t="shared" si="1"/>
-        <v>2.2500000000000187</v>
+        <v>2.0179999999999865</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="21" customHeight="1">
@@ -2551,23 +2552,23 @@
         <v>7</v>
       </c>
       <c r="B80" s="8">
-        <v>41632</v>
+        <v>41639</v>
       </c>
       <c r="C80">
-        <v>1.27135</v>
+        <v>1.25376</v>
       </c>
       <c r="D80">
-        <v>1.2739100000000001</v>
+        <v>1.2556499999999999</v>
       </c>
       <c r="E80">
-        <v>1.2514099999999999</v>
+        <v>1.2354700000000001</v>
       </c>
       <c r="F80">
-        <v>1.2571099999999999</v>
+        <v>1.24122</v>
       </c>
       <c r="H80">
         <f t="shared" si="1"/>
-        <v>2.2220000000000129</v>
+        <v>2.2500000000000187</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="21" customHeight="1">
@@ -2575,23 +2576,23 @@
         <v>7</v>
       </c>
       <c r="B81" s="8">
-        <v>41625</v>
+        <v>41632</v>
       </c>
       <c r="C81">
-        <v>1.2867500000000001</v>
+        <v>1.27135</v>
       </c>
       <c r="D81">
-        <v>1.2919400000000001</v>
+        <v>1.2739100000000001</v>
       </c>
       <c r="E81">
-        <v>1.26972</v>
+        <v>1.2514099999999999</v>
       </c>
       <c r="F81">
-        <v>1.2722899999999999</v>
+        <v>1.2571099999999999</v>
       </c>
       <c r="H81">
         <f t="shared" si="1"/>
-        <v>1.8059999999999965</v>
+        <v>2.2220000000000129</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="21" customHeight="1">
@@ -2599,23 +2600,23 @@
         <v>7</v>
       </c>
       <c r="B82" s="8">
-        <v>41618</v>
+        <v>41625</v>
       </c>
       <c r="C82">
-        <v>1.2851300000000001</v>
+        <v>1.2867500000000001</v>
       </c>
       <c r="D82">
-        <v>1.2893699999999999</v>
+        <v>1.2919400000000001</v>
       </c>
       <c r="E82">
-        <v>1.2713099999999999</v>
+        <v>1.26972</v>
       </c>
       <c r="F82">
-        <v>1.2887200000000001</v>
+        <v>1.2722899999999999</v>
       </c>
       <c r="H82">
         <f t="shared" si="1"/>
-        <v>2.5619999999999976</v>
+        <v>1.8059999999999965</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="21" customHeight="1">
@@ -2623,23 +2624,23 @@
         <v>7</v>
       </c>
       <c r="B83" s="8">
-        <v>41611</v>
+        <v>41618</v>
       </c>
       <c r="C83">
-        <v>1.26973</v>
+        <v>1.2851300000000001</v>
       </c>
       <c r="D83">
-        <v>1.2879</v>
+        <v>1.2893699999999999</v>
       </c>
       <c r="E83">
-        <v>1.2622800000000001</v>
+        <v>1.2713099999999999</v>
       </c>
       <c r="F83">
-        <v>1.28623</v>
+        <v>1.2887200000000001</v>
       </c>
       <c r="H83">
         <f t="shared" si="1"/>
-        <v>2.2909999999999986</v>
+        <v>2.5619999999999976</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="21" customHeight="1">
@@ -2647,23 +2648,23 @@
         <v>7</v>
       </c>
       <c r="B84" s="8">
-        <v>41604</v>
+        <v>41611</v>
       </c>
       <c r="C84">
-        <v>1.2703100000000001</v>
+        <v>1.26973</v>
       </c>
       <c r="D84">
-        <v>1.2908599999999999</v>
+        <v>1.2879</v>
       </c>
       <c r="E84">
-        <v>1.2679499999999999</v>
+        <v>1.2622800000000001</v>
       </c>
       <c r="F84">
-        <v>1.26915</v>
+        <v>1.28623</v>
       </c>
       <c r="H84">
         <f t="shared" si="1"/>
-        <v>1.639999999999997</v>
+        <v>2.2909999999999986</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="21" customHeight="1">
@@ -2671,23 +2672,23 @@
         <v>7</v>
       </c>
       <c r="B85" s="8">
-        <v>41597</v>
+        <v>41604</v>
       </c>
       <c r="C85">
-        <v>1.2765500000000001</v>
+        <v>1.2703100000000001</v>
       </c>
       <c r="D85">
-        <v>1.28359</v>
+        <v>1.2908599999999999</v>
       </c>
       <c r="E85">
-        <v>1.26719</v>
+        <v>1.2679499999999999</v>
       </c>
       <c r="F85">
-        <v>1.2711300000000001</v>
+        <v>1.26915</v>
       </c>
       <c r="H85">
         <f t="shared" si="1"/>
-        <v>1.4550000000000063</v>
+        <v>1.639999999999997</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="21" customHeight="1">
@@ -2695,23 +2696,23 @@
         <v>7</v>
       </c>
       <c r="B86" s="8">
-        <v>41590</v>
+        <v>41597</v>
       </c>
       <c r="C86">
-        <v>1.2683500000000001</v>
+        <v>1.2765500000000001</v>
       </c>
       <c r="D86">
-        <v>1.2822800000000001</v>
+        <v>1.28359</v>
       </c>
       <c r="E86">
-        <v>1.26773</v>
+        <v>1.26719</v>
       </c>
       <c r="F86">
-        <v>1.27773</v>
+        <v>1.2711300000000001</v>
       </c>
       <c r="H86">
         <f t="shared" si="1"/>
-        <v>1.5349999999999975</v>
+        <v>1.4550000000000063</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="21" customHeight="1">
@@ -2719,23 +2720,23 @@
         <v>7</v>
       </c>
       <c r="B87" s="8">
-        <v>41583</v>
+        <v>41590</v>
       </c>
       <c r="C87">
-        <v>1.2764200000000001</v>
+        <v>1.2683500000000001</v>
       </c>
       <c r="D87">
-        <v>1.2818799999999999</v>
+        <v>1.2822800000000001</v>
       </c>
       <c r="E87">
-        <v>1.2665299999999999</v>
+        <v>1.26773</v>
       </c>
       <c r="F87">
-        <v>1.2679400000000001</v>
+        <v>1.27773</v>
       </c>
       <c r="H87">
         <f t="shared" si="1"/>
-        <v>1.99600000000002</v>
+        <v>1.5349999999999975</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="21" customHeight="1">
@@ -2743,23 +2744,23 @@
         <v>7</v>
       </c>
       <c r="B88" s="8">
-        <v>41576</v>
+        <v>41583</v>
       </c>
       <c r="C88">
-        <v>1.28155</v>
+        <v>1.2764200000000001</v>
       </c>
       <c r="D88">
-        <v>1.2914000000000001</v>
+        <v>1.2818799999999999</v>
       </c>
       <c r="E88">
-        <v>1.2714399999999999</v>
+        <v>1.2665299999999999</v>
       </c>
       <c r="F88">
-        <v>1.2765299999999999</v>
+        <v>1.2679400000000001</v>
       </c>
       <c r="H88">
         <f t="shared" si="1"/>
-        <v>3.0320000000000125</v>
+        <v>1.99600000000002</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="21" customHeight="1">
@@ -2767,23 +2768,23 @@
         <v>7</v>
       </c>
       <c r="B89" s="8">
-        <v>41569</v>
+        <v>41576</v>
       </c>
       <c r="C89">
-        <v>1.2623200000000001</v>
+        <v>1.28155</v>
       </c>
       <c r="D89">
-        <v>1.2916000000000001</v>
+        <v>1.2914000000000001</v>
       </c>
       <c r="E89">
-        <v>1.26128</v>
+        <v>1.2714399999999999</v>
       </c>
       <c r="F89">
-        <v>1.2819799999999999</v>
+        <v>1.2765299999999999</v>
       </c>
       <c r="H89">
         <f t="shared" si="1"/>
-        <v>1.7919999999999936</v>
+        <v>3.0320000000000125</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="21" customHeight="1">
@@ -2791,23 +2792,23 @@
         <v>7</v>
       </c>
       <c r="B90" s="8">
-        <v>41562</v>
+        <v>41569</v>
       </c>
       <c r="C90">
-        <v>1.2474000000000001</v>
+        <v>1.2623200000000001</v>
       </c>
       <c r="D90">
-        <v>1.26292</v>
+        <v>1.2916000000000001</v>
       </c>
       <c r="E90">
-        <v>1.2450000000000001</v>
+        <v>1.26128</v>
       </c>
       <c r="F90">
-        <v>1.2628900000000001</v>
+        <v>1.2819799999999999</v>
       </c>
       <c r="H90">
         <f t="shared" si="1"/>
-        <v>1.2559999999999905</v>
+        <v>1.7919999999999936</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="21" customHeight="1">
@@ -2815,23 +2816,23 @@
         <v>7</v>
       </c>
       <c r="B91" s="8">
-        <v>41555</v>
+        <v>41562</v>
       </c>
       <c r="C91">
-        <v>1.2534799999999999</v>
+        <v>1.2474000000000001</v>
       </c>
       <c r="D91">
-        <v>1.25579</v>
+        <v>1.26292</v>
       </c>
       <c r="E91">
-        <v>1.2432300000000001</v>
+        <v>1.2450000000000001</v>
       </c>
       <c r="F91">
-        <v>1.2479800000000001</v>
+        <v>1.2628900000000001</v>
       </c>
       <c r="H91">
         <f t="shared" si="1"/>
-        <v>1.5060000000000073</v>
+        <v>1.2559999999999905</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="21" customHeight="1">
@@ -2839,23 +2840,23 @@
         <v>7</v>
       </c>
       <c r="B92" s="8">
-        <v>41548</v>
+        <v>41555</v>
       </c>
       <c r="C92">
-        <v>1.24715</v>
+        <v>1.2534799999999999</v>
       </c>
       <c r="D92">
-        <v>1.25987</v>
+        <v>1.25579</v>
       </c>
       <c r="E92">
-        <v>1.24481</v>
+        <v>1.2432300000000001</v>
       </c>
       <c r="F92">
-        <v>1.25387</v>
+        <v>1.2479800000000001</v>
       </c>
       <c r="H92">
         <f t="shared" si="1"/>
-        <v>2.1949999999999914</v>
+        <v>1.5060000000000073</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="21" customHeight="1">
@@ -2863,23 +2864,23 @@
         <v>7</v>
       </c>
       <c r="B93" s="8">
-        <v>41541</v>
+        <v>41548</v>
       </c>
       <c r="C93">
-        <v>1.23353</v>
+        <v>1.24715</v>
       </c>
       <c r="D93">
-        <v>1.2531699999999999</v>
+        <v>1.25987</v>
       </c>
       <c r="E93">
-        <v>1.23122</v>
+        <v>1.24481</v>
       </c>
       <c r="F93">
-        <v>1.24793</v>
+        <v>1.25387</v>
       </c>
       <c r="H93">
         <f t="shared" si="1"/>
-        <v>2.1889999999999965</v>
+        <v>2.1949999999999914</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="21" customHeight="1">
@@ -2887,23 +2888,23 @@
         <v>7</v>
       </c>
       <c r="B94" s="8">
-        <v>41534</v>
+        <v>41541</v>
       </c>
       <c r="C94">
-        <v>1.2192499999999999</v>
+        <v>1.23353</v>
       </c>
       <c r="D94">
-        <v>1.23898</v>
+        <v>1.2531699999999999</v>
       </c>
       <c r="E94">
-        <v>1.21709</v>
+        <v>1.23122</v>
       </c>
       <c r="F94">
-        <v>1.2339500000000001</v>
+        <v>1.24793</v>
       </c>
       <c r="H94">
         <f t="shared" si="1"/>
-        <v>1.5670000000000073</v>
+        <v>2.1889999999999965</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="21" customHeight="1">
@@ -2911,23 +2912,23 @@
         <v>7</v>
       </c>
       <c r="B95" s="8">
-        <v>41527</v>
+        <v>41534</v>
       </c>
       <c r="C95">
-        <v>1.214</v>
+        <v>1.2192499999999999</v>
       </c>
       <c r="D95">
-        <v>1.2238500000000001</v>
+        <v>1.23898</v>
       </c>
       <c r="E95">
-        <v>1.20818</v>
+        <v>1.21709</v>
       </c>
       <c r="F95">
-        <v>1.21889</v>
+        <v>1.2339500000000001</v>
       </c>
       <c r="H95">
         <f t="shared" si="1"/>
-        <v>3.6470000000000002</v>
+        <v>1.5670000000000073</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="21" customHeight="1">
@@ -2935,23 +2936,23 @@
         <v>7</v>
       </c>
       <c r="B96" s="8">
-        <v>41520</v>
+        <v>41527</v>
       </c>
       <c r="C96">
-        <v>1.24051</v>
+        <v>1.214</v>
       </c>
       <c r="D96">
-        <v>1.2425299999999999</v>
+        <v>1.2238500000000001</v>
       </c>
       <c r="E96">
-        <v>1.2060599999999999</v>
+        <v>1.20818</v>
       </c>
       <c r="F96">
-        <v>1.2146300000000001</v>
+        <v>1.21889</v>
       </c>
       <c r="H96">
         <f t="shared" si="1"/>
-        <v>3.2240000000000046</v>
+        <v>3.6470000000000002</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="21" customHeight="1">
@@ -2959,23 +2960,23 @@
         <v>7</v>
       </c>
       <c r="B97" s="8">
-        <v>41513</v>
+        <v>41520</v>
       </c>
       <c r="C97">
-        <v>1.24708</v>
+        <v>1.24051</v>
       </c>
       <c r="D97">
-        <v>1.2662</v>
+        <v>1.2425299999999999</v>
       </c>
       <c r="E97">
-        <v>1.2339599999999999</v>
+        <v>1.2060599999999999</v>
       </c>
       <c r="F97">
-        <v>1.2390699999999999</v>
+        <v>1.2146300000000001</v>
       </c>
       <c r="H97">
         <f t="shared" si="1"/>
-        <v>1.4109999999999845</v>
+        <v>3.2240000000000046</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="21" customHeight="1">
@@ -2983,23 +2984,23 @@
         <v>7</v>
       </c>
       <c r="B98" s="8">
-        <v>41506</v>
+        <v>41513</v>
       </c>
       <c r="C98">
-        <v>1.2566200000000001</v>
+        <v>1.24708</v>
       </c>
       <c r="D98">
-        <v>1.2605999999999999</v>
+        <v>1.2662</v>
       </c>
       <c r="E98">
-        <v>1.2464900000000001</v>
+        <v>1.2339599999999999</v>
       </c>
       <c r="F98">
-        <v>1.2485999999999999</v>
+        <v>1.2390699999999999</v>
       </c>
       <c r="H98">
         <f t="shared" si="1"/>
-        <v>2.2100000000000009</v>
+        <v>1.4109999999999845</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="21" customHeight="1">
@@ -3007,23 +3008,23 @@
         <v>7</v>
       </c>
       <c r="B99" s="8">
-        <v>41499</v>
+        <v>41506</v>
       </c>
       <c r="C99">
-        <v>1.26694</v>
+        <v>1.2566200000000001</v>
       </c>
       <c r="D99">
-        <v>1.2777499999999999</v>
+        <v>1.2605999999999999</v>
       </c>
       <c r="E99">
-        <v>1.2556499999999999</v>
+        <v>1.2464900000000001</v>
       </c>
       <c r="F99">
-        <v>1.25753</v>
+        <v>1.2485999999999999</v>
       </c>
       <c r="H99">
         <f t="shared" si="1"/>
-        <v>1.2309999999999821</v>
+        <v>2.2100000000000009</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="21" customHeight="1">
@@ -3031,23 +3032,23 @@
         <v>7</v>
       </c>
       <c r="B100" s="8">
-        <v>41492</v>
+        <v>41499</v>
       </c>
       <c r="C100">
-        <v>1.2649600000000001</v>
+        <v>1.26694</v>
       </c>
       <c r="D100">
-        <v>1.2751999999999999</v>
+        <v>1.2777499999999999</v>
       </c>
       <c r="E100">
-        <v>1.2628900000000001</v>
+        <v>1.2556499999999999</v>
       </c>
       <c r="F100">
-        <v>1.2680800000000001</v>
+        <v>1.25753</v>
       </c>
       <c r="H100">
         <f t="shared" si="1"/>
-        <v>2.3810000000000109</v>
+        <v>1.2309999999999821</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="21" customHeight="1">
@@ -3055,23 +3056,23 @@
         <v>7</v>
       </c>
       <c r="B101" s="8">
-        <v>41485</v>
+        <v>41492</v>
       </c>
       <c r="C101">
-        <v>1.2433099999999999</v>
+        <v>1.2649600000000001</v>
       </c>
       <c r="D101">
-        <v>1.2666900000000001</v>
+        <v>1.2751999999999999</v>
       </c>
       <c r="E101">
-        <v>1.24288</v>
+        <v>1.2628900000000001</v>
       </c>
       <c r="F101">
-        <v>1.2648299999999999</v>
+        <v>1.2680800000000001</v>
       </c>
       <c r="H101">
         <f t="shared" si="1"/>
-        <v>1.6219999999999901</v>
+        <v>2.3810000000000109</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="21" customHeight="1">
@@ -3079,23 +3080,23 @@
         <v>7</v>
       </c>
       <c r="B102" s="8">
-        <v>41478</v>
+        <v>41485</v>
       </c>
       <c r="C102">
-        <v>1.25352</v>
+        <v>1.2433099999999999</v>
       </c>
       <c r="D102">
-        <v>1.2575499999999999</v>
+        <v>1.2666900000000001</v>
       </c>
       <c r="E102">
-        <v>1.24133</v>
+        <v>1.24288</v>
       </c>
       <c r="F102">
-        <v>1.2427699999999999</v>
+        <v>1.2648299999999999</v>
       </c>
       <c r="H102">
         <f t="shared" si="1"/>
-        <v>1.790999999999987</v>
+        <v>1.6219999999999901</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="21" customHeight="1">
@@ -3103,23 +3104,23 @@
         <v>7</v>
       </c>
       <c r="B103" s="8">
-        <v>41471</v>
+        <v>41478</v>
       </c>
       <c r="C103">
-        <v>1.26423</v>
+        <v>1.25352</v>
       </c>
       <c r="D103">
-        <v>1.27006</v>
+        <v>1.2575499999999999</v>
       </c>
       <c r="E103">
-        <v>1.2521500000000001</v>
+        <v>1.24133</v>
       </c>
       <c r="F103">
-        <v>1.2537199999999999</v>
+        <v>1.2427699999999999</v>
       </c>
       <c r="H103">
         <f t="shared" si="1"/>
-        <v>2.9940000000000078</v>
+        <v>1.790999999999987</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="21" customHeight="1">
@@ -3127,23 +3128,23 @@
         <v>7</v>
       </c>
       <c r="B104" s="8">
-        <v>41464</v>
+        <v>41471</v>
       </c>
       <c r="C104">
-        <v>1.28827</v>
+        <v>1.26423</v>
       </c>
       <c r="D104">
-        <v>1.2942800000000001</v>
+        <v>1.27006</v>
       </c>
       <c r="E104">
-        <v>1.26434</v>
+        <v>1.2521500000000001</v>
       </c>
       <c r="F104">
-        <v>1.26488</v>
+        <v>1.2537199999999999</v>
       </c>
       <c r="H104">
         <f t="shared" si="1"/>
-        <v>1.5510000000000135</v>
+        <v>2.9940000000000078</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="21" customHeight="1">
@@ -3151,23 +3152,23 @@
         <v>7</v>
       </c>
       <c r="B105" s="8">
-        <v>41457</v>
+        <v>41464</v>
       </c>
       <c r="C105">
-        <v>1.2967500000000001</v>
+        <v>1.28827</v>
       </c>
       <c r="D105">
-        <v>1.30139</v>
+        <v>1.2942800000000001</v>
       </c>
       <c r="E105">
-        <v>1.2858799999999999</v>
+        <v>1.26434</v>
       </c>
       <c r="F105">
-        <v>1.2881800000000001</v>
+        <v>1.26488</v>
       </c>
       <c r="H105">
         <f t="shared" si="1"/>
-        <v>3.2250000000000112</v>
+        <v>1.5510000000000135</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="21" customHeight="1">
@@ -3175,23 +3176,23 @@
         <v>7</v>
       </c>
       <c r="B106" s="8">
-        <v>41450</v>
+        <v>41457</v>
       </c>
       <c r="C106">
-        <v>1.3265800000000001</v>
+        <v>1.2967500000000001</v>
       </c>
       <c r="D106">
-        <v>1.32681</v>
+        <v>1.30139</v>
       </c>
       <c r="E106">
-        <v>1.2945599999999999</v>
+        <v>1.2858799999999999</v>
       </c>
       <c r="F106">
-        <v>1.2966800000000001</v>
+        <v>1.2881800000000001</v>
       </c>
       <c r="H106">
         <f t="shared" si="1"/>
-        <v>1.5619999999999967</v>
+        <v>3.2250000000000112</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="21" customHeight="1">
@@ -3199,23 +3200,23 @@
         <v>7</v>
       </c>
       <c r="B107" s="8">
-        <v>41443</v>
+        <v>41450</v>
       </c>
       <c r="C107">
-        <v>1.3209299999999999</v>
+        <v>1.3265800000000001</v>
       </c>
       <c r="D107">
-        <v>1.33467</v>
+        <v>1.32681</v>
       </c>
       <c r="E107">
-        <v>1.3190500000000001</v>
+        <v>1.2945599999999999</v>
       </c>
       <c r="F107">
-        <v>1.32653</v>
+        <v>1.2966800000000001</v>
       </c>
       <c r="H107">
         <f t="shared" si="1"/>
-        <v>3.0540000000000012</v>
+        <v>1.5619999999999967</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="21" customHeight="1">
@@ -3223,23 +3224,23 @@
         <v>7</v>
       </c>
       <c r="B108" s="8">
-        <v>41436</v>
+        <v>41443</v>
       </c>
       <c r="C108">
-        <v>1.3456300000000001</v>
+        <v>1.3209299999999999</v>
       </c>
       <c r="D108">
-        <v>1.3469599999999999</v>
+        <v>1.33467</v>
       </c>
       <c r="E108">
-        <v>1.3164199999999999</v>
+        <v>1.3190500000000001</v>
       </c>
       <c r="F108">
-        <v>1.32107</v>
+        <v>1.32653</v>
       </c>
       <c r="H108">
         <f t="shared" si="1"/>
-        <v>1.0539999999999994</v>
+        <v>3.0540000000000012</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="21" customHeight="1">
@@ -3247,23 +3248,23 @@
         <v>7</v>
       </c>
       <c r="B109" s="8">
-        <v>41429</v>
+        <v>41436</v>
       </c>
       <c r="C109">
-        <v>1.34877</v>
+        <v>1.3456300000000001</v>
       </c>
       <c r="D109">
-        <v>1.3527400000000001</v>
+        <v>1.3469599999999999</v>
       </c>
       <c r="E109">
-        <v>1.3422000000000001</v>
+        <v>1.3164199999999999</v>
       </c>
       <c r="F109">
-        <v>1.3463799999999999</v>
+        <v>1.32107</v>
       </c>
       <c r="H109">
         <f t="shared" si="1"/>
-        <v>1.197999999999988</v>
+        <v>1.0539999999999994</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="21" customHeight="1">
@@ -3271,23 +3272,23 @@
         <v>7</v>
       </c>
       <c r="B110" s="8">
-        <v>41422</v>
+        <v>41429</v>
       </c>
       <c r="C110">
-        <v>1.3446800000000001</v>
+        <v>1.34877</v>
       </c>
       <c r="D110">
-        <v>1.3546499999999999</v>
+        <v>1.3527400000000001</v>
       </c>
       <c r="E110">
-        <v>1.34267</v>
+        <v>1.3422000000000001</v>
       </c>
       <c r="F110">
-        <v>1.34944</v>
+        <v>1.3463799999999999</v>
       </c>
       <c r="H110">
         <f t="shared" si="1"/>
-        <v>1.5260000000000051</v>
+        <v>1.197999999999988</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="21" customHeight="1">
@@ -3295,23 +3296,23 @@
         <v>7</v>
       </c>
       <c r="B111" s="8">
-        <v>41415</v>
+        <v>41422</v>
       </c>
       <c r="C111">
-        <v>1.3512900000000001</v>
+        <v>1.3446800000000001</v>
       </c>
       <c r="D111">
-        <v>1.35399</v>
+        <v>1.3546499999999999</v>
       </c>
       <c r="E111">
-        <v>1.33873</v>
+        <v>1.34267</v>
       </c>
       <c r="F111">
-        <v>1.34501</v>
+        <v>1.34944</v>
       </c>
       <c r="H111">
         <f t="shared" si="1"/>
-        <v>2.1209999999999951</v>
+        <v>1.5260000000000051</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="21" customHeight="1">
@@ -3319,23 +3320,23 @@
         <v>7</v>
       </c>
       <c r="B112" s="8">
-        <v>41408</v>
+        <v>41415</v>
       </c>
       <c r="C112">
-        <v>1.37039</v>
+        <v>1.3512900000000001</v>
       </c>
       <c r="D112">
-        <v>1.37218</v>
+        <v>1.35399</v>
       </c>
       <c r="E112">
-        <v>1.35097</v>
+        <v>1.33873</v>
       </c>
       <c r="F112">
-        <v>1.35117</v>
+        <v>1.34501</v>
       </c>
       <c r="H112">
         <f t="shared" si="1"/>
-        <v>1.2660000000000116</v>
+        <v>2.1209999999999951</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="21" customHeight="1">
@@ -3343,23 +3344,23 @@
         <v>7</v>
       </c>
       <c r="B113" s="8">
-        <v>41401</v>
+        <v>41408</v>
       </c>
       <c r="C113">
-        <v>1.36582</v>
+        <v>1.37039</v>
       </c>
       <c r="D113">
-        <v>1.3769400000000001</v>
+        <v>1.37218</v>
       </c>
       <c r="E113">
-        <v>1.3642799999999999</v>
+        <v>1.35097</v>
       </c>
       <c r="F113">
-        <v>1.37107</v>
+        <v>1.35117</v>
       </c>
       <c r="H113">
         <f t="shared" si="1"/>
-        <v>1.5640000000000098</v>
+        <v>1.2660000000000116</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="21" customHeight="1">
@@ -3367,23 +3368,23 @@
         <v>7</v>
       </c>
       <c r="B114" s="8">
-        <v>41394</v>
+        <v>41401</v>
       </c>
       <c r="C114">
-        <v>1.3648400000000001</v>
+        <v>1.36582</v>
       </c>
       <c r="D114">
-        <v>1.37927</v>
+        <v>1.3769400000000001</v>
       </c>
       <c r="E114">
-        <v>1.3636299999999999</v>
+        <v>1.3642799999999999</v>
       </c>
       <c r="F114">
-        <v>1.36497</v>
+        <v>1.37107</v>
       </c>
       <c r="H114">
         <f t="shared" si="1"/>
-        <v>2.8610000000000024</v>
+        <v>1.5640000000000098</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="21" customHeight="1">
@@ -3391,23 +3392,23 @@
         <v>7</v>
       </c>
       <c r="B115" s="8">
-        <v>41387</v>
+        <v>41394</v>
       </c>
       <c r="C115">
-        <v>1.3470500000000001</v>
+        <v>1.3648400000000001</v>
       </c>
       <c r="D115">
-        <v>1.3695999999999999</v>
+        <v>1.37927</v>
       </c>
       <c r="E115">
-        <v>1.3409899999999999</v>
+        <v>1.3636299999999999</v>
       </c>
       <c r="F115">
-        <v>1.3648199999999999</v>
+        <v>1.36497</v>
       </c>
       <c r="H115">
         <f t="shared" si="1"/>
-        <v>2.625999999999995</v>
+        <v>2.8610000000000024</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="21" customHeight="1">
@@ -3415,23 +3416,23 @@
         <v>7</v>
       </c>
       <c r="B116" s="8">
-        <v>41380</v>
+        <v>41387</v>
       </c>
       <c r="C116">
-        <v>1.3315699999999999</v>
+        <v>1.3470500000000001</v>
       </c>
       <c r="D116">
-        <v>1.35242</v>
+        <v>1.3695999999999999</v>
       </c>
       <c r="E116">
-        <v>1.32616</v>
+        <v>1.3409899999999999</v>
       </c>
       <c r="F116">
-        <v>1.3494999999999999</v>
+        <v>1.3648199999999999</v>
       </c>
       <c r="H116">
         <f t="shared" si="1"/>
-        <v>2.0289999999999919</v>
+        <v>2.625999999999995</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="21" customHeight="1">
@@ -3439,23 +3440,23 @@
         <v>7</v>
       </c>
       <c r="B117" s="8">
-        <v>41373</v>
+        <v>41380</v>
       </c>
       <c r="C117">
-        <v>1.34013</v>
+        <v>1.3315699999999999</v>
       </c>
       <c r="D117">
-        <v>1.34256</v>
+        <v>1.35242</v>
       </c>
       <c r="E117">
-        <v>1.3222700000000001</v>
+        <v>1.32616</v>
       </c>
       <c r="F117">
-        <v>1.3324</v>
+        <v>1.3494999999999999</v>
       </c>
       <c r="H117">
         <f t="shared" si="1"/>
-        <v>1.540000000000008</v>
+        <v>2.0289999999999919</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="21" customHeight="1">
@@ -3463,23 +3464,23 @@
         <v>7</v>
       </c>
       <c r="B118" s="8">
-        <v>41366</v>
+        <v>41373</v>
       </c>
       <c r="C118">
-        <v>1.33009</v>
+        <v>1.34013</v>
       </c>
       <c r="D118">
-        <v>1.3454900000000001</v>
+        <v>1.34256</v>
       </c>
       <c r="E118">
-        <v>1.33009</v>
+        <v>1.3222700000000001</v>
       </c>
       <c r="F118">
-        <v>1.34029</v>
+        <v>1.3324</v>
       </c>
       <c r="H118">
         <f t="shared" si="1"/>
-        <v>1.368999999999998</v>
+        <v>1.540000000000008</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="21" customHeight="1">
@@ -3487,23 +3488,23 @@
         <v>7</v>
       </c>
       <c r="B119" s="8">
-        <v>41359</v>
+        <v>41366</v>
       </c>
       <c r="C119">
-        <v>1.3349</v>
+        <v>1.33009</v>
       </c>
       <c r="D119">
-        <v>1.34138</v>
+        <v>1.3454900000000001</v>
       </c>
       <c r="E119">
-        <v>1.32769</v>
+        <v>1.33009</v>
       </c>
       <c r="F119">
-        <v>1.3309800000000001</v>
+        <v>1.34029</v>
       </c>
       <c r="H119">
         <f t="shared" si="1"/>
-        <v>1.4559999999999906</v>
+        <v>1.368999999999998</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="21" customHeight="1">
@@ -3511,23 +3512,23 @@
         <v>7</v>
       </c>
       <c r="B120" s="8">
-        <v>41352</v>
+        <v>41359</v>
       </c>
       <c r="C120">
-        <v>1.33365</v>
+        <v>1.3349</v>
       </c>
       <c r="D120">
-        <v>1.3408599999999999</v>
+        <v>1.34138</v>
       </c>
       <c r="E120">
-        <v>1.3263</v>
+        <v>1.32769</v>
       </c>
       <c r="F120">
-        <v>1.33666</v>
+        <v>1.3309800000000001</v>
       </c>
       <c r="H120">
         <f t="shared" si="1"/>
-        <v>2.18799999999999</v>
+        <v>1.4559999999999906</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="21" customHeight="1">
@@ -3535,23 +3536,23 @@
         <v>7</v>
       </c>
       <c r="B121" s="8">
-        <v>41345</v>
+        <v>41352</v>
       </c>
       <c r="C121">
-        <v>1.3451500000000001</v>
+        <v>1.33365</v>
       </c>
       <c r="D121">
-        <v>1.34944</v>
+        <v>1.3408599999999999</v>
       </c>
       <c r="E121">
-        <v>1.3275600000000001</v>
+        <v>1.3263</v>
       </c>
       <c r="F121">
-        <v>1.3344199999999999</v>
+        <v>1.33666</v>
       </c>
       <c r="H121">
         <f t="shared" si="1"/>
-        <v>1.6310000000000047</v>
+        <v>2.18799999999999</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="21" customHeight="1">
@@ -3559,23 +3560,23 @@
         <v>7</v>
       </c>
       <c r="B122" s="8">
-        <v>41338</v>
+        <v>41345</v>
       </c>
       <c r="C122">
-        <v>1.3374999999999999</v>
+        <v>1.3451500000000001</v>
       </c>
       <c r="D122">
-        <v>1.35345</v>
+        <v>1.34944</v>
       </c>
       <c r="E122">
-        <v>1.33714</v>
+        <v>1.3275600000000001</v>
       </c>
       <c r="F122">
-        <v>1.34632</v>
+        <v>1.3344199999999999</v>
       </c>
       <c r="H122">
         <f t="shared" si="1"/>
-        <v>3.5390000000000033</v>
+        <v>1.6310000000000047</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="21" customHeight="1">
@@ -3583,23 +3584,23 @@
         <v>7</v>
       </c>
       <c r="B123" s="8">
-        <v>41331</v>
+        <v>41338</v>
       </c>
       <c r="C123">
-        <v>1.30955</v>
+        <v>1.3374999999999999</v>
       </c>
       <c r="D123">
-        <v>1.34368</v>
+        <v>1.35345</v>
       </c>
       <c r="E123">
-        <v>1.30829</v>
+        <v>1.33714</v>
       </c>
       <c r="F123">
-        <v>1.3375999999999999</v>
+        <v>1.34632</v>
       </c>
       <c r="H123">
         <f t="shared" si="1"/>
-        <v>1.5969999999999818</v>
+        <v>3.5390000000000033</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="21" customHeight="1">
@@ -3607,23 +3608,23 @@
         <v>7</v>
       </c>
       <c r="B124" s="8">
-        <v>41324</v>
+        <v>41331</v>
       </c>
       <c r="C124">
-        <v>1.30985</v>
+        <v>1.30955</v>
       </c>
       <c r="D124">
-        <v>1.3208899999999999</v>
+        <v>1.34368</v>
       </c>
       <c r="E124">
-        <v>1.3049200000000001</v>
+        <v>1.30829</v>
       </c>
       <c r="F124">
-        <v>1.3103100000000001</v>
+        <v>1.3375999999999999</v>
       </c>
       <c r="H124">
         <f t="shared" si="1"/>
-        <v>1.1720000000000175</v>
+        <v>1.5969999999999818</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="21" customHeight="1">
@@ -3631,23 +3632,23 @@
         <v>7</v>
       </c>
       <c r="B125" s="8">
-        <v>41317</v>
+        <v>41324</v>
       </c>
       <c r="C125">
-        <v>1.3083499999999999</v>
+        <v>1.30985</v>
       </c>
       <c r="D125">
-        <v>1.3125800000000001</v>
+        <v>1.3208899999999999</v>
       </c>
       <c r="E125">
-        <v>1.3008599999999999</v>
+        <v>1.3049200000000001</v>
       </c>
       <c r="F125">
-        <v>1.3090999999999999</v>
+        <v>1.3103100000000001</v>
       </c>
       <c r="H125">
         <f t="shared" si="1"/>
-        <v>2.0499999999999963</v>
+        <v>1.1720000000000175</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="21" customHeight="1">
@@ -3655,23 +3656,23 @@
         <v>7</v>
       </c>
       <c r="B126" s="8">
-        <v>41310</v>
+        <v>41317</v>
       </c>
       <c r="C126">
-        <v>1.3022899999999999</v>
+        <v>1.3083499999999999</v>
       </c>
       <c r="D126">
-        <v>1.3211299999999999</v>
+        <v>1.3125800000000001</v>
       </c>
       <c r="E126">
-        <v>1.30063</v>
+        <v>1.3008599999999999</v>
       </c>
       <c r="F126">
-        <v>1.30915</v>
+        <v>1.3090999999999999</v>
       </c>
       <c r="H126">
         <f t="shared" si="1"/>
-        <v>2.0199999999999996</v>
+        <v>2.0499999999999963</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="21" customHeight="1">
@@ -3679,23 +3680,23 @@
         <v>7</v>
       </c>
       <c r="B127" s="8">
-        <v>41303</v>
+        <v>41310</v>
       </c>
       <c r="C127">
-        <v>1.31315</v>
+        <v>1.3022899999999999</v>
       </c>
       <c r="D127">
-        <v>1.3168299999999999</v>
+        <v>1.3211299999999999</v>
       </c>
       <c r="E127">
-        <v>1.2966299999999999</v>
+        <v>1.30063</v>
       </c>
       <c r="F127">
-        <v>1.30341</v>
+        <v>1.30915</v>
       </c>
       <c r="H127">
         <f t="shared" si="1"/>
-        <v>2.8129999999999988</v>
+        <v>2.0199999999999996</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="21" customHeight="1">
@@ -3703,23 +3704,23 @@
         <v>7</v>
       </c>
       <c r="B128" s="8">
-        <v>41296</v>
+        <v>41303</v>
       </c>
       <c r="C128">
-        <v>1.33175</v>
+        <v>1.31315</v>
       </c>
       <c r="D128">
-        <v>1.33342</v>
+        <v>1.3168299999999999</v>
       </c>
       <c r="E128">
-        <v>1.3052900000000001</v>
+        <v>1.2966299999999999</v>
       </c>
       <c r="F128">
-        <v>1.3147200000000001</v>
+        <v>1.30341</v>
       </c>
       <c r="H128">
         <f t="shared" si="1"/>
-        <v>3.6869999999999958</v>
+        <v>2.8129999999999988</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="21" customHeight="1">
@@ -3727,23 +3728,23 @@
         <v>7</v>
       </c>
       <c r="B129" s="8">
-        <v>41289</v>
+        <v>41296</v>
       </c>
       <c r="C129">
-        <v>1.31267</v>
+        <v>1.33175</v>
       </c>
       <c r="D129">
-        <v>1.3386899999999999</v>
+        <v>1.33342</v>
       </c>
       <c r="E129">
-        <v>1.30182</v>
+        <v>1.3052900000000001</v>
       </c>
       <c r="F129">
-        <v>1.3317399999999999</v>
+        <v>1.3147200000000001</v>
       </c>
       <c r="H129">
         <f t="shared" si="1"/>
-        <v>2.6440000000000019</v>
+        <v>3.6869999999999958</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="21" customHeight="1">
@@ -3751,23 +3752,23 @@
         <v>7</v>
       </c>
       <c r="B130" s="8">
-        <v>41282</v>
+        <v>41289</v>
       </c>
       <c r="C130">
-        <v>1.3246</v>
+        <v>1.31267</v>
       </c>
       <c r="D130">
-        <v>1.32935</v>
+        <v>1.3386899999999999</v>
       </c>
       <c r="E130">
-        <v>1.30291</v>
+        <v>1.30182</v>
       </c>
       <c r="F130">
-        <v>1.31246</v>
+        <v>1.3317399999999999</v>
       </c>
       <c r="H130">
         <f t="shared" ref="H130:H193" si="2">ABS(D131-E131)*100</f>
-        <v>2.8329999999999966</v>
+        <v>2.6440000000000019</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="21" customHeight="1">
@@ -3775,23 +3776,23 @@
         <v>7</v>
       </c>
       <c r="B131" s="8">
-        <v>41275</v>
+        <v>41282</v>
       </c>
       <c r="C131">
-        <v>1.3435999999999999</v>
+        <v>1.3246</v>
       </c>
       <c r="D131">
-        <v>1.34602</v>
+        <v>1.32935</v>
       </c>
       <c r="E131">
-        <v>1.31769</v>
+        <v>1.30291</v>
       </c>
       <c r="F131">
-        <v>1.3233200000000001</v>
+        <v>1.31246</v>
       </c>
       <c r="H131">
         <f t="shared" si="2"/>
-        <v>1.9720000000000182</v>
+        <v>2.8329999999999966</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="21" customHeight="1">
@@ -3799,23 +3800,23 @@
         <v>7</v>
       </c>
       <c r="B132" s="8">
-        <v>41268</v>
+        <v>41275</v>
       </c>
       <c r="C132">
-        <v>1.3516300000000001</v>
+        <v>1.3435999999999999</v>
       </c>
       <c r="D132">
-        <v>1.3597600000000001</v>
+        <v>1.34602</v>
       </c>
       <c r="E132">
-        <v>1.3400399999999999</v>
+        <v>1.31769</v>
       </c>
       <c r="F132">
-        <v>1.34311</v>
+        <v>1.3233200000000001</v>
       </c>
       <c r="H132">
         <f t="shared" si="2"/>
-        <v>2.3949999999999916</v>
+        <v>1.9720000000000182</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="21" customHeight="1">
@@ -3823,23 +3824,23 @@
         <v>7</v>
       </c>
       <c r="B133" s="8">
-        <v>41261</v>
+        <v>41268</v>
       </c>
       <c r="C133">
-        <v>1.33335</v>
+        <v>1.3516300000000001</v>
       </c>
       <c r="D133">
-        <v>1.35564</v>
+        <v>1.3597600000000001</v>
       </c>
       <c r="E133">
-        <v>1.33169</v>
+        <v>1.3400399999999999</v>
       </c>
       <c r="F133">
-        <v>1.35287</v>
+        <v>1.34311</v>
       </c>
       <c r="H133">
         <f t="shared" si="2"/>
-        <v>3.3930000000000016</v>
+        <v>2.3949999999999916</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="21" customHeight="1">
@@ -3847,23 +3848,23 @@
         <v>7</v>
       </c>
       <c r="B134" s="8">
-        <v>41254</v>
+        <v>41261</v>
       </c>
       <c r="C134">
-        <v>1.31375</v>
+        <v>1.33335</v>
       </c>
       <c r="D134">
-        <v>1.34165</v>
+        <v>1.35564</v>
       </c>
       <c r="E134">
-        <v>1.30772</v>
+        <v>1.33169</v>
       </c>
       <c r="F134">
-        <v>1.3332599999999999</v>
+        <v>1.35287</v>
       </c>
       <c r="H134">
         <f t="shared" si="2"/>
-        <v>2.0289999999999919</v>
+        <v>3.3930000000000016</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="21" customHeight="1">
@@ -3871,23 +3872,23 @@
         <v>7</v>
       </c>
       <c r="B135" s="8">
-        <v>41247</v>
+        <v>41254</v>
       </c>
       <c r="C135">
-        <v>1.3288500000000001</v>
+        <v>1.31375</v>
       </c>
       <c r="D135">
-        <v>1.3354699999999999</v>
+        <v>1.34165</v>
       </c>
       <c r="E135">
-        <v>1.31518</v>
+        <v>1.30772</v>
       </c>
       <c r="F135">
-        <v>1.3176600000000001</v>
+        <v>1.3332599999999999</v>
       </c>
       <c r="H135">
         <f t="shared" si="2"/>
-        <v>2.8239999999999821</v>
+        <v>2.0289999999999919</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="21" customHeight="1">
@@ -3895,23 +3896,23 @@
         <v>7</v>
       </c>
       <c r="B136" s="8">
-        <v>41240</v>
+        <v>41247</v>
       </c>
       <c r="C136">
-        <v>1.3494299999999999</v>
+        <v>1.3288500000000001</v>
       </c>
       <c r="D136">
-        <v>1.3536999999999999</v>
+        <v>1.3354699999999999</v>
       </c>
       <c r="E136">
-        <v>1.3254600000000001</v>
+        <v>1.31518</v>
       </c>
       <c r="F136">
-        <v>1.3289800000000001</v>
+        <v>1.3176600000000001</v>
       </c>
       <c r="H136">
         <f t="shared" si="2"/>
-        <v>1.5770000000000062</v>
+        <v>2.8239999999999821</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="21" customHeight="1">
@@ -3919,23 +3920,23 @@
         <v>7</v>
       </c>
       <c r="B137" s="8">
-        <v>41233</v>
+        <v>41240</v>
       </c>
       <c r="C137">
-        <v>1.3487499999999999</v>
+        <v>1.3494299999999999</v>
       </c>
       <c r="D137">
-        <v>1.35348</v>
+        <v>1.3536999999999999</v>
       </c>
       <c r="E137">
-        <v>1.33771</v>
+        <v>1.3254600000000001</v>
       </c>
       <c r="F137">
-        <v>1.35223</v>
+        <v>1.3289800000000001</v>
       </c>
       <c r="H137">
         <f t="shared" si="2"/>
-        <v>1.8860000000000099</v>
+        <v>1.5770000000000062</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="21" customHeight="1">
@@ -3943,23 +3944,23 @@
         <v>7</v>
       </c>
       <c r="B138" s="8">
-        <v>41226</v>
+        <v>41233</v>
       </c>
       <c r="C138">
-        <v>1.3496900000000001</v>
+        <v>1.3487499999999999</v>
       </c>
       <c r="D138">
-        <v>1.35877</v>
+        <v>1.35348</v>
       </c>
       <c r="E138">
-        <v>1.3399099999999999</v>
+        <v>1.33771</v>
       </c>
       <c r="F138">
-        <v>1.35094</v>
+        <v>1.35223</v>
       </c>
       <c r="H138">
         <f t="shared" si="2"/>
-        <v>2.8329999999999966</v>
+        <v>1.8860000000000099</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="21" customHeight="1">
@@ -3967,23 +3968,23 @@
         <v>7</v>
       </c>
       <c r="B139" s="8">
-        <v>41219</v>
+        <v>41226</v>
       </c>
       <c r="C139">
-        <v>1.33352</v>
+        <v>1.3496900000000001</v>
       </c>
       <c r="D139">
-        <v>1.3547400000000001</v>
+        <v>1.35877</v>
       </c>
       <c r="E139">
-        <v>1.3264100000000001</v>
+        <v>1.3399099999999999</v>
       </c>
       <c r="F139">
-        <v>1.35368</v>
+        <v>1.35094</v>
       </c>
       <c r="H139">
         <f t="shared" si="2"/>
-        <v>1.1239999999999917</v>
+        <v>2.8329999999999966</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="21" customHeight="1">
@@ -3991,23 +3992,23 @@
         <v>7</v>
       </c>
       <c r="B140" s="8">
-        <v>41212</v>
+        <v>41219</v>
       </c>
       <c r="C140">
-        <v>1.3406199999999999</v>
+        <v>1.33352</v>
       </c>
       <c r="D140">
-        <v>1.34649</v>
+        <v>1.3547400000000001</v>
       </c>
       <c r="E140">
-        <v>1.33525</v>
+        <v>1.3264100000000001</v>
       </c>
       <c r="F140">
-        <v>1.34023</v>
+        <v>1.35368</v>
       </c>
       <c r="H140">
         <f t="shared" si="2"/>
-        <v>1.5549999999999953</v>
+        <v>1.1239999999999917</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="21" customHeight="1">
@@ -4015,23 +4016,23 @@
         <v>7</v>
       </c>
       <c r="B141" s="8">
-        <v>41205</v>
+        <v>41212</v>
       </c>
       <c r="C141">
-        <v>1.3339700000000001</v>
+        <v>1.3406199999999999</v>
       </c>
       <c r="D141">
-        <v>1.3432500000000001</v>
+        <v>1.34649</v>
       </c>
       <c r="E141">
-        <v>1.3277000000000001</v>
+        <v>1.33525</v>
       </c>
       <c r="F141">
-        <v>1.3388199999999999</v>
+        <v>1.34023</v>
       </c>
       <c r="H141">
         <f t="shared" si="2"/>
-        <v>3.4850000000000048</v>
+        <v>1.5549999999999953</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="21" customHeight="1">
@@ -4039,23 +4040,23 @@
         <v>7</v>
       </c>
       <c r="B142" s="8">
-        <v>41198</v>
+        <v>41205</v>
       </c>
       <c r="C142">
-        <v>1.3134399999999999</v>
+        <v>1.3339700000000001</v>
       </c>
       <c r="D142">
-        <v>1.33538</v>
+        <v>1.3432500000000001</v>
       </c>
       <c r="E142">
-        <v>1.30053</v>
+        <v>1.3277000000000001</v>
       </c>
       <c r="F142">
-        <v>1.33297</v>
+        <v>1.3388199999999999</v>
       </c>
       <c r="H142">
         <f t="shared" si="2"/>
-        <v>2.0429999999999948</v>
+        <v>3.4850000000000048</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="21" customHeight="1">
@@ -4063,23 +4064,23 @@
         <v>7</v>
       </c>
       <c r="B143" s="8">
-        <v>41191</v>
+        <v>41198</v>
       </c>
       <c r="C143">
-        <v>1.325</v>
+        <v>1.3134399999999999</v>
       </c>
       <c r="D143">
-        <v>1.3306199999999999</v>
+        <v>1.33538</v>
       </c>
       <c r="E143">
-        <v>1.31019</v>
+        <v>1.30053</v>
       </c>
       <c r="F143">
-        <v>1.3140000000000001</v>
+        <v>1.33297</v>
       </c>
       <c r="H143">
         <f t="shared" si="2"/>
-        <v>2.4540000000000006</v>
+        <v>2.0429999999999948</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="21" customHeight="1">
@@ -4087,23 +4088,23 @@
         <v>7</v>
       </c>
       <c r="B144" s="8">
-        <v>41184</v>
+        <v>41191</v>
       </c>
       <c r="C144">
-        <v>1.31182</v>
+        <v>1.325</v>
       </c>
       <c r="D144">
-        <v>1.3312600000000001</v>
+        <v>1.3306199999999999</v>
       </c>
       <c r="E144">
-        <v>1.3067200000000001</v>
+        <v>1.31019</v>
       </c>
       <c r="F144">
-        <v>1.32785</v>
+        <v>1.3140000000000001</v>
       </c>
       <c r="H144">
         <f t="shared" si="2"/>
-        <v>2.3290000000000033</v>
+        <v>2.4540000000000006</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="21" customHeight="1">
@@ -4111,23 +4112,23 @@
         <v>7</v>
       </c>
       <c r="B145" s="8">
-        <v>41177</v>
+        <v>41184</v>
       </c>
       <c r="C145">
-        <v>1.3166899999999999</v>
+        <v>1.31182</v>
       </c>
       <c r="D145">
-        <v>1.3280400000000001</v>
+        <v>1.3312600000000001</v>
       </c>
       <c r="E145">
-        <v>1.3047500000000001</v>
+        <v>1.3067200000000001</v>
       </c>
       <c r="F145">
-        <v>1.3119499999999999</v>
+        <v>1.32785</v>
       </c>
       <c r="H145">
         <f t="shared" si="2"/>
-        <v>2.4359999999999937</v>
+        <v>2.3290000000000033</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="21" customHeight="1">
@@ -4135,23 +4136,23 @@
         <v>7</v>
       </c>
       <c r="B146" s="8">
-        <v>41170</v>
+        <v>41177</v>
       </c>
       <c r="C146">
-        <v>1.3212200000000001</v>
+        <v>1.3166899999999999</v>
       </c>
       <c r="D146">
-        <v>1.32423</v>
+        <v>1.3280400000000001</v>
       </c>
       <c r="E146">
-        <v>1.2998700000000001</v>
+        <v>1.3047500000000001</v>
       </c>
       <c r="F146">
-        <v>1.3163800000000001</v>
+        <v>1.3119499999999999</v>
       </c>
       <c r="H146">
         <f t="shared" si="2"/>
-        <v>2.1830000000000016</v>
+        <v>2.4359999999999937</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="21" customHeight="1">
@@ -4159,23 +4160,23 @@
         <v>7</v>
       </c>
       <c r="B147" s="8">
-        <v>41163</v>
+        <v>41170</v>
       </c>
       <c r="C147">
-        <v>1.3038400000000001</v>
+        <v>1.3212200000000001</v>
       </c>
       <c r="D147">
-        <v>1.32473</v>
+        <v>1.32423</v>
       </c>
       <c r="E147">
-        <v>1.3028999999999999</v>
+        <v>1.2998700000000001</v>
       </c>
       <c r="F147">
-        <v>1.3216300000000001</v>
+        <v>1.3163800000000001</v>
       </c>
       <c r="H147">
         <f t="shared" si="2"/>
-        <v>2.3839999999999861</v>
+        <v>2.1830000000000016</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="21" customHeight="1">
@@ -4183,23 +4184,23 @@
         <v>7</v>
       </c>
       <c r="B148" s="8">
-        <v>41156</v>
+        <v>41163</v>
       </c>
       <c r="C148">
-        <v>1.2983499999999999</v>
+        <v>1.3038400000000001</v>
       </c>
       <c r="D148">
-        <v>1.3052299999999999</v>
+        <v>1.32473</v>
       </c>
       <c r="E148">
-        <v>1.28139</v>
+        <v>1.3028999999999999</v>
       </c>
       <c r="F148">
-        <v>1.30322</v>
+        <v>1.3216300000000001</v>
       </c>
       <c r="H148">
         <f t="shared" si="2"/>
-        <v>1.656000000000013</v>
+        <v>2.3839999999999861</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="21" customHeight="1">
@@ -4207,23 +4208,23 @@
         <v>7</v>
       </c>
       <c r="B149" s="8">
-        <v>41149</v>
+        <v>41156</v>
       </c>
       <c r="C149">
-        <v>1.3002400000000001</v>
+        <v>1.2983499999999999</v>
       </c>
       <c r="D149">
-        <v>1.3147200000000001</v>
+        <v>1.3052299999999999</v>
       </c>
       <c r="E149">
-        <v>1.29816</v>
+        <v>1.28139</v>
       </c>
       <c r="F149">
-        <v>1.2986899999999999</v>
+        <v>1.30322</v>
       </c>
       <c r="H149">
         <f t="shared" si="2"/>
-        <v>1.8000000000000016</v>
+        <v>1.656000000000013</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="21" customHeight="1">
@@ -4231,23 +4232,23 @@
         <v>7</v>
       </c>
       <c r="B150" s="8">
-        <v>41142</v>
+        <v>41149</v>
       </c>
       <c r="C150">
-        <v>1.28735</v>
+        <v>1.3002400000000001</v>
       </c>
       <c r="D150">
-        <v>1.3010699999999999</v>
+        <v>1.3147200000000001</v>
       </c>
       <c r="E150">
-        <v>1.2830699999999999</v>
+        <v>1.29816</v>
       </c>
       <c r="F150">
-        <v>1.29986</v>
+        <v>1.2986899999999999</v>
       </c>
       <c r="H150">
         <f t="shared" si="2"/>
-        <v>2.1150000000000002</v>
+        <v>1.8000000000000016</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="21" customHeight="1">
@@ -4255,23 +4256,23 @@
         <v>7</v>
       </c>
       <c r="B151" s="8">
-        <v>41135</v>
+        <v>41142</v>
       </c>
       <c r="C151">
-        <v>1.29521</v>
+        <v>1.28735</v>
       </c>
       <c r="D151">
-        <v>1.29748</v>
+        <v>1.3010699999999999</v>
       </c>
       <c r="E151">
-        <v>1.27633</v>
+        <v>1.2830699999999999</v>
       </c>
       <c r="F151">
-        <v>1.2862199999999999</v>
+        <v>1.29986</v>
       </c>
       <c r="H151">
         <f t="shared" si="2"/>
-        <v>2.6540000000000008</v>
+        <v>2.1150000000000002</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="21" customHeight="1">
@@ -4279,23 +4280,23 @@
         <v>7</v>
       </c>
       <c r="B152" s="8">
-        <v>41128</v>
+        <v>41135</v>
       </c>
       <c r="C152">
-        <v>1.3178000000000001</v>
+        <v>1.29521</v>
       </c>
       <c r="D152">
-        <v>1.31891</v>
+        <v>1.29748</v>
       </c>
       <c r="E152">
-        <v>1.29237</v>
+        <v>1.27633</v>
       </c>
       <c r="F152">
-        <v>1.29616</v>
+        <v>1.2862199999999999</v>
       </c>
       <c r="H152">
         <f t="shared" si="2"/>
-        <v>2.0369999999999999</v>
+        <v>2.6540000000000008</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="21" customHeight="1">
@@ -4303,23 +4304,23 @@
         <v>7</v>
       </c>
       <c r="B153" s="8">
-        <v>41121</v>
+        <v>41128</v>
       </c>
       <c r="C153">
-        <v>1.30314</v>
+        <v>1.3178000000000001</v>
       </c>
       <c r="D153">
-        <v>1.31996</v>
+        <v>1.31891</v>
       </c>
       <c r="E153">
-        <v>1.29959</v>
+        <v>1.29237</v>
       </c>
       <c r="F153">
-        <v>1.31772</v>
+        <v>1.29616</v>
       </c>
       <c r="H153">
         <f t="shared" si="2"/>
-        <v>2.4779999999999802</v>
+        <v>2.0369999999999999</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="21" customHeight="1">
@@ -4327,23 +4328,23 @@
         <v>7</v>
       </c>
       <c r="B154" s="8">
-        <v>41114</v>
+        <v>41121</v>
       </c>
       <c r="C154">
-        <v>1.31389</v>
+        <v>1.30314</v>
       </c>
       <c r="D154">
-        <v>1.3248899999999999</v>
+        <v>1.31996</v>
       </c>
       <c r="E154">
-        <v>1.3001100000000001</v>
+        <v>1.29959</v>
       </c>
       <c r="F154">
-        <v>1.30315</v>
+        <v>1.31772</v>
       </c>
       <c r="H154">
         <f t="shared" si="2"/>
-        <v>2.583000000000002</v>
+        <v>2.4779999999999802</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="21" customHeight="1">
@@ -4351,23 +4352,23 @@
         <v>7</v>
       </c>
       <c r="B155" s="8">
-        <v>41107</v>
+        <v>41114</v>
       </c>
       <c r="C155">
-        <v>1.2942400000000001</v>
+        <v>1.31389</v>
       </c>
       <c r="D155">
-        <v>1.31847</v>
+        <v>1.3248899999999999</v>
       </c>
       <c r="E155">
-        <v>1.29264</v>
+        <v>1.3001100000000001</v>
       </c>
       <c r="F155">
-        <v>1.31369</v>
+        <v>1.30315</v>
       </c>
       <c r="H155">
         <f t="shared" si="2"/>
-        <v>2.8639999999999999</v>
+        <v>2.583000000000002</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="21" customHeight="1">
@@ -4375,23 +4376,23 @@
         <v>7</v>
       </c>
       <c r="B156" s="8">
-        <v>41100</v>
+        <v>41107</v>
       </c>
       <c r="C156">
-        <v>1.3046</v>
+        <v>1.2942400000000001</v>
       </c>
       <c r="D156">
-        <v>1.3139099999999999</v>
+        <v>1.31847</v>
       </c>
       <c r="E156">
-        <v>1.2852699999999999</v>
+        <v>1.29264</v>
       </c>
       <c r="F156">
-        <v>1.29633</v>
+        <v>1.31369</v>
       </c>
       <c r="H156">
         <f t="shared" si="2"/>
-        <v>2.583000000000002</v>
+        <v>2.8639999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="21" customHeight="1">
@@ -4399,23 +4400,23 @@
         <v>7</v>
       </c>
       <c r="B157" s="8">
-        <v>41093</v>
+        <v>41100</v>
       </c>
       <c r="C157">
-        <v>1.29128</v>
+        <v>1.3046</v>
       </c>
       <c r="D157">
-        <v>1.3089200000000001</v>
+        <v>1.3139099999999999</v>
       </c>
       <c r="E157">
-        <v>1.2830900000000001</v>
+        <v>1.2852699999999999</v>
       </c>
       <c r="F157">
-        <v>1.3038700000000001</v>
+        <v>1.29633</v>
       </c>
       <c r="H157">
         <f t="shared" si="2"/>
-        <v>2.5509999999999922</v>
+        <v>2.583000000000002</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="21" customHeight="1">
@@ -4423,23 +4424,23 @@
         <v>7</v>
       </c>
       <c r="B158" s="8">
-        <v>41086</v>
+        <v>41093</v>
       </c>
       <c r="C158">
-        <v>1.30267</v>
+        <v>1.29128</v>
       </c>
       <c r="D158">
-        <v>1.31196</v>
+        <v>1.3089200000000001</v>
       </c>
       <c r="E158">
-        <v>1.2864500000000001</v>
+        <v>1.2830900000000001</v>
       </c>
       <c r="F158">
-        <v>1.29068</v>
+        <v>1.3038700000000001</v>
       </c>
       <c r="H158">
         <f t="shared" si="2"/>
-        <v>4.098999999999986</v>
+        <v>2.5509999999999922</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="21" customHeight="1">
@@ -4447,23 +4448,23 @@
         <v>7</v>
       </c>
       <c r="B159" s="8">
-        <v>41079</v>
+        <v>41086</v>
       </c>
       <c r="C159">
-        <v>1.28437</v>
+        <v>1.30267</v>
       </c>
       <c r="D159">
-        <v>1.30836</v>
+        <v>1.31196</v>
       </c>
       <c r="E159">
-        <v>1.2673700000000001</v>
+        <v>1.2864500000000001</v>
       </c>
       <c r="F159">
-        <v>1.30053</v>
+        <v>1.29068</v>
       </c>
       <c r="H159">
         <f t="shared" si="2"/>
-        <v>3.3559999999999812</v>
+        <v>4.098999999999986</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="21" customHeight="1">
@@ -4471,23 +4472,23 @@
         <v>7</v>
       </c>
       <c r="B160" s="8">
-        <v>41072</v>
+        <v>41079</v>
       </c>
       <c r="C160">
-        <v>1.2777799999999999</v>
+        <v>1.28437</v>
       </c>
       <c r="D160">
-        <v>1.3085199999999999</v>
+        <v>1.30836</v>
       </c>
       <c r="E160">
-        <v>1.2749600000000001</v>
+        <v>1.2673700000000001</v>
       </c>
       <c r="F160">
-        <v>1.28878</v>
+        <v>1.30053</v>
       </c>
       <c r="H160">
         <f t="shared" si="2"/>
-        <v>3.2789999999999875</v>
+        <v>3.3559999999999812</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="21" customHeight="1">
@@ -4495,23 +4496,23 @@
         <v>7</v>
       </c>
       <c r="B161" s="8">
-        <v>41065</v>
+        <v>41072</v>
       </c>
       <c r="C161">
-        <v>1.2937700000000001</v>
+        <v>1.2777799999999999</v>
       </c>
       <c r="D161">
-        <v>1.29819</v>
+        <v>1.3085199999999999</v>
       </c>
       <c r="E161">
-        <v>1.2654000000000001</v>
+        <v>1.2749600000000001</v>
       </c>
       <c r="F161">
-        <v>1.2758100000000001</v>
+        <v>1.28878</v>
       </c>
       <c r="H161">
         <f t="shared" si="2"/>
-        <v>2.2820000000000062</v>
+        <v>3.2789999999999875</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="21" customHeight="1">
@@ -4519,23 +4520,23 @@
         <v>7</v>
       </c>
       <c r="B162" s="8">
-        <v>41058</v>
+        <v>41065</v>
       </c>
       <c r="C162">
-        <v>1.30219</v>
+        <v>1.2937700000000001</v>
       </c>
       <c r="D162">
-        <v>1.3143100000000001</v>
+        <v>1.29819</v>
       </c>
       <c r="E162">
-        <v>1.29149</v>
+        <v>1.2654000000000001</v>
       </c>
       <c r="F162">
-        <v>1.2944599999999999</v>
+        <v>1.2758100000000001</v>
       </c>
       <c r="H162">
         <f t="shared" si="2"/>
-        <v>2.7719999999999967</v>
+        <v>2.2820000000000062</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="21" customHeight="1">
@@ -4543,23 +4544,23 @@
         <v>7</v>
       </c>
       <c r="B163" s="8">
-        <v>41051</v>
+        <v>41058</v>
       </c>
       <c r="C163">
-        <v>1.3111299999999999</v>
+        <v>1.30219</v>
       </c>
       <c r="D163">
-        <v>1.31873</v>
+        <v>1.3143100000000001</v>
       </c>
       <c r="E163">
-        <v>1.29101</v>
+        <v>1.29149</v>
       </c>
       <c r="F163">
-        <v>1.3025199999999999</v>
+        <v>1.2944599999999999</v>
       </c>
       <c r="H163">
         <f t="shared" si="2"/>
-        <v>3.2510000000000039</v>
+        <v>2.7719999999999967</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="21" customHeight="1">
@@ -4567,23 +4568,23 @@
         <v>7</v>
       </c>
       <c r="B164" s="8">
-        <v>41044</v>
+        <v>41051</v>
       </c>
       <c r="C164">
-        <v>1.2942400000000001</v>
+        <v>1.3111299999999999</v>
       </c>
       <c r="D164">
-        <v>1.31616</v>
+        <v>1.31873</v>
       </c>
       <c r="E164">
-        <v>1.28365</v>
+        <v>1.29101</v>
       </c>
       <c r="F164">
-        <v>1.31186</v>
+        <v>1.3025199999999999</v>
       </c>
       <c r="H164">
         <f t="shared" si="2"/>
-        <v>2.4399999999999977</v>
+        <v>3.2510000000000039</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="21" customHeight="1">
@@ -4591,23 +4592,23 @@
         <v>7</v>
       </c>
       <c r="B165" s="8">
-        <v>41037</v>
+        <v>41044</v>
       </c>
       <c r="C165">
-        <v>1.2926</v>
+        <v>1.2942400000000001</v>
       </c>
       <c r="D165">
-        <v>1.3014600000000001</v>
+        <v>1.31616</v>
       </c>
       <c r="E165">
-        <v>1.2770600000000001</v>
+        <v>1.28365</v>
       </c>
       <c r="F165">
-        <v>1.29315</v>
+        <v>1.31186</v>
       </c>
       <c r="H165">
         <f t="shared" si="2"/>
-        <v>4.9089999999999856</v>
+        <v>2.4399999999999977</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="21" customHeight="1">
@@ -4615,23 +4616,23 @@
         <v>7</v>
       </c>
       <c r="B166" s="8">
-        <v>41030</v>
+        <v>41037</v>
       </c>
       <c r="C166">
-        <v>1.254</v>
+        <v>1.2926</v>
       </c>
       <c r="D166">
-        <v>1.2951299999999999</v>
+        <v>1.3014600000000001</v>
       </c>
       <c r="E166">
-        <v>1.24604</v>
+        <v>1.2770600000000001</v>
       </c>
       <c r="F166">
-        <v>1.29036</v>
+        <v>1.29315</v>
       </c>
       <c r="H166">
         <f t="shared" si="2"/>
-        <v>2.1939999999999849</v>
+        <v>4.9089999999999856</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="21" customHeight="1">
@@ -4639,23 +4640,23 @@
         <v>7</v>
       </c>
       <c r="B167" s="8">
-        <v>41023</v>
+        <v>41030</v>
       </c>
       <c r="C167">
-        <v>1.26512</v>
+        <v>1.254</v>
       </c>
       <c r="D167">
-        <v>1.2716799999999999</v>
+        <v>1.2951299999999999</v>
       </c>
       <c r="E167">
-        <v>1.2497400000000001</v>
+        <v>1.24604</v>
       </c>
       <c r="F167">
-        <v>1.2543800000000001</v>
+        <v>1.29036</v>
       </c>
       <c r="H167">
         <f t="shared" si="2"/>
-        <v>3.9670000000000094</v>
+        <v>2.1939999999999849</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="21" customHeight="1">
@@ -4663,23 +4664,23 @@
         <v>7</v>
       </c>
       <c r="B168" s="8">
-        <v>41016</v>
+        <v>41023</v>
       </c>
       <c r="C168">
-        <v>1.2941199999999999</v>
+        <v>1.26512</v>
       </c>
       <c r="D168">
-        <v>1.29891</v>
+        <v>1.2716799999999999</v>
       </c>
       <c r="E168">
-        <v>1.2592399999999999</v>
+        <v>1.2497400000000001</v>
       </c>
       <c r="F168">
-        <v>1.26675</v>
+        <v>1.2543800000000001</v>
       </c>
       <c r="H168">
         <f t="shared" si="2"/>
-        <v>2.7179999999999982</v>
+        <v>3.9670000000000094</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="21" customHeight="1">
@@ -4687,23 +4688,23 @@
         <v>7</v>
       </c>
       <c r="B169" s="8">
-        <v>41009</v>
+        <v>41016</v>
       </c>
       <c r="C169">
-        <v>1.29887</v>
+        <v>1.2941199999999999</v>
       </c>
       <c r="D169">
-        <v>1.30152</v>
+        <v>1.29891</v>
       </c>
       <c r="E169">
-        <v>1.27434</v>
+        <v>1.2592399999999999</v>
       </c>
       <c r="F169">
-        <v>1.2819400000000001</v>
+        <v>1.26675</v>
       </c>
       <c r="H169">
         <f t="shared" si="2"/>
-        <v>2.6669999999999972</v>
+        <v>2.7179999999999982</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="21" customHeight="1">
@@ -4711,23 +4712,23 @@
         <v>7</v>
       </c>
       <c r="B170" s="8">
-        <v>41002</v>
+        <v>41009</v>
       </c>
       <c r="C170">
-        <v>1.30236</v>
+        <v>1.29887</v>
       </c>
       <c r="D170">
-        <v>1.32182</v>
+        <v>1.30152</v>
       </c>
       <c r="E170">
-        <v>1.29515</v>
+        <v>1.27434</v>
       </c>
       <c r="F170">
-        <v>1.2991699999999999</v>
+        <v>1.2819400000000001</v>
       </c>
       <c r="H170">
         <f t="shared" si="2"/>
-        <v>4.2849999999999833</v>
+        <v>2.6669999999999972</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="21" customHeight="1">
@@ -4735,23 +4736,23 @@
         <v>7</v>
       </c>
       <c r="B171" s="8">
-        <v>40995</v>
+        <v>41002</v>
       </c>
       <c r="C171">
-        <v>1.3275999999999999</v>
+        <v>1.30236</v>
       </c>
       <c r="D171">
-        <v>1.3284499999999999</v>
+        <v>1.32182</v>
       </c>
       <c r="E171">
-        <v>1.2856000000000001</v>
+        <v>1.29515</v>
       </c>
       <c r="F171">
-        <v>1.3021499999999999</v>
+        <v>1.2991699999999999</v>
       </c>
       <c r="H171">
         <f t="shared" si="2"/>
-        <v>2.7919999999999945</v>
+        <v>4.2849999999999833</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="21" customHeight="1">
@@ -4759,23 +4760,23 @@
         <v>7</v>
       </c>
       <c r="B172" s="8">
-        <v>40988</v>
+        <v>40995</v>
       </c>
       <c r="C172">
+        <v>1.3275999999999999</v>
+      </c>
+      <c r="D172">
+        <v>1.3284499999999999</v>
+      </c>
+      <c r="E172">
+        <v>1.2856000000000001</v>
+      </c>
+      <c r="F172">
         <v>1.3021499999999999</v>
       </c>
-      <c r="D172">
-        <v>1.3295699999999999</v>
-      </c>
-      <c r="E172">
-        <v>1.30165</v>
-      </c>
-      <c r="F172">
-        <v>1.32656</v>
-      </c>
       <c r="H172">
         <f t="shared" si="2"/>
-        <v>4.8159999999999981</v>
+        <v>2.7919999999999945</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="21" customHeight="1">
@@ -4783,23 +4784,23 @@
         <v>7</v>
       </c>
       <c r="B173" s="8">
-        <v>40981</v>
+        <v>40988</v>
       </c>
       <c r="C173">
-        <v>1.3225100000000001</v>
+        <v>1.3021499999999999</v>
       </c>
       <c r="D173">
-        <v>1.3404199999999999</v>
+        <v>1.3295699999999999</v>
       </c>
       <c r="E173">
-        <v>1.29226</v>
+        <v>1.30165</v>
       </c>
       <c r="F173">
-        <v>1.3008</v>
+        <v>1.32656</v>
       </c>
       <c r="H173">
         <f t="shared" si="2"/>
-        <v>2.784999999999993</v>
+        <v>4.8159999999999981</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="21" customHeight="1">
@@ -4807,23 +4808,23 @@
         <v>7</v>
       </c>
       <c r="B174" s="8">
-        <v>40974</v>
+        <v>40981</v>
       </c>
       <c r="C174">
-        <v>1.3329</v>
+        <v>1.3225100000000001</v>
       </c>
       <c r="D174">
-        <v>1.34453</v>
+        <v>1.3404199999999999</v>
       </c>
       <c r="E174">
-        <v>1.3166800000000001</v>
+        <v>1.29226</v>
       </c>
       <c r="F174">
-        <v>1.3226800000000001</v>
+        <v>1.3008</v>
       </c>
       <c r="H174">
         <f t="shared" si="2"/>
-        <v>2.7000000000000135</v>
+        <v>2.784999999999993</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="21" customHeight="1">
@@ -4831,23 +4832,23 @@
         <v>7</v>
       </c>
       <c r="B175" s="8">
-        <v>40967</v>
+        <v>40974</v>
       </c>
       <c r="C175">
-        <v>1.3512500000000001</v>
+        <v>1.3329</v>
       </c>
       <c r="D175">
-        <v>1.3586100000000001</v>
+        <v>1.34453</v>
       </c>
       <c r="E175">
-        <v>1.33161</v>
+        <v>1.3166800000000001</v>
       </c>
       <c r="F175">
-        <v>1.3319700000000001</v>
+        <v>1.3226800000000001</v>
       </c>
       <c r="H175">
         <f t="shared" si="2"/>
-        <v>3.5409999999999942</v>
+        <v>2.7000000000000135</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="21" customHeight="1">
@@ -4855,23 +4856,23 @@
         <v>7</v>
       </c>
       <c r="B176" s="8">
-        <v>40960</v>
+        <v>40967</v>
       </c>
       <c r="C176">
-        <v>1.3772</v>
+        <v>1.3512500000000001</v>
       </c>
       <c r="D176">
-        <v>1.38584</v>
+        <v>1.3586100000000001</v>
       </c>
       <c r="E176">
-        <v>1.35043</v>
+        <v>1.33161</v>
       </c>
       <c r="F176">
-        <v>1.35162</v>
+        <v>1.3319700000000001</v>
       </c>
       <c r="H176">
         <f t="shared" si="2"/>
-        <v>2.5760000000000005</v>
+        <v>3.5409999999999942</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="21" customHeight="1">
@@ -4879,23 +4880,23 @@
         <v>7</v>
       </c>
       <c r="B177" s="8">
-        <v>40953</v>
+        <v>40960</v>
       </c>
       <c r="C177">
-        <v>1.38449</v>
+        <v>1.3772</v>
       </c>
       <c r="D177">
-        <v>1.3910899999999999</v>
+        <v>1.38584</v>
       </c>
       <c r="E177">
-        <v>1.3653299999999999</v>
+        <v>1.35043</v>
       </c>
       <c r="F177">
-        <v>1.37649</v>
+        <v>1.35162</v>
       </c>
       <c r="H177">
         <f t="shared" si="2"/>
-        <v>2.2940000000000182</v>
+        <v>2.5760000000000005</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="21" customHeight="1">
@@ -4903,23 +4904,23 @@
         <v>7</v>
       </c>
       <c r="B178" s="8">
-        <v>40946</v>
+        <v>40953</v>
       </c>
       <c r="C178">
-        <v>1.38914</v>
+        <v>1.38449</v>
       </c>
       <c r="D178">
-        <v>1.4015200000000001</v>
+        <v>1.3910899999999999</v>
       </c>
       <c r="E178">
-        <v>1.3785799999999999</v>
+        <v>1.3653299999999999</v>
       </c>
       <c r="F178">
-        <v>1.38567</v>
+        <v>1.37649</v>
       </c>
       <c r="H178">
         <f t="shared" si="2"/>
-        <v>4.6360000000000179</v>
+        <v>2.2940000000000182</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="21" customHeight="1">
@@ -4927,23 +4928,23 @@
         <v>7</v>
       </c>
       <c r="B179" s="8">
-        <v>40939</v>
+        <v>40946</v>
       </c>
       <c r="C179">
-        <v>1.39612</v>
+        <v>1.38914</v>
       </c>
       <c r="D179">
-        <v>1.4102300000000001</v>
+        <v>1.4015200000000001</v>
       </c>
       <c r="E179">
-        <v>1.3638699999999999</v>
+        <v>1.3785799999999999</v>
       </c>
       <c r="F179">
-        <v>1.3896599999999999</v>
+        <v>1.38567</v>
       </c>
       <c r="H179">
         <f t="shared" si="2"/>
-        <v>3.774999999999995</v>
+        <v>4.6360000000000179</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="21" customHeight="1">
@@ -4951,23 +4952,23 @@
         <v>7</v>
       </c>
       <c r="B180" s="8">
-        <v>40932</v>
+        <v>40939</v>
       </c>
       <c r="C180">
-        <v>1.4134500000000001</v>
+        <v>1.39612</v>
       </c>
       <c r="D180">
-        <v>1.4324699999999999</v>
+        <v>1.4102300000000001</v>
       </c>
       <c r="E180">
-        <v>1.39472</v>
+        <v>1.3638699999999999</v>
       </c>
       <c r="F180">
-        <v>1.3976900000000001</v>
+        <v>1.3896599999999999</v>
       </c>
       <c r="H180">
         <f t="shared" si="2"/>
-        <v>5.7530000000000081</v>
+        <v>3.774999999999995</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="21" customHeight="1">
@@ -4975,23 +4976,23 @@
         <v>7</v>
       </c>
       <c r="B181" s="8">
-        <v>40925</v>
+        <v>40932</v>
       </c>
       <c r="C181">
-        <v>1.4594499999999999</v>
+        <v>1.4134500000000001</v>
       </c>
       <c r="D181">
-        <v>1.4689300000000001</v>
+        <v>1.4324699999999999</v>
       </c>
       <c r="E181">
-        <v>1.4114</v>
+        <v>1.39472</v>
       </c>
       <c r="F181">
-        <v>1.4140200000000001</v>
+        <v>1.3976900000000001</v>
       </c>
       <c r="H181">
         <f t="shared" si="2"/>
-        <v>4.885000000000006</v>
+        <v>5.7530000000000081</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="21" customHeight="1">
@@ -4999,23 +5000,23 @@
         <v>7</v>
       </c>
       <c r="B182" s="8">
-        <v>40918</v>
+        <v>40925</v>
       </c>
       <c r="C182">
-        <v>1.41625</v>
+        <v>1.4594499999999999</v>
       </c>
       <c r="D182">
-        <v>1.4553</v>
+        <v>1.4689300000000001</v>
       </c>
       <c r="E182">
-        <v>1.40645</v>
+        <v>1.4114</v>
       </c>
       <c r="F182">
-        <v>1.45259</v>
+        <v>1.4140200000000001</v>
       </c>
       <c r="H182">
         <f t="shared" si="2"/>
-        <v>3.6329999999999973</v>
+        <v>4.885000000000006</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="21" customHeight="1">
@@ -5023,23 +5024,23 @@
         <v>7</v>
       </c>
       <c r="B183" s="8">
-        <v>40911</v>
+        <v>40918</v>
       </c>
       <c r="C183">
-        <v>1.3805700000000001</v>
+        <v>1.41625</v>
       </c>
       <c r="D183">
-        <v>1.4169</v>
+        <v>1.4553</v>
       </c>
       <c r="E183">
-        <v>1.3805700000000001</v>
+        <v>1.40645</v>
       </c>
       <c r="F183">
-        <v>1.41639</v>
+        <v>1.45259</v>
       </c>
       <c r="H183">
         <f t="shared" si="2"/>
-        <v>1.4289999999999914</v>
+        <v>3.6329999999999973</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="21" customHeight="1">
@@ -5047,23 +5048,23 @@
         <v>7</v>
       </c>
       <c r="B184" s="8">
-        <v>40904</v>
+        <v>40911</v>
       </c>
       <c r="C184">
-        <v>1.3816999999999999</v>
+        <v>1.3805700000000001</v>
       </c>
       <c r="D184">
-        <v>1.39395</v>
+        <v>1.4169</v>
       </c>
       <c r="E184">
-        <v>1.3796600000000001</v>
+        <v>1.3805700000000001</v>
       </c>
       <c r="F184">
-        <v>1.3824099999999999</v>
+        <v>1.41639</v>
       </c>
       <c r="H184">
         <f t="shared" si="2"/>
-        <v>1.8429999999999946</v>
+        <v>1.4289999999999914</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="21" customHeight="1">
@@ -5071,23 +5072,23 @@
         <v>7</v>
       </c>
       <c r="B185" s="8">
-        <v>40897</v>
+        <v>40904</v>
       </c>
       <c r="C185">
-        <v>1.39306</v>
+        <v>1.3816999999999999</v>
       </c>
       <c r="D185">
-        <v>1.3992899999999999</v>
+        <v>1.39395</v>
       </c>
       <c r="E185">
-        <v>1.38086</v>
+        <v>1.3796600000000001</v>
       </c>
       <c r="F185">
-        <v>1.38106</v>
+        <v>1.3824099999999999</v>
       </c>
       <c r="H185">
         <f t="shared" si="2"/>
-        <v>3.2769999999999966</v>
+        <v>1.8429999999999946</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="21" customHeight="1">
@@ -5095,23 +5096,23 @@
         <v>7</v>
       </c>
       <c r="B186" s="8">
-        <v>40890</v>
+        <v>40897</v>
       </c>
       <c r="C186">
-        <v>1.37161</v>
+        <v>1.39306</v>
       </c>
       <c r="D186">
-        <v>1.40002</v>
+        <v>1.3992899999999999</v>
       </c>
       <c r="E186">
-        <v>1.3672500000000001</v>
+        <v>1.38086</v>
       </c>
       <c r="F186">
-        <v>1.3939600000000001</v>
+        <v>1.38106</v>
       </c>
       <c r="H186">
         <f t="shared" si="2"/>
-        <v>3.9490000000000025</v>
+        <v>3.2769999999999966</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="21" customHeight="1">
@@ -5119,23 +5120,23 @@
         <v>7</v>
       </c>
       <c r="B187" s="8">
-        <v>40883</v>
+        <v>40890</v>
       </c>
       <c r="C187">
-        <v>1.3366800000000001</v>
+        <v>1.37161</v>
       </c>
       <c r="D187">
-        <v>1.37571</v>
+        <v>1.40002</v>
       </c>
       <c r="E187">
-        <v>1.33622</v>
+        <v>1.3672500000000001</v>
       </c>
       <c r="F187">
-        <v>1.3738600000000001</v>
+        <v>1.3939600000000001</v>
       </c>
       <c r="H187">
         <f t="shared" si="2"/>
-        <v>1.222000000000012</v>
+        <v>3.9490000000000025</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="21" customHeight="1">
@@ -5143,23 +5144,23 @@
         <v>7</v>
       </c>
       <c r="B188" s="8">
-        <v>40876</v>
+        <v>40883</v>
       </c>
       <c r="C188">
-        <v>1.33569</v>
+        <v>1.3366800000000001</v>
       </c>
       <c r="D188">
-        <v>1.34152</v>
+        <v>1.37571</v>
       </c>
       <c r="E188">
-        <v>1.3292999999999999</v>
+        <v>1.33622</v>
       </c>
       <c r="F188">
-        <v>1.3366800000000001</v>
+        <v>1.3738600000000001</v>
       </c>
       <c r="H188">
         <f t="shared" si="2"/>
-        <v>1.5550000000000175</v>
+        <v>1.222000000000012</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="21" customHeight="1">
@@ -5167,23 +5168,23 @@
         <v>7</v>
       </c>
       <c r="B189" s="8">
-        <v>40869</v>
+        <v>40876</v>
       </c>
       <c r="C189">
-        <v>1.3328599999999999</v>
+        <v>1.33569</v>
       </c>
       <c r="D189">
-        <v>1.3434900000000001</v>
+        <v>1.34152</v>
       </c>
       <c r="E189">
-        <v>1.3279399999999999</v>
+        <v>1.3292999999999999</v>
       </c>
       <c r="F189">
-        <v>1.33687</v>
+        <v>1.3366800000000001</v>
       </c>
       <c r="H189">
         <f t="shared" si="2"/>
-        <v>1.2429999999999941</v>
+        <v>1.5550000000000175</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="21" customHeight="1">
@@ -5191,23 +5192,23 @@
         <v>7</v>
       </c>
       <c r="B190" s="8">
-        <v>40862</v>
+        <v>40869</v>
       </c>
       <c r="C190">
-        <v>1.3294600000000001</v>
+        <v>1.3328599999999999</v>
       </c>
       <c r="D190">
-        <v>1.3370299999999999</v>
+        <v>1.3434900000000001</v>
       </c>
       <c r="E190">
-        <v>1.3246</v>
+        <v>1.3279399999999999</v>
       </c>
       <c r="F190">
-        <v>1.3350500000000001</v>
+        <v>1.33687</v>
       </c>
       <c r="H190">
         <f t="shared" si="2"/>
-        <v>1.2460000000000138</v>
+        <v>1.2429999999999941</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="21" customHeight="1">
@@ -5215,23 +5216,23 @@
         <v>7</v>
       </c>
       <c r="B191" s="8">
-        <v>40855</v>
+        <v>40862</v>
       </c>
       <c r="C191">
-        <v>1.32982</v>
+        <v>1.3294600000000001</v>
       </c>
       <c r="D191">
-        <v>1.3348800000000001</v>
+        <v>1.3370299999999999</v>
       </c>
       <c r="E191">
-        <v>1.3224199999999999</v>
+        <v>1.3246</v>
       </c>
       <c r="F191">
-        <v>1.33205</v>
+        <v>1.3350500000000001</v>
       </c>
       <c r="H191">
         <f t="shared" si="2"/>
-        <v>2.797000000000005</v>
+        <v>1.2460000000000138</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="21" customHeight="1">
@@ -5239,23 +5240,23 @@
         <v>7</v>
       </c>
       <c r="B192" s="8">
-        <v>40848</v>
+        <v>40855</v>
       </c>
       <c r="C192">
-        <v>1.30732</v>
+        <v>1.32982</v>
       </c>
       <c r="D192">
-        <v>1.33169</v>
+        <v>1.3348800000000001</v>
       </c>
       <c r="E192">
-        <v>1.30372</v>
+        <v>1.3224199999999999</v>
       </c>
       <c r="F192">
-        <v>1.3297300000000001</v>
+        <v>1.33205</v>
       </c>
       <c r="H192">
         <f t="shared" si="2"/>
-        <v>2.2409999999999819</v>
+        <v>2.797000000000005</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="21" customHeight="1">
@@ -5263,23 +5264,23 @@
         <v>7</v>
       </c>
       <c r="B193" s="8">
-        <v>40841</v>
+        <v>40848</v>
       </c>
       <c r="C193">
-        <v>1.31596</v>
+        <v>1.30732</v>
       </c>
       <c r="D193">
-        <v>1.3279099999999999</v>
+        <v>1.33169</v>
       </c>
       <c r="E193">
-        <v>1.3055000000000001</v>
+        <v>1.30372</v>
       </c>
       <c r="F193">
-        <v>1.3069500000000001</v>
+        <v>1.3297300000000001</v>
       </c>
       <c r="H193">
         <f t="shared" si="2"/>
-        <v>2.9649999999999954</v>
+        <v>2.2409999999999819</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="21" customHeight="1">
@@ -5287,23 +5288,23 @@
         <v>7</v>
       </c>
       <c r="B194" s="8">
-        <v>40834</v>
+        <v>40841</v>
       </c>
       <c r="C194">
-        <v>1.2905199999999999</v>
+        <v>1.31596</v>
       </c>
       <c r="D194">
-        <v>1.31975</v>
+        <v>1.3279099999999999</v>
       </c>
       <c r="E194">
-        <v>1.2901</v>
+        <v>1.3055000000000001</v>
       </c>
       <c r="F194">
-        <v>1.31752</v>
+        <v>1.3069500000000001</v>
       </c>
       <c r="H194">
         <f t="shared" ref="H194:H199" si="3">ABS(D195-E195)*100</f>
-        <v>2.4769999999999959</v>
+        <v>2.9649999999999954</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="21" customHeight="1">
@@ -5311,23 +5312,23 @@
         <v>7</v>
       </c>
       <c r="B195" s="8">
-        <v>40827</v>
+        <v>40834</v>
       </c>
       <c r="C195">
-        <v>1.29494</v>
+        <v>1.2905199999999999</v>
       </c>
       <c r="D195">
-        <v>1.3079099999999999</v>
+        <v>1.31975</v>
       </c>
       <c r="E195">
-        <v>1.2831399999999999</v>
+        <v>1.2901</v>
       </c>
       <c r="F195">
-        <v>1.2909900000000001</v>
+        <v>1.31752</v>
       </c>
       <c r="H195">
         <f t="shared" si="3"/>
-        <v>2.7399999999999869</v>
+        <v>2.4769999999999959</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="21" customHeight="1">
@@ -5335,23 +5336,23 @@
         <v>7</v>
       </c>
       <c r="B196" s="8">
-        <v>40820</v>
+        <v>40827</v>
       </c>
       <c r="C196">
-        <v>1.3146800000000001</v>
+        <v>1.29494</v>
       </c>
       <c r="D196">
-        <v>1.3174399999999999</v>
+        <v>1.3079099999999999</v>
       </c>
       <c r="E196">
-        <v>1.2900400000000001</v>
+        <v>1.2831399999999999</v>
       </c>
       <c r="F196">
-        <v>1.29447</v>
+        <v>1.2909900000000001</v>
       </c>
       <c r="H196">
         <f t="shared" si="3"/>
-        <v>3.021000000000007</v>
+        <v>2.7399999999999869</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="21" customHeight="1">
@@ -5359,23 +5360,23 @@
         <v>7</v>
       </c>
       <c r="B197" s="8">
-        <v>40813</v>
+        <v>40820</v>
       </c>
       <c r="C197">
-        <v>1.33205</v>
+        <v>1.3146800000000001</v>
       </c>
       <c r="D197">
-        <v>1.34562</v>
+        <v>1.3174399999999999</v>
       </c>
       <c r="E197">
-        <v>1.31541</v>
+        <v>1.2900400000000001</v>
       </c>
       <c r="F197">
-        <v>1.31704</v>
+        <v>1.29447</v>
       </c>
       <c r="H197">
         <f t="shared" si="3"/>
-        <v>2.401999999999993</v>
+        <v>3.021000000000007</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="21" customHeight="1">
@@ -5383,23 +5384,23 @@
         <v>7</v>
       </c>
       <c r="B198" s="8">
-        <v>40806</v>
+        <v>40813</v>
       </c>
       <c r="C198">
-        <v>1.3215399999999999</v>
+        <v>1.33205</v>
       </c>
       <c r="D198">
-        <v>1.34158</v>
+        <v>1.34562</v>
       </c>
       <c r="E198">
-        <v>1.3175600000000001</v>
+        <v>1.31541</v>
       </c>
       <c r="F198">
-        <v>1.3324400000000001</v>
+        <v>1.31704</v>
       </c>
       <c r="H198">
         <f t="shared" si="3"/>
-        <v>2.676999999999996</v>
+        <v>2.401999999999993</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="21" customHeight="1">
@@ -5407,23 +5408,23 @@
         <v>7</v>
       </c>
       <c r="B199" s="8">
-        <v>40799</v>
+        <v>40806</v>
       </c>
       <c r="C199">
-        <v>1.32538</v>
+        <v>1.3215399999999999</v>
       </c>
       <c r="D199">
-        <v>1.32792</v>
+        <v>1.34158</v>
       </c>
       <c r="E199">
-        <v>1.30115</v>
+        <v>1.3175600000000001</v>
       </c>
       <c r="F199">
-        <v>1.3217699999999999</v>
+        <v>1.3324400000000001</v>
       </c>
       <c r="H199">
         <f t="shared" si="3"/>
-        <v>1.5490000000000004</v>
+        <v>2.676999999999996</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="21" customHeight="1">
@@ -5431,22 +5432,23 @@
         <v>7</v>
       </c>
       <c r="B200" s="8">
-        <v>40792</v>
+        <v>40799</v>
       </c>
       <c r="C200">
-        <v>1.32474</v>
+        <v>1.32538</v>
       </c>
       <c r="D200">
-        <v>1.3309</v>
+        <v>1.32792</v>
       </c>
       <c r="E200">
-        <v>1.31541</v>
+        <v>1.30115</v>
       </c>
       <c r="F200">
-        <v>1.32575</v>
+        <v>1.3217699999999999</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A4:F8">
     <sortCondition ref="A5:A8"/>
     <sortCondition ref="B5:B8"/>
